--- a/Outputs/1. Budget/Grid Search/Output Files/250000/Output_3_25.xlsx
+++ b/Outputs/1. Budget/Grid Search/Output Files/250000/Output_3_25.xlsx
@@ -480,8 +480,10 @@
           <t>Required Level of Met Demand</t>
         </is>
       </c>
-      <c r="B4" t="n">
-        <v>0</v>
+      <c r="B4" t="inlineStr">
+        <is>
+          <t>inf</t>
+        </is>
       </c>
     </row>
     <row r="5">
@@ -501,7 +503,7 @@
         </is>
       </c>
       <c r="B6" t="n">
-        <v>1392056.665812409</v>
+        <v>1408701.785116098</v>
       </c>
     </row>
     <row r="7">
@@ -511,7 +513,7 @@
         </is>
       </c>
       <c r="B7" t="n">
-        <v>713587.7684111176</v>
+        <v>713587.768411118</v>
       </c>
     </row>
     <row r="8">
@@ -521,7 +523,7 @@
         </is>
       </c>
       <c r="B8" t="n">
-        <v>11813519.27205212</v>
+        <v>11813519.27205211</v>
       </c>
     </row>
     <row r="9">
@@ -541,7 +543,7 @@
         </is>
       </c>
       <c r="B10" t="n">
-        <v>7131409.518005976</v>
+        <v>7131409.518005973</v>
       </c>
     </row>
     <row r="11">
@@ -701,10 +703,10 @@
         <v>0</v>
       </c>
       <c r="Q2" t="n">
-        <v>0</v>
+        <v>9.990699214544804</v>
       </c>
       <c r="R2" t="n">
-        <v>0</v>
+        <v>149.8691179411497</v>
       </c>
       <c r="S2" t="n">
         <v>0</v>
@@ -713,13 +715,13 @@
         <v>0</v>
       </c>
       <c r="U2" t="n">
-        <v>0</v>
+        <v>241.0142888776591</v>
       </c>
       <c r="V2" t="n">
-        <v>190.1066023865956</v>
+        <v>30.24678523090109</v>
       </c>
       <c r="W2" t="n">
-        <v>241.0142888776591</v>
+        <v>0</v>
       </c>
       <c r="X2" t="n">
         <v>241.0142888776591</v>
@@ -741,22 +743,22 @@
         <v>0</v>
       </c>
       <c r="D3" t="n">
-        <v>0</v>
+        <v>147.4450655646388</v>
       </c>
       <c r="E3" t="n">
         <v>0</v>
       </c>
       <c r="F3" t="n">
-        <v>125.1456920076454</v>
+        <v>145.0692123933839</v>
       </c>
       <c r="G3" t="n">
         <v>0</v>
       </c>
       <c r="H3" t="n">
-        <v>112.2354442364965</v>
+        <v>0</v>
       </c>
       <c r="I3" t="n">
-        <v>0</v>
+        <v>89.39663285141508</v>
       </c>
       <c r="J3" t="n">
         <v>0</v>
@@ -783,13 +785,13 @@
         <v>0</v>
       </c>
       <c r="R3" t="n">
-        <v>100.1578341526431</v>
+        <v>0</v>
       </c>
       <c r="S3" t="n">
-        <v>171.6831711038378</v>
+        <v>121.7029741825291</v>
       </c>
       <c r="T3" t="n">
-        <v>200.1647286948216</v>
+        <v>0</v>
       </c>
       <c r="U3" t="n">
         <v>225.9413820809748</v>
@@ -801,7 +803,7 @@
         <v>0</v>
       </c>
       <c r="X3" t="n">
-        <v>0</v>
+        <v>205.7729852034775</v>
       </c>
       <c r="Y3" t="n">
         <v>0</v>
@@ -862,7 +864,7 @@
         <v>0</v>
       </c>
       <c r="R4" t="n">
-        <v>0</v>
+        <v>133.186967585368</v>
       </c>
       <c r="S4" t="n">
         <v>0</v>
@@ -877,7 +879,7 @@
         <v>0</v>
       </c>
       <c r="W4" t="n">
-        <v>133.186967585368</v>
+        <v>0</v>
       </c>
       <c r="X4" t="n">
         <v>0</v>
@@ -896,28 +898,28 @@
         <v>0</v>
       </c>
       <c r="C5" t="n">
-        <v>0</v>
+        <v>241.0142888776591</v>
       </c>
       <c r="D5" t="n">
         <v>0</v>
       </c>
       <c r="E5" t="n">
-        <v>0</v>
+        <v>241.0142888776591</v>
       </c>
       <c r="F5" t="n">
-        <v>241.0142888776591</v>
+        <v>205.5810588664028</v>
       </c>
       <c r="G5" t="n">
-        <v>230.2038249569697</v>
+        <v>15.30273751513505</v>
       </c>
       <c r="H5" t="n">
-        <v>241.0142888776591</v>
+        <v>0</v>
       </c>
       <c r="I5" t="n">
-        <v>0</v>
+        <v>210.4758895704059</v>
       </c>
       <c r="J5" t="n">
-        <v>0</v>
+        <v>11.94928935461252</v>
       </c>
       <c r="K5" t="n">
         <v>0</v>
@@ -938,7 +940,7 @@
         <v>0</v>
       </c>
       <c r="Q5" t="n">
-        <v>0</v>
+        <v>9.990699214544804</v>
       </c>
       <c r="R5" t="n">
         <v>0</v>
@@ -947,7 +949,7 @@
         <v>0</v>
       </c>
       <c r="T5" t="n">
-        <v>223.0958495641314</v>
+        <v>0</v>
       </c>
       <c r="U5" t="n">
         <v>0</v>
@@ -975,22 +977,22 @@
         <v>0</v>
       </c>
       <c r="C6" t="n">
-        <v>172.7084989883157</v>
+        <v>0</v>
       </c>
       <c r="D6" t="n">
         <v>0</v>
       </c>
       <c r="E6" t="n">
-        <v>5.987350060858576</v>
+        <v>157.6450804554009</v>
       </c>
       <c r="F6" t="n">
-        <v>145.0692123933839</v>
+        <v>0</v>
       </c>
       <c r="G6" t="n">
-        <v>137.3435171632106</v>
+        <v>0</v>
       </c>
       <c r="H6" t="n">
-        <v>112.2354442364965</v>
+        <v>0</v>
       </c>
       <c r="I6" t="n">
         <v>89.39663285141508</v>
@@ -1023,10 +1025,10 @@
         <v>100.1578341526431</v>
       </c>
       <c r="S6" t="n">
-        <v>171.6831711038378</v>
+        <v>0</v>
       </c>
       <c r="T6" t="n">
-        <v>0</v>
+        <v>175.9264325099203</v>
       </c>
       <c r="U6" t="n">
         <v>0</v>
@@ -1038,10 +1040,10 @@
         <v>0</v>
       </c>
       <c r="X6" t="n">
-        <v>0</v>
+        <v>205.7729852034775</v>
       </c>
       <c r="Y6" t="n">
-        <v>0</v>
+        <v>205.6826957773044</v>
       </c>
     </row>
     <row r="7">
@@ -1066,7 +1068,7 @@
         <v>0</v>
       </c>
       <c r="G7" t="n">
-        <v>108.1960350243787</v>
+        <v>0</v>
       </c>
       <c r="H7" t="n">
         <v>0</v>
@@ -1078,7 +1080,7 @@
         <v>0</v>
       </c>
       <c r="K7" t="n">
-        <v>22.26949182588285</v>
+        <v>0</v>
       </c>
       <c r="L7" t="n">
         <v>0</v>
@@ -1105,7 +1107,7 @@
         <v>0</v>
       </c>
       <c r="T7" t="n">
-        <v>0</v>
+        <v>130.4655268502615</v>
       </c>
       <c r="U7" t="n">
         <v>0</v>
@@ -1130,7 +1132,7 @@
         </is>
       </c>
       <c r="B8" t="n">
-        <v>0</v>
+        <v>241.0142888776591</v>
       </c>
       <c r="C8" t="n">
         <v>0</v>
@@ -1142,10 +1144,10 @@
         <v>0</v>
       </c>
       <c r="F8" t="n">
-        <v>6.876045741711437</v>
+        <v>241.0142888776591</v>
       </c>
       <c r="G8" t="n">
-        <v>15.30273751513505</v>
+        <v>40.47627913313511</v>
       </c>
       <c r="H8" t="n">
         <v>0</v>
@@ -1154,7 +1156,7 @@
         <v>0</v>
       </c>
       <c r="J8" t="n">
-        <v>0</v>
+        <v>11.94928935461252</v>
       </c>
       <c r="K8" t="n">
         <v>0</v>
@@ -1175,10 +1177,10 @@
         <v>0</v>
       </c>
       <c r="Q8" t="n">
-        <v>0</v>
+        <v>9.990699214544804</v>
       </c>
       <c r="R8" t="n">
-        <v>0</v>
+        <v>149.8691179411497</v>
       </c>
       <c r="S8" t="n">
         <v>0</v>
@@ -1190,13 +1192,13 @@
         <v>0</v>
       </c>
       <c r="V8" t="n">
-        <v>241.0142888776591</v>
+        <v>0</v>
       </c>
       <c r="W8" t="n">
-        <v>241.0142888776591</v>
+        <v>0</v>
       </c>
       <c r="X8" t="n">
-        <v>190.1066023865956</v>
+        <v>0</v>
       </c>
       <c r="Y8" t="n">
         <v>241.0142888776591</v>
@@ -1209,7 +1211,7 @@
         </is>
       </c>
       <c r="B9" t="n">
-        <v>84.9351161431465</v>
+        <v>0</v>
       </c>
       <c r="C9" t="n">
         <v>172.7084989883157</v>
@@ -1218,19 +1220,19 @@
         <v>147.4450655646388</v>
       </c>
       <c r="E9" t="n">
-        <v>157.6450804554009</v>
+        <v>0</v>
       </c>
       <c r="F9" t="n">
         <v>0</v>
       </c>
       <c r="G9" t="n">
-        <v>0</v>
+        <v>137.3435171632106</v>
       </c>
       <c r="H9" t="n">
         <v>0</v>
       </c>
       <c r="I9" t="n">
-        <v>0</v>
+        <v>89.39663285141508</v>
       </c>
       <c r="J9" t="n">
         <v>0.7465913262578567</v>
@@ -1257,13 +1259,13 @@
         <v>0</v>
       </c>
       <c r="R9" t="n">
-        <v>0</v>
+        <v>100.1578341526431</v>
       </c>
       <c r="S9" t="n">
         <v>171.6831711038378</v>
       </c>
       <c r="T9" t="n">
-        <v>200.1647286948216</v>
+        <v>115.8469411261002</v>
       </c>
       <c r="U9" t="n">
         <v>0</v>
@@ -1309,7 +1311,7 @@
         <v>0</v>
       </c>
       <c r="I10" t="n">
-        <v>0</v>
+        <v>133.186967585368</v>
       </c>
       <c r="J10" t="n">
         <v>0</v>
@@ -1339,7 +1341,7 @@
         <v>0</v>
       </c>
       <c r="S10" t="n">
-        <v>133.186967585368</v>
+        <v>0</v>
       </c>
       <c r="T10" t="n">
         <v>0</v>
@@ -1379,16 +1381,16 @@
         <v>0</v>
       </c>
       <c r="F11" t="n">
-        <v>118.6954547790018</v>
+        <v>0</v>
       </c>
       <c r="G11" t="n">
-        <v>405.7415719969023</v>
+        <v>0</v>
       </c>
       <c r="H11" t="n">
-        <v>333.4403157157206</v>
+        <v>0</v>
       </c>
       <c r="I11" t="n">
-        <v>187.7594695105699</v>
+        <v>117.3450705775783</v>
       </c>
       <c r="J11" t="n">
         <v>0</v>
@@ -1424,13 +1426,13 @@
         <v>220.5164804230398</v>
       </c>
       <c r="U11" t="n">
-        <v>0</v>
+        <v>251.2985142370684</v>
       </c>
       <c r="V11" t="n">
-        <v>0</v>
+        <v>327.7522584701349</v>
       </c>
       <c r="W11" t="n">
-        <v>0</v>
+        <v>349.240968717413</v>
       </c>
       <c r="X11" t="n">
         <v>0</v>
@@ -1446,19 +1448,19 @@
         </is>
       </c>
       <c r="B12" t="n">
-        <v>0</v>
+        <v>166.5331836498673</v>
       </c>
       <c r="C12" t="n">
-        <v>0</v>
+        <v>172.7084989883157</v>
       </c>
       <c r="D12" t="n">
-        <v>147.4450655646388</v>
+        <v>0</v>
       </c>
       <c r="E12" t="n">
-        <v>157.6450804554009</v>
+        <v>0</v>
       </c>
       <c r="F12" t="n">
-        <v>145.0692123933839</v>
+        <v>0</v>
       </c>
       <c r="G12" t="n">
         <v>0</v>
@@ -1467,7 +1469,7 @@
         <v>109.1906224126114</v>
       </c>
       <c r="I12" t="n">
-        <v>78.54202280713804</v>
+        <v>0</v>
       </c>
       <c r="J12" t="n">
         <v>0</v>
@@ -1494,7 +1496,7 @@
         <v>0</v>
       </c>
       <c r="R12" t="n">
-        <v>80.58358449827551</v>
+        <v>0</v>
       </c>
       <c r="S12" t="n">
         <v>165.8272126914158</v>
@@ -1503,19 +1505,19 @@
         <v>198.8939788055617</v>
       </c>
       <c r="U12" t="n">
-        <v>225.9206407878966</v>
+        <v>0</v>
       </c>
       <c r="V12" t="n">
-        <v>232.8005871494253</v>
+        <v>98.29773191610518</v>
       </c>
       <c r="W12" t="n">
-        <v>32.68388503983052</v>
+        <v>251.6949831609196</v>
       </c>
       <c r="X12" t="n">
-        <v>0</v>
+        <v>205.7729852034775</v>
       </c>
       <c r="Y12" t="n">
-        <v>0</v>
+        <v>205.6826957773044</v>
       </c>
     </row>
     <row r="13">
@@ -1546,10 +1548,10 @@
         <v>0</v>
       </c>
       <c r="I13" t="n">
-        <v>0</v>
+        <v>21.38816470214935</v>
       </c>
       <c r="J13" t="n">
-        <v>0</v>
+        <v>74.67247646141476</v>
       </c>
       <c r="K13" t="n">
         <v>0</v>
@@ -1576,7 +1578,7 @@
         <v>165.4090611368575</v>
       </c>
       <c r="S13" t="n">
-        <v>96.06064116356411</v>
+        <v>0</v>
       </c>
       <c r="T13" t="n">
         <v>0</v>
@@ -1613,19 +1615,19 @@
         <v>0</v>
       </c>
       <c r="E14" t="n">
-        <v>0</v>
+        <v>381.9303700722618</v>
       </c>
       <c r="F14" t="n">
-        <v>0</v>
+        <v>405.7415719969023</v>
       </c>
       <c r="G14" t="n">
-        <v>0</v>
+        <v>405.7415719969023</v>
       </c>
       <c r="H14" t="n">
-        <v>0</v>
+        <v>333.4403157157206</v>
       </c>
       <c r="I14" t="n">
-        <v>0</v>
+        <v>47.74806282379119</v>
       </c>
       <c r="J14" t="n">
         <v>0</v>
@@ -1652,25 +1654,25 @@
         <v>0</v>
       </c>
       <c r="R14" t="n">
-        <v>112.8556863456974</v>
+        <v>0</v>
       </c>
       <c r="S14" t="n">
-        <v>195.5929138346465</v>
+        <v>0</v>
       </c>
       <c r="T14" t="n">
-        <v>220.5164804230398</v>
+        <v>0</v>
       </c>
       <c r="U14" t="n">
-        <v>251.2985142370684</v>
+        <v>0</v>
       </c>
       <c r="V14" t="n">
-        <v>327.7522584701349</v>
+        <v>0</v>
       </c>
       <c r="W14" t="n">
-        <v>349.240968717413</v>
+        <v>0</v>
       </c>
       <c r="X14" t="n">
-        <v>117.3450705775779</v>
+        <v>0</v>
       </c>
       <c r="Y14" t="n">
         <v>0</v>
@@ -1683,19 +1685,19 @@
         </is>
       </c>
       <c r="B15" t="n">
-        <v>166.5331836498673</v>
+        <v>0</v>
       </c>
       <c r="C15" t="n">
-        <v>172.7084989883157</v>
+        <v>0</v>
       </c>
       <c r="D15" t="n">
         <v>147.4450655646388</v>
       </c>
       <c r="E15" t="n">
-        <v>157.6450804554009</v>
+        <v>0</v>
       </c>
       <c r="F15" t="n">
-        <v>145.0692123933839</v>
+        <v>47.40618530196901</v>
       </c>
       <c r="G15" t="n">
         <v>137.0282495084215</v>
@@ -1731,7 +1733,7 @@
         <v>0</v>
       </c>
       <c r="R15" t="n">
-        <v>80.58358449827551</v>
+        <v>0</v>
       </c>
       <c r="S15" t="n">
         <v>165.8272126914158</v>
@@ -1743,16 +1745,16 @@
         <v>0</v>
       </c>
       <c r="V15" t="n">
-        <v>0</v>
+        <v>232.8005871494253</v>
       </c>
       <c r="W15" t="n">
-        <v>0</v>
+        <v>251.6949831609196</v>
       </c>
       <c r="X15" t="n">
-        <v>0</v>
+        <v>205.7729852034775</v>
       </c>
       <c r="Y15" t="n">
-        <v>15.13518083054779</v>
+        <v>0</v>
       </c>
     </row>
     <row r="16">
@@ -1847,22 +1849,22 @@
         <v>0</v>
       </c>
       <c r="D17" t="n">
-        <v>0</v>
+        <v>354.683041620683</v>
       </c>
       <c r="E17" t="n">
-        <v>0</v>
+        <v>381.9303700722618</v>
       </c>
       <c r="F17" t="n">
-        <v>0</v>
+        <v>405.7415719969024</v>
       </c>
       <c r="G17" t="n">
-        <v>0</v>
+        <v>405.7415719969024</v>
       </c>
       <c r="H17" t="n">
-        <v>278.8265697844214</v>
+        <v>26.50533691882915</v>
       </c>
       <c r="I17" t="n">
-        <v>187.7594695105699</v>
+        <v>0</v>
       </c>
       <c r="J17" t="n">
         <v>0</v>
@@ -1889,19 +1891,19 @@
         <v>0</v>
       </c>
       <c r="R17" t="n">
-        <v>112.8556863456974</v>
+        <v>0</v>
       </c>
       <c r="S17" t="n">
-        <v>195.5929138346465</v>
+        <v>0</v>
       </c>
       <c r="T17" t="n">
-        <v>220.5164804230398</v>
+        <v>0</v>
       </c>
       <c r="U17" t="n">
-        <v>251.2985142370684</v>
+        <v>0</v>
       </c>
       <c r="V17" t="n">
-        <v>327.7522584701349</v>
+        <v>0</v>
       </c>
       <c r="W17" t="n">
         <v>0</v>
@@ -1929,19 +1931,19 @@
         <v>147.4450655646388</v>
       </c>
       <c r="E18" t="n">
-        <v>157.6450804554009</v>
+        <v>0</v>
       </c>
       <c r="F18" t="n">
-        <v>145.0692123933839</v>
+        <v>0</v>
       </c>
       <c r="G18" t="n">
-        <v>137.0282495084215</v>
+        <v>0</v>
       </c>
       <c r="H18" t="n">
-        <v>109.1906224126114</v>
+        <v>0</v>
       </c>
       <c r="I18" t="n">
-        <v>78.54202280713804</v>
+        <v>0</v>
       </c>
       <c r="J18" t="n">
         <v>0</v>
@@ -1968,28 +1970,28 @@
         <v>0</v>
       </c>
       <c r="R18" t="n">
-        <v>80.58358449827551</v>
+        <v>0</v>
       </c>
       <c r="S18" t="n">
         <v>0</v>
       </c>
       <c r="T18" t="n">
-        <v>198.8939788055617</v>
+        <v>0</v>
       </c>
       <c r="U18" t="n">
-        <v>0</v>
+        <v>225.9206407878966</v>
       </c>
       <c r="V18" t="n">
-        <v>0</v>
+        <v>232.8005871494253</v>
       </c>
       <c r="W18" t="n">
-        <v>0</v>
+        <v>217.7382354846533</v>
       </c>
       <c r="X18" t="n">
-        <v>0</v>
+        <v>205.7729852034775</v>
       </c>
       <c r="Y18" t="n">
-        <v>180.9623935219638</v>
+        <v>205.6826957773044</v>
       </c>
     </row>
     <row r="19">
@@ -2005,10 +2007,10 @@
         <v>0</v>
       </c>
       <c r="D19" t="n">
-        <v>0</v>
+        <v>148.6154730182124</v>
       </c>
       <c r="E19" t="n">
-        <v>0</v>
+        <v>112.8542292822093</v>
       </c>
       <c r="F19" t="n">
         <v>0</v>
@@ -2044,7 +2046,7 @@
         <v>0</v>
       </c>
       <c r="Q19" t="n">
-        <v>0</v>
+        <v>64.0297007843443</v>
       </c>
       <c r="R19" t="n">
         <v>0</v>
@@ -2056,7 +2058,7 @@
         <v>0</v>
       </c>
       <c r="U19" t="n">
-        <v>286.3046124576955</v>
+        <v>0</v>
       </c>
       <c r="V19" t="n">
         <v>0</v>
@@ -2065,7 +2067,7 @@
         <v>0</v>
       </c>
       <c r="X19" t="n">
-        <v>39.19479062707046</v>
+        <v>0</v>
       </c>
       <c r="Y19" t="n">
         <v>0</v>
@@ -2090,7 +2092,7 @@
         <v>0</v>
       </c>
       <c r="F20" t="n">
-        <v>405.7415719969023</v>
+        <v>62.98985437657991</v>
       </c>
       <c r="G20" t="n">
         <v>405.7415719969023</v>
@@ -2132,10 +2134,10 @@
         <v>0</v>
       </c>
       <c r="T20" t="n">
-        <v>129.0632770397859</v>
+        <v>220.5164804230398</v>
       </c>
       <c r="U20" t="n">
-        <v>0</v>
+        <v>251.2985142370684</v>
       </c>
       <c r="V20" t="n">
         <v>0</v>
@@ -2157,7 +2159,7 @@
         </is>
       </c>
       <c r="B21" t="n">
-        <v>0</v>
+        <v>166.5331836498673</v>
       </c>
       <c r="C21" t="n">
         <v>0</v>
@@ -2169,10 +2171,10 @@
         <v>0</v>
       </c>
       <c r="F21" t="n">
-        <v>145.0692123933839</v>
+        <v>0</v>
       </c>
       <c r="G21" t="n">
-        <v>114.0509952988378</v>
+        <v>137.0282495084215</v>
       </c>
       <c r="H21" t="n">
         <v>0</v>
@@ -2214,13 +2216,13 @@
         <v>198.8939788055617</v>
       </c>
       <c r="U21" t="n">
-        <v>225.9206407878966</v>
+        <v>162.5850193103353</v>
       </c>
       <c r="V21" t="n">
-        <v>232.8005871494253</v>
+        <v>0</v>
       </c>
       <c r="W21" t="n">
-        <v>0</v>
+        <v>251.6949831609196</v>
       </c>
       <c r="X21" t="n">
         <v>205.7729852034775</v>
@@ -2239,7 +2241,7 @@
         <v>0</v>
       </c>
       <c r="C22" t="n">
-        <v>0</v>
+        <v>160.0903419479084</v>
       </c>
       <c r="D22" t="n">
         <v>0</v>
@@ -2251,13 +2253,13 @@
         <v>0</v>
       </c>
       <c r="G22" t="n">
-        <v>18.12022702288976</v>
+        <v>0</v>
       </c>
       <c r="H22" t="n">
-        <v>159.8772180037952</v>
+        <v>0</v>
       </c>
       <c r="I22" t="n">
-        <v>147.5019580580808</v>
+        <v>0</v>
       </c>
       <c r="J22" t="n">
         <v>0</v>
@@ -2284,7 +2286,7 @@
         <v>0</v>
       </c>
       <c r="R22" t="n">
-        <v>0</v>
+        <v>165.4090611368575</v>
       </c>
       <c r="S22" t="n">
         <v>0</v>
@@ -2315,13 +2317,13 @@
         </is>
       </c>
       <c r="B23" t="n">
-        <v>382.7338416634806</v>
+        <v>275.5951865066846</v>
       </c>
       <c r="C23" t="n">
         <v>365.2728917710076</v>
       </c>
       <c r="D23" t="n">
-        <v>0</v>
+        <v>354.683041620683</v>
       </c>
       <c r="E23" t="n">
         <v>0</v>
@@ -2372,19 +2374,19 @@
         <v>0</v>
       </c>
       <c r="U23" t="n">
-        <v>0</v>
+        <v>251.2985142370684</v>
       </c>
       <c r="V23" t="n">
-        <v>0</v>
+        <v>327.7522584701349</v>
       </c>
       <c r="W23" t="n">
-        <v>70.62611983656795</v>
+        <v>0</v>
       </c>
       <c r="X23" t="n">
-        <v>369.731100678469</v>
+        <v>0</v>
       </c>
       <c r="Y23" t="n">
-        <v>386.2379386560536</v>
+        <v>0</v>
       </c>
     </row>
     <row r="24">
@@ -2397,16 +2399,16 @@
         <v>166.5331836498673</v>
       </c>
       <c r="C24" t="n">
-        <v>172.7084989883157</v>
+        <v>0</v>
       </c>
       <c r="D24" t="n">
-        <v>147.4450655646388</v>
+        <v>0</v>
       </c>
       <c r="E24" t="n">
-        <v>157.6450804554009</v>
+        <v>0</v>
       </c>
       <c r="F24" t="n">
-        <v>34.31881265622914</v>
+        <v>0</v>
       </c>
       <c r="G24" t="n">
         <v>0</v>
@@ -2415,7 +2417,7 @@
         <v>0</v>
       </c>
       <c r="I24" t="n">
-        <v>0</v>
+        <v>78.54202280713804</v>
       </c>
       <c r="J24" t="n">
         <v>0</v>
@@ -2445,13 +2447,13 @@
         <v>0</v>
       </c>
       <c r="S24" t="n">
-        <v>0</v>
+        <v>165.8272126914158</v>
       </c>
       <c r="T24" t="n">
-        <v>0</v>
+        <v>41.82758137813433</v>
       </c>
       <c r="U24" t="n">
-        <v>0</v>
+        <v>225.9206407878966</v>
       </c>
       <c r="V24" t="n">
         <v>232.8005871494253</v>
@@ -2488,16 +2490,16 @@
         <v>0</v>
       </c>
       <c r="G25" t="n">
-        <v>18.12022702288998</v>
+        <v>167.7266695472104</v>
       </c>
       <c r="H25" t="n">
-        <v>159.8772180037952</v>
+        <v>0</v>
       </c>
       <c r="I25" t="n">
         <v>147.5019580580808</v>
       </c>
       <c r="J25" t="n">
-        <v>0</v>
+        <v>10.27077547947482</v>
       </c>
       <c r="K25" t="n">
         <v>0</v>
@@ -2558,10 +2560,10 @@
         <v>365.2728917710076</v>
       </c>
       <c r="D26" t="n">
-        <v>354.683041620683</v>
+        <v>0</v>
       </c>
       <c r="E26" t="n">
-        <v>122.6711488329946</v>
+        <v>0</v>
       </c>
       <c r="F26" t="n">
         <v>0</v>
@@ -2600,7 +2602,7 @@
         <v>0</v>
       </c>
       <c r="R26" t="n">
-        <v>0</v>
+        <v>70.6261198365675</v>
       </c>
       <c r="S26" t="n">
         <v>0</v>
@@ -2615,13 +2617,13 @@
         <v>0</v>
       </c>
       <c r="W26" t="n">
-        <v>349.240968717413</v>
+        <v>0</v>
       </c>
       <c r="X26" t="n">
-        <v>0</v>
+        <v>369.731100678469</v>
       </c>
       <c r="Y26" t="n">
-        <v>0</v>
+        <v>386.2379386560536</v>
       </c>
     </row>
     <row r="27">
@@ -2643,16 +2645,16 @@
         <v>157.6450804554009</v>
       </c>
       <c r="F27" t="n">
-        <v>67.54790578268543</v>
+        <v>145.0692123933839</v>
       </c>
       <c r="G27" t="n">
-        <v>137.0282495084215</v>
+        <v>41.46660291399468</v>
       </c>
       <c r="H27" t="n">
-        <v>109.1906224126114</v>
+        <v>0</v>
       </c>
       <c r="I27" t="n">
-        <v>78.54202280713804</v>
+        <v>0</v>
       </c>
       <c r="J27" t="n">
         <v>0</v>
@@ -2697,7 +2699,7 @@
         <v>251.6949831609196</v>
       </c>
       <c r="X27" t="n">
-        <v>0</v>
+        <v>205.7729852034775</v>
       </c>
       <c r="Y27" t="n">
         <v>205.6826957773044</v>
@@ -2773,13 +2775,13 @@
         <v>0</v>
       </c>
       <c r="W28" t="n">
-        <v>0</v>
+        <v>99.78974769572881</v>
       </c>
       <c r="X28" t="n">
-        <v>106.9147497326711</v>
+        <v>225.7096553890372</v>
       </c>
       <c r="Y28" t="n">
-        <v>218.5846533520948</v>
+        <v>0</v>
       </c>
     </row>
     <row r="29">
@@ -2801,7 +2803,7 @@
         <v>0</v>
       </c>
       <c r="F29" t="n">
-        <v>405.7415719969023</v>
+        <v>0</v>
       </c>
       <c r="G29" t="n">
         <v>0</v>
@@ -2810,7 +2812,7 @@
         <v>0</v>
       </c>
       <c r="I29" t="n">
-        <v>0</v>
+        <v>187.7594695105699</v>
       </c>
       <c r="J29" t="n">
         <v>0</v>
@@ -2840,16 +2842,16 @@
         <v>0</v>
       </c>
       <c r="S29" t="n">
-        <v>0</v>
+        <v>195.5929138346465</v>
       </c>
       <c r="T29" t="n">
-        <v>220.5164804230398</v>
+        <v>0</v>
       </c>
       <c r="U29" t="n">
-        <v>0</v>
+        <v>115.490517355739</v>
       </c>
       <c r="V29" t="n">
-        <v>0</v>
+        <v>327.7522584701349</v>
       </c>
       <c r="W29" t="n">
         <v>0</v>
@@ -2858,7 +2860,7 @@
         <v>0</v>
       </c>
       <c r="Y29" t="n">
-        <v>200.3371067511483</v>
+        <v>0</v>
       </c>
     </row>
     <row r="30">
@@ -2874,22 +2876,22 @@
         <v>172.7084989883157</v>
       </c>
       <c r="D30" t="n">
-        <v>0</v>
+        <v>147.4450655646388</v>
       </c>
       <c r="E30" t="n">
-        <v>0</v>
+        <v>157.6450804554009</v>
       </c>
       <c r="F30" t="n">
-        <v>0</v>
+        <v>145.0692123933839</v>
       </c>
       <c r="G30" t="n">
-        <v>0</v>
+        <v>112.3079472530807</v>
       </c>
       <c r="H30" t="n">
-        <v>0</v>
+        <v>109.1906224126114</v>
       </c>
       <c r="I30" t="n">
-        <v>0</v>
+        <v>78.54202280713804</v>
       </c>
       <c r="J30" t="n">
         <v>0</v>
@@ -2916,25 +2918,25 @@
         <v>0</v>
       </c>
       <c r="R30" t="n">
-        <v>0</v>
+        <v>80.58358449827551</v>
       </c>
       <c r="S30" t="n">
         <v>0</v>
       </c>
       <c r="T30" t="n">
-        <v>113.4883178883723</v>
+        <v>198.8939788055617</v>
       </c>
       <c r="U30" t="n">
-        <v>225.9206407878966</v>
+        <v>0</v>
       </c>
       <c r="V30" t="n">
-        <v>232.8005871494253</v>
+        <v>0</v>
       </c>
       <c r="W30" t="n">
-        <v>251.6949831609196</v>
+        <v>0</v>
       </c>
       <c r="X30" t="n">
-        <v>205.7729852034775</v>
+        <v>0</v>
       </c>
       <c r="Y30" t="n">
         <v>205.6826957773044</v>
@@ -2947,13 +2949,13 @@
         </is>
       </c>
       <c r="B31" t="n">
-        <v>9.637108967925595</v>
+        <v>0</v>
       </c>
       <c r="C31" t="n">
-        <v>167.2468210986278</v>
+        <v>0</v>
       </c>
       <c r="D31" t="n">
-        <v>148.6154730182124</v>
+        <v>0</v>
       </c>
       <c r="E31" t="n">
         <v>0</v>
@@ -2962,7 +2964,7 @@
         <v>0</v>
       </c>
       <c r="G31" t="n">
-        <v>0</v>
+        <v>167.7266695472104</v>
       </c>
       <c r="H31" t="n">
         <v>0</v>
@@ -3013,7 +3015,7 @@
         <v>0</v>
       </c>
       <c r="X31" t="n">
-        <v>0</v>
+        <v>157.7727335375556</v>
       </c>
       <c r="Y31" t="n">
         <v>0</v>
@@ -3032,7 +3034,7 @@
         <v>0</v>
       </c>
       <c r="D32" t="n">
-        <v>0</v>
+        <v>354.683041620683</v>
       </c>
       <c r="E32" t="n">
         <v>0</v>
@@ -3041,10 +3043,10 @@
         <v>0</v>
       </c>
       <c r="G32" t="n">
-        <v>0</v>
+        <v>405.7415719969023</v>
       </c>
       <c r="H32" t="n">
-        <v>0</v>
+        <v>318.5877509788154</v>
       </c>
       <c r="I32" t="n">
         <v>0</v>
@@ -3074,25 +3076,25 @@
         <v>0</v>
       </c>
       <c r="R32" t="n">
-        <v>0</v>
+        <v>112.8556863456974</v>
       </c>
       <c r="S32" t="n">
-        <v>1.080986886107805</v>
+        <v>0</v>
       </c>
       <c r="T32" t="n">
-        <v>220.5164804230398</v>
+        <v>0</v>
       </c>
       <c r="U32" t="n">
-        <v>251.2985142370684</v>
+        <v>0</v>
       </c>
       <c r="V32" t="n">
         <v>0</v>
       </c>
       <c r="W32" t="n">
-        <v>349.240968717413</v>
+        <v>0</v>
       </c>
       <c r="X32" t="n">
-        <v>369.731100678469</v>
+        <v>0</v>
       </c>
       <c r="Y32" t="n">
         <v>0</v>
@@ -3105,13 +3107,13 @@
         </is>
       </c>
       <c r="B33" t="n">
-        <v>0</v>
+        <v>166.5331836498673</v>
       </c>
       <c r="C33" t="n">
-        <v>0</v>
+        <v>172.7084989883157</v>
       </c>
       <c r="D33" t="n">
-        <v>0</v>
+        <v>147.4450655646388</v>
       </c>
       <c r="E33" t="n">
         <v>0</v>
@@ -3120,10 +3122,10 @@
         <v>0</v>
       </c>
       <c r="G33" t="n">
-        <v>105.9588595871329</v>
+        <v>0</v>
       </c>
       <c r="H33" t="n">
-        <v>109.1906224126114</v>
+        <v>32.83828580621645</v>
       </c>
       <c r="I33" t="n">
         <v>78.54202280713804</v>
@@ -3153,16 +3155,16 @@
         <v>0</v>
       </c>
       <c r="R33" t="n">
-        <v>0</v>
+        <v>80.58358449827551</v>
       </c>
       <c r="S33" t="n">
-        <v>165.8272126914158</v>
+        <v>0</v>
       </c>
       <c r="T33" t="n">
-        <v>198.8939788055617</v>
+        <v>0</v>
       </c>
       <c r="U33" t="n">
-        <v>225.9206407878966</v>
+        <v>0</v>
       </c>
       <c r="V33" t="n">
         <v>232.8005871494253</v>
@@ -3174,7 +3176,7 @@
         <v>205.7729852034775</v>
       </c>
       <c r="Y33" t="n">
-        <v>0</v>
+        <v>205.6826957773044</v>
       </c>
     </row>
     <row r="34">
@@ -3241,16 +3243,16 @@
         <v>0</v>
       </c>
       <c r="U34" t="n">
-        <v>286.3046124576955</v>
+        <v>0</v>
       </c>
       <c r="V34" t="n">
-        <v>39.19479062707046</v>
+        <v>0</v>
       </c>
       <c r="W34" t="n">
-        <v>0</v>
+        <v>286.522998336591</v>
       </c>
       <c r="X34" t="n">
-        <v>0</v>
+        <v>38.97640474817464</v>
       </c>
       <c r="Y34" t="n">
         <v>0</v>
@@ -3263,7 +3265,7 @@
         </is>
       </c>
       <c r="B35" t="n">
-        <v>382.7338416634806</v>
+        <v>0</v>
       </c>
       <c r="C35" t="n">
         <v>0</v>
@@ -3278,13 +3280,13 @@
         <v>0</v>
       </c>
       <c r="G35" t="n">
-        <v>0</v>
+        <v>111.9029976743084</v>
       </c>
       <c r="H35" t="n">
         <v>0</v>
       </c>
       <c r="I35" t="n">
-        <v>187.7594695105699</v>
+        <v>0</v>
       </c>
       <c r="J35" t="n">
         <v>0</v>
@@ -3311,28 +3313,28 @@
         <v>0</v>
       </c>
       <c r="R35" t="n">
-        <v>0</v>
+        <v>112.8556863456974</v>
       </c>
       <c r="S35" t="n">
-        <v>0</v>
+        <v>195.5929138346465</v>
       </c>
       <c r="T35" t="n">
-        <v>0</v>
+        <v>220.5164804230398</v>
       </c>
       <c r="U35" t="n">
-        <v>0</v>
+        <v>251.2985142370684</v>
       </c>
       <c r="V35" t="n">
-        <v>0</v>
+        <v>327.7522584701349</v>
       </c>
       <c r="W35" t="n">
-        <v>263.1876011547914</v>
+        <v>0</v>
       </c>
       <c r="X35" t="n">
         <v>0</v>
       </c>
       <c r="Y35" t="n">
-        <v>386.2379386560536</v>
+        <v>0</v>
       </c>
     </row>
     <row r="36">
@@ -3348,13 +3350,13 @@
         <v>0</v>
       </c>
       <c r="D36" t="n">
-        <v>147.4450655646388</v>
+        <v>0</v>
       </c>
       <c r="E36" t="n">
-        <v>157.6450804554009</v>
+        <v>0</v>
       </c>
       <c r="F36" t="n">
-        <v>145.0692123933839</v>
+        <v>0</v>
       </c>
       <c r="G36" t="n">
         <v>0</v>
@@ -3363,7 +3365,7 @@
         <v>0</v>
       </c>
       <c r="I36" t="n">
-        <v>78.54202280713804</v>
+        <v>7.42522453130207</v>
       </c>
       <c r="J36" t="n">
         <v>0</v>
@@ -3396,10 +3398,10 @@
         <v>165.8272126914158</v>
       </c>
       <c r="T36" t="n">
-        <v>0</v>
+        <v>198.8939788055617</v>
       </c>
       <c r="U36" t="n">
-        <v>0</v>
+        <v>225.9206407878966</v>
       </c>
       <c r="V36" t="n">
         <v>232.8005871494253</v>
@@ -3411,7 +3413,7 @@
         <v>205.7729852034775</v>
       </c>
       <c r="Y36" t="n">
-        <v>109.2211586815032</v>
+        <v>205.6826957773044</v>
       </c>
     </row>
     <row r="37">
@@ -3424,16 +3426,16 @@
         <v>0</v>
       </c>
       <c r="C37" t="n">
-        <v>0</v>
+        <v>167.2468210986278</v>
       </c>
       <c r="D37" t="n">
-        <v>0</v>
+        <v>148.6154730182124</v>
       </c>
       <c r="E37" t="n">
         <v>0</v>
       </c>
       <c r="F37" t="n">
-        <v>106.0890042129126</v>
+        <v>0</v>
       </c>
       <c r="G37" t="n">
         <v>0</v>
@@ -3472,7 +3474,7 @@
         <v>0</v>
       </c>
       <c r="S37" t="n">
-        <v>219.4103988718534</v>
+        <v>0</v>
       </c>
       <c r="T37" t="n">
         <v>0</v>
@@ -3490,7 +3492,7 @@
         <v>0</v>
       </c>
       <c r="Y37" t="n">
-        <v>0</v>
+        <v>9.637108967925709</v>
       </c>
     </row>
     <row r="38">
@@ -3500,7 +3502,7 @@
         </is>
       </c>
       <c r="B38" t="n">
-        <v>281.6324150430733</v>
+        <v>0</v>
       </c>
       <c r="C38" t="n">
         <v>0</v>
@@ -3515,13 +3517,13 @@
         <v>0</v>
       </c>
       <c r="G38" t="n">
-        <v>0</v>
+        <v>405.7415719969023</v>
       </c>
       <c r="H38" t="n">
-        <v>0</v>
+        <v>333.4403157157206</v>
       </c>
       <c r="I38" t="n">
-        <v>187.7594695105699</v>
+        <v>0</v>
       </c>
       <c r="J38" t="n">
         <v>0</v>
@@ -3548,7 +3550,7 @@
         <v>0</v>
       </c>
       <c r="R38" t="n">
-        <v>0</v>
+        <v>112.8556863456974</v>
       </c>
       <c r="S38" t="n">
         <v>0</v>
@@ -3557,19 +3559,19 @@
         <v>0</v>
       </c>
       <c r="U38" t="n">
-        <v>0</v>
+        <v>25.08095939865413</v>
       </c>
       <c r="V38" t="n">
-        <v>0</v>
+        <v>327.7522584701349</v>
       </c>
       <c r="W38" t="n">
-        <v>349.240968717413</v>
+        <v>0</v>
       </c>
       <c r="X38" t="n">
         <v>369.731100678469</v>
       </c>
       <c r="Y38" t="n">
-        <v>386.2379386560536</v>
+        <v>0</v>
       </c>
     </row>
     <row r="39">
@@ -3579,28 +3581,28 @@
         </is>
       </c>
       <c r="B39" t="n">
-        <v>166.5331836498673</v>
+        <v>0</v>
       </c>
       <c r="C39" t="n">
         <v>172.7084989883157</v>
       </c>
       <c r="D39" t="n">
-        <v>0</v>
+        <v>147.4450655646388</v>
       </c>
       <c r="E39" t="n">
-        <v>0</v>
+        <v>157.6450804554009</v>
       </c>
       <c r="F39" t="n">
-        <v>0</v>
+        <v>145.0692123933839</v>
       </c>
       <c r="G39" t="n">
-        <v>96.86707133126711</v>
+        <v>137.0282495084215</v>
       </c>
       <c r="H39" t="n">
-        <v>109.1906224126114</v>
+        <v>0</v>
       </c>
       <c r="I39" t="n">
-        <v>78.54202280713804</v>
+        <v>0</v>
       </c>
       <c r="J39" t="n">
         <v>0</v>
@@ -3630,7 +3632,7 @@
         <v>80.58358449827551</v>
       </c>
       <c r="S39" t="n">
-        <v>0</v>
+        <v>165.8272126914158</v>
       </c>
       <c r="T39" t="n">
         <v>0</v>
@@ -3639,13 +3641,13 @@
         <v>225.9206407878966</v>
       </c>
       <c r="V39" t="n">
-        <v>232.8005871494253</v>
+        <v>0</v>
       </c>
       <c r="W39" t="n">
         <v>0</v>
       </c>
       <c r="X39" t="n">
-        <v>205.7729852034775</v>
+        <v>136.6916519405255</v>
       </c>
       <c r="Y39" t="n">
         <v>205.6826957773044</v>
@@ -3673,7 +3675,7 @@
         <v>0</v>
       </c>
       <c r="G40" t="n">
-        <v>38.97640474817496</v>
+        <v>0</v>
       </c>
       <c r="H40" t="n">
         <v>0</v>
@@ -3712,16 +3714,16 @@
         <v>0</v>
       </c>
       <c r="T40" t="n">
-        <v>0</v>
+        <v>226.8162656893113</v>
       </c>
       <c r="U40" t="n">
-        <v>0</v>
+        <v>98.68313739545452</v>
       </c>
       <c r="V40" t="n">
         <v>0</v>
       </c>
       <c r="W40" t="n">
-        <v>286.522998336591</v>
+        <v>0</v>
       </c>
       <c r="X40" t="n">
         <v>0</v>
@@ -3749,10 +3751,10 @@
         <v>0</v>
       </c>
       <c r="F41" t="n">
-        <v>312.9379844122251</v>
+        <v>0</v>
       </c>
       <c r="G41" t="n">
-        <v>0</v>
+        <v>405.7415719969023</v>
       </c>
       <c r="H41" t="n">
         <v>0</v>
@@ -3785,13 +3787,13 @@
         <v>0</v>
       </c>
       <c r="R41" t="n">
-        <v>112.8556863456974</v>
+        <v>0</v>
       </c>
       <c r="S41" t="n">
         <v>0</v>
       </c>
       <c r="T41" t="n">
-        <v>220.5164804230398</v>
+        <v>0</v>
       </c>
       <c r="U41" t="n">
         <v>251.2985142370684</v>
@@ -3800,10 +3802,10 @@
         <v>327.7522584701349</v>
       </c>
       <c r="W41" t="n">
-        <v>349.240968717413</v>
+        <v>220.0784472230038</v>
       </c>
       <c r="X41" t="n">
-        <v>0</v>
+        <v>369.731100678469</v>
       </c>
       <c r="Y41" t="n">
         <v>0</v>
@@ -3816,16 +3818,16 @@
         </is>
       </c>
       <c r="B42" t="n">
-        <v>166.5331836498673</v>
+        <v>0</v>
       </c>
       <c r="C42" t="n">
-        <v>172.7084989883157</v>
+        <v>0</v>
       </c>
       <c r="D42" t="n">
-        <v>147.4450655646388</v>
+        <v>0</v>
       </c>
       <c r="E42" t="n">
-        <v>93.18392529390007</v>
+        <v>0</v>
       </c>
       <c r="F42" t="n">
         <v>0</v>
@@ -3834,10 +3836,10 @@
         <v>0</v>
       </c>
       <c r="H42" t="n">
-        <v>0</v>
+        <v>109.1906224126114</v>
       </c>
       <c r="I42" t="n">
-        <v>78.54202280713804</v>
+        <v>0</v>
       </c>
       <c r="J42" t="n">
         <v>0</v>
@@ -3867,10 +3869,10 @@
         <v>0</v>
       </c>
       <c r="S42" t="n">
-        <v>0</v>
+        <v>165.8272126914158</v>
       </c>
       <c r="T42" t="n">
-        <v>0</v>
+        <v>198.8939788055617</v>
       </c>
       <c r="U42" t="n">
         <v>225.9206407878966</v>
@@ -3885,7 +3887,7 @@
         <v>205.7729852034775</v>
       </c>
       <c r="Y42" t="n">
-        <v>0</v>
+        <v>184.5008823942709</v>
       </c>
     </row>
     <row r="43">
@@ -3952,19 +3954,19 @@
         <v>0</v>
       </c>
       <c r="U43" t="n">
-        <v>286.3046124576955</v>
+        <v>0</v>
       </c>
       <c r="V43" t="n">
         <v>0</v>
       </c>
       <c r="W43" t="n">
-        <v>39.19479062707047</v>
+        <v>0</v>
       </c>
       <c r="X43" t="n">
-        <v>0</v>
+        <v>106.9147497326712</v>
       </c>
       <c r="Y43" t="n">
-        <v>0</v>
+        <v>218.5846533520948</v>
       </c>
     </row>
     <row r="44">
@@ -3980,7 +3982,7 @@
         <v>0</v>
       </c>
       <c r="D44" t="n">
-        <v>0</v>
+        <v>354.683041620683</v>
       </c>
       <c r="E44" t="n">
         <v>0</v>
@@ -3989,13 +3991,13 @@
         <v>0</v>
       </c>
       <c r="G44" t="n">
-        <v>405.7415719969023</v>
+        <v>0</v>
       </c>
       <c r="H44" t="n">
         <v>333.4403157157206</v>
       </c>
       <c r="I44" t="n">
-        <v>116.4479354970736</v>
+        <v>0</v>
       </c>
       <c r="J44" t="n">
         <v>0</v>
@@ -4031,19 +4033,19 @@
         <v>0</v>
       </c>
       <c r="U44" t="n">
-        <v>0</v>
+        <v>172.4883381429863</v>
       </c>
       <c r="V44" t="n">
-        <v>0</v>
+        <v>327.7522584701349</v>
       </c>
       <c r="W44" t="n">
-        <v>349.240968717413</v>
+        <v>0</v>
       </c>
       <c r="X44" t="n">
-        <v>369.731100678469</v>
+        <v>0</v>
       </c>
       <c r="Y44" t="n">
-        <v>0</v>
+        <v>386.2379386560536</v>
       </c>
     </row>
     <row r="45">
@@ -4056,22 +4058,22 @@
         <v>0</v>
       </c>
       <c r="C45" t="n">
-        <v>172.7084989883157</v>
+        <v>0</v>
       </c>
       <c r="D45" t="n">
         <v>0</v>
       </c>
       <c r="E45" t="n">
-        <v>0</v>
+        <v>154.0112920676447</v>
       </c>
       <c r="F45" t="n">
-        <v>0</v>
+        <v>145.0692123933839</v>
       </c>
       <c r="G45" t="n">
-        <v>0</v>
+        <v>137.0282495084215</v>
       </c>
       <c r="H45" t="n">
-        <v>0</v>
+        <v>109.1906224126114</v>
       </c>
       <c r="I45" t="n">
         <v>78.54202280713804</v>
@@ -4104,10 +4106,10 @@
         <v>80.58358449827551</v>
       </c>
       <c r="S45" t="n">
-        <v>165.8272126914158</v>
+        <v>0</v>
       </c>
       <c r="T45" t="n">
-        <v>198.8939788055617</v>
+        <v>0</v>
       </c>
       <c r="U45" t="n">
         <v>225.9206407878966</v>
@@ -4116,10 +4118,10 @@
         <v>232.8005871494253</v>
       </c>
       <c r="W45" t="n">
-        <v>213.6426711002454</v>
+        <v>0</v>
       </c>
       <c r="X45" t="n">
-        <v>0</v>
+        <v>205.7729852034775</v>
       </c>
       <c r="Y45" t="n">
         <v>205.6826957773044</v>
@@ -4138,7 +4140,7 @@
         <v>0</v>
       </c>
       <c r="D46" t="n">
-        <v>148.6154730182124</v>
+        <v>0</v>
       </c>
       <c r="E46" t="n">
         <v>0</v>
@@ -4180,7 +4182,7 @@
         <v>0</v>
       </c>
       <c r="R46" t="n">
-        <v>165.4090611368575</v>
+        <v>0</v>
       </c>
       <c r="S46" t="n">
         <v>0</v>
@@ -4189,16 +4191,16 @@
         <v>0</v>
       </c>
       <c r="U46" t="n">
-        <v>0</v>
+        <v>38.97640474817497</v>
       </c>
       <c r="V46" t="n">
         <v>0</v>
       </c>
       <c r="W46" t="n">
-        <v>0</v>
+        <v>286.522998336591</v>
       </c>
       <c r="X46" t="n">
-        <v>11.47486892969606</v>
+        <v>0</v>
       </c>
       <c r="Y46" t="n">
         <v>0</v>
@@ -4349,22 +4351,22 @@
         <v>964.0571555106362</v>
       </c>
       <c r="Q2" t="n">
-        <v>964.0571555106362</v>
+        <v>953.9655401424092</v>
       </c>
       <c r="R2" t="n">
-        <v>964.0571555106362</v>
+        <v>802.5825927271064</v>
       </c>
       <c r="S2" t="n">
-        <v>964.0571555106362</v>
+        <v>802.5825927271064</v>
       </c>
       <c r="T2" t="n">
-        <v>964.0571555106362</v>
+        <v>802.5825927271064</v>
       </c>
       <c r="U2" t="n">
-        <v>964.0571555106362</v>
+        <v>559.1338160830064</v>
       </c>
       <c r="V2" t="n">
-        <v>772.0302844130649</v>
+        <v>528.5815077689649</v>
       </c>
       <c r="W2" t="n">
         <v>528.5815077689649</v>
@@ -4383,25 +4385,25 @@
         </is>
       </c>
       <c r="B3" t="n">
-        <v>259.0600686093459</v>
+        <v>405.0497398874226</v>
       </c>
       <c r="C3" t="n">
-        <v>259.0600686093459</v>
+        <v>405.0497398874226</v>
       </c>
       <c r="D3" t="n">
-        <v>259.0600686093459</v>
+        <v>256.1153302261713</v>
       </c>
       <c r="E3" t="n">
-        <v>259.0600686093459</v>
+        <v>256.1153302261713</v>
       </c>
       <c r="F3" t="n">
-        <v>132.6502787026334</v>
+        <v>109.5807722530562</v>
       </c>
       <c r="G3" t="n">
-        <v>132.6502787026334</v>
+        <v>109.5807722530562</v>
       </c>
       <c r="H3" t="n">
-        <v>19.28114311021272</v>
+        <v>109.5807722530562</v>
       </c>
       <c r="I3" t="n">
         <v>19.28114311021272</v>
@@ -4419,40 +4421,40 @@
         <v>613.2059550252818</v>
       </c>
       <c r="N3" t="n">
-        <v>613.2059550252818</v>
+        <v>851.8101010141643</v>
       </c>
       <c r="O3" t="n">
-        <v>781.4136778972854</v>
+        <v>894.6625969973069</v>
       </c>
       <c r="P3" t="n">
-        <v>964.0571555106362</v>
+        <v>894.6625969973069</v>
       </c>
       <c r="Q3" t="n">
         <v>964.0571555106362</v>
       </c>
       <c r="R3" t="n">
-        <v>862.8876260635219</v>
+        <v>964.0571555106362</v>
       </c>
       <c r="S3" t="n">
-        <v>689.4702815141908</v>
+        <v>841.1248583565664</v>
       </c>
       <c r="T3" t="n">
-        <v>487.2836868729568</v>
+        <v>841.1248583565664</v>
       </c>
       <c r="U3" t="n">
-        <v>259.0600686093459</v>
+        <v>612.9012400929554</v>
       </c>
       <c r="V3" t="n">
-        <v>259.0600686093459</v>
+        <v>612.9012400929554</v>
       </c>
       <c r="W3" t="n">
-        <v>259.0600686093459</v>
+        <v>612.9012400929554</v>
       </c>
       <c r="X3" t="n">
-        <v>259.0600686093459</v>
+        <v>405.0497398874226</v>
       </c>
       <c r="Y3" t="n">
-        <v>259.0600686093459</v>
+        <v>405.0497398874226</v>
       </c>
     </row>
     <row r="4">
@@ -4510,19 +4512,19 @@
         <v>153.8134336004835</v>
       </c>
       <c r="R4" t="n">
-        <v>153.8134336004835</v>
+        <v>19.28114311021272</v>
       </c>
       <c r="S4" t="n">
-        <v>153.8134336004835</v>
+        <v>19.28114311021272</v>
       </c>
       <c r="T4" t="n">
-        <v>153.8134336004835</v>
+        <v>19.28114311021272</v>
       </c>
       <c r="U4" t="n">
-        <v>153.8134336004835</v>
+        <v>19.28114311021272</v>
       </c>
       <c r="V4" t="n">
-        <v>153.8134336004835</v>
+        <v>19.28114311021272</v>
       </c>
       <c r="W4" t="n">
         <v>19.28114311021272</v>
@@ -4541,28 +4543,28 @@
         </is>
       </c>
       <c r="B5" t="n">
-        <v>738.7078125165641</v>
+        <v>953.9655401424092</v>
       </c>
       <c r="C5" t="n">
-        <v>738.7078125165641</v>
+        <v>710.516763498309</v>
       </c>
       <c r="D5" t="n">
-        <v>738.7078125165641</v>
+        <v>710.516763498309</v>
       </c>
       <c r="E5" t="n">
-        <v>738.7078125165641</v>
+        <v>467.067986854209</v>
       </c>
       <c r="F5" t="n">
-        <v>495.259035872464</v>
+        <v>259.4103516356203</v>
       </c>
       <c r="G5" t="n">
-        <v>262.7299197543128</v>
+        <v>243.9530410142718</v>
       </c>
       <c r="H5" t="n">
-        <v>19.28114311021272</v>
+        <v>243.9530410142718</v>
       </c>
       <c r="I5" t="n">
-        <v>19.28114311021272</v>
+        <v>31.35113235729608</v>
       </c>
       <c r="J5" t="n">
         <v>19.28114311021272</v>
@@ -4586,31 +4588,31 @@
         <v>964.0571555106362</v>
       </c>
       <c r="Q5" t="n">
-        <v>964.0571555106362</v>
+        <v>953.9655401424092</v>
       </c>
       <c r="R5" t="n">
-        <v>964.0571555106362</v>
+        <v>953.9655401424092</v>
       </c>
       <c r="S5" t="n">
-        <v>964.0571555106362</v>
+        <v>953.9655401424092</v>
       </c>
       <c r="T5" t="n">
-        <v>738.7078125165641</v>
+        <v>953.9655401424092</v>
       </c>
       <c r="U5" t="n">
-        <v>738.7078125165641</v>
+        <v>953.9655401424092</v>
       </c>
       <c r="V5" t="n">
-        <v>738.7078125165641</v>
+        <v>953.9655401424092</v>
       </c>
       <c r="W5" t="n">
-        <v>738.7078125165641</v>
+        <v>953.9655401424092</v>
       </c>
       <c r="X5" t="n">
-        <v>738.7078125165641</v>
+        <v>953.9655401424092</v>
       </c>
       <c r="Y5" t="n">
-        <v>738.7078125165641</v>
+        <v>953.9655401424092</v>
       </c>
     </row>
     <row r="6">
@@ -4620,22 +4622,22 @@
         </is>
       </c>
       <c r="B6" t="n">
-        <v>689.4702815141908</v>
+        <v>269.5723599112974</v>
       </c>
       <c r="C6" t="n">
-        <v>515.0172522330638</v>
+        <v>269.5723599112974</v>
       </c>
       <c r="D6" t="n">
-        <v>515.0172522330638</v>
+        <v>269.5723599112974</v>
       </c>
       <c r="E6" t="n">
-        <v>508.9694238887622</v>
+        <v>110.334904905842</v>
       </c>
       <c r="F6" t="n">
-        <v>362.4348659156472</v>
+        <v>110.334904905842</v>
       </c>
       <c r="G6" t="n">
-        <v>223.7040404982626</v>
+        <v>110.334904905842</v>
       </c>
       <c r="H6" t="n">
         <v>110.334904905842</v>
@@ -4647,19 +4649,19 @@
         <v>19.28114311021272</v>
       </c>
       <c r="K6" t="n">
-        <v>144.6387031680501</v>
+        <v>19.28114311021272</v>
       </c>
       <c r="L6" t="n">
-        <v>374.6018090363993</v>
+        <v>19.28114311021272</v>
       </c>
       <c r="M6" t="n">
-        <v>417.4543050195419</v>
+        <v>234.810827406191</v>
       </c>
       <c r="N6" t="n">
-        <v>656.0584510084244</v>
+        <v>473.4149733950735</v>
       </c>
       <c r="O6" t="n">
-        <v>894.6625969973069</v>
+        <v>712.019119383956</v>
       </c>
       <c r="P6" t="n">
         <v>894.6625969973069</v>
@@ -4671,25 +4673,25 @@
         <v>862.8876260635219</v>
       </c>
       <c r="S6" t="n">
-        <v>689.4702815141908</v>
+        <v>862.8876260635219</v>
       </c>
       <c r="T6" t="n">
-        <v>689.4702815141908</v>
+        <v>685.1841588817842</v>
       </c>
       <c r="U6" t="n">
-        <v>689.4702815141908</v>
+        <v>685.1841588817842</v>
       </c>
       <c r="V6" t="n">
-        <v>689.4702815141908</v>
+        <v>685.1841588817842</v>
       </c>
       <c r="W6" t="n">
-        <v>689.4702815141908</v>
+        <v>685.1841588817842</v>
       </c>
       <c r="X6" t="n">
-        <v>689.4702815141908</v>
+        <v>477.3326586762514</v>
       </c>
       <c r="Y6" t="n">
-        <v>689.4702815141908</v>
+        <v>269.5723599112974</v>
       </c>
     </row>
     <row r="7">
@@ -4699,31 +4701,31 @@
         </is>
       </c>
       <c r="B7" t="n">
-        <v>151.0645035650224</v>
+        <v>19.28114311021272</v>
       </c>
       <c r="C7" t="n">
-        <v>151.0645035650224</v>
+        <v>19.28114311021272</v>
       </c>
       <c r="D7" t="n">
-        <v>151.0645035650224</v>
+        <v>19.28114311021272</v>
       </c>
       <c r="E7" t="n">
-        <v>151.0645035650224</v>
+        <v>19.28114311021272</v>
       </c>
       <c r="F7" t="n">
-        <v>151.0645035650224</v>
+        <v>19.28114311021272</v>
       </c>
       <c r="G7" t="n">
-        <v>41.77557929797318</v>
+        <v>19.28114311021272</v>
       </c>
       <c r="H7" t="n">
-        <v>41.77557929797318</v>
+        <v>19.28114311021272</v>
       </c>
       <c r="I7" t="n">
-        <v>41.77557929797318</v>
+        <v>19.28114311021272</v>
       </c>
       <c r="J7" t="n">
-        <v>41.77557929797318</v>
+        <v>19.28114311021272</v>
       </c>
       <c r="K7" t="n">
         <v>19.28114311021272</v>
@@ -4753,22 +4755,22 @@
         <v>151.0645035650224</v>
       </c>
       <c r="T7" t="n">
-        <v>151.0645035650224</v>
+        <v>19.28114311021272</v>
       </c>
       <c r="U7" t="n">
-        <v>151.0645035650224</v>
+        <v>19.28114311021272</v>
       </c>
       <c r="V7" t="n">
-        <v>151.0645035650224</v>
+        <v>19.28114311021272</v>
       </c>
       <c r="W7" t="n">
-        <v>151.0645035650224</v>
+        <v>19.28114311021272</v>
       </c>
       <c r="X7" t="n">
-        <v>151.0645035650224</v>
+        <v>19.28114311021272</v>
       </c>
       <c r="Y7" t="n">
-        <v>151.0645035650224</v>
+        <v>19.28114311021272</v>
       </c>
     </row>
     <row r="8">
@@ -4778,28 +4780,28 @@
         </is>
       </c>
       <c r="B8" t="n">
-        <v>41.68395448076474</v>
+        <v>315.6850394389064</v>
       </c>
       <c r="C8" t="n">
-        <v>41.68395448076474</v>
+        <v>315.6850394389064</v>
       </c>
       <c r="D8" t="n">
-        <v>41.68395448076474</v>
+        <v>315.6850394389064</v>
       </c>
       <c r="E8" t="n">
-        <v>41.68395448076474</v>
+        <v>315.6850394389064</v>
       </c>
       <c r="F8" t="n">
-        <v>34.73845373156126</v>
+        <v>72.23626279480629</v>
       </c>
       <c r="G8" t="n">
-        <v>19.28114311021272</v>
+        <v>31.35113235729608</v>
       </c>
       <c r="H8" t="n">
-        <v>19.28114311021272</v>
+        <v>31.35113235729608</v>
       </c>
       <c r="I8" t="n">
-        <v>19.28114311021272</v>
+        <v>31.35113235729608</v>
       </c>
       <c r="J8" t="n">
         <v>19.28114311021272</v>
@@ -4823,31 +4825,31 @@
         <v>964.0571555106362</v>
       </c>
       <c r="Q8" t="n">
-        <v>964.0571555106362</v>
+        <v>953.9655401424092</v>
       </c>
       <c r="R8" t="n">
-        <v>964.0571555106362</v>
+        <v>802.5825927271064</v>
       </c>
       <c r="S8" t="n">
-        <v>964.0571555106362</v>
+        <v>802.5825927271064</v>
       </c>
       <c r="T8" t="n">
-        <v>964.0571555106362</v>
+        <v>802.5825927271064</v>
       </c>
       <c r="U8" t="n">
-        <v>964.0571555106362</v>
+        <v>802.5825927271064</v>
       </c>
       <c r="V8" t="n">
-        <v>720.6083788665362</v>
+        <v>802.5825927271064</v>
       </c>
       <c r="W8" t="n">
-        <v>477.1596022224361</v>
+        <v>802.5825927271064</v>
       </c>
       <c r="X8" t="n">
-        <v>285.1327311248648</v>
+        <v>802.5825927271064</v>
       </c>
       <c r="Y8" t="n">
-        <v>41.68395448076474</v>
+        <v>559.1338160830064</v>
       </c>
     </row>
     <row r="9">
@@ -4857,25 +4859,25 @@
         </is>
       </c>
       <c r="B9" t="n">
-        <v>502.6601697108322</v>
+        <v>572.4531692656047</v>
       </c>
       <c r="C9" t="n">
-        <v>328.2071404297052</v>
+        <v>398.0001399844777</v>
       </c>
       <c r="D9" t="n">
-        <v>179.2727307684539</v>
+        <v>249.0657303232264</v>
       </c>
       <c r="E9" t="n">
-        <v>20.03527576299844</v>
+        <v>249.0657303232264</v>
       </c>
       <c r="F9" t="n">
-        <v>20.03527576299844</v>
+        <v>249.0657303232264</v>
       </c>
       <c r="G9" t="n">
-        <v>20.03527576299844</v>
+        <v>110.334904905842</v>
       </c>
       <c r="H9" t="n">
-        <v>20.03527576299844</v>
+        <v>110.334904905842</v>
       </c>
       <c r="I9" t="n">
         <v>20.03527576299844</v>
@@ -4884,49 +4886,49 @@
         <v>19.28114311021272</v>
       </c>
       <c r="K9" t="n">
-        <v>19.28114311021272</v>
+        <v>74.24228005117135</v>
       </c>
       <c r="L9" t="n">
-        <v>249.2442489785619</v>
+        <v>304.2053859195205</v>
       </c>
       <c r="M9" t="n">
-        <v>249.2442489785619</v>
+        <v>304.2053859195205</v>
       </c>
       <c r="N9" t="n">
-        <v>473.4149733950735</v>
+        <v>542.809531908403</v>
       </c>
       <c r="O9" t="n">
-        <v>712.019119383956</v>
+        <v>781.4136778972854</v>
       </c>
       <c r="P9" t="n">
-        <v>894.6625969973069</v>
+        <v>964.0571555106362</v>
       </c>
       <c r="Q9" t="n">
         <v>964.0571555106362</v>
       </c>
       <c r="R9" t="n">
-        <v>964.0571555106362</v>
+        <v>862.8876260635219</v>
       </c>
       <c r="S9" t="n">
-        <v>790.6398109613051</v>
+        <v>689.4702815141908</v>
       </c>
       <c r="T9" t="n">
-        <v>588.4532163200711</v>
+        <v>572.4531692656047</v>
       </c>
       <c r="U9" t="n">
-        <v>588.4532163200711</v>
+        <v>572.4531692656047</v>
       </c>
       <c r="V9" t="n">
-        <v>588.4532163200711</v>
+        <v>572.4531692656047</v>
       </c>
       <c r="W9" t="n">
-        <v>588.4532163200711</v>
+        <v>572.4531692656047</v>
       </c>
       <c r="X9" t="n">
-        <v>588.4532163200711</v>
+        <v>572.4531692656047</v>
       </c>
       <c r="Y9" t="n">
-        <v>588.4532163200711</v>
+        <v>572.4531692656047</v>
       </c>
     </row>
     <row r="10">
@@ -4936,25 +4938,25 @@
         </is>
       </c>
       <c r="B10" t="n">
-        <v>19.28114311021272</v>
+        <v>153.8134336004835</v>
       </c>
       <c r="C10" t="n">
-        <v>19.28114311021272</v>
+        <v>153.8134336004835</v>
       </c>
       <c r="D10" t="n">
-        <v>19.28114311021272</v>
+        <v>153.8134336004835</v>
       </c>
       <c r="E10" t="n">
-        <v>19.28114311021272</v>
+        <v>153.8134336004835</v>
       </c>
       <c r="F10" t="n">
-        <v>19.28114311021272</v>
+        <v>153.8134336004835</v>
       </c>
       <c r="G10" t="n">
-        <v>19.28114311021272</v>
+        <v>153.8134336004835</v>
       </c>
       <c r="H10" t="n">
-        <v>19.28114311021272</v>
+        <v>153.8134336004835</v>
       </c>
       <c r="I10" t="n">
         <v>19.28114311021272</v>
@@ -4987,25 +4989,25 @@
         <v>153.8134336004835</v>
       </c>
       <c r="S10" t="n">
-        <v>19.28114311021272</v>
+        <v>153.8134336004835</v>
       </c>
       <c r="T10" t="n">
-        <v>19.28114311021272</v>
+        <v>153.8134336004835</v>
       </c>
       <c r="U10" t="n">
-        <v>19.28114311021272</v>
+        <v>153.8134336004835</v>
       </c>
       <c r="V10" t="n">
-        <v>19.28114311021272</v>
+        <v>153.8134336004835</v>
       </c>
       <c r="W10" t="n">
-        <v>19.28114311021272</v>
+        <v>153.8134336004835</v>
       </c>
       <c r="X10" t="n">
-        <v>19.28114311021272</v>
+        <v>153.8134336004835</v>
       </c>
       <c r="Y10" t="n">
-        <v>19.28114311021272</v>
+        <v>153.8134336004835</v>
       </c>
     </row>
     <row r="11">
@@ -5015,25 +5017,25 @@
         </is>
       </c>
       <c r="B11" t="n">
-        <v>1088.658125761969</v>
+        <v>150.9897000805384</v>
       </c>
       <c r="C11" t="n">
-        <v>1088.658125761969</v>
+        <v>150.9897000805384</v>
       </c>
       <c r="D11" t="n">
-        <v>1088.658125761969</v>
+        <v>150.9897000805384</v>
       </c>
       <c r="E11" t="n">
-        <v>1088.658125761969</v>
+        <v>150.9897000805384</v>
       </c>
       <c r="F11" t="n">
-        <v>968.7637269953007</v>
+        <v>150.9897000805384</v>
       </c>
       <c r="G11" t="n">
-        <v>558.9237552812579</v>
+        <v>150.9897000805384</v>
       </c>
       <c r="H11" t="n">
-        <v>222.1153555684087</v>
+        <v>150.9897000805384</v>
       </c>
       <c r="I11" t="n">
         <v>32.45932575975219</v>
@@ -5042,7 +5044,7 @@
         <v>70.13987180521508</v>
       </c>
       <c r="K11" t="n">
-        <v>247.3580469011319</v>
+        <v>247.3580469011318</v>
       </c>
       <c r="L11" t="n">
         <v>519.4894913528326</v>
@@ -5072,19 +5074,19 @@
         <v>1088.658125761969</v>
       </c>
       <c r="U11" t="n">
-        <v>1088.658125761969</v>
+        <v>834.8212426942232</v>
       </c>
       <c r="V11" t="n">
-        <v>1088.658125761969</v>
+        <v>503.7583553506526</v>
       </c>
       <c r="W11" t="n">
-        <v>1088.658125761969</v>
+        <v>150.9897000805384</v>
       </c>
       <c r="X11" t="n">
-        <v>1088.658125761969</v>
+        <v>150.9897000805384</v>
       </c>
       <c r="Y11" t="n">
-        <v>1088.658125761969</v>
+        <v>150.9897000805384</v>
       </c>
     </row>
     <row r="12">
@@ -5094,25 +5096,25 @@
         </is>
       </c>
       <c r="B12" t="n">
-        <v>676.7946829649775</v>
+        <v>317.205913033416</v>
       </c>
       <c r="C12" t="n">
-        <v>676.7946829649775</v>
+        <v>142.7528837522889</v>
       </c>
       <c r="D12" t="n">
-        <v>527.8602733037262</v>
+        <v>142.7528837522889</v>
       </c>
       <c r="E12" t="n">
-        <v>368.6228182982707</v>
+        <v>142.7528837522889</v>
       </c>
       <c r="F12" t="n">
-        <v>222.0882603251556</v>
+        <v>142.7528837522889</v>
       </c>
       <c r="G12" t="n">
-        <v>222.0882603251556</v>
+        <v>142.7528837522889</v>
       </c>
       <c r="H12" t="n">
-        <v>111.7947023326189</v>
+        <v>32.45932575975219</v>
       </c>
       <c r="I12" t="n">
         <v>32.45932575975219</v>
@@ -5127,10 +5129,10 @@
         <v>330.1910807414154</v>
       </c>
       <c r="M12" t="n">
-        <v>729.6092173456784</v>
+        <v>656.0248753321104</v>
       </c>
       <c r="N12" t="n">
-        <v>1131.293373622612</v>
+        <v>1057.709031609044</v>
       </c>
       <c r="O12" t="n">
         <v>1380.722538783602</v>
@@ -5142,28 +5144,28 @@
         <v>1622.966287987609</v>
       </c>
       <c r="R12" t="n">
-        <v>1541.568727888341</v>
+        <v>1622.966287987609</v>
       </c>
       <c r="S12" t="n">
-        <v>1374.066492846507</v>
+        <v>1455.464052945775</v>
       </c>
       <c r="T12" t="n">
-        <v>1173.163483952</v>
+        <v>1254.561044051268</v>
       </c>
       <c r="U12" t="n">
-        <v>944.9608164894784</v>
+        <v>1254.561044051268</v>
       </c>
       <c r="V12" t="n">
-        <v>709.8087082577356</v>
+        <v>1155.270405752172</v>
       </c>
       <c r="W12" t="n">
-        <v>676.7946829649775</v>
+        <v>901.0330490239708</v>
       </c>
       <c r="X12" t="n">
-        <v>676.7946829649775</v>
+        <v>693.1815488184379</v>
       </c>
       <c r="Y12" t="n">
-        <v>676.7946829649775</v>
+        <v>485.421250053484</v>
       </c>
     </row>
     <row r="13">
@@ -5173,28 +5175,28 @@
         </is>
       </c>
       <c r="B13" t="n">
-        <v>32.45932575975219</v>
+        <v>129.490276430019</v>
       </c>
       <c r="C13" t="n">
-        <v>32.45932575975219</v>
+        <v>129.490276430019</v>
       </c>
       <c r="D13" t="n">
-        <v>32.45932575975219</v>
+        <v>129.490276430019</v>
       </c>
       <c r="E13" t="n">
-        <v>32.45932575975219</v>
+        <v>129.490276430019</v>
       </c>
       <c r="F13" t="n">
-        <v>32.45932575975219</v>
+        <v>129.490276430019</v>
       </c>
       <c r="G13" t="n">
-        <v>32.45932575975219</v>
+        <v>129.490276430019</v>
       </c>
       <c r="H13" t="n">
-        <v>32.45932575975219</v>
+        <v>129.490276430019</v>
       </c>
       <c r="I13" t="n">
-        <v>32.45932575975219</v>
+        <v>107.8860696601711</v>
       </c>
       <c r="J13" t="n">
         <v>32.45932575975219</v>
@@ -5224,25 +5226,25 @@
         <v>129.490276430019</v>
       </c>
       <c r="S13" t="n">
-        <v>32.45932575975219</v>
+        <v>129.490276430019</v>
       </c>
       <c r="T13" t="n">
-        <v>32.45932575975219</v>
+        <v>129.490276430019</v>
       </c>
       <c r="U13" t="n">
-        <v>32.45932575975219</v>
+        <v>129.490276430019</v>
       </c>
       <c r="V13" t="n">
-        <v>32.45932575975219</v>
+        <v>129.490276430019</v>
       </c>
       <c r="W13" t="n">
-        <v>32.45932575975219</v>
+        <v>129.490276430019</v>
       </c>
       <c r="X13" t="n">
-        <v>32.45932575975219</v>
+        <v>129.490276430019</v>
       </c>
       <c r="Y13" t="n">
-        <v>32.45932575975219</v>
+        <v>129.490276430019</v>
       </c>
     </row>
     <row r="14">
@@ -5252,25 +5254,25 @@
         </is>
       </c>
       <c r="B14" t="n">
-        <v>32.45932575975218</v>
+        <v>1622.966287987609</v>
       </c>
       <c r="C14" t="n">
-        <v>32.45932575975218</v>
+        <v>1622.966287987609</v>
       </c>
       <c r="D14" t="n">
-        <v>32.45932575975218</v>
+        <v>1622.966287987609</v>
       </c>
       <c r="E14" t="n">
-        <v>32.45932575975218</v>
+        <v>1237.178035389365</v>
       </c>
       <c r="F14" t="n">
-        <v>32.45932575975218</v>
+        <v>827.338063675322</v>
       </c>
       <c r="G14" t="n">
-        <v>32.45932575975218</v>
+        <v>417.4980919612793</v>
       </c>
       <c r="H14" t="n">
-        <v>32.45932575975218</v>
+        <v>80.68969224843016</v>
       </c>
       <c r="I14" t="n">
         <v>32.45932575975218</v>
@@ -5300,28 +5302,28 @@
         <v>1622.966287987609</v>
       </c>
       <c r="R14" t="n">
-        <v>1508.970645214177</v>
+        <v>1622.966287987609</v>
       </c>
       <c r="S14" t="n">
-        <v>1311.402045381201</v>
+        <v>1622.966287987609</v>
       </c>
       <c r="T14" t="n">
-        <v>1088.658125761969</v>
+        <v>1622.966287987609</v>
       </c>
       <c r="U14" t="n">
-        <v>834.8212426942227</v>
+        <v>1622.966287987609</v>
       </c>
       <c r="V14" t="n">
-        <v>503.7583553506521</v>
+        <v>1622.966287987609</v>
       </c>
       <c r="W14" t="n">
-        <v>150.9897000805379</v>
+        <v>1622.966287987609</v>
       </c>
       <c r="X14" t="n">
-        <v>32.45932575975218</v>
+        <v>1622.966287987609</v>
       </c>
       <c r="Y14" t="n">
-        <v>32.45932575975218</v>
+        <v>1622.966287987609</v>
       </c>
     </row>
     <row r="15">
@@ -5331,16 +5333,16 @@
         </is>
       </c>
       <c r="B15" t="n">
-        <v>989.6600854869342</v>
+        <v>557.3200788857912</v>
       </c>
       <c r="C15" t="n">
-        <v>815.2070562058072</v>
+        <v>557.3200788857912</v>
       </c>
       <c r="D15" t="n">
-        <v>666.272646544556</v>
+        <v>408.3856692245399</v>
       </c>
       <c r="E15" t="n">
-        <v>507.0351915391004</v>
+        <v>408.3856692245399</v>
       </c>
       <c r="F15" t="n">
         <v>360.5006335659854</v>
@@ -5379,28 +5381,28 @@
         <v>1622.966287987609</v>
       </c>
       <c r="R15" t="n">
-        <v>1541.568727888341</v>
+        <v>1622.966287987609</v>
       </c>
       <c r="S15" t="n">
-        <v>1374.066492846507</v>
+        <v>1455.464052945775</v>
       </c>
       <c r="T15" t="n">
-        <v>1173.163483952</v>
+        <v>1254.561044051268</v>
       </c>
       <c r="U15" t="n">
-        <v>1173.163483952</v>
+        <v>1254.561044051268</v>
       </c>
       <c r="V15" t="n">
-        <v>1173.163483952</v>
+        <v>1019.408935819526</v>
       </c>
       <c r="W15" t="n">
-        <v>1173.163483952</v>
+        <v>765.171579091324</v>
       </c>
       <c r="X15" t="n">
-        <v>1173.163483952</v>
+        <v>557.3200788857912</v>
       </c>
       <c r="Y15" t="n">
-        <v>1157.875422507002</v>
+        <v>557.3200788857912</v>
       </c>
     </row>
     <row r="16">
@@ -5489,25 +5491,25 @@
         </is>
       </c>
       <c r="B17" t="n">
-        <v>503.7583553506526</v>
+        <v>1622.96628798761</v>
       </c>
       <c r="C17" t="n">
-        <v>503.7583553506526</v>
+        <v>1622.96628798761</v>
       </c>
       <c r="D17" t="n">
-        <v>503.7583553506526</v>
+        <v>1264.700589380859</v>
       </c>
       <c r="E17" t="n">
-        <v>503.7583553506526</v>
+        <v>878.9123367826148</v>
       </c>
       <c r="F17" t="n">
-        <v>503.7583553506526</v>
+        <v>469.072365068572</v>
       </c>
       <c r="G17" t="n">
-        <v>503.7583553506526</v>
+        <v>59.23239335452911</v>
       </c>
       <c r="H17" t="n">
-        <v>222.1153555684087</v>
+        <v>32.45932575975219</v>
       </c>
       <c r="I17" t="n">
         <v>32.45932575975219</v>
@@ -5516,49 +5518,49 @@
         <v>70.13987180521508</v>
       </c>
       <c r="K17" t="n">
-        <v>247.3580469011318</v>
+        <v>247.358046901132</v>
       </c>
       <c r="L17" t="n">
-        <v>519.4894913528326</v>
+        <v>519.4894913528328</v>
       </c>
       <c r="M17" t="n">
-        <v>838.8947028941457</v>
+        <v>838.8947028941458</v>
       </c>
       <c r="N17" t="n">
         <v>1148.836227140252</v>
       </c>
       <c r="O17" t="n">
-        <v>1396.31758174832</v>
+        <v>1396.317581748321</v>
       </c>
       <c r="P17" t="n">
         <v>1569.862809315274</v>
       </c>
       <c r="Q17" t="n">
-        <v>1622.966287987609</v>
+        <v>1622.96628798761</v>
       </c>
       <c r="R17" t="n">
-        <v>1508.970645214178</v>
+        <v>1622.96628798761</v>
       </c>
       <c r="S17" t="n">
-        <v>1311.402045381201</v>
+        <v>1622.96628798761</v>
       </c>
       <c r="T17" t="n">
-        <v>1088.658125761969</v>
+        <v>1622.96628798761</v>
       </c>
       <c r="U17" t="n">
-        <v>834.8212426942232</v>
+        <v>1622.96628798761</v>
       </c>
       <c r="V17" t="n">
-        <v>503.7583553506526</v>
+        <v>1622.96628798761</v>
       </c>
       <c r="W17" t="n">
-        <v>503.7583553506526</v>
+        <v>1622.96628798761</v>
       </c>
       <c r="X17" t="n">
-        <v>503.7583553506526</v>
+        <v>1622.96628798761</v>
       </c>
       <c r="Y17" t="n">
-        <v>503.7583553506526</v>
+        <v>1622.96628798761</v>
       </c>
     </row>
     <row r="18">
@@ -5568,76 +5570,76 @@
         </is>
       </c>
       <c r="B18" t="n">
-        <v>989.6600854869342</v>
+        <v>355.8467647021305</v>
       </c>
       <c r="C18" t="n">
-        <v>815.2070562058072</v>
+        <v>181.3937354210034</v>
       </c>
       <c r="D18" t="n">
-        <v>666.272646544556</v>
+        <v>32.45932575975219</v>
       </c>
       <c r="E18" t="n">
-        <v>507.0351915391004</v>
+        <v>32.45932575975219</v>
       </c>
       <c r="F18" t="n">
-        <v>360.5006335659854</v>
+        <v>32.45932575975219</v>
       </c>
       <c r="G18" t="n">
-        <v>222.0882603251556</v>
+        <v>32.45932575975219</v>
       </c>
       <c r="H18" t="n">
-        <v>111.7947023326189</v>
+        <v>32.45932575975219</v>
       </c>
       <c r="I18" t="n">
         <v>32.45932575975219</v>
       </c>
       <c r="J18" t="n">
-        <v>32.45932575975219</v>
+        <v>61.20822116384404</v>
       </c>
       <c r="K18" t="n">
-        <v>208.2166101768439</v>
+        <v>61.20822116384404</v>
       </c>
       <c r="L18" t="n">
-        <v>505.9483651585071</v>
+        <v>358.9399761455072</v>
       </c>
       <c r="M18" t="n">
-        <v>905.3665017627701</v>
+        <v>758.3581127497703</v>
       </c>
       <c r="N18" t="n">
-        <v>1307.050658039703</v>
+        <v>1057.709031609044</v>
       </c>
       <c r="O18" t="n">
         <v>1380.722538783602</v>
       </c>
       <c r="P18" t="n">
-        <v>1622.966287987609</v>
+        <v>1622.96628798761</v>
       </c>
       <c r="Q18" t="n">
-        <v>1622.966287987609</v>
+        <v>1622.96628798761</v>
       </c>
       <c r="R18" t="n">
-        <v>1541.568727888341</v>
+        <v>1622.96628798761</v>
       </c>
       <c r="S18" t="n">
-        <v>1541.568727888341</v>
+        <v>1622.96628798761</v>
       </c>
       <c r="T18" t="n">
-        <v>1340.665718993834</v>
+        <v>1622.96628798761</v>
       </c>
       <c r="U18" t="n">
-        <v>1340.665718993834</v>
+        <v>1394.763620525088</v>
       </c>
       <c r="V18" t="n">
-        <v>1340.665718993834</v>
+        <v>1159.611512293345</v>
       </c>
       <c r="W18" t="n">
-        <v>1340.665718993834</v>
+        <v>939.6739006926853</v>
       </c>
       <c r="X18" t="n">
-        <v>1340.665718993834</v>
+        <v>731.8224004871524</v>
       </c>
       <c r="Y18" t="n">
-        <v>1157.875422507002</v>
+        <v>524.0621017221986</v>
       </c>
     </row>
     <row r="19">
@@ -5647,13 +5649,13 @@
         </is>
       </c>
       <c r="B19" t="n">
-        <v>32.45932575975219</v>
+        <v>296.5701361642185</v>
       </c>
       <c r="C19" t="n">
-        <v>32.45932575975219</v>
+        <v>296.5701361642185</v>
       </c>
       <c r="D19" t="n">
-        <v>32.45932575975219</v>
+        <v>146.4534967518828</v>
       </c>
       <c r="E19" t="n">
         <v>32.45932575975219</v>
@@ -5692,31 +5694,31 @@
         <v>361.2466016029501</v>
       </c>
       <c r="Q19" t="n">
-        <v>361.2466016029501</v>
+        <v>296.5701361642185</v>
       </c>
       <c r="R19" t="n">
-        <v>361.2466016029501</v>
+        <v>296.5701361642185</v>
       </c>
       <c r="S19" t="n">
-        <v>361.2466016029501</v>
+        <v>296.5701361642185</v>
       </c>
       <c r="T19" t="n">
-        <v>361.2466016029501</v>
+        <v>296.5701361642185</v>
       </c>
       <c r="U19" t="n">
-        <v>72.05002336285366</v>
+        <v>296.5701361642185</v>
       </c>
       <c r="V19" t="n">
-        <v>72.05002336285366</v>
+        <v>296.5701361642185</v>
       </c>
       <c r="W19" t="n">
-        <v>72.05002336285366</v>
+        <v>296.5701361642185</v>
       </c>
       <c r="X19" t="n">
-        <v>32.45932575975219</v>
+        <v>296.5701361642185</v>
       </c>
       <c r="Y19" t="n">
-        <v>32.45932575975219</v>
+        <v>296.5701361642185</v>
       </c>
     </row>
     <row r="20">
@@ -5726,16 +5728,16 @@
         </is>
       </c>
       <c r="B20" t="n">
-        <v>1378.603698709343</v>
+        <v>1032.3898425272</v>
       </c>
       <c r="C20" t="n">
-        <v>1378.603698709343</v>
+        <v>1032.3898425272</v>
       </c>
       <c r="D20" t="n">
-        <v>1378.603698709343</v>
+        <v>1032.3898425272</v>
       </c>
       <c r="E20" t="n">
-        <v>1378.603698709343</v>
+        <v>1032.3898425272</v>
       </c>
       <c r="F20" t="n">
         <v>968.7637269953007</v>
@@ -5756,10 +5758,10 @@
         <v>247.3580469011319</v>
       </c>
       <c r="L20" t="n">
-        <v>519.4894913528326</v>
+        <v>519.4894913528327</v>
       </c>
       <c r="M20" t="n">
-        <v>838.8947028941456</v>
+        <v>838.8947028941458</v>
       </c>
       <c r="N20" t="n">
         <v>1148.836227140252</v>
@@ -5780,22 +5782,22 @@
         <v>1508.970645214178</v>
       </c>
       <c r="T20" t="n">
-        <v>1378.603698709343</v>
+        <v>1286.226725594945</v>
       </c>
       <c r="U20" t="n">
-        <v>1378.603698709343</v>
+        <v>1032.3898425272</v>
       </c>
       <c r="V20" t="n">
-        <v>1378.603698709343</v>
+        <v>1032.3898425272</v>
       </c>
       <c r="W20" t="n">
-        <v>1378.603698709343</v>
+        <v>1032.3898425272</v>
       </c>
       <c r="X20" t="n">
-        <v>1378.603698709343</v>
+        <v>1032.3898425272</v>
       </c>
       <c r="Y20" t="n">
-        <v>1378.603698709343</v>
+        <v>1032.3898425272</v>
       </c>
     </row>
     <row r="21">
@@ -5805,19 +5807,19 @@
         </is>
       </c>
       <c r="B21" t="n">
-        <v>294.1969092872488</v>
+        <v>170.8716990005819</v>
       </c>
       <c r="C21" t="n">
-        <v>294.1969092872488</v>
+        <v>170.8716990005819</v>
       </c>
       <c r="D21" t="n">
-        <v>294.1969092872488</v>
+        <v>170.8716990005819</v>
       </c>
       <c r="E21" t="n">
-        <v>294.1969092872488</v>
+        <v>170.8716990005819</v>
       </c>
       <c r="F21" t="n">
-        <v>147.6623513141338</v>
+        <v>170.8716990005819</v>
       </c>
       <c r="G21" t="n">
         <v>32.45932575975219</v>
@@ -5829,19 +5831,19 @@
         <v>32.45932575975219</v>
       </c>
       <c r="J21" t="n">
-        <v>32.45932575975219</v>
+        <v>61.20822116384404</v>
       </c>
       <c r="K21" t="n">
-        <v>32.45932575975219</v>
+        <v>236.9655055809358</v>
       </c>
       <c r="L21" t="n">
-        <v>330.1910807414154</v>
+        <v>534.697260562599</v>
       </c>
       <c r="M21" t="n">
-        <v>656.0248753321104</v>
+        <v>934.1153971668621</v>
       </c>
       <c r="N21" t="n">
-        <v>1057.709031609044</v>
+        <v>1057.709031609043</v>
       </c>
       <c r="O21" t="n">
         <v>1380.722538783602</v>
@@ -5862,19 +5864,19 @@
         <v>1173.163483952</v>
       </c>
       <c r="U21" t="n">
-        <v>944.9608164894784</v>
+        <v>1008.936191719338</v>
       </c>
       <c r="V21" t="n">
-        <v>709.8087082577356</v>
+        <v>1008.936191719338</v>
       </c>
       <c r="W21" t="n">
-        <v>709.8087082577356</v>
+        <v>754.6988349911367</v>
       </c>
       <c r="X21" t="n">
-        <v>501.9572080522028</v>
+        <v>546.8473347856038</v>
       </c>
       <c r="Y21" t="n">
-        <v>294.1969092872488</v>
+        <v>339.08703602065</v>
       </c>
     </row>
     <row r="22">
@@ -5884,76 +5886,76 @@
         </is>
       </c>
       <c r="B22" t="n">
-        <v>1622.966287987609</v>
+        <v>194.1667418687506</v>
       </c>
       <c r="C22" t="n">
-        <v>1622.966287987609</v>
+        <v>32.45932575975219</v>
       </c>
       <c r="D22" t="n">
-        <v>1622.966287987609</v>
+        <v>32.45932575975219</v>
       </c>
       <c r="E22" t="n">
-        <v>1622.966287987609</v>
+        <v>32.45932575975219</v>
       </c>
       <c r="F22" t="n">
-        <v>1622.966287987609</v>
+        <v>32.45932575975219</v>
       </c>
       <c r="G22" t="n">
-        <v>1604.663028368529</v>
+        <v>32.45932575975219</v>
       </c>
       <c r="H22" t="n">
-        <v>1443.170888970756</v>
+        <v>32.45932575975219</v>
       </c>
       <c r="I22" t="n">
-        <v>1294.179012144412</v>
+        <v>32.45932575975219</v>
       </c>
       <c r="J22" t="n">
-        <v>1294.179012144412</v>
+        <v>32.45932575975219</v>
       </c>
       <c r="K22" t="n">
-        <v>1302.533129726572</v>
+        <v>40.81344334191286</v>
       </c>
       <c r="L22" t="n">
-        <v>1368.749958612684</v>
+        <v>107.0302722280248</v>
       </c>
       <c r="M22" t="n">
-        <v>1448.955443483103</v>
+        <v>187.235757098444</v>
       </c>
       <c r="N22" t="n">
-        <v>1532.68843761323</v>
+        <v>270.9687512285709</v>
       </c>
       <c r="O22" t="n">
-        <v>1594.013114755733</v>
+        <v>332.2934283710737</v>
       </c>
       <c r="P22" t="n">
-        <v>1622.966287987609</v>
+        <v>361.2466016029501</v>
       </c>
       <c r="Q22" t="n">
-        <v>1622.966287987609</v>
+        <v>361.2466016029501</v>
       </c>
       <c r="R22" t="n">
-        <v>1622.966287987609</v>
+        <v>194.1667418687506</v>
       </c>
       <c r="S22" t="n">
-        <v>1622.966287987609</v>
+        <v>194.1667418687506</v>
       </c>
       <c r="T22" t="n">
-        <v>1622.966287987609</v>
+        <v>194.1667418687506</v>
       </c>
       <c r="U22" t="n">
-        <v>1622.966287987609</v>
+        <v>194.1667418687506</v>
       </c>
       <c r="V22" t="n">
-        <v>1622.966287987609</v>
+        <v>194.1667418687506</v>
       </c>
       <c r="W22" t="n">
-        <v>1622.966287987609</v>
+        <v>194.1667418687506</v>
       </c>
       <c r="X22" t="n">
-        <v>1622.966287987609</v>
+        <v>194.1667418687506</v>
       </c>
       <c r="Y22" t="n">
-        <v>1622.966287987609</v>
+        <v>194.1667418687506</v>
       </c>
     </row>
     <row r="23">
@@ -5963,10 +5965,10 @@
         </is>
       </c>
       <c r="B23" t="n">
-        <v>401.4218427001639</v>
+        <v>759.6875413069145</v>
       </c>
       <c r="C23" t="n">
-        <v>32.45932575975219</v>
+        <v>390.7250243665027</v>
       </c>
       <c r="D23" t="n">
         <v>32.45932575975219</v>
@@ -5993,10 +5995,10 @@
         <v>247.3580469011319</v>
       </c>
       <c r="L23" t="n">
-        <v>519.4894913528326</v>
+        <v>519.4894913528328</v>
       </c>
       <c r="M23" t="n">
-        <v>838.8947028941457</v>
+        <v>838.8947028941459</v>
       </c>
       <c r="N23" t="n">
         <v>1148.836227140252</v>
@@ -6020,19 +6022,19 @@
         <v>1622.96628798761</v>
       </c>
       <c r="U23" t="n">
-        <v>1622.96628798761</v>
+        <v>1369.129404919864</v>
       </c>
       <c r="V23" t="n">
-        <v>1622.96628798761</v>
+        <v>1038.066517576293</v>
       </c>
       <c r="W23" t="n">
-        <v>1551.626773001177</v>
+        <v>1038.066517576293</v>
       </c>
       <c r="X23" t="n">
-        <v>1178.161014740097</v>
+        <v>1038.066517576293</v>
       </c>
       <c r="Y23" t="n">
-        <v>788.0216827642857</v>
+        <v>1038.066517576293</v>
       </c>
     </row>
     <row r="24">
@@ -6042,76 +6044,76 @@
         </is>
       </c>
       <c r="B24" t="n">
-        <v>549.7496870371103</v>
+        <v>111.7947023326189</v>
       </c>
       <c r="C24" t="n">
-        <v>375.2966577559833</v>
+        <v>111.7947023326189</v>
       </c>
       <c r="D24" t="n">
-        <v>226.3622480947321</v>
+        <v>111.7947023326189</v>
       </c>
       <c r="E24" t="n">
-        <v>67.12479308927658</v>
+        <v>111.7947023326189</v>
       </c>
       <c r="F24" t="n">
-        <v>32.45932575975219</v>
+        <v>111.7947023326189</v>
       </c>
       <c r="G24" t="n">
-        <v>32.45932575975219</v>
+        <v>111.7947023326189</v>
       </c>
       <c r="H24" t="n">
-        <v>32.45932575975219</v>
+        <v>111.7947023326189</v>
       </c>
       <c r="I24" t="n">
         <v>32.45932575975219</v>
       </c>
       <c r="J24" t="n">
-        <v>32.45932575975219</v>
+        <v>61.20822116384404</v>
       </c>
       <c r="K24" t="n">
-        <v>208.2166101768439</v>
+        <v>91.88297124942903</v>
       </c>
       <c r="L24" t="n">
-        <v>505.9483651585071</v>
+        <v>389.6147262310922</v>
       </c>
       <c r="M24" t="n">
-        <v>656.0248753321104</v>
+        <v>789.0328628353552</v>
       </c>
       <c r="N24" t="n">
-        <v>1057.709031609044</v>
+        <v>1190.717019112289</v>
       </c>
       <c r="O24" t="n">
-        <v>1380.722538783602</v>
+        <v>1513.730526286847</v>
       </c>
       <c r="P24" t="n">
-        <v>1622.966287987609</v>
+        <v>1513.730526286847</v>
       </c>
       <c r="Q24" t="n">
-        <v>1622.966287987609</v>
+        <v>1622.96628798761</v>
       </c>
       <c r="R24" t="n">
-        <v>1622.966287987609</v>
+        <v>1622.96628798761</v>
       </c>
       <c r="S24" t="n">
-        <v>1622.966287987609</v>
+        <v>1455.464052945775</v>
       </c>
       <c r="T24" t="n">
-        <v>1622.966287987609</v>
+        <v>1413.21397074564</v>
       </c>
       <c r="U24" t="n">
-        <v>1622.966287987609</v>
+        <v>1185.011303283118</v>
       </c>
       <c r="V24" t="n">
-        <v>1387.814179755867</v>
+        <v>949.8591950513753</v>
       </c>
       <c r="W24" t="n">
-        <v>1133.576823027665</v>
+        <v>695.6218383231737</v>
       </c>
       <c r="X24" t="n">
-        <v>925.7253228221323</v>
+        <v>487.7703381176408</v>
       </c>
       <c r="Y24" t="n">
-        <v>717.9650240571784</v>
+        <v>280.0100393526869</v>
       </c>
     </row>
     <row r="25">
@@ -6121,76 +6123,76 @@
         </is>
       </c>
       <c r="B25" t="n">
-        <v>361.2466016029501</v>
+        <v>1622.96628798761</v>
       </c>
       <c r="C25" t="n">
-        <v>361.2466016029501</v>
+        <v>1622.96628798761</v>
       </c>
       <c r="D25" t="n">
-        <v>361.2466016029501</v>
+        <v>1622.96628798761</v>
       </c>
       <c r="E25" t="n">
-        <v>361.2466016029501</v>
+        <v>1622.96628798761</v>
       </c>
       <c r="F25" t="n">
-        <v>361.2466016029501</v>
+        <v>1622.96628798761</v>
       </c>
       <c r="G25" t="n">
-        <v>342.9433419838693</v>
+        <v>1453.545409657094</v>
       </c>
       <c r="H25" t="n">
-        <v>181.4512025860964</v>
+        <v>1453.545409657094</v>
       </c>
       <c r="I25" t="n">
-        <v>32.45932575975219</v>
+        <v>1304.55353283075</v>
       </c>
       <c r="J25" t="n">
-        <v>32.45932575975219</v>
+        <v>1294.179012144412</v>
       </c>
       <c r="K25" t="n">
-        <v>40.81344334191285</v>
+        <v>1302.533129726572</v>
       </c>
       <c r="L25" t="n">
-        <v>107.0302722280248</v>
+        <v>1368.749958612684</v>
       </c>
       <c r="M25" t="n">
-        <v>187.235757098444</v>
+        <v>1448.955443483103</v>
       </c>
       <c r="N25" t="n">
-        <v>270.9687512285709</v>
+        <v>1532.68843761323</v>
       </c>
       <c r="O25" t="n">
-        <v>332.2934283710737</v>
+        <v>1594.013114755733</v>
       </c>
       <c r="P25" t="n">
-        <v>361.2466016029501</v>
+        <v>1622.96628798761</v>
       </c>
       <c r="Q25" t="n">
-        <v>361.2466016029501</v>
+        <v>1622.96628798761</v>
       </c>
       <c r="R25" t="n">
-        <v>361.2466016029501</v>
+        <v>1622.96628798761</v>
       </c>
       <c r="S25" t="n">
-        <v>361.2466016029501</v>
+        <v>1622.96628798761</v>
       </c>
       <c r="T25" t="n">
-        <v>361.2466016029501</v>
+        <v>1622.96628798761</v>
       </c>
       <c r="U25" t="n">
-        <v>361.2466016029501</v>
+        <v>1622.96628798761</v>
       </c>
       <c r="V25" t="n">
-        <v>361.2466016029501</v>
+        <v>1622.96628798761</v>
       </c>
       <c r="W25" t="n">
-        <v>361.2466016029501</v>
+        <v>1622.96628798761</v>
       </c>
       <c r="X25" t="n">
-        <v>361.2466016029501</v>
+        <v>1622.96628798761</v>
       </c>
       <c r="Y25" t="n">
-        <v>361.2466016029501</v>
+        <v>1622.96628798761</v>
       </c>
     </row>
     <row r="26">
@@ -6200,40 +6202,40 @@
         </is>
       </c>
       <c r="B26" t="n">
-        <v>883.5977926533735</v>
+        <v>401.4218427001639</v>
       </c>
       <c r="C26" t="n">
-        <v>514.6352757129619</v>
+        <v>32.45932575975218</v>
       </c>
       <c r="D26" t="n">
-        <v>156.3695771062114</v>
+        <v>32.45932575975218</v>
       </c>
       <c r="E26" t="n">
-        <v>32.45932575975219</v>
+        <v>32.45932575975218</v>
       </c>
       <c r="F26" t="n">
-        <v>32.45932575975219</v>
+        <v>32.45932575975218</v>
       </c>
       <c r="G26" t="n">
-        <v>32.45932575975219</v>
+        <v>32.45932575975218</v>
       </c>
       <c r="H26" t="n">
-        <v>32.45932575975219</v>
+        <v>32.45932575975218</v>
       </c>
       <c r="I26" t="n">
-        <v>32.45932575975219</v>
+        <v>32.45932575975218</v>
       </c>
       <c r="J26" t="n">
         <v>70.13987180521508</v>
       </c>
       <c r="K26" t="n">
-        <v>247.3580469011319</v>
+        <v>247.3580469011318</v>
       </c>
       <c r="L26" t="n">
         <v>519.4894913528326</v>
       </c>
       <c r="M26" t="n">
-        <v>838.8947028941456</v>
+        <v>838.8947028941457</v>
       </c>
       <c r="N26" t="n">
         <v>1148.836227140252</v>
@@ -6248,28 +6250,28 @@
         <v>1622.966287987609</v>
       </c>
       <c r="R26" t="n">
-        <v>1622.966287987609</v>
+        <v>1551.626773001177</v>
       </c>
       <c r="S26" t="n">
-        <v>1622.966287987609</v>
+        <v>1551.626773001177</v>
       </c>
       <c r="T26" t="n">
-        <v>1622.966287987609</v>
+        <v>1551.626773001177</v>
       </c>
       <c r="U26" t="n">
-        <v>1622.966287987609</v>
+        <v>1551.626773001177</v>
       </c>
       <c r="V26" t="n">
-        <v>1622.966287987609</v>
+        <v>1551.626773001177</v>
       </c>
       <c r="W26" t="n">
-        <v>1270.197632717495</v>
+        <v>1551.626773001177</v>
       </c>
       <c r="X26" t="n">
-        <v>1270.197632717495</v>
+        <v>1178.161014740097</v>
       </c>
       <c r="Y26" t="n">
-        <v>1270.197632717495</v>
+        <v>788.0216827642857</v>
       </c>
     </row>
     <row r="27">
@@ -6279,49 +6281,49 @@
         </is>
       </c>
       <c r="B27" t="n">
-        <v>911.3557353751175</v>
+        <v>703.5042351695845</v>
       </c>
       <c r="C27" t="n">
-        <v>736.9027060939906</v>
+        <v>529.0512058884575</v>
       </c>
       <c r="D27" t="n">
-        <v>587.9682964327393</v>
+        <v>380.1167962272062</v>
       </c>
       <c r="E27" t="n">
-        <v>428.7308414272838</v>
+        <v>220.8793412217507</v>
       </c>
       <c r="F27" t="n">
-        <v>360.5006335659854</v>
+        <v>74.34478324863571</v>
       </c>
       <c r="G27" t="n">
-        <v>222.0882603251556</v>
+        <v>32.45932575975218</v>
       </c>
       <c r="H27" t="n">
-        <v>111.7947023326189</v>
+        <v>32.45932575975218</v>
       </c>
       <c r="I27" t="n">
-        <v>32.45932575975219</v>
+        <v>32.45932575975218</v>
       </c>
       <c r="J27" t="n">
-        <v>32.45932575975219</v>
+        <v>61.20822116384403</v>
       </c>
       <c r="K27" t="n">
-        <v>208.2166101768439</v>
+        <v>61.20822116384403</v>
       </c>
       <c r="L27" t="n">
-        <v>505.9483651585071</v>
+        <v>358.9399761455072</v>
       </c>
       <c r="M27" t="n">
-        <v>656.0248753321104</v>
+        <v>758.3581127497703</v>
       </c>
       <c r="N27" t="n">
-        <v>1057.709031609044</v>
+        <v>1160.042269026703</v>
       </c>
       <c r="O27" t="n">
-        <v>1380.722538783602</v>
+        <v>1483.055776201262</v>
       </c>
       <c r="P27" t="n">
-        <v>1622.966287987609</v>
+        <v>1513.730526286846</v>
       </c>
       <c r="Q27" t="n">
         <v>1622.966287987609</v>
@@ -6345,10 +6347,10 @@
         <v>1287.331371160139</v>
       </c>
       <c r="X27" t="n">
-        <v>1287.331371160139</v>
+        <v>1079.479870954606</v>
       </c>
       <c r="Y27" t="n">
-        <v>1079.571072395186</v>
+        <v>871.7195721896526</v>
       </c>
     </row>
     <row r="28">
@@ -6358,34 +6360,34 @@
         </is>
       </c>
       <c r="B28" t="n">
-        <v>32.45932575975219</v>
+        <v>32.45932575975218</v>
       </c>
       <c r="C28" t="n">
-        <v>32.45932575975219</v>
+        <v>32.45932575975218</v>
       </c>
       <c r="D28" t="n">
-        <v>32.45932575975219</v>
+        <v>32.45932575975218</v>
       </c>
       <c r="E28" t="n">
-        <v>32.45932575975219</v>
+        <v>32.45932575975218</v>
       </c>
       <c r="F28" t="n">
-        <v>32.45932575975219</v>
+        <v>32.45932575975218</v>
       </c>
       <c r="G28" t="n">
-        <v>32.45932575975219</v>
+        <v>32.45932575975218</v>
       </c>
       <c r="H28" t="n">
-        <v>32.45932575975219</v>
+        <v>32.45932575975218</v>
       </c>
       <c r="I28" t="n">
-        <v>32.45932575975219</v>
+        <v>32.45932575975218</v>
       </c>
       <c r="J28" t="n">
-        <v>32.45932575975219</v>
+        <v>32.45932575975218</v>
       </c>
       <c r="K28" t="n">
-        <v>40.81344334191285</v>
+        <v>40.81344334191284</v>
       </c>
       <c r="L28" t="n">
         <v>107.0302722280248</v>
@@ -6421,13 +6423,13 @@
         <v>361.2466016029501</v>
       </c>
       <c r="W28" t="n">
-        <v>361.2466016029501</v>
+        <v>260.4488766577695</v>
       </c>
       <c r="X28" t="n">
-        <v>253.2519049032823</v>
+        <v>32.45932575975218</v>
       </c>
       <c r="Y28" t="n">
-        <v>32.45932575975219</v>
+        <v>32.45932575975218</v>
       </c>
     </row>
     <row r="29">
@@ -6437,76 +6439,76 @@
         </is>
       </c>
       <c r="B29" t="n">
-        <v>811.2618144142066</v>
+        <v>591.0778725088204</v>
       </c>
       <c r="C29" t="n">
-        <v>442.2992974737949</v>
+        <v>222.1153555684087</v>
       </c>
       <c r="D29" t="n">
-        <v>442.2992974737949</v>
+        <v>222.1153555684087</v>
       </c>
       <c r="E29" t="n">
-        <v>442.2992974737949</v>
+        <v>222.1153555684087</v>
       </c>
       <c r="F29" t="n">
-        <v>32.45932575975208</v>
+        <v>222.1153555684087</v>
       </c>
       <c r="G29" t="n">
-        <v>32.45932575975208</v>
+        <v>222.1153555684087</v>
       </c>
       <c r="H29" t="n">
-        <v>32.45932575975208</v>
+        <v>222.1153555684087</v>
       </c>
       <c r="I29" t="n">
-        <v>32.45932575975208</v>
+        <v>32.45932575975218</v>
       </c>
       <c r="J29" t="n">
-        <v>70.13987180521497</v>
+        <v>70.13987180521507</v>
       </c>
       <c r="K29" t="n">
-        <v>247.3580469011318</v>
+        <v>247.3580469011319</v>
       </c>
       <c r="L29" t="n">
-        <v>519.4894913528325</v>
+        <v>519.4894913528326</v>
       </c>
       <c r="M29" t="n">
-        <v>838.8947028941456</v>
+        <v>838.8947028941457</v>
       </c>
       <c r="N29" t="n">
         <v>1148.836227140252</v>
       </c>
       <c r="O29" t="n">
-        <v>1396.31758174832</v>
+        <v>1396.317581748321</v>
       </c>
       <c r="P29" t="n">
         <v>1569.862809315274</v>
       </c>
       <c r="Q29" t="n">
-        <v>1622.966287987609</v>
+        <v>1622.96628798761</v>
       </c>
       <c r="R29" t="n">
-        <v>1622.966287987609</v>
+        <v>1622.96628798761</v>
       </c>
       <c r="S29" t="n">
-        <v>1622.966287987609</v>
+        <v>1425.397688154633</v>
       </c>
       <c r="T29" t="n">
-        <v>1400.222368368377</v>
+        <v>1425.397688154633</v>
       </c>
       <c r="U29" t="n">
-        <v>1400.222368368377</v>
+        <v>1308.740599916513</v>
       </c>
       <c r="V29" t="n">
-        <v>1400.222368368377</v>
+        <v>977.6777125729423</v>
       </c>
       <c r="W29" t="n">
-        <v>1400.222368368377</v>
+        <v>977.6777125729423</v>
       </c>
       <c r="X29" t="n">
-        <v>1400.222368368377</v>
+        <v>977.6777125729423</v>
       </c>
       <c r="Y29" t="n">
-        <v>1197.861654478328</v>
+        <v>977.6777125729423</v>
       </c>
     </row>
     <row r="30">
@@ -6516,76 +6518,76 @@
         </is>
       </c>
       <c r="B30" t="n">
-        <v>206.9123550408792</v>
+        <v>964.6900832088122</v>
       </c>
       <c r="C30" t="n">
-        <v>32.45932575975219</v>
+        <v>790.2370539276852</v>
       </c>
       <c r="D30" t="n">
-        <v>32.45932575975219</v>
+        <v>641.302644266434</v>
       </c>
       <c r="E30" t="n">
-        <v>32.45932575975219</v>
+        <v>482.0651892609785</v>
       </c>
       <c r="F30" t="n">
-        <v>32.45932575975219</v>
+        <v>335.5306312878635</v>
       </c>
       <c r="G30" t="n">
-        <v>32.45932575975219</v>
+        <v>222.0882603251556</v>
       </c>
       <c r="H30" t="n">
-        <v>32.45932575975219</v>
+        <v>111.7947023326189</v>
       </c>
       <c r="I30" t="n">
-        <v>32.45932575975219</v>
+        <v>32.45932575975218</v>
       </c>
       <c r="J30" t="n">
-        <v>61.20822116384404</v>
+        <v>61.20822116384403</v>
       </c>
       <c r="K30" t="n">
-        <v>61.20822116384404</v>
+        <v>236.9655055809357</v>
       </c>
       <c r="L30" t="n">
-        <v>358.9399761455072</v>
+        <v>534.6972605625989</v>
       </c>
       <c r="M30" t="n">
-        <v>758.3581127497703</v>
+        <v>934.1153971668618</v>
       </c>
       <c r="N30" t="n">
-        <v>1057.709031609044</v>
+        <v>948.4732699082806</v>
       </c>
       <c r="O30" t="n">
-        <v>1380.722538783602</v>
+        <v>1271.486777082839</v>
       </c>
       <c r="P30" t="n">
-        <v>1622.966287987609</v>
+        <v>1513.730526286846</v>
       </c>
       <c r="Q30" t="n">
         <v>1622.966287987609</v>
       </c>
       <c r="R30" t="n">
-        <v>1622.966287987609</v>
+        <v>1541.568727888341</v>
       </c>
       <c r="S30" t="n">
-        <v>1622.966287987609</v>
+        <v>1541.568727888341</v>
       </c>
       <c r="T30" t="n">
-        <v>1508.3316234539</v>
+        <v>1340.665718993834</v>
       </c>
       <c r="U30" t="n">
-        <v>1280.128955991378</v>
+        <v>1340.665718993834</v>
       </c>
       <c r="V30" t="n">
-        <v>1044.976847759636</v>
+        <v>1340.665718993834</v>
       </c>
       <c r="W30" t="n">
-        <v>790.739491031434</v>
+        <v>1340.665718993834</v>
       </c>
       <c r="X30" t="n">
-        <v>582.8879908259012</v>
+        <v>1340.665718993834</v>
       </c>
       <c r="Y30" t="n">
-        <v>375.1276920609473</v>
+        <v>1132.90542022888</v>
       </c>
     </row>
     <row r="31">
@@ -6595,76 +6597,76 @@
         </is>
       </c>
       <c r="B31" t="n">
-        <v>1613.231834484654</v>
+        <v>201.8802040902677</v>
       </c>
       <c r="C31" t="n">
-        <v>1444.295651556747</v>
+        <v>201.8802040902677</v>
       </c>
       <c r="D31" t="n">
-        <v>1294.179012144412</v>
+        <v>201.8802040902677</v>
       </c>
       <c r="E31" t="n">
-        <v>1294.179012144412</v>
+        <v>201.8802040902677</v>
       </c>
       <c r="F31" t="n">
-        <v>1294.179012144412</v>
+        <v>201.8802040902677</v>
       </c>
       <c r="G31" t="n">
-        <v>1294.179012144412</v>
+        <v>32.45932575975218</v>
       </c>
       <c r="H31" t="n">
-        <v>1294.179012144412</v>
+        <v>32.45932575975218</v>
       </c>
       <c r="I31" t="n">
-        <v>1294.179012144412</v>
+        <v>32.45932575975218</v>
       </c>
       <c r="J31" t="n">
-        <v>1294.179012144412</v>
+        <v>32.45932575975218</v>
       </c>
       <c r="K31" t="n">
-        <v>1302.533129726572</v>
+        <v>40.81344334191284</v>
       </c>
       <c r="L31" t="n">
-        <v>1368.749958612684</v>
+        <v>107.0302722280248</v>
       </c>
       <c r="M31" t="n">
-        <v>1448.955443483103</v>
+        <v>187.235757098444</v>
       </c>
       <c r="N31" t="n">
-        <v>1532.68843761323</v>
+        <v>270.9687512285709</v>
       </c>
       <c r="O31" t="n">
-        <v>1594.013114755733</v>
+        <v>332.2934283710737</v>
       </c>
       <c r="P31" t="n">
-        <v>1622.966287987609</v>
+        <v>361.2466016029501</v>
       </c>
       <c r="Q31" t="n">
-        <v>1622.966287987609</v>
+        <v>361.2466016029501</v>
       </c>
       <c r="R31" t="n">
-        <v>1622.966287987609</v>
+        <v>361.2466016029501</v>
       </c>
       <c r="S31" t="n">
-        <v>1622.966287987609</v>
+        <v>361.2466016029501</v>
       </c>
       <c r="T31" t="n">
-        <v>1622.966287987609</v>
+        <v>361.2466016029501</v>
       </c>
       <c r="U31" t="n">
-        <v>1622.966287987609</v>
+        <v>361.2466016029501</v>
       </c>
       <c r="V31" t="n">
-        <v>1622.966287987609</v>
+        <v>361.2466016029501</v>
       </c>
       <c r="W31" t="n">
-        <v>1622.966287987609</v>
+        <v>361.2466016029501</v>
       </c>
       <c r="X31" t="n">
-        <v>1622.966287987609</v>
+        <v>201.8802040902677</v>
       </c>
       <c r="Y31" t="n">
-        <v>1622.966287987609</v>
+        <v>201.8802040902677</v>
       </c>
     </row>
     <row r="32">
@@ -6674,22 +6676,22 @@
         </is>
       </c>
       <c r="B32" t="n">
-        <v>32.45932575975219</v>
+        <v>1122.370805150056</v>
       </c>
       <c r="C32" t="n">
-        <v>32.45932575975219</v>
+        <v>1122.370805150056</v>
       </c>
       <c r="D32" t="n">
-        <v>32.45932575975219</v>
+        <v>764.1051065433055</v>
       </c>
       <c r="E32" t="n">
-        <v>32.45932575975219</v>
+        <v>764.1051065433055</v>
       </c>
       <c r="F32" t="n">
-        <v>32.45932575975219</v>
+        <v>764.1051065433055</v>
       </c>
       <c r="G32" t="n">
-        <v>32.45932575975219</v>
+        <v>354.2651348292627</v>
       </c>
       <c r="H32" t="n">
         <v>32.45932575975219</v>
@@ -6707,43 +6709,43 @@
         <v>519.4894913528326</v>
       </c>
       <c r="M32" t="n">
-        <v>838.8947028941457</v>
+        <v>838.8947028941456</v>
       </c>
       <c r="N32" t="n">
         <v>1148.836227140252</v>
       </c>
       <c r="O32" t="n">
-        <v>1396.317581748321</v>
+        <v>1396.31758174832</v>
       </c>
       <c r="P32" t="n">
         <v>1569.862809315274</v>
       </c>
       <c r="Q32" t="n">
-        <v>1622.96628798761</v>
+        <v>1622.966287987609</v>
       </c>
       <c r="R32" t="n">
-        <v>1622.96628798761</v>
+        <v>1508.970645214178</v>
       </c>
       <c r="S32" t="n">
-        <v>1621.874382042046</v>
+        <v>1508.970645214178</v>
       </c>
       <c r="T32" t="n">
-        <v>1399.130462422814</v>
+        <v>1508.970645214178</v>
       </c>
       <c r="U32" t="n">
-        <v>1145.293579355068</v>
+        <v>1508.970645214178</v>
       </c>
       <c r="V32" t="n">
-        <v>1145.293579355068</v>
+        <v>1508.970645214178</v>
       </c>
       <c r="W32" t="n">
-        <v>792.5249240849539</v>
+        <v>1508.970645214178</v>
       </c>
       <c r="X32" t="n">
-        <v>419.059165823874</v>
+        <v>1508.970645214178</v>
       </c>
       <c r="Y32" t="n">
-        <v>419.059165823874</v>
+        <v>1508.970645214178</v>
       </c>
     </row>
     <row r="33">
@@ -6753,22 +6755,22 @@
         </is>
       </c>
       <c r="B33" t="n">
-        <v>329.1174114232697</v>
+        <v>468.3521269378421</v>
       </c>
       <c r="C33" t="n">
-        <v>329.1174114232697</v>
+        <v>293.8990976567151</v>
       </c>
       <c r="D33" t="n">
-        <v>329.1174114232697</v>
+        <v>144.9646879954638</v>
       </c>
       <c r="E33" t="n">
-        <v>329.1174114232697</v>
+        <v>144.9646879954638</v>
       </c>
       <c r="F33" t="n">
-        <v>329.1174114232697</v>
+        <v>144.9646879954638</v>
       </c>
       <c r="G33" t="n">
-        <v>222.0882603251556</v>
+        <v>144.9646879954638</v>
       </c>
       <c r="H33" t="n">
         <v>111.7947023326189</v>
@@ -6780,49 +6782,49 @@
         <v>61.20822116384404</v>
       </c>
       <c r="K33" t="n">
-        <v>236.9655055809358</v>
+        <v>61.20822116384404</v>
       </c>
       <c r="L33" t="n">
-        <v>534.697260562599</v>
+        <v>358.9399761455072</v>
       </c>
       <c r="M33" t="n">
-        <v>934.1153971668621</v>
+        <v>758.3581127497703</v>
       </c>
       <c r="N33" t="n">
-        <v>1057.709031609044</v>
+        <v>948.4732699082808</v>
       </c>
       <c r="O33" t="n">
-        <v>1380.722538783602</v>
+        <v>1271.486777082839</v>
       </c>
       <c r="P33" t="n">
-        <v>1622.966287987609</v>
+        <v>1513.730526286846</v>
       </c>
       <c r="Q33" t="n">
         <v>1622.966287987609</v>
       </c>
       <c r="R33" t="n">
-        <v>1622.966287987609</v>
+        <v>1541.568727888341</v>
       </c>
       <c r="S33" t="n">
-        <v>1455.464052945775</v>
+        <v>1541.568727888341</v>
       </c>
       <c r="T33" t="n">
-        <v>1254.561044051268</v>
+        <v>1541.568727888341</v>
       </c>
       <c r="U33" t="n">
-        <v>1026.358376588747</v>
+        <v>1541.568727888341</v>
       </c>
       <c r="V33" t="n">
-        <v>791.2062683570041</v>
+        <v>1306.416619656598</v>
       </c>
       <c r="W33" t="n">
-        <v>536.9689116288025</v>
+        <v>1052.179262928397</v>
       </c>
       <c r="X33" t="n">
-        <v>329.1174114232697</v>
+        <v>844.327762722864</v>
       </c>
       <c r="Y33" t="n">
-        <v>329.1174114232697</v>
+        <v>636.5674639579101</v>
       </c>
     </row>
     <row r="34">
@@ -6832,76 +6834,76 @@
         </is>
       </c>
       <c r="B34" t="n">
-        <v>32.45932575975219</v>
+        <v>1294.179012144412</v>
       </c>
       <c r="C34" t="n">
-        <v>32.45932575975219</v>
+        <v>1294.179012144412</v>
       </c>
       <c r="D34" t="n">
-        <v>32.45932575975219</v>
+        <v>1294.179012144412</v>
       </c>
       <c r="E34" t="n">
-        <v>32.45932575975219</v>
+        <v>1294.179012144412</v>
       </c>
       <c r="F34" t="n">
-        <v>32.45932575975219</v>
+        <v>1294.179012144412</v>
       </c>
       <c r="G34" t="n">
-        <v>32.45932575975219</v>
+        <v>1294.179012144412</v>
       </c>
       <c r="H34" t="n">
-        <v>32.45932575975219</v>
+        <v>1294.179012144412</v>
       </c>
       <c r="I34" t="n">
-        <v>32.45932575975219</v>
+        <v>1294.179012144412</v>
       </c>
       <c r="J34" t="n">
-        <v>32.45932575975219</v>
+        <v>1294.179012144412</v>
       </c>
       <c r="K34" t="n">
-        <v>40.81344334191285</v>
+        <v>1302.533129726572</v>
       </c>
       <c r="L34" t="n">
-        <v>107.0302722280248</v>
+        <v>1368.749958612684</v>
       </c>
       <c r="M34" t="n">
-        <v>187.235757098444</v>
+        <v>1448.955443483103</v>
       </c>
       <c r="N34" t="n">
-        <v>270.9687512285709</v>
+        <v>1532.68843761323</v>
       </c>
       <c r="O34" t="n">
-        <v>332.2934283710737</v>
+        <v>1594.013114755733</v>
       </c>
       <c r="P34" t="n">
-        <v>361.2466016029501</v>
+        <v>1622.966287987609</v>
       </c>
       <c r="Q34" t="n">
-        <v>361.2466016029501</v>
+        <v>1622.966287987609</v>
       </c>
       <c r="R34" t="n">
-        <v>361.2466016029501</v>
+        <v>1622.966287987609</v>
       </c>
       <c r="S34" t="n">
-        <v>361.2466016029501</v>
+        <v>1622.966287987609</v>
       </c>
       <c r="T34" t="n">
-        <v>361.2466016029501</v>
+        <v>1622.966287987609</v>
       </c>
       <c r="U34" t="n">
-        <v>72.05002336285366</v>
+        <v>1622.966287987609</v>
       </c>
       <c r="V34" t="n">
-        <v>32.45932575975219</v>
+        <v>1622.966287987609</v>
       </c>
       <c r="W34" t="n">
-        <v>32.45932575975219</v>
+        <v>1333.549117950649</v>
       </c>
       <c r="X34" t="n">
-        <v>32.45932575975219</v>
+        <v>1294.179012144412</v>
       </c>
       <c r="Y34" t="n">
-        <v>32.45932575975219</v>
+        <v>1294.179012144412</v>
       </c>
     </row>
     <row r="35">
@@ -6911,25 +6913,25 @@
         </is>
       </c>
       <c r="B35" t="n">
-        <v>580.3810541751592</v>
+        <v>503.7583553506526</v>
       </c>
       <c r="C35" t="n">
-        <v>580.3810541751592</v>
+        <v>503.7583553506526</v>
       </c>
       <c r="D35" t="n">
-        <v>222.1153555684087</v>
+        <v>145.492656743902</v>
       </c>
       <c r="E35" t="n">
-        <v>222.1153555684087</v>
+        <v>145.492656743902</v>
       </c>
       <c r="F35" t="n">
-        <v>222.1153555684087</v>
+        <v>145.492656743902</v>
       </c>
       <c r="G35" t="n">
-        <v>222.1153555684087</v>
+        <v>32.45932575975219</v>
       </c>
       <c r="H35" t="n">
-        <v>222.1153555684087</v>
+        <v>32.45932575975219</v>
       </c>
       <c r="I35" t="n">
         <v>32.45932575975219</v>
@@ -6944,7 +6946,7 @@
         <v>519.4894913528326</v>
       </c>
       <c r="M35" t="n">
-        <v>838.8947028941456</v>
+        <v>838.8947028941458</v>
       </c>
       <c r="N35" t="n">
         <v>1148.836227140252</v>
@@ -6959,28 +6961,28 @@
         <v>1622.966287987609</v>
       </c>
       <c r="R35" t="n">
-        <v>1622.966287987609</v>
+        <v>1508.970645214178</v>
       </c>
       <c r="S35" t="n">
-        <v>1622.966287987609</v>
+        <v>1311.402045381201</v>
       </c>
       <c r="T35" t="n">
-        <v>1622.966287987609</v>
+        <v>1088.658125761969</v>
       </c>
       <c r="U35" t="n">
-        <v>1622.966287987609</v>
+        <v>834.8212426942232</v>
       </c>
       <c r="V35" t="n">
-        <v>1622.966287987609</v>
+        <v>503.7583553506526</v>
       </c>
       <c r="W35" t="n">
-        <v>1357.120226215093</v>
+        <v>503.7583553506526</v>
       </c>
       <c r="X35" t="n">
-        <v>1357.120226215093</v>
+        <v>503.7583553506526</v>
       </c>
       <c r="Y35" t="n">
-        <v>966.980894239281</v>
+        <v>503.7583553506526</v>
       </c>
     </row>
     <row r="36">
@@ -6990,49 +6992,49 @@
         </is>
       </c>
       <c r="B36" t="n">
-        <v>566.5011249724407</v>
+        <v>39.95955255904721</v>
       </c>
       <c r="C36" t="n">
-        <v>566.5011249724407</v>
+        <v>39.95955255904721</v>
       </c>
       <c r="D36" t="n">
-        <v>417.5667153111894</v>
+        <v>39.95955255904721</v>
       </c>
       <c r="E36" t="n">
-        <v>258.3292603057339</v>
+        <v>39.95955255904721</v>
       </c>
       <c r="F36" t="n">
-        <v>111.7947023326189</v>
+        <v>39.95955255904721</v>
       </c>
       <c r="G36" t="n">
-        <v>111.7947023326189</v>
+        <v>39.95955255904721</v>
       </c>
       <c r="H36" t="n">
-        <v>111.7947023326189</v>
+        <v>39.95955255904721</v>
       </c>
       <c r="I36" t="n">
         <v>32.45932575975219</v>
       </c>
       <c r="J36" t="n">
-        <v>61.20822116384404</v>
+        <v>32.45932575975219</v>
       </c>
       <c r="K36" t="n">
-        <v>61.20822116384404</v>
+        <v>208.2166101768439</v>
       </c>
       <c r="L36" t="n">
-        <v>358.9399761455072</v>
+        <v>505.9483651585071</v>
       </c>
       <c r="M36" t="n">
-        <v>758.3581127497703</v>
+        <v>656.0248753321104</v>
       </c>
       <c r="N36" t="n">
-        <v>1160.042269026704</v>
+        <v>1057.709031609044</v>
       </c>
       <c r="O36" t="n">
-        <v>1483.055776201262</v>
+        <v>1380.722538783602</v>
       </c>
       <c r="P36" t="n">
-        <v>1513.730526286846</v>
+        <v>1622.966287987609</v>
       </c>
       <c r="Q36" t="n">
         <v>1622.966287987609</v>
@@ -7044,22 +7046,22 @@
         <v>1374.066492846507</v>
       </c>
       <c r="T36" t="n">
-        <v>1374.066492846507</v>
+        <v>1173.163483952</v>
       </c>
       <c r="U36" t="n">
-        <v>1374.066492846507</v>
+        <v>944.9608164894784</v>
       </c>
       <c r="V36" t="n">
-        <v>1138.914384614764</v>
+        <v>709.8087082577356</v>
       </c>
       <c r="W36" t="n">
-        <v>884.6770278865627</v>
+        <v>455.571351529534</v>
       </c>
       <c r="X36" t="n">
-        <v>676.8255276810298</v>
+        <v>247.7198513240011</v>
       </c>
       <c r="Y36" t="n">
-        <v>566.5011249724407</v>
+        <v>39.95955255904721</v>
       </c>
     </row>
     <row r="37">
@@ -7069,16 +7071,16 @@
         </is>
       </c>
       <c r="B37" t="n">
-        <v>139.6199360758255</v>
+        <v>351.5121480999949</v>
       </c>
       <c r="C37" t="n">
-        <v>139.6199360758255</v>
+        <v>182.5759651720879</v>
       </c>
       <c r="D37" t="n">
-        <v>139.6199360758255</v>
+        <v>32.45932575975219</v>
       </c>
       <c r="E37" t="n">
-        <v>139.6199360758255</v>
+        <v>32.45932575975219</v>
       </c>
       <c r="F37" t="n">
         <v>32.45932575975219</v>
@@ -7120,25 +7122,25 @@
         <v>361.2466016029501</v>
       </c>
       <c r="S37" t="n">
-        <v>139.6199360758255</v>
+        <v>361.2466016029501</v>
       </c>
       <c r="T37" t="n">
-        <v>139.6199360758255</v>
+        <v>361.2466016029501</v>
       </c>
       <c r="U37" t="n">
-        <v>139.6199360758255</v>
+        <v>361.2466016029501</v>
       </c>
       <c r="V37" t="n">
-        <v>139.6199360758255</v>
+        <v>361.2466016029501</v>
       </c>
       <c r="W37" t="n">
-        <v>139.6199360758255</v>
+        <v>361.2466016029501</v>
       </c>
       <c r="X37" t="n">
-        <v>139.6199360758255</v>
+        <v>361.2466016029501</v>
       </c>
       <c r="Y37" t="n">
-        <v>139.6199360758255</v>
+        <v>351.5121480999949</v>
       </c>
     </row>
     <row r="38">
@@ -7148,25 +7150,25 @@
         </is>
       </c>
       <c r="B38" t="n">
-        <v>222.1153555684087</v>
+        <v>779.1076971866441</v>
       </c>
       <c r="C38" t="n">
-        <v>222.1153555684087</v>
+        <v>779.1076971866441</v>
       </c>
       <c r="D38" t="n">
-        <v>222.1153555684087</v>
+        <v>779.1076971866441</v>
       </c>
       <c r="E38" t="n">
-        <v>222.1153555684087</v>
+        <v>779.1076971866441</v>
       </c>
       <c r="F38" t="n">
-        <v>222.1153555684087</v>
+        <v>779.1076971866441</v>
       </c>
       <c r="G38" t="n">
-        <v>222.1153555684087</v>
+        <v>369.2677254726013</v>
       </c>
       <c r="H38" t="n">
-        <v>222.1153555684087</v>
+        <v>32.45932575975219</v>
       </c>
       <c r="I38" t="n">
         <v>32.45932575975219</v>
@@ -7193,31 +7195,31 @@
         <v>1569.862809315274</v>
       </c>
       <c r="Q38" t="n">
-        <v>1622.96628798761</v>
+        <v>1622.966287987609</v>
       </c>
       <c r="R38" t="n">
-        <v>1622.96628798761</v>
+        <v>1508.970645214178</v>
       </c>
       <c r="S38" t="n">
-        <v>1622.96628798761</v>
+        <v>1508.970645214178</v>
       </c>
       <c r="T38" t="n">
-        <v>1622.96628798761</v>
+        <v>1508.970645214178</v>
       </c>
       <c r="U38" t="n">
-        <v>1622.96628798761</v>
+        <v>1483.636342791295</v>
       </c>
       <c r="V38" t="n">
-        <v>1622.96628798761</v>
+        <v>1152.573455447724</v>
       </c>
       <c r="W38" t="n">
-        <v>1270.197632717495</v>
+        <v>1152.573455447724</v>
       </c>
       <c r="X38" t="n">
-        <v>896.7318744564157</v>
+        <v>779.1076971866441</v>
       </c>
       <c r="Y38" t="n">
-        <v>506.5925424806039</v>
+        <v>779.1076971866441</v>
       </c>
     </row>
     <row r="39">
@@ -7227,40 +7229,40 @@
         </is>
       </c>
       <c r="B39" t="n">
-        <v>494.3868162035222</v>
+        <v>800.0311509215306</v>
       </c>
       <c r="C39" t="n">
-        <v>319.9337869223951</v>
+        <v>625.5781216404037</v>
       </c>
       <c r="D39" t="n">
-        <v>319.9337869223951</v>
+        <v>476.6437119791524</v>
       </c>
       <c r="E39" t="n">
-        <v>319.9337869223951</v>
+        <v>317.4062569736969</v>
       </c>
       <c r="F39" t="n">
-        <v>319.9337869223951</v>
+        <v>170.8716990005819</v>
       </c>
       <c r="G39" t="n">
-        <v>222.0882603251556</v>
+        <v>32.45932575975219</v>
       </c>
       <c r="H39" t="n">
-        <v>111.7947023326189</v>
+        <v>32.45932575975219</v>
       </c>
       <c r="I39" t="n">
         <v>32.45932575975219</v>
       </c>
       <c r="J39" t="n">
-        <v>32.45932575975219</v>
+        <v>61.20822116384404</v>
       </c>
       <c r="K39" t="n">
-        <v>32.45932575975219</v>
+        <v>61.20822116384404</v>
       </c>
       <c r="L39" t="n">
-        <v>256.6067387278475</v>
+        <v>358.9399761455072</v>
       </c>
       <c r="M39" t="n">
-        <v>656.0248753321105</v>
+        <v>758.3581127497703</v>
       </c>
       <c r="N39" t="n">
         <v>1057.709031609044</v>
@@ -7269,34 +7271,34 @@
         <v>1380.722538783602</v>
       </c>
       <c r="P39" t="n">
-        <v>1622.96628798761</v>
+        <v>1622.966287987609</v>
       </c>
       <c r="Q39" t="n">
-        <v>1622.96628798761</v>
+        <v>1622.966287987609</v>
       </c>
       <c r="R39" t="n">
         <v>1541.568727888341</v>
       </c>
       <c r="S39" t="n">
-        <v>1541.568727888341</v>
+        <v>1374.066492846507</v>
       </c>
       <c r="T39" t="n">
-        <v>1541.568727888341</v>
+        <v>1374.066492846507</v>
       </c>
       <c r="U39" t="n">
-        <v>1313.36606042582</v>
+        <v>1145.863825383985</v>
       </c>
       <c r="V39" t="n">
-        <v>1078.213952194077</v>
+        <v>1145.863825383985</v>
       </c>
       <c r="W39" t="n">
-        <v>1078.213952194077</v>
+        <v>1145.863825383985</v>
       </c>
       <c r="X39" t="n">
-        <v>870.3624519885441</v>
+        <v>1007.791449686485</v>
       </c>
       <c r="Y39" t="n">
-        <v>662.6021532235902</v>
+        <v>800.0311509215306</v>
       </c>
     </row>
     <row r="40">
@@ -7306,76 +7308,76 @@
         </is>
       </c>
       <c r="B40" t="n">
-        <v>71.82943156598952</v>
+        <v>1294.179012144412</v>
       </c>
       <c r="C40" t="n">
-        <v>71.82943156598952</v>
+        <v>1294.179012144412</v>
       </c>
       <c r="D40" t="n">
-        <v>71.82943156598952</v>
+        <v>1294.179012144412</v>
       </c>
       <c r="E40" t="n">
-        <v>71.82943156598952</v>
+        <v>1294.179012144412</v>
       </c>
       <c r="F40" t="n">
-        <v>71.82943156598952</v>
+        <v>1294.179012144412</v>
       </c>
       <c r="G40" t="n">
-        <v>32.45932575975219</v>
+        <v>1294.179012144412</v>
       </c>
       <c r="H40" t="n">
-        <v>32.45932575975219</v>
+        <v>1294.179012144412</v>
       </c>
       <c r="I40" t="n">
-        <v>32.45932575975219</v>
+        <v>1294.179012144412</v>
       </c>
       <c r="J40" t="n">
-        <v>32.45932575975219</v>
+        <v>1294.179012144412</v>
       </c>
       <c r="K40" t="n">
-        <v>40.81344334191286</v>
+        <v>1302.533129726572</v>
       </c>
       <c r="L40" t="n">
-        <v>107.0302722280248</v>
+        <v>1368.749958612684</v>
       </c>
       <c r="M40" t="n">
-        <v>187.235757098444</v>
+        <v>1448.955443483103</v>
       </c>
       <c r="N40" t="n">
-        <v>270.9687512285709</v>
+        <v>1532.68843761323</v>
       </c>
       <c r="O40" t="n">
-        <v>332.2934283710737</v>
+        <v>1594.013114755733</v>
       </c>
       <c r="P40" t="n">
-        <v>361.2466016029501</v>
+        <v>1622.966287987609</v>
       </c>
       <c r="Q40" t="n">
-        <v>361.2466016029501</v>
+        <v>1622.966287987609</v>
       </c>
       <c r="R40" t="n">
-        <v>361.2466016029501</v>
+        <v>1622.966287987609</v>
       </c>
       <c r="S40" t="n">
-        <v>361.2466016029501</v>
+        <v>1622.966287987609</v>
       </c>
       <c r="T40" t="n">
-        <v>361.2466016029501</v>
+        <v>1393.858948907497</v>
       </c>
       <c r="U40" t="n">
-        <v>361.2466016029501</v>
+        <v>1294.179012144412</v>
       </c>
       <c r="V40" t="n">
-        <v>361.2466016029501</v>
+        <v>1294.179012144412</v>
       </c>
       <c r="W40" t="n">
-        <v>71.82943156598952</v>
+        <v>1294.179012144412</v>
       </c>
       <c r="X40" t="n">
-        <v>71.82943156598952</v>
+        <v>1294.179012144412</v>
       </c>
       <c r="Y40" t="n">
-        <v>71.82943156598952</v>
+        <v>1294.179012144412</v>
       </c>
     </row>
     <row r="41">
@@ -7385,19 +7387,19 @@
         </is>
       </c>
       <c r="B41" t="n">
-        <v>348.558299913515</v>
+        <v>442.299297473795</v>
       </c>
       <c r="C41" t="n">
-        <v>348.558299913515</v>
+        <v>442.299297473795</v>
       </c>
       <c r="D41" t="n">
-        <v>348.558299913515</v>
+        <v>442.299297473795</v>
       </c>
       <c r="E41" t="n">
-        <v>348.558299913515</v>
+        <v>442.299297473795</v>
       </c>
       <c r="F41" t="n">
-        <v>32.45932575975219</v>
+        <v>442.299297473795</v>
       </c>
       <c r="G41" t="n">
         <v>32.45932575975219</v>
@@ -7409,7 +7411,7 @@
         <v>32.45932575975219</v>
       </c>
       <c r="J41" t="n">
-        <v>70.13987180521519</v>
+        <v>70.13987180521508</v>
       </c>
       <c r="K41" t="n">
         <v>247.358046901132</v>
@@ -7418,43 +7420,43 @@
         <v>519.4894913528327</v>
       </c>
       <c r="M41" t="n">
-        <v>838.8947028941458</v>
+        <v>838.8947028941457</v>
       </c>
       <c r="N41" t="n">
         <v>1148.836227140252</v>
       </c>
       <c r="O41" t="n">
-        <v>1396.317581748321</v>
+        <v>1396.31758174832</v>
       </c>
       <c r="P41" t="n">
         <v>1569.862809315274</v>
       </c>
       <c r="Q41" t="n">
-        <v>1622.96628798761</v>
+        <v>1622.966287987609</v>
       </c>
       <c r="R41" t="n">
-        <v>1508.970645214178</v>
+        <v>1622.966287987609</v>
       </c>
       <c r="S41" t="n">
-        <v>1508.970645214178</v>
+        <v>1622.966287987609</v>
       </c>
       <c r="T41" t="n">
-        <v>1286.226725594946</v>
+        <v>1622.966287987609</v>
       </c>
       <c r="U41" t="n">
-        <v>1032.3898425272</v>
+        <v>1369.129404919863</v>
       </c>
       <c r="V41" t="n">
-        <v>701.3269551836291</v>
+        <v>1038.066517576293</v>
       </c>
       <c r="W41" t="n">
-        <v>348.558299913515</v>
+        <v>815.7650557348749</v>
       </c>
       <c r="X41" t="n">
-        <v>348.558299913515</v>
+        <v>442.299297473795</v>
       </c>
       <c r="Y41" t="n">
-        <v>348.558299913515</v>
+        <v>442.299297473795</v>
       </c>
     </row>
     <row r="42">
@@ -7464,76 +7466,76 @@
         </is>
       </c>
       <c r="B42" t="n">
-        <v>529.3073183395427</v>
+        <v>142.7528837522889</v>
       </c>
       <c r="C42" t="n">
-        <v>354.8542890584157</v>
+        <v>142.7528837522889</v>
       </c>
       <c r="D42" t="n">
-        <v>205.9198793971644</v>
+        <v>142.7528837522889</v>
       </c>
       <c r="E42" t="n">
-        <v>111.7947023326189</v>
+        <v>142.7528837522889</v>
       </c>
       <c r="F42" t="n">
-        <v>111.7947023326189</v>
+        <v>142.7528837522889</v>
       </c>
       <c r="G42" t="n">
-        <v>111.7947023326189</v>
+        <v>142.7528837522889</v>
       </c>
       <c r="H42" t="n">
-        <v>111.7947023326189</v>
+        <v>32.45932575975219</v>
       </c>
       <c r="I42" t="n">
         <v>32.45932575975219</v>
       </c>
       <c r="J42" t="n">
-        <v>32.45932575975219</v>
+        <v>61.20822116384404</v>
       </c>
       <c r="K42" t="n">
-        <v>32.45932575975219</v>
+        <v>61.20822116384404</v>
       </c>
       <c r="L42" t="n">
-        <v>330.1910807414154</v>
+        <v>147.3709770270843</v>
       </c>
       <c r="M42" t="n">
-        <v>656.0248753321105</v>
+        <v>546.7891136313473</v>
       </c>
       <c r="N42" t="n">
-        <v>1057.709031609044</v>
+        <v>948.4732699082806</v>
       </c>
       <c r="O42" t="n">
-        <v>1380.722538783602</v>
+        <v>1271.486777082839</v>
       </c>
       <c r="P42" t="n">
-        <v>1622.96628798761</v>
+        <v>1513.730526286846</v>
       </c>
       <c r="Q42" t="n">
-        <v>1622.96628798761</v>
+        <v>1622.966287987609</v>
       </c>
       <c r="R42" t="n">
-        <v>1622.96628798761</v>
+        <v>1622.966287987609</v>
       </c>
       <c r="S42" t="n">
-        <v>1622.96628798761</v>
+        <v>1455.464052945775</v>
       </c>
       <c r="T42" t="n">
-        <v>1622.96628798761</v>
+        <v>1254.561044051268</v>
       </c>
       <c r="U42" t="n">
-        <v>1394.763620525088</v>
+        <v>1026.358376588747</v>
       </c>
       <c r="V42" t="n">
-        <v>1159.611512293345</v>
+        <v>791.2062683570041</v>
       </c>
       <c r="W42" t="n">
-        <v>905.3741555651436</v>
+        <v>536.9689116288025</v>
       </c>
       <c r="X42" t="n">
-        <v>697.5226553596108</v>
+        <v>329.1174114232697</v>
       </c>
       <c r="Y42" t="n">
-        <v>697.5226553596108</v>
+        <v>142.7528837522889</v>
       </c>
     </row>
     <row r="43">
@@ -7543,31 +7545,31 @@
         </is>
       </c>
       <c r="B43" t="n">
-        <v>1294.179012144412</v>
+        <v>1294.179012144411</v>
       </c>
       <c r="C43" t="n">
-        <v>1294.179012144412</v>
+        <v>1294.179012144411</v>
       </c>
       <c r="D43" t="n">
-        <v>1294.179012144412</v>
+        <v>1294.179012144411</v>
       </c>
       <c r="E43" t="n">
-        <v>1294.179012144412</v>
+        <v>1294.179012144411</v>
       </c>
       <c r="F43" t="n">
-        <v>1294.179012144412</v>
+        <v>1294.179012144411</v>
       </c>
       <c r="G43" t="n">
-        <v>1294.179012144412</v>
+        <v>1294.179012144411</v>
       </c>
       <c r="H43" t="n">
-        <v>1294.179012144412</v>
+        <v>1294.179012144411</v>
       </c>
       <c r="I43" t="n">
-        <v>1294.179012144412</v>
+        <v>1294.179012144411</v>
       </c>
       <c r="J43" t="n">
-        <v>1294.179012144412</v>
+        <v>1294.179012144411</v>
       </c>
       <c r="K43" t="n">
         <v>1302.533129726572</v>
@@ -7585,34 +7587,34 @@
         <v>1594.013114755733</v>
       </c>
       <c r="P43" t="n">
-        <v>1622.96628798761</v>
+        <v>1622.966287987609</v>
       </c>
       <c r="Q43" t="n">
-        <v>1622.96628798761</v>
+        <v>1622.966287987609</v>
       </c>
       <c r="R43" t="n">
-        <v>1622.96628798761</v>
+        <v>1622.966287987609</v>
       </c>
       <c r="S43" t="n">
-        <v>1622.96628798761</v>
+        <v>1622.966287987609</v>
       </c>
       <c r="T43" t="n">
-        <v>1622.96628798761</v>
+        <v>1622.966287987609</v>
       </c>
       <c r="U43" t="n">
-        <v>1333.769709747513</v>
+        <v>1622.966287987609</v>
       </c>
       <c r="V43" t="n">
-        <v>1333.769709747513</v>
+        <v>1622.966287987609</v>
       </c>
       <c r="W43" t="n">
-        <v>1294.179012144412</v>
+        <v>1622.966287987609</v>
       </c>
       <c r="X43" t="n">
-        <v>1294.179012144412</v>
+        <v>1514.971591287941</v>
       </c>
       <c r="Y43" t="n">
-        <v>1294.179012144412</v>
+        <v>1294.179012144411</v>
       </c>
     </row>
     <row r="44">
@@ -7622,40 +7624,40 @@
         </is>
       </c>
       <c r="B44" t="n">
-        <v>896.7318744564154</v>
+        <v>727.5334240793518</v>
       </c>
       <c r="C44" t="n">
-        <v>896.7318744564154</v>
+        <v>727.5334240793518</v>
       </c>
       <c r="D44" t="n">
-        <v>896.7318744564154</v>
+        <v>369.2677254726013</v>
       </c>
       <c r="E44" t="n">
-        <v>896.7318744564154</v>
+        <v>369.2677254726013</v>
       </c>
       <c r="F44" t="n">
-        <v>896.7318744564154</v>
+        <v>369.2677254726013</v>
       </c>
       <c r="G44" t="n">
-        <v>486.8919027423726</v>
+        <v>369.2677254726013</v>
       </c>
       <c r="H44" t="n">
-        <v>150.0835030295235</v>
+        <v>32.45932575975219</v>
       </c>
       <c r="I44" t="n">
         <v>32.45932575975219</v>
       </c>
       <c r="J44" t="n">
-        <v>70.13987180521508</v>
+        <v>70.13987180521474</v>
       </c>
       <c r="K44" t="n">
-        <v>247.358046901132</v>
+        <v>247.3580469011316</v>
       </c>
       <c r="L44" t="n">
-        <v>519.4894913528327</v>
+        <v>519.4894913528323</v>
       </c>
       <c r="M44" t="n">
-        <v>838.8947028941457</v>
+        <v>838.8947028941453</v>
       </c>
       <c r="N44" t="n">
         <v>1148.836227140252</v>
@@ -7679,19 +7681,19 @@
         <v>1622.966287987609</v>
       </c>
       <c r="U44" t="n">
-        <v>1622.966287987609</v>
+        <v>1448.735643398734</v>
       </c>
       <c r="V44" t="n">
-        <v>1622.966287987609</v>
+        <v>1117.672756055164</v>
       </c>
       <c r="W44" t="n">
-        <v>1270.197632717495</v>
+        <v>1117.672756055164</v>
       </c>
       <c r="X44" t="n">
-        <v>896.7318744564154</v>
+        <v>1117.672756055164</v>
       </c>
       <c r="Y44" t="n">
-        <v>896.7318744564154</v>
+        <v>727.5334240793518</v>
       </c>
     </row>
     <row r="45">
@@ -7701,22 +7703,22 @@
         </is>
       </c>
       <c r="B45" t="n">
-        <v>286.2477316137459</v>
+        <v>662.60215322359</v>
       </c>
       <c r="C45" t="n">
-        <v>111.7947023326189</v>
+        <v>662.60215322359</v>
       </c>
       <c r="D45" t="n">
-        <v>111.7947023326189</v>
+        <v>662.60215322359</v>
       </c>
       <c r="E45" t="n">
-        <v>111.7947023326189</v>
+        <v>507.0351915391004</v>
       </c>
       <c r="F45" t="n">
-        <v>111.7947023326189</v>
+        <v>360.5006335659854</v>
       </c>
       <c r="G45" t="n">
-        <v>111.7947023326189</v>
+        <v>222.0882603251556</v>
       </c>
       <c r="H45" t="n">
         <v>111.7947023326189</v>
@@ -7725,25 +7727,25 @@
         <v>32.45932575975219</v>
       </c>
       <c r="J45" t="n">
-        <v>32.45932575975219</v>
+        <v>61.20822116384404</v>
       </c>
       <c r="K45" t="n">
-        <v>201.1187329501918</v>
+        <v>61.20822116384404</v>
       </c>
       <c r="L45" t="n">
-        <v>498.850487931855</v>
+        <v>147.3709770270843</v>
       </c>
       <c r="M45" t="n">
-        <v>898.268624536118</v>
+        <v>546.7891136313473</v>
       </c>
       <c r="N45" t="n">
-        <v>1299.952780813051</v>
+        <v>948.4732699082806</v>
       </c>
       <c r="O45" t="n">
-        <v>1622.966287987609</v>
+        <v>1271.486777082839</v>
       </c>
       <c r="P45" t="n">
-        <v>1622.966287987609</v>
+        <v>1513.730526286846</v>
       </c>
       <c r="Q45" t="n">
         <v>1622.966287987609</v>
@@ -7752,25 +7754,25 @@
         <v>1541.568727888341</v>
       </c>
       <c r="S45" t="n">
-        <v>1374.066492846507</v>
+        <v>1541.568727888341</v>
       </c>
       <c r="T45" t="n">
-        <v>1173.163483952</v>
+        <v>1541.568727888341</v>
       </c>
       <c r="U45" t="n">
-        <v>944.9608164894784</v>
+        <v>1313.366060425819</v>
       </c>
       <c r="V45" t="n">
-        <v>709.8087082577356</v>
+        <v>1078.213952194077</v>
       </c>
       <c r="W45" t="n">
-        <v>494.0080303786999</v>
+        <v>1078.213952194077</v>
       </c>
       <c r="X45" t="n">
-        <v>494.0080303786999</v>
+        <v>870.3624519885439</v>
       </c>
       <c r="Y45" t="n">
-        <v>286.2477316137459</v>
+        <v>662.60215322359</v>
       </c>
     </row>
     <row r="46">
@@ -7780,10 +7782,10 @@
         </is>
       </c>
       <c r="B46" t="n">
-        <v>182.5759651720879</v>
+        <v>32.45932575975219</v>
       </c>
       <c r="C46" t="n">
-        <v>182.5759651720879</v>
+        <v>32.45932575975219</v>
       </c>
       <c r="D46" t="n">
         <v>32.45932575975219</v>
@@ -7828,28 +7830,28 @@
         <v>361.2466016029501</v>
       </c>
       <c r="R46" t="n">
-        <v>194.1667418687506</v>
+        <v>361.2466016029501</v>
       </c>
       <c r="S46" t="n">
-        <v>194.1667418687506</v>
+        <v>361.2466016029501</v>
       </c>
       <c r="T46" t="n">
-        <v>194.1667418687506</v>
+        <v>361.2466016029501</v>
       </c>
       <c r="U46" t="n">
-        <v>194.1667418687506</v>
+        <v>321.8764957967128</v>
       </c>
       <c r="V46" t="n">
-        <v>194.1667418687506</v>
+        <v>321.8764957967128</v>
       </c>
       <c r="W46" t="n">
-        <v>194.1667418687506</v>
+        <v>32.45932575975219</v>
       </c>
       <c r="X46" t="n">
-        <v>182.5759651720879</v>
+        <v>32.45932575975219</v>
       </c>
       <c r="Y46" t="n">
-        <v>182.5759651720879</v>
+        <v>32.45932575975219</v>
       </c>
     </row>
   </sheetData>
@@ -8067,16 +8069,16 @@
         <v>383.1483227996774</v>
       </c>
       <c r="N3" t="n">
-        <v>131.3417120833333</v>
+        <v>372.3560009609923</v>
       </c>
       <c r="O3" t="n">
-        <v>312.5030352242461</v>
+        <v>185.8815939223662</v>
       </c>
       <c r="P3" t="n">
-        <v>318.4627686399372</v>
+        <v>133.9744074143302</v>
       </c>
       <c r="Q3" t="n">
-        <v>139.9817740860215</v>
+        <v>210.0772877358491</v>
       </c>
       <c r="R3" t="n">
         <v>45.52166981132082</v>
@@ -8295,13 +8297,13 @@
         <v>126.0910353404088</v>
       </c>
       <c r="K6" t="n">
-        <v>264.4652370125786</v>
+        <v>137.841438974359</v>
       </c>
       <c r="L6" t="n">
-        <v>370.8403453034592</v>
+        <v>138.5543797798742</v>
       </c>
       <c r="M6" t="n">
-        <v>185.4193833999402</v>
+        <v>359.8407857361378</v>
       </c>
       <c r="N6" t="n">
         <v>372.3560009609923</v>
@@ -8310,7 +8312,7 @@
         <v>383.6105333221035</v>
       </c>
       <c r="P6" t="n">
-        <v>133.9744074143302</v>
+        <v>318.4627686399372</v>
       </c>
       <c r="Q6" t="n">
         <v>210.0772877358491</v>
@@ -8532,7 +8534,7 @@
         <v>126.0910353404088</v>
       </c>
       <c r="K9" t="n">
-        <v>137.841438974359</v>
+        <v>193.3577389147212</v>
       </c>
       <c r="L9" t="n">
         <v>370.8403453034592</v>
@@ -8541,7 +8543,7 @@
         <v>142.1340339220183</v>
       </c>
       <c r="N9" t="n">
-        <v>357.7767872515269</v>
+        <v>372.3560009609923</v>
       </c>
       <c r="O9" t="n">
         <v>383.6105333221035</v>
@@ -8550,7 +8552,7 @@
         <v>318.4627686399372</v>
       </c>
       <c r="Q9" t="n">
-        <v>210.0772877358491</v>
+        <v>139.9817740860215</v>
       </c>
       <c r="R9" t="n">
         <v>45.52166981132082</v>
@@ -8775,13 +8777,13 @@
         <v>370.8403453034592</v>
       </c>
       <c r="M12" t="n">
-        <v>465.7050637499999</v>
+        <v>391.3774455544767</v>
       </c>
       <c r="N12" t="n">
         <v>455.0874215304797</v>
       </c>
       <c r="O12" t="n">
-        <v>319.5347010812061</v>
+        <v>393.8623192767295</v>
       </c>
       <c r="P12" t="n">
         <v>318.4627686399372</v>
@@ -9240,10 +9242,10 @@
         <v>10.12574714858493</v>
       </c>
       <c r="J18" t="n">
-        <v>97.05174705344737</v>
+        <v>126.0910353404088</v>
       </c>
       <c r="K18" t="n">
-        <v>264.4652370125786</v>
+        <v>86.93262649026374</v>
       </c>
       <c r="L18" t="n">
         <v>370.8403453034592</v>
@@ -9252,10 +9254,10 @@
         <v>465.7050637499999</v>
       </c>
       <c r="N18" t="n">
-        <v>455.0874215304797</v>
+        <v>351.7205150479952</v>
       </c>
       <c r="O18" t="n">
-        <v>142.0020905588914</v>
+        <v>393.8623192767295</v>
       </c>
       <c r="P18" t="n">
         <v>318.4627686399372</v>
@@ -9477,19 +9479,19 @@
         <v>10.12574714858493</v>
       </c>
       <c r="J21" t="n">
-        <v>97.05174705344737</v>
+        <v>126.0910353404088</v>
       </c>
       <c r="K21" t="n">
-        <v>86.93262649026374</v>
+        <v>264.4652370125786</v>
       </c>
       <c r="L21" t="n">
         <v>370.8403453034592</v>
       </c>
       <c r="M21" t="n">
-        <v>391.3774455544767</v>
+        <v>465.7050637499999</v>
       </c>
       <c r="N21" t="n">
-        <v>455.0874215304797</v>
+        <v>174.1879045256798</v>
       </c>
       <c r="O21" t="n">
         <v>393.8623192767295</v>
@@ -9498,7 +9500,7 @@
         <v>318.4627686399372</v>
       </c>
       <c r="Q21" t="n">
-        <v>99.73813450275541</v>
+        <v>99.7381345027554</v>
       </c>
       <c r="R21" t="n">
         <v>45.52166981132082</v>
@@ -9714,16 +9716,16 @@
         <v>10.12574714858493</v>
       </c>
       <c r="J24" t="n">
-        <v>97.05174705344737</v>
+        <v>126.0910353404088</v>
       </c>
       <c r="K24" t="n">
-        <v>264.4652370125786</v>
+        <v>117.9172225363092</v>
       </c>
       <c r="L24" t="n">
         <v>370.8403453034592</v>
       </c>
       <c r="M24" t="n">
-        <v>213.8448350321618</v>
+        <v>465.7050637499999</v>
       </c>
       <c r="N24" t="n">
         <v>455.0874215304797</v>
@@ -9732,10 +9734,10 @@
         <v>393.8623192767295</v>
       </c>
       <c r="P24" t="n">
-        <v>318.4627686399372</v>
+        <v>73.77211287831322</v>
       </c>
       <c r="Q24" t="n">
-        <v>99.73813450275541</v>
+        <v>210.0772877358491</v>
       </c>
       <c r="R24" t="n">
         <v>45.52166981132082</v>
@@ -9951,16 +9953,16 @@
         <v>10.12574714858493</v>
       </c>
       <c r="J27" t="n">
-        <v>97.05174705344737</v>
+        <v>126.0910353404088</v>
       </c>
       <c r="K27" t="n">
-        <v>264.4652370125786</v>
+        <v>86.93262649026374</v>
       </c>
       <c r="L27" t="n">
         <v>370.8403453034592</v>
       </c>
       <c r="M27" t="n">
-        <v>213.8448350321618</v>
+        <v>465.7050637499999</v>
       </c>
       <c r="N27" t="n">
         <v>455.0874215304797</v>
@@ -9969,10 +9971,10 @@
         <v>393.8623192767295</v>
       </c>
       <c r="P27" t="n">
-        <v>318.4627686399372</v>
+        <v>104.7567089243584</v>
       </c>
       <c r="Q27" t="n">
-        <v>99.73813450275541</v>
+        <v>210.0772877358491</v>
       </c>
       <c r="R27" t="n">
         <v>45.52166981132082</v>
@@ -10191,7 +10193,7 @@
         <v>126.0910353404088</v>
       </c>
       <c r="K30" t="n">
-        <v>86.93262649026374</v>
+        <v>264.4652370125786</v>
       </c>
       <c r="L30" t="n">
         <v>370.8403453034592</v>
@@ -10200,7 +10202,7 @@
         <v>465.7050637499999</v>
       </c>
       <c r="N30" t="n">
-        <v>351.720515047995</v>
+        <v>63.84875129258623</v>
       </c>
       <c r="O30" t="n">
         <v>393.8623192767295</v>
@@ -10209,7 +10211,7 @@
         <v>318.4627686399372</v>
       </c>
       <c r="Q30" t="n">
-        <v>99.73813450275541</v>
+        <v>210.0772877358491</v>
       </c>
       <c r="R30" t="n">
         <v>45.52166981132082</v>
@@ -10428,7 +10430,7 @@
         <v>126.0910353404088</v>
       </c>
       <c r="K33" t="n">
-        <v>264.4652370125786</v>
+        <v>86.93262649026374</v>
       </c>
       <c r="L33" t="n">
         <v>370.8403453034592</v>
@@ -10437,7 +10439,7 @@
         <v>465.7050637499999</v>
       </c>
       <c r="N33" t="n">
-        <v>174.18790452568</v>
+        <v>241.3813618149012</v>
       </c>
       <c r="O33" t="n">
         <v>393.8623192767295</v>
@@ -10446,7 +10448,7 @@
         <v>318.4627686399372</v>
       </c>
       <c r="Q33" t="n">
-        <v>99.73813450275541</v>
+        <v>210.0772877358491</v>
       </c>
       <c r="R33" t="n">
         <v>45.52166981132082</v>
@@ -10662,16 +10664,16 @@
         <v>10.12574714858493</v>
       </c>
       <c r="J36" t="n">
-        <v>126.0910353404088</v>
+        <v>97.05174705344737</v>
       </c>
       <c r="K36" t="n">
-        <v>86.93262649026374</v>
+        <v>264.4652370125786</v>
       </c>
       <c r="L36" t="n">
         <v>370.8403453034592</v>
       </c>
       <c r="M36" t="n">
-        <v>465.7050637499999</v>
+        <v>213.8448350321618</v>
       </c>
       <c r="N36" t="n">
         <v>455.0874215304797</v>
@@ -10680,10 +10682,10 @@
         <v>393.8623192767295</v>
       </c>
       <c r="P36" t="n">
-        <v>104.7567089243584</v>
+        <v>318.4627686399372</v>
       </c>
       <c r="Q36" t="n">
-        <v>210.0772877358491</v>
+        <v>99.73813450275541</v>
       </c>
       <c r="R36" t="n">
         <v>45.52166981132082</v>
@@ -10823,7 +10825,7 @@
         <v>169.0966151720738</v>
       </c>
       <c r="K38" t="n">
-        <v>324.1454125711649</v>
+        <v>324.1454125711647</v>
       </c>
       <c r="L38" t="n">
         <v>417.6612145504504</v>
@@ -10899,19 +10901,19 @@
         <v>10.12574714858493</v>
       </c>
       <c r="J39" t="n">
-        <v>97.05174705344737</v>
+        <v>126.0910353404088</v>
       </c>
       <c r="K39" t="n">
         <v>86.93262649026374</v>
       </c>
       <c r="L39" t="n">
-        <v>296.512727107936</v>
+        <v>370.8403453034592</v>
       </c>
       <c r="M39" t="n">
         <v>465.7050637499999</v>
       </c>
       <c r="N39" t="n">
-        <v>455.0874215304797</v>
+        <v>351.720515047995</v>
       </c>
       <c r="O39" t="n">
         <v>393.8623192767295</v>
@@ -10920,7 +10922,7 @@
         <v>318.4627686399372</v>
       </c>
       <c r="Q39" t="n">
-        <v>99.7381345027554</v>
+        <v>99.73813450275541</v>
       </c>
       <c r="R39" t="n">
         <v>45.52166981132082</v>
@@ -11057,7 +11059,7 @@
         <v>0</v>
       </c>
       <c r="J41" t="n">
-        <v>169.0966151720739</v>
+        <v>169.0966151720738</v>
       </c>
       <c r="K41" t="n">
         <v>324.1454125711647</v>
@@ -11136,16 +11138,16 @@
         <v>10.12574714858493</v>
       </c>
       <c r="J42" t="n">
-        <v>97.05174705344737</v>
+        <v>126.0910353404088</v>
       </c>
       <c r="K42" t="n">
         <v>86.93262649026374</v>
       </c>
       <c r="L42" t="n">
-        <v>370.8403453034592</v>
+        <v>157.1342855878804</v>
       </c>
       <c r="M42" t="n">
-        <v>391.3774455544768</v>
+        <v>465.7050637499999</v>
       </c>
       <c r="N42" t="n">
         <v>455.0874215304797</v>
@@ -11157,7 +11159,7 @@
         <v>318.4627686399372</v>
       </c>
       <c r="Q42" t="n">
-        <v>99.7381345027554</v>
+        <v>210.0772877358491</v>
       </c>
       <c r="R42" t="n">
         <v>45.52166981132082</v>
@@ -11294,7 +11296,7 @@
         <v>0</v>
       </c>
       <c r="J44" t="n">
-        <v>169.0966151720738</v>
+        <v>169.0966151720734</v>
       </c>
       <c r="K44" t="n">
         <v>324.1454125711647</v>
@@ -11373,13 +11375,13 @@
         <v>10.12574714858493</v>
       </c>
       <c r="J45" t="n">
-        <v>97.05174705344737</v>
+        <v>126.0910353404088</v>
       </c>
       <c r="K45" t="n">
-        <v>257.2956640563643</v>
+        <v>86.93262649026374</v>
       </c>
       <c r="L45" t="n">
-        <v>370.8403453034592</v>
+        <v>157.1342855878804</v>
       </c>
       <c r="M45" t="n">
         <v>465.7050637499999</v>
@@ -11391,10 +11393,10 @@
         <v>393.8623192767295</v>
       </c>
       <c r="P45" t="n">
-        <v>73.77211287831321</v>
+        <v>318.4627686399372</v>
       </c>
       <c r="Q45" t="n">
-        <v>99.7381345027554</v>
+        <v>210.0772877358491</v>
       </c>
       <c r="R45" t="n">
         <v>45.52166981132082</v>
@@ -23267,16 +23269,16 @@
         <v>381.9303700722618</v>
       </c>
       <c r="F11" t="n">
-        <v>288.1805909627096</v>
+        <v>406.8760457417114</v>
       </c>
       <c r="G11" t="n">
-        <v>8.971932133631583</v>
+        <v>414.7135041305339</v>
       </c>
       <c r="H11" t="n">
-        <v>0</v>
+        <v>333.4403157157206</v>
       </c>
       <c r="I11" t="n">
-        <v>0</v>
+        <v>70.41439893299157</v>
       </c>
       <c r="J11" t="n">
         <v>0</v>
@@ -23312,13 +23314,13 @@
         <v>0</v>
       </c>
       <c r="U11" t="n">
-        <v>251.2985142370684</v>
+        <v>0</v>
       </c>
       <c r="V11" t="n">
-        <v>327.7522584701349</v>
+        <v>0</v>
       </c>
       <c r="W11" t="n">
-        <v>349.240968717413</v>
+        <v>0</v>
       </c>
       <c r="X11" t="n">
         <v>369.731100678469</v>
@@ -23334,19 +23336,19 @@
         </is>
       </c>
       <c r="B12" t="n">
-        <v>166.5331836498673</v>
+        <v>0</v>
       </c>
       <c r="C12" t="n">
-        <v>172.7084989883157</v>
+        <v>0</v>
       </c>
       <c r="D12" t="n">
-        <v>0</v>
+        <v>147.4450655646388</v>
       </c>
       <c r="E12" t="n">
-        <v>0</v>
+        <v>157.6450804554009</v>
       </c>
       <c r="F12" t="n">
-        <v>0</v>
+        <v>145.0692123933839</v>
       </c>
       <c r="G12" t="n">
         <v>137.0282495084215</v>
@@ -23355,7 +23357,7 @@
         <v>0</v>
       </c>
       <c r="I12" t="n">
-        <v>0</v>
+        <v>78.54202280713804</v>
       </c>
       <c r="J12" t="n">
         <v>0</v>
@@ -23382,7 +23384,7 @@
         <v>0</v>
       </c>
       <c r="R12" t="n">
-        <v>0</v>
+        <v>80.58358449827551</v>
       </c>
       <c r="S12" t="n">
         <v>0</v>
@@ -23391,19 +23393,19 @@
         <v>0</v>
       </c>
       <c r="U12" t="n">
-        <v>0</v>
+        <v>225.9206407878966</v>
       </c>
       <c r="V12" t="n">
-        <v>0</v>
+        <v>134.5028552333201</v>
       </c>
       <c r="W12" t="n">
-        <v>219.0110981210891</v>
+        <v>0</v>
       </c>
       <c r="X12" t="n">
-        <v>205.7729852034775</v>
+        <v>0</v>
       </c>
       <c r="Y12" t="n">
-        <v>205.6826957773044</v>
+        <v>0</v>
       </c>
     </row>
     <row r="13">
@@ -23434,10 +23436,10 @@
         <v>159.8772180037952</v>
       </c>
       <c r="I13" t="n">
-        <v>147.5019580580808</v>
+        <v>126.1137933559314</v>
       </c>
       <c r="J13" t="n">
-        <v>74.67247646141476</v>
+        <v>0</v>
       </c>
       <c r="K13" t="n">
         <v>0</v>
@@ -23464,7 +23466,7 @@
         <v>0</v>
       </c>
       <c r="S13" t="n">
-        <v>123.3497577082893</v>
+        <v>219.4103988718534</v>
       </c>
       <c r="T13" t="n">
         <v>226.8162656893113</v>
@@ -23501,19 +23503,19 @@
         <v>354.683041620683</v>
       </c>
       <c r="E14" t="n">
-        <v>381.9303700722618</v>
+        <v>0</v>
       </c>
       <c r="F14" t="n">
-        <v>406.8760457417114</v>
+        <v>1.134473744809156</v>
       </c>
       <c r="G14" t="n">
-        <v>414.7135041305339</v>
+        <v>8.97193213363164</v>
       </c>
       <c r="H14" t="n">
-        <v>333.4403157157206</v>
+        <v>0</v>
       </c>
       <c r="I14" t="n">
-        <v>187.7594695105699</v>
+        <v>140.0114066867787</v>
       </c>
       <c r="J14" t="n">
         <v>0</v>
@@ -23540,25 +23542,25 @@
         <v>0</v>
       </c>
       <c r="R14" t="n">
-        <v>0</v>
+        <v>112.8556863456974</v>
       </c>
       <c r="S14" t="n">
-        <v>0</v>
+        <v>195.5929138346465</v>
       </c>
       <c r="T14" t="n">
-        <v>0</v>
+        <v>220.5164804230398</v>
       </c>
       <c r="U14" t="n">
-        <v>0</v>
+        <v>251.2985142370684</v>
       </c>
       <c r="V14" t="n">
-        <v>0</v>
+        <v>327.7522584701349</v>
       </c>
       <c r="W14" t="n">
-        <v>0</v>
+        <v>349.240968717413</v>
       </c>
       <c r="X14" t="n">
-        <v>252.3860301008911</v>
+        <v>369.731100678469</v>
       </c>
       <c r="Y14" t="n">
         <v>386.2379386560536</v>
@@ -23571,19 +23573,19 @@
         </is>
       </c>
       <c r="B15" t="n">
-        <v>0</v>
+        <v>166.5331836498673</v>
       </c>
       <c r="C15" t="n">
-        <v>0</v>
+        <v>172.7084989883157</v>
       </c>
       <c r="D15" t="n">
         <v>0</v>
       </c>
       <c r="E15" t="n">
-        <v>0</v>
+        <v>157.6450804554009</v>
       </c>
       <c r="F15" t="n">
-        <v>0</v>
+        <v>97.66302709141488</v>
       </c>
       <c r="G15" t="n">
         <v>0</v>
@@ -23619,7 +23621,7 @@
         <v>0</v>
       </c>
       <c r="R15" t="n">
-        <v>0</v>
+        <v>80.58358449827551</v>
       </c>
       <c r="S15" t="n">
         <v>0</v>
@@ -23631,16 +23633,16 @@
         <v>225.9206407878966</v>
       </c>
       <c r="V15" t="n">
-        <v>232.8005871494253</v>
+        <v>0</v>
       </c>
       <c r="W15" t="n">
-        <v>251.6949831609196</v>
+        <v>0</v>
       </c>
       <c r="X15" t="n">
-        <v>205.7729852034775</v>
+        <v>0</v>
       </c>
       <c r="Y15" t="n">
-        <v>190.5475149467566</v>
+        <v>205.6826957773044</v>
       </c>
     </row>
     <row r="16">
@@ -23735,22 +23737,22 @@
         <v>365.2728917710076</v>
       </c>
       <c r="D17" t="n">
-        <v>354.683041620683</v>
+        <v>0</v>
       </c>
       <c r="E17" t="n">
-        <v>381.9303700722618</v>
+        <v>0</v>
       </c>
       <c r="F17" t="n">
-        <v>406.8760457417114</v>
+        <v>1.134473744809043</v>
       </c>
       <c r="G17" t="n">
-        <v>414.7135041305339</v>
+        <v>8.971932133631526</v>
       </c>
       <c r="H17" t="n">
-        <v>54.61374593129921</v>
+        <v>306.9349787968915</v>
       </c>
       <c r="I17" t="n">
-        <v>0</v>
+        <v>187.7594695105699</v>
       </c>
       <c r="J17" t="n">
         <v>0</v>
@@ -23777,19 +23779,19 @@
         <v>0</v>
       </c>
       <c r="R17" t="n">
-        <v>0</v>
+        <v>112.8556863456974</v>
       </c>
       <c r="S17" t="n">
-        <v>0</v>
+        <v>195.5929138346465</v>
       </c>
       <c r="T17" t="n">
-        <v>0</v>
+        <v>220.5164804230398</v>
       </c>
       <c r="U17" t="n">
-        <v>0</v>
+        <v>251.2985142370684</v>
       </c>
       <c r="V17" t="n">
-        <v>0</v>
+        <v>327.7522584701349</v>
       </c>
       <c r="W17" t="n">
         <v>349.240968717413</v>
@@ -23817,19 +23819,19 @@
         <v>0</v>
       </c>
       <c r="E18" t="n">
-        <v>0</v>
+        <v>157.6450804554009</v>
       </c>
       <c r="F18" t="n">
-        <v>0</v>
+        <v>145.0692123933839</v>
       </c>
       <c r="G18" t="n">
-        <v>0</v>
+        <v>137.0282495084215</v>
       </c>
       <c r="H18" t="n">
-        <v>0</v>
+        <v>109.1906224126114</v>
       </c>
       <c r="I18" t="n">
-        <v>0</v>
+        <v>78.54202280713804</v>
       </c>
       <c r="J18" t="n">
         <v>0</v>
@@ -23856,28 +23858,28 @@
         <v>0</v>
       </c>
       <c r="R18" t="n">
-        <v>0</v>
+        <v>80.58358449827551</v>
       </c>
       <c r="S18" t="n">
         <v>165.8272126914158</v>
       </c>
       <c r="T18" t="n">
-        <v>0</v>
+        <v>198.8939788055617</v>
       </c>
       <c r="U18" t="n">
-        <v>225.9206407878966</v>
+        <v>0</v>
       </c>
       <c r="V18" t="n">
-        <v>232.8005871494253</v>
+        <v>0</v>
       </c>
       <c r="W18" t="n">
-        <v>251.6949831609196</v>
+        <v>33.9567476762663</v>
       </c>
       <c r="X18" t="n">
-        <v>205.7729852034775</v>
+        <v>0</v>
       </c>
       <c r="Y18" t="n">
-        <v>24.72030225534053</v>
+        <v>0</v>
       </c>
     </row>
     <row r="19">
@@ -23893,10 +23895,10 @@
         <v>167.2468210986278</v>
       </c>
       <c r="D19" t="n">
-        <v>148.6154730182124</v>
+        <v>0</v>
       </c>
       <c r="E19" t="n">
-        <v>146.4339626465692</v>
+        <v>33.57973336435988</v>
       </c>
       <c r="F19" t="n">
         <v>145.4210480229312</v>
@@ -23932,7 +23934,7 @@
         <v>0</v>
       </c>
       <c r="Q19" t="n">
-        <v>64.0297007843443</v>
+        <v>0</v>
       </c>
       <c r="R19" t="n">
         <v>165.4090611368575</v>
@@ -23944,7 +23946,7 @@
         <v>226.8162656893113</v>
       </c>
       <c r="U19" t="n">
-        <v>0</v>
+        <v>286.3046124576955</v>
       </c>
       <c r="V19" t="n">
         <v>252.137643323828</v>
@@ -23953,7 +23955,7 @@
         <v>286.522998336591</v>
       </c>
       <c r="X19" t="n">
-        <v>186.5148647619667</v>
+        <v>225.7096553890372</v>
       </c>
       <c r="Y19" t="n">
         <v>218.5846533520948</v>
@@ -23978,7 +23980,7 @@
         <v>381.9303700722618</v>
       </c>
       <c r="F20" t="n">
-        <v>1.1344737448091</v>
+        <v>343.8861913651315</v>
       </c>
       <c r="G20" t="n">
         <v>8.971932133631583</v>
@@ -24020,10 +24022,10 @@
         <v>195.5929138346465</v>
       </c>
       <c r="T20" t="n">
-        <v>91.45320338325394</v>
+        <v>0</v>
       </c>
       <c r="U20" t="n">
-        <v>251.2985142370684</v>
+        <v>0</v>
       </c>
       <c r="V20" t="n">
         <v>327.7522584701349</v>
@@ -24045,7 +24047,7 @@
         </is>
       </c>
       <c r="B21" t="n">
-        <v>166.5331836498673</v>
+        <v>0</v>
       </c>
       <c r="C21" t="n">
         <v>172.7084989883157</v>
@@ -24057,10 +24059,10 @@
         <v>157.6450804554009</v>
       </c>
       <c r="F21" t="n">
-        <v>0</v>
+        <v>145.0692123933839</v>
       </c>
       <c r="G21" t="n">
-        <v>22.97725420958365</v>
+        <v>0</v>
       </c>
       <c r="H21" t="n">
         <v>109.1906224126114</v>
@@ -24102,13 +24104,13 @@
         <v>0</v>
       </c>
       <c r="U21" t="n">
-        <v>0</v>
+        <v>63.33562147756126</v>
       </c>
       <c r="V21" t="n">
-        <v>0</v>
+        <v>232.8005871494253</v>
       </c>
       <c r="W21" t="n">
-        <v>251.6949831609196</v>
+        <v>0</v>
       </c>
       <c r="X21" t="n">
         <v>0</v>
@@ -24127,7 +24129,7 @@
         <v>179.8319801819373</v>
       </c>
       <c r="C22" t="n">
-        <v>167.2468210986278</v>
+        <v>7.156479150719406</v>
       </c>
       <c r="D22" t="n">
         <v>148.6154730182124</v>
@@ -24139,16 +24141,16 @@
         <v>145.4210480229312</v>
       </c>
       <c r="G22" t="n">
-        <v>149.6064425243206</v>
+        <v>167.7266695472104</v>
       </c>
       <c r="H22" t="n">
-        <v>0</v>
+        <v>159.8772180037952</v>
       </c>
       <c r="I22" t="n">
-        <v>0</v>
+        <v>147.5019580580808</v>
       </c>
       <c r="J22" t="n">
-        <v>74.67247646141476</v>
+        <v>74.67247646141475</v>
       </c>
       <c r="K22" t="n">
         <v>0</v>
@@ -24169,10 +24171,10 @@
         <v>0</v>
       </c>
       <c r="Q22" t="n">
-        <v>64.0297007843443</v>
+        <v>64.02970078434429</v>
       </c>
       <c r="R22" t="n">
-        <v>165.4090611368575</v>
+        <v>0</v>
       </c>
       <c r="S22" t="n">
         <v>219.4103988718534</v>
@@ -24203,13 +24205,13 @@
         </is>
       </c>
       <c r="B23" t="n">
-        <v>0</v>
+        <v>107.1386551567959</v>
       </c>
       <c r="C23" t="n">
         <v>0</v>
       </c>
       <c r="D23" t="n">
-        <v>354.683041620683</v>
+        <v>0</v>
       </c>
       <c r="E23" t="n">
         <v>381.9303700722618</v>
@@ -24260,19 +24262,19 @@
         <v>220.5164804230398</v>
       </c>
       <c r="U23" t="n">
-        <v>251.2985142370684</v>
+        <v>0</v>
       </c>
       <c r="V23" t="n">
-        <v>327.7522584701349</v>
+        <v>0</v>
       </c>
       <c r="W23" t="n">
-        <v>278.614848880845</v>
+        <v>349.240968717413</v>
       </c>
       <c r="X23" t="n">
-        <v>0</v>
+        <v>369.731100678469</v>
       </c>
       <c r="Y23" t="n">
-        <v>0</v>
+        <v>386.2379386560536</v>
       </c>
     </row>
     <row r="24">
@@ -24285,16 +24287,16 @@
         <v>0</v>
       </c>
       <c r="C24" t="n">
-        <v>0</v>
+        <v>172.7084989883157</v>
       </c>
       <c r="D24" t="n">
-        <v>0</v>
+        <v>147.4450655646388</v>
       </c>
       <c r="E24" t="n">
-        <v>0</v>
+        <v>157.6450804554009</v>
       </c>
       <c r="F24" t="n">
-        <v>110.7503997371547</v>
+        <v>145.0692123933839</v>
       </c>
       <c r="G24" t="n">
         <v>137.0282495084215</v>
@@ -24303,7 +24305,7 @@
         <v>109.1906224126114</v>
       </c>
       <c r="I24" t="n">
-        <v>78.54202280713804</v>
+        <v>0</v>
       </c>
       <c r="J24" t="n">
         <v>0</v>
@@ -24333,13 +24335,13 @@
         <v>80.58358449827551</v>
       </c>
       <c r="S24" t="n">
-        <v>165.8272126914158</v>
+        <v>0</v>
       </c>
       <c r="T24" t="n">
-        <v>198.8939788055617</v>
+        <v>157.0663974274273</v>
       </c>
       <c r="U24" t="n">
-        <v>225.9206407878966</v>
+        <v>0</v>
       </c>
       <c r="V24" t="n">
         <v>0</v>
@@ -24376,16 +24378,16 @@
         <v>145.4210480229312</v>
       </c>
       <c r="G25" t="n">
-        <v>149.6064425243204</v>
+        <v>0</v>
       </c>
       <c r="H25" t="n">
-        <v>0</v>
+        <v>159.8772180037952</v>
       </c>
       <c r="I25" t="n">
         <v>0</v>
       </c>
       <c r="J25" t="n">
-        <v>74.67247646141476</v>
+        <v>64.40170098193994</v>
       </c>
       <c r="K25" t="n">
         <v>0</v>
@@ -24446,10 +24448,10 @@
         <v>0</v>
       </c>
       <c r="D26" t="n">
-        <v>0</v>
+        <v>354.683041620683</v>
       </c>
       <c r="E26" t="n">
-        <v>259.2592212392672</v>
+        <v>381.9303700722618</v>
       </c>
       <c r="F26" t="n">
         <v>406.8760457417114</v>
@@ -24488,7 +24490,7 @@
         <v>0</v>
       </c>
       <c r="R26" t="n">
-        <v>112.8556863456974</v>
+        <v>42.22956650912995</v>
       </c>
       <c r="S26" t="n">
         <v>195.5929138346465</v>
@@ -24503,13 +24505,13 @@
         <v>327.7522584701349</v>
       </c>
       <c r="W26" t="n">
-        <v>0</v>
+        <v>349.240968717413</v>
       </c>
       <c r="X26" t="n">
-        <v>369.731100678469</v>
+        <v>0</v>
       </c>
       <c r="Y26" t="n">
-        <v>386.2379386560536</v>
+        <v>0</v>
       </c>
     </row>
     <row r="27">
@@ -24531,16 +24533,16 @@
         <v>0</v>
       </c>
       <c r="F27" t="n">
-        <v>77.52130661069845</v>
+        <v>0</v>
       </c>
       <c r="G27" t="n">
-        <v>0</v>
+        <v>95.56164659442678</v>
       </c>
       <c r="H27" t="n">
-        <v>0</v>
+        <v>109.1906224126114</v>
       </c>
       <c r="I27" t="n">
-        <v>0</v>
+        <v>78.54202280713804</v>
       </c>
       <c r="J27" t="n">
         <v>0</v>
@@ -24585,7 +24587,7 @@
         <v>0</v>
       </c>
       <c r="X27" t="n">
-        <v>205.7729852034775</v>
+        <v>0</v>
       </c>
       <c r="Y27" t="n">
         <v>0</v>
@@ -24661,13 +24663,13 @@
         <v>252.137643323828</v>
       </c>
       <c r="W28" t="n">
-        <v>286.522998336591</v>
+        <v>186.7332506408622</v>
       </c>
       <c r="X28" t="n">
-        <v>118.794905656366</v>
+        <v>0</v>
       </c>
       <c r="Y28" t="n">
-        <v>0</v>
+        <v>218.5846533520948</v>
       </c>
     </row>
     <row r="29">
@@ -24689,7 +24691,7 @@
         <v>381.9303700722618</v>
       </c>
       <c r="F29" t="n">
-        <v>1.1344737448091</v>
+        <v>406.8760457417114</v>
       </c>
       <c r="G29" t="n">
         <v>414.7135041305339</v>
@@ -24698,7 +24700,7 @@
         <v>333.4403157157206</v>
       </c>
       <c r="I29" t="n">
-        <v>187.7594695105699</v>
+        <v>0</v>
       </c>
       <c r="J29" t="n">
         <v>0</v>
@@ -24728,16 +24730,16 @@
         <v>112.8556863456974</v>
       </c>
       <c r="S29" t="n">
-        <v>195.5929138346465</v>
+        <v>0</v>
       </c>
       <c r="T29" t="n">
-        <v>0</v>
+        <v>220.5164804230398</v>
       </c>
       <c r="U29" t="n">
-        <v>251.2985142370684</v>
+        <v>135.8079968813294</v>
       </c>
       <c r="V29" t="n">
-        <v>327.7522584701349</v>
+        <v>0</v>
       </c>
       <c r="W29" t="n">
         <v>349.240968717413</v>
@@ -24746,7 +24748,7 @@
         <v>369.731100678469</v>
       </c>
       <c r="Y29" t="n">
-        <v>185.9008319049053</v>
+        <v>386.2379386560536</v>
       </c>
     </row>
     <row r="30">
@@ -24762,22 +24764,22 @@
         <v>0</v>
       </c>
       <c r="D30" t="n">
-        <v>147.4450655646388</v>
+        <v>0</v>
       </c>
       <c r="E30" t="n">
-        <v>157.6450804554009</v>
+        <v>0</v>
       </c>
       <c r="F30" t="n">
-        <v>145.0692123933839</v>
+        <v>0</v>
       </c>
       <c r="G30" t="n">
-        <v>137.0282495084215</v>
+        <v>24.72030225534071</v>
       </c>
       <c r="H30" t="n">
-        <v>109.1906224126114</v>
+        <v>0</v>
       </c>
       <c r="I30" t="n">
-        <v>78.54202280713804</v>
+        <v>0</v>
       </c>
       <c r="J30" t="n">
         <v>0</v>
@@ -24804,25 +24806,25 @@
         <v>0</v>
       </c>
       <c r="R30" t="n">
-        <v>80.58358449827551</v>
+        <v>0</v>
       </c>
       <c r="S30" t="n">
         <v>165.8272126914158</v>
       </c>
       <c r="T30" t="n">
-        <v>85.40566091718938</v>
+        <v>0</v>
       </c>
       <c r="U30" t="n">
-        <v>0</v>
+        <v>225.9206407878966</v>
       </c>
       <c r="V30" t="n">
-        <v>0</v>
+        <v>232.8005871494253</v>
       </c>
       <c r="W30" t="n">
-        <v>0</v>
+        <v>251.6949831609196</v>
       </c>
       <c r="X30" t="n">
-        <v>0</v>
+        <v>205.7729852034775</v>
       </c>
       <c r="Y30" t="n">
         <v>0</v>
@@ -24835,13 +24837,13 @@
         </is>
       </c>
       <c r="B31" t="n">
-        <v>170.1948712140117</v>
+        <v>179.8319801819373</v>
       </c>
       <c r="C31" t="n">
-        <v>0</v>
+        <v>167.2468210986278</v>
       </c>
       <c r="D31" t="n">
-        <v>0</v>
+        <v>148.6154730182124</v>
       </c>
       <c r="E31" t="n">
         <v>146.4339626465692</v>
@@ -24850,7 +24852,7 @@
         <v>145.4210480229312</v>
       </c>
       <c r="G31" t="n">
-        <v>167.7266695472104</v>
+        <v>0</v>
       </c>
       <c r="H31" t="n">
         <v>159.8772180037952</v>
@@ -24901,7 +24903,7 @@
         <v>286.522998336591</v>
       </c>
       <c r="X31" t="n">
-        <v>225.7096553890372</v>
+        <v>67.9369218514816</v>
       </c>
       <c r="Y31" t="n">
         <v>218.5846533520948</v>
@@ -24920,7 +24922,7 @@
         <v>365.2728917710076</v>
       </c>
       <c r="D32" t="n">
-        <v>354.683041620683</v>
+        <v>0</v>
       </c>
       <c r="E32" t="n">
         <v>381.9303700722618</v>
@@ -24929,10 +24931,10 @@
         <v>406.8760457417114</v>
       </c>
       <c r="G32" t="n">
-        <v>414.7135041305339</v>
+        <v>8.971932133631583</v>
       </c>
       <c r="H32" t="n">
-        <v>333.4403157157206</v>
+        <v>14.85256473690521</v>
       </c>
       <c r="I32" t="n">
         <v>187.7594695105699</v>
@@ -24962,25 +24964,25 @@
         <v>0</v>
       </c>
       <c r="R32" t="n">
-        <v>112.8556863456974</v>
+        <v>0</v>
       </c>
       <c r="S32" t="n">
-        <v>194.5119269485387</v>
+        <v>195.5929138346465</v>
       </c>
       <c r="T32" t="n">
-        <v>0</v>
+        <v>220.5164804230398</v>
       </c>
       <c r="U32" t="n">
-        <v>0</v>
+        <v>251.2985142370684</v>
       </c>
       <c r="V32" t="n">
         <v>327.7522584701349</v>
       </c>
       <c r="W32" t="n">
-        <v>0</v>
+        <v>349.240968717413</v>
       </c>
       <c r="X32" t="n">
-        <v>0</v>
+        <v>369.731100678469</v>
       </c>
       <c r="Y32" t="n">
         <v>386.2379386560536</v>
@@ -24993,13 +24995,13 @@
         </is>
       </c>
       <c r="B33" t="n">
-        <v>166.5331836498673</v>
+        <v>0</v>
       </c>
       <c r="C33" t="n">
-        <v>172.7084989883157</v>
+        <v>0</v>
       </c>
       <c r="D33" t="n">
-        <v>147.4450655646388</v>
+        <v>0</v>
       </c>
       <c r="E33" t="n">
         <v>157.6450804554009</v>
@@ -25008,10 +25010,10 @@
         <v>145.0692123933839</v>
       </c>
       <c r="G33" t="n">
-        <v>31.06938992128855</v>
+        <v>137.0282495084215</v>
       </c>
       <c r="H33" t="n">
-        <v>0</v>
+        <v>76.35233660639491</v>
       </c>
       <c r="I33" t="n">
         <v>0</v>
@@ -25041,16 +25043,16 @@
         <v>0</v>
       </c>
       <c r="R33" t="n">
-        <v>80.58358449827551</v>
+        <v>0</v>
       </c>
       <c r="S33" t="n">
-        <v>0</v>
+        <v>165.8272126914158</v>
       </c>
       <c r="T33" t="n">
-        <v>0</v>
+        <v>198.8939788055617</v>
       </c>
       <c r="U33" t="n">
-        <v>0</v>
+        <v>225.9206407878966</v>
       </c>
       <c r="V33" t="n">
         <v>0</v>
@@ -25062,7 +25064,7 @@
         <v>0</v>
       </c>
       <c r="Y33" t="n">
-        <v>205.6826957773044</v>
+        <v>0</v>
       </c>
     </row>
     <row r="34">
@@ -25129,16 +25131,16 @@
         <v>226.8162656893113</v>
       </c>
       <c r="U34" t="n">
-        <v>0</v>
+        <v>286.3046124576955</v>
       </c>
       <c r="V34" t="n">
-        <v>212.9428526967575</v>
+        <v>252.137643323828</v>
       </c>
       <c r="W34" t="n">
-        <v>286.522998336591</v>
+        <v>0</v>
       </c>
       <c r="X34" t="n">
-        <v>225.7096553890372</v>
+        <v>186.7332506408625</v>
       </c>
       <c r="Y34" t="n">
         <v>218.5846533520948</v>
@@ -25151,7 +25153,7 @@
         </is>
       </c>
       <c r="B35" t="n">
-        <v>0</v>
+        <v>382.7338416634806</v>
       </c>
       <c r="C35" t="n">
         <v>365.2728917710076</v>
@@ -25166,13 +25168,13 @@
         <v>406.8760457417114</v>
       </c>
       <c r="G35" t="n">
-        <v>414.7135041305339</v>
+        <v>302.8105064562255</v>
       </c>
       <c r="H35" t="n">
         <v>333.4403157157206</v>
       </c>
       <c r="I35" t="n">
-        <v>0</v>
+        <v>187.7594695105699</v>
       </c>
       <c r="J35" t="n">
         <v>0</v>
@@ -25199,28 +25201,28 @@
         <v>0</v>
       </c>
       <c r="R35" t="n">
-        <v>112.8556863456974</v>
+        <v>0</v>
       </c>
       <c r="S35" t="n">
-        <v>195.5929138346465</v>
+        <v>0</v>
       </c>
       <c r="T35" t="n">
-        <v>220.5164804230398</v>
+        <v>0</v>
       </c>
       <c r="U35" t="n">
-        <v>251.2985142370684</v>
+        <v>0</v>
       </c>
       <c r="V35" t="n">
-        <v>327.7522584701349</v>
+        <v>0</v>
       </c>
       <c r="W35" t="n">
-        <v>86.05336756262159</v>
+        <v>349.240968717413</v>
       </c>
       <c r="X35" t="n">
         <v>369.731100678469</v>
       </c>
       <c r="Y35" t="n">
-        <v>0</v>
+        <v>386.2379386560536</v>
       </c>
     </row>
     <row r="36">
@@ -25236,13 +25238,13 @@
         <v>172.7084989883157</v>
       </c>
       <c r="D36" t="n">
-        <v>0</v>
+        <v>147.4450655646388</v>
       </c>
       <c r="E36" t="n">
-        <v>0</v>
+        <v>157.6450804554009</v>
       </c>
       <c r="F36" t="n">
-        <v>0</v>
+        <v>145.0692123933839</v>
       </c>
       <c r="G36" t="n">
         <v>137.0282495084215</v>
@@ -25251,7 +25253,7 @@
         <v>109.1906224126114</v>
       </c>
       <c r="I36" t="n">
-        <v>0</v>
+        <v>71.11679827583598</v>
       </c>
       <c r="J36" t="n">
         <v>0</v>
@@ -25284,10 +25286,10 @@
         <v>0</v>
       </c>
       <c r="T36" t="n">
-        <v>198.8939788055617</v>
+        <v>0</v>
       </c>
       <c r="U36" t="n">
-        <v>225.9206407878966</v>
+        <v>0</v>
       </c>
       <c r="V36" t="n">
         <v>0</v>
@@ -25299,7 +25301,7 @@
         <v>0</v>
       </c>
       <c r="Y36" t="n">
-        <v>96.46153709580115</v>
+        <v>0</v>
       </c>
     </row>
     <row r="37">
@@ -25312,16 +25314,16 @@
         <v>179.8319801819373</v>
       </c>
       <c r="C37" t="n">
-        <v>167.2468210986278</v>
+        <v>0</v>
       </c>
       <c r="D37" t="n">
-        <v>148.6154730182124</v>
+        <v>0</v>
       </c>
       <c r="E37" t="n">
         <v>146.4339626465692</v>
       </c>
       <c r="F37" t="n">
-        <v>39.33204381001867</v>
+        <v>145.4210480229312</v>
       </c>
       <c r="G37" t="n">
         <v>167.7266695472104</v>
@@ -25360,7 +25362,7 @@
         <v>165.4090611368575</v>
       </c>
       <c r="S37" t="n">
-        <v>0</v>
+        <v>219.4103988718534</v>
       </c>
       <c r="T37" t="n">
         <v>226.8162656893113</v>
@@ -25378,7 +25380,7 @@
         <v>225.7096553890372</v>
       </c>
       <c r="Y37" t="n">
-        <v>218.5846533520948</v>
+        <v>208.9475443841691</v>
       </c>
     </row>
     <row r="38">
@@ -25388,7 +25390,7 @@
         </is>
       </c>
       <c r="B38" t="n">
-        <v>101.1014266204073</v>
+        <v>382.7338416634806</v>
       </c>
       <c r="C38" t="n">
         <v>365.2728917710076</v>
@@ -25403,13 +25405,13 @@
         <v>406.8760457417114</v>
       </c>
       <c r="G38" t="n">
-        <v>414.7135041305339</v>
+        <v>8.971932133631583</v>
       </c>
       <c r="H38" t="n">
-        <v>333.4403157157206</v>
+        <v>0</v>
       </c>
       <c r="I38" t="n">
-        <v>0</v>
+        <v>187.7594695105699</v>
       </c>
       <c r="J38" t="n">
         <v>0</v>
@@ -25436,7 +25438,7 @@
         <v>0</v>
       </c>
       <c r="R38" t="n">
-        <v>112.8556863456974</v>
+        <v>0</v>
       </c>
       <c r="S38" t="n">
         <v>195.5929138346465</v>
@@ -25445,19 +25447,19 @@
         <v>220.5164804230398</v>
       </c>
       <c r="U38" t="n">
-        <v>251.2985142370684</v>
+        <v>226.2175548384143</v>
       </c>
       <c r="V38" t="n">
-        <v>327.7522584701349</v>
+        <v>0</v>
       </c>
       <c r="W38" t="n">
-        <v>0</v>
+        <v>349.240968717413</v>
       </c>
       <c r="X38" t="n">
         <v>0</v>
       </c>
       <c r="Y38" t="n">
-        <v>0</v>
+        <v>386.2379386560536</v>
       </c>
     </row>
     <row r="39">
@@ -25467,28 +25469,28 @@
         </is>
       </c>
       <c r="B39" t="n">
-        <v>0</v>
+        <v>166.5331836498673</v>
       </c>
       <c r="C39" t="n">
         <v>0</v>
       </c>
       <c r="D39" t="n">
-        <v>147.4450655646388</v>
+        <v>0</v>
       </c>
       <c r="E39" t="n">
-        <v>157.6450804554009</v>
+        <v>0</v>
       </c>
       <c r="F39" t="n">
-        <v>145.0692123933839</v>
+        <v>0</v>
       </c>
       <c r="G39" t="n">
-        <v>40.16117817715434</v>
+        <v>0</v>
       </c>
       <c r="H39" t="n">
-        <v>0</v>
+        <v>109.1906224126114</v>
       </c>
       <c r="I39" t="n">
-        <v>0</v>
+        <v>78.54202280713804</v>
       </c>
       <c r="J39" t="n">
         <v>0</v>
@@ -25518,7 +25520,7 @@
         <v>0</v>
       </c>
       <c r="S39" t="n">
-        <v>165.8272126914158</v>
+        <v>0</v>
       </c>
       <c r="T39" t="n">
         <v>198.8939788055617</v>
@@ -25527,13 +25529,13 @@
         <v>0</v>
       </c>
       <c r="V39" t="n">
-        <v>0</v>
+        <v>232.8005871494253</v>
       </c>
       <c r="W39" t="n">
         <v>251.6949831609196</v>
       </c>
       <c r="X39" t="n">
-        <v>0</v>
+        <v>69.08133326295194</v>
       </c>
       <c r="Y39" t="n">
         <v>0</v>
@@ -25561,7 +25563,7 @@
         <v>145.4210480229312</v>
       </c>
       <c r="G40" t="n">
-        <v>128.7502647990354</v>
+        <v>167.7266695472104</v>
       </c>
       <c r="H40" t="n">
         <v>159.8772180037952</v>
@@ -25570,7 +25572,7 @@
         <v>147.5019580580808</v>
       </c>
       <c r="J40" t="n">
-        <v>74.67247646141475</v>
+        <v>74.67247646141476</v>
       </c>
       <c r="K40" t="n">
         <v>0</v>
@@ -25591,7 +25593,7 @@
         <v>0</v>
       </c>
       <c r="Q40" t="n">
-        <v>64.02970078434429</v>
+        <v>64.0297007843443</v>
       </c>
       <c r="R40" t="n">
         <v>165.4090611368575</v>
@@ -25600,16 +25602,16 @@
         <v>219.4103988718534</v>
       </c>
       <c r="T40" t="n">
-        <v>226.8162656893113</v>
+        <v>0</v>
       </c>
       <c r="U40" t="n">
-        <v>286.3046124576955</v>
+        <v>187.621475062241</v>
       </c>
       <c r="V40" t="n">
         <v>252.137643323828</v>
       </c>
       <c r="W40" t="n">
-        <v>0</v>
+        <v>286.522998336591</v>
       </c>
       <c r="X40" t="n">
         <v>225.7096553890372</v>
@@ -25637,10 +25639,10 @@
         <v>381.9303700722618</v>
       </c>
       <c r="F41" t="n">
-        <v>93.93806132948629</v>
+        <v>406.8760457417114</v>
       </c>
       <c r="G41" t="n">
-        <v>414.7135041305339</v>
+        <v>8.971932133631583</v>
       </c>
       <c r="H41" t="n">
         <v>333.4403157157206</v>
@@ -25673,13 +25675,13 @@
         <v>0</v>
       </c>
       <c r="R41" t="n">
-        <v>0</v>
+        <v>112.8556863456974</v>
       </c>
       <c r="S41" t="n">
         <v>195.5929138346465</v>
       </c>
       <c r="T41" t="n">
-        <v>0</v>
+        <v>220.5164804230398</v>
       </c>
       <c r="U41" t="n">
         <v>0</v>
@@ -25688,10 +25690,10 @@
         <v>0</v>
       </c>
       <c r="W41" t="n">
-        <v>0</v>
+        <v>129.1625214944092</v>
       </c>
       <c r="X41" t="n">
-        <v>369.731100678469</v>
+        <v>0</v>
       </c>
       <c r="Y41" t="n">
         <v>386.2379386560536</v>
@@ -25704,16 +25706,16 @@
         </is>
       </c>
       <c r="B42" t="n">
-        <v>0</v>
+        <v>166.5331836498673</v>
       </c>
       <c r="C42" t="n">
-        <v>0</v>
+        <v>172.7084989883157</v>
       </c>
       <c r="D42" t="n">
-        <v>0</v>
+        <v>147.4450655646388</v>
       </c>
       <c r="E42" t="n">
-        <v>64.46115516150087</v>
+        <v>157.6450804554009</v>
       </c>
       <c r="F42" t="n">
         <v>145.0692123933839</v>
@@ -25722,10 +25724,10 @@
         <v>137.0282495084215</v>
       </c>
       <c r="H42" t="n">
-        <v>109.1906224126114</v>
+        <v>0</v>
       </c>
       <c r="I42" t="n">
-        <v>0</v>
+        <v>78.54202280713804</v>
       </c>
       <c r="J42" t="n">
         <v>0</v>
@@ -25755,10 +25757,10 @@
         <v>80.58358449827551</v>
       </c>
       <c r="S42" t="n">
-        <v>165.8272126914158</v>
+        <v>0</v>
       </c>
       <c r="T42" t="n">
-        <v>198.8939788055617</v>
+        <v>0</v>
       </c>
       <c r="U42" t="n">
         <v>0</v>
@@ -25773,7 +25775,7 @@
         <v>0</v>
       </c>
       <c r="Y42" t="n">
-        <v>205.6826957773044</v>
+        <v>21.18181338303344</v>
       </c>
     </row>
     <row r="43">
@@ -25840,19 +25842,19 @@
         <v>226.8162656893113</v>
       </c>
       <c r="U43" t="n">
-        <v>0</v>
+        <v>286.3046124576955</v>
       </c>
       <c r="V43" t="n">
         <v>252.137643323828</v>
       </c>
       <c r="W43" t="n">
-        <v>247.3282077095205</v>
+        <v>286.522998336591</v>
       </c>
       <c r="X43" t="n">
-        <v>225.7096553890372</v>
+        <v>118.794905656366</v>
       </c>
       <c r="Y43" t="n">
-        <v>218.5846533520948</v>
+        <v>0</v>
       </c>
     </row>
     <row r="44">
@@ -25868,7 +25870,7 @@
         <v>365.2728917710076</v>
       </c>
       <c r="D44" t="n">
-        <v>354.683041620683</v>
+        <v>0</v>
       </c>
       <c r="E44" t="n">
         <v>381.9303700722618</v>
@@ -25877,13 +25879,13 @@
         <v>406.8760457417114</v>
       </c>
       <c r="G44" t="n">
-        <v>8.971932133631583</v>
+        <v>414.7135041305339</v>
       </c>
       <c r="H44" t="n">
         <v>0</v>
       </c>
       <c r="I44" t="n">
-        <v>71.31153401349631</v>
+        <v>187.7594695105699</v>
       </c>
       <c r="J44" t="n">
         <v>0</v>
@@ -25919,19 +25921,19 @@
         <v>220.5164804230398</v>
       </c>
       <c r="U44" t="n">
-        <v>251.2985142370684</v>
+        <v>78.8101760940821</v>
       </c>
       <c r="V44" t="n">
-        <v>327.7522584701349</v>
+        <v>0</v>
       </c>
       <c r="W44" t="n">
-        <v>0</v>
+        <v>349.240968717413</v>
       </c>
       <c r="X44" t="n">
-        <v>0</v>
+        <v>369.731100678469</v>
       </c>
       <c r="Y44" t="n">
-        <v>386.2379386560536</v>
+        <v>0</v>
       </c>
     </row>
     <row r="45">
@@ -25944,22 +25946,22 @@
         <v>166.5331836498673</v>
       </c>
       <c r="C45" t="n">
-        <v>0</v>
+        <v>172.7084989883157</v>
       </c>
       <c r="D45" t="n">
         <v>147.4450655646388</v>
       </c>
       <c r="E45" t="n">
-        <v>157.6450804554009</v>
+        <v>3.633788387756283</v>
       </c>
       <c r="F45" t="n">
-        <v>145.0692123933839</v>
+        <v>0</v>
       </c>
       <c r="G45" t="n">
-        <v>137.0282495084215</v>
+        <v>0</v>
       </c>
       <c r="H45" t="n">
-        <v>109.1906224126114</v>
+        <v>0</v>
       </c>
       <c r="I45" t="n">
         <v>0</v>
@@ -25992,10 +25994,10 @@
         <v>0</v>
       </c>
       <c r="S45" t="n">
-        <v>0</v>
+        <v>165.8272126914158</v>
       </c>
       <c r="T45" t="n">
-        <v>0</v>
+        <v>198.8939788055617</v>
       </c>
       <c r="U45" t="n">
         <v>0</v>
@@ -26004,10 +26006,10 @@
         <v>0</v>
       </c>
       <c r="W45" t="n">
-        <v>38.05231206067424</v>
+        <v>251.6949831609196</v>
       </c>
       <c r="X45" t="n">
-        <v>205.7729852034775</v>
+        <v>0</v>
       </c>
       <c r="Y45" t="n">
         <v>0</v>
@@ -26026,7 +26028,7 @@
         <v>167.2468210986278</v>
       </c>
       <c r="D46" t="n">
-        <v>0</v>
+        <v>148.6154730182124</v>
       </c>
       <c r="E46" t="n">
         <v>146.4339626465692</v>
@@ -26068,7 +26070,7 @@
         <v>64.02970078434429</v>
       </c>
       <c r="R46" t="n">
-        <v>0</v>
+        <v>165.4090611368575</v>
       </c>
       <c r="S46" t="n">
         <v>219.4103988718534</v>
@@ -26077,16 +26079,16 @@
         <v>226.8162656893113</v>
       </c>
       <c r="U46" t="n">
-        <v>286.3046124576955</v>
+        <v>247.3282077095205</v>
       </c>
       <c r="V46" t="n">
         <v>252.137643323828</v>
       </c>
       <c r="W46" t="n">
-        <v>286.522998336591</v>
+        <v>0</v>
       </c>
       <c r="X46" t="n">
-        <v>214.2347864593411</v>
+        <v>225.7096553890372</v>
       </c>
       <c r="Y46" t="n">
         <v>218.5846533520948</v>
@@ -26147,7 +26149,7 @@
         <v>3</v>
       </c>
       <c r="B5" t="n">
-        <v>506297.2831878811</v>
+        <v>506297.2831878812</v>
       </c>
     </row>
     <row r="6">
@@ -26155,7 +26157,7 @@
         <v>4</v>
       </c>
       <c r="B6" t="n">
-        <v>506297.2831878812</v>
+        <v>506297.2831878809</v>
       </c>
     </row>
     <row r="7">
@@ -26163,7 +26165,7 @@
         <v>5</v>
       </c>
       <c r="B7" t="n">
-        <v>506297.2831878809</v>
+        <v>506297.2831878811</v>
       </c>
     </row>
     <row r="8">
@@ -26171,7 +26173,7 @@
         <v>6</v>
       </c>
       <c r="B8" t="n">
-        <v>506297.2831878812</v>
+        <v>506297.283187881</v>
       </c>
     </row>
     <row r="9">
@@ -26179,7 +26181,7 @@
         <v>7</v>
       </c>
       <c r="B9" t="n">
-        <v>506297.2831878813</v>
+        <v>506297.2831878812</v>
       </c>
     </row>
     <row r="10">
@@ -26195,7 +26197,7 @@
         <v>9</v>
       </c>
       <c r="B11" t="n">
-        <v>506297.2831878812</v>
+        <v>506297.2831878811</v>
       </c>
     </row>
     <row r="12">
@@ -26203,7 +26205,7 @@
         <v>10</v>
       </c>
       <c r="B12" t="n">
-        <v>506297.2831878809</v>
+        <v>506297.2831878808</v>
       </c>
     </row>
     <row r="13">
@@ -26227,7 +26229,7 @@
         <v>13</v>
       </c>
       <c r="B15" t="n">
-        <v>506297.2831878809</v>
+        <v>506297.2831878808</v>
       </c>
     </row>
     <row r="16">
@@ -26235,7 +26237,7 @@
         <v>14</v>
       </c>
       <c r="B16" t="n">
-        <v>506297.2831878812</v>
+        <v>506297.2831878808</v>
       </c>
     </row>
   </sheetData>
@@ -26311,49 +26313,49 @@
         </is>
       </c>
       <c r="B2" t="n">
+        <v>513151.1061651769</v>
+      </c>
+      <c r="C2" t="n">
         <v>513151.106165177</v>
       </c>
-      <c r="C2" t="n">
-        <v>513151.1061651769</v>
-      </c>
       <c r="D2" t="n">
-        <v>513151.1061651771</v>
+        <v>513151.1061651768</v>
       </c>
       <c r="E2" t="n">
-        <v>267036.1213307579</v>
+        <v>267036.1213307581</v>
       </c>
       <c r="F2" t="n">
         <v>267036.121330758</v>
       </c>
       <c r="G2" t="n">
+        <v>267036.121330758</v>
+      </c>
+      <c r="H2" t="n">
         <v>267036.1213307581</v>
-      </c>
-      <c r="H2" t="n">
-        <v>267036.121330758</v>
       </c>
       <c r="I2" t="n">
         <v>267036.121330758</v>
       </c>
       <c r="J2" t="n">
-        <v>267036.1213307581</v>
+        <v>267036.121330758</v>
       </c>
       <c r="K2" t="n">
+        <v>267036.1213307579</v>
+      </c>
+      <c r="L2" t="n">
         <v>267036.121330758</v>
-      </c>
-      <c r="L2" t="n">
-        <v>267036.1213307579</v>
       </c>
       <c r="M2" t="n">
         <v>267036.121330758</v>
       </c>
       <c r="N2" t="n">
-        <v>267036.1213307581</v>
+        <v>267036.121330758</v>
       </c>
       <c r="O2" t="n">
         <v>267036.1213307581</v>
       </c>
       <c r="P2" t="n">
-        <v>267036.1213307581</v>
+        <v>267036.121330758</v>
       </c>
     </row>
     <row r="3">
@@ -26363,7 +26365,7 @@
         </is>
       </c>
       <c r="B3" t="n">
-        <v>80769.43153154774</v>
+        <v>80769.43153154773</v>
       </c>
       <c r="C3" t="n">
         <v>0</v>
@@ -26387,7 +26389,7 @@
         <v>0</v>
       </c>
       <c r="J3" t="n">
-        <v>63059.94259910623</v>
+        <v>63059.94259910619</v>
       </c>
       <c r="K3" t="n">
         <v>0</v>
@@ -26396,7 +26398,7 @@
         <v>0</v>
       </c>
       <c r="M3" t="n">
-        <v>41050.6978624479</v>
+        <v>41050.69786244789</v>
       </c>
       <c r="N3" t="n">
         <v>0</v>
@@ -26439,7 +26441,7 @@
         <v>25938.22349556464</v>
       </c>
       <c r="J4" t="n">
-        <v>25938.22349556464</v>
+        <v>25938.22349556463</v>
       </c>
       <c r="K4" t="n">
         <v>25938.22349556464</v>
@@ -26454,10 +26456,10 @@
         <v>25938.22349556464</v>
       </c>
       <c r="O4" t="n">
-        <v>25938.22349556464</v>
+        <v>25938.22349556463</v>
       </c>
       <c r="P4" t="n">
-        <v>25938.22349556464</v>
+        <v>25938.22349556463</v>
       </c>
     </row>
     <row r="5">
@@ -26491,10 +26493,10 @@
         <v>27864.35291375757</v>
       </c>
       <c r="J5" t="n">
-        <v>27864.35291375757</v>
+        <v>27864.35291375756</v>
       </c>
       <c r="K5" t="n">
-        <v>27864.35291375757</v>
+        <v>27864.35291375756</v>
       </c>
       <c r="L5" t="n">
         <v>27864.35291375757</v>
@@ -26503,10 +26505,10 @@
         <v>27864.35291375757</v>
       </c>
       <c r="N5" t="n">
-        <v>27864.35291375758</v>
+        <v>27864.35291375757</v>
       </c>
       <c r="O5" t="n">
-        <v>27864.35291375758</v>
+        <v>27864.35291375757</v>
       </c>
       <c r="P5" t="n">
         <v>27864.35291375757</v>
@@ -26519,49 +26521,49 @@
         </is>
       </c>
       <c r="B6" t="n">
-        <v>79872.61002278893</v>
+        <v>79872.61002278881</v>
       </c>
       <c r="C6" t="n">
+        <v>160642.0415543367</v>
+      </c>
+      <c r="D6" t="n">
         <v>160642.0415543365</v>
       </c>
-      <c r="D6" t="n">
-        <v>160642.0415543367</v>
-      </c>
       <c r="E6" t="n">
-        <v>46293.37479618896</v>
+        <v>46293.37479618913</v>
       </c>
       <c r="F6" t="n">
         <v>213233.5449214358</v>
       </c>
       <c r="G6" t="n">
+        <v>213233.5449214357</v>
+      </c>
+      <c r="H6" t="n">
         <v>213233.5449214359</v>
-      </c>
-      <c r="H6" t="n">
-        <v>213233.5449214358</v>
       </c>
       <c r="I6" t="n">
         <v>213233.5449214358</v>
       </c>
       <c r="J6" t="n">
-        <v>150173.6023223297</v>
+        <v>150173.6023223296</v>
       </c>
       <c r="K6" t="n">
+        <v>213233.5449214357</v>
+      </c>
+      <c r="L6" t="n">
         <v>213233.5449214358</v>
-      </c>
-      <c r="L6" t="n">
-        <v>213233.5449214357</v>
       </c>
       <c r="M6" t="n">
         <v>172182.8470589879</v>
       </c>
       <c r="N6" t="n">
-        <v>213233.5449214359</v>
+        <v>213233.5449214358</v>
       </c>
       <c r="O6" t="n">
         <v>213233.5449214359</v>
       </c>
       <c r="P6" t="n">
-        <v>213233.5449214359</v>
+        <v>213233.5449214358</v>
       </c>
     </row>
   </sheetData>
@@ -26753,7 +26755,7 @@
         <v>146.571804419537</v>
       </c>
       <c r="H3" t="n">
-        <v>146.571804419537</v>
+        <v>146.5718044195371</v>
       </c>
       <c r="I3" t="n">
         <v>146.571804419537</v>
@@ -26771,7 +26773,7 @@
         <v>146.571804419537</v>
       </c>
       <c r="N3" t="n">
-        <v>146.5718044195371</v>
+        <v>146.571804419537</v>
       </c>
       <c r="O3" t="n">
         <v>146.5718044195371</v>
@@ -26802,13 +26804,13 @@
         <v>405.7415719969023</v>
       </c>
       <c r="G4" t="n">
-        <v>405.7415719969023</v>
+        <v>405.7415719969024</v>
       </c>
       <c r="H4" t="n">
         <v>405.7415719969023</v>
       </c>
       <c r="I4" t="n">
-        <v>405.7415719969023</v>
+        <v>405.7415719969024</v>
       </c>
       <c r="J4" t="n">
         <v>405.7415719969023</v>
@@ -26823,10 +26825,10 @@
         <v>405.7415719969023</v>
       </c>
       <c r="N4" t="n">
-        <v>405.7415719969024</v>
+        <v>405.7415719969023</v>
       </c>
       <c r="O4" t="n">
-        <v>405.7415719969024</v>
+        <v>405.7415719969023</v>
       </c>
       <c r="P4" t="n">
         <v>405.7415719969023</v>
@@ -27033,7 +27035,7 @@
         <v>0</v>
       </c>
       <c r="J4" t="n">
-        <v>241.0142888776591</v>
+        <v>241.0142888776589</v>
       </c>
       <c r="K4" t="n">
         <v>0</v>
@@ -27421,10 +27423,10 @@
         <v>0</v>
       </c>
       <c r="Q2" t="n">
-        <v>9.990699214544804</v>
+        <v>0</v>
       </c>
       <c r="R2" t="n">
-        <v>149.8691179411497</v>
+        <v>0</v>
       </c>
       <c r="S2" t="n">
         <v>209.0200695862453</v>
@@ -27433,13 +27435,13 @@
         <v>223.0958495641314</v>
       </c>
       <c r="U2" t="n">
-        <v>251.3456529078365</v>
+        <v>10.33136403017744</v>
       </c>
       <c r="V2" t="n">
-        <v>137.6456560835393</v>
+        <v>297.5054732392338</v>
       </c>
       <c r="W2" t="n">
-        <v>108.226679839754</v>
+        <v>349.240968717413</v>
       </c>
       <c r="X2" t="n">
         <v>128.71681180081</v>
@@ -27461,22 +27463,22 @@
         <v>172.7084989883157</v>
       </c>
       <c r="D3" t="n">
-        <v>147.4450655646388</v>
+        <v>0</v>
       </c>
       <c r="E3" t="n">
         <v>157.6450804554009</v>
       </c>
       <c r="F3" t="n">
-        <v>19.92352038573853</v>
+        <v>0</v>
       </c>
       <c r="G3" t="n">
         <v>137.3435171632106</v>
       </c>
       <c r="H3" t="n">
-        <v>0</v>
+        <v>112.2354442364965</v>
       </c>
       <c r="I3" t="n">
-        <v>89.39663285141508</v>
+        <v>0</v>
       </c>
       <c r="J3" t="n">
         <v>0.7465913262578567</v>
@@ -27503,13 +27505,13 @@
         <v>0</v>
       </c>
       <c r="R3" t="n">
-        <v>0</v>
+        <v>100.1578341526431</v>
       </c>
       <c r="S3" t="n">
-        <v>0</v>
+        <v>49.9801969213087</v>
       </c>
       <c r="T3" t="n">
-        <v>0</v>
+        <v>200.1647286948216</v>
       </c>
       <c r="U3" t="n">
         <v>0</v>
@@ -27521,7 +27523,7 @@
         <v>251.6949831609196</v>
       </c>
       <c r="X3" t="n">
-        <v>205.7729852034775</v>
+        <v>0</v>
       </c>
       <c r="Y3" t="n">
         <v>205.6826957773044</v>
@@ -27582,7 +27584,7 @@
         <v>86.16204325169439</v>
       </c>
       <c r="R4" t="n">
-        <v>177.2933913771695</v>
+        <v>44.10642379180146</v>
       </c>
       <c r="S4" t="n">
         <v>224.0165980369723</v>
@@ -27597,7 +27599,7 @@
         <v>252.137643323828</v>
       </c>
       <c r="W4" t="n">
-        <v>153.336030751223</v>
+        <v>286.522998336591</v>
       </c>
       <c r="X4" t="n">
         <v>225.7096553890372</v>
@@ -27616,28 +27618,28 @@
         <v>382.7338416634806</v>
       </c>
       <c r="C5" t="n">
-        <v>365.2728917710076</v>
+        <v>124.2586028933485</v>
       </c>
       <c r="D5" t="n">
         <v>354.683041620683</v>
       </c>
       <c r="E5" t="n">
-        <v>381.9303700722618</v>
+        <v>140.9160811946027</v>
       </c>
       <c r="F5" t="n">
-        <v>165.8617568640524</v>
+        <v>201.2949868753087</v>
       </c>
       <c r="G5" t="n">
-        <v>185.0989125581653</v>
+        <v>400</v>
       </c>
       <c r="H5" t="n">
-        <v>98.46051323810809</v>
+        <v>339.4748021157671</v>
       </c>
       <c r="I5" t="n">
-        <v>210.4758895704059</v>
+        <v>0</v>
       </c>
       <c r="J5" t="n">
-        <v>11.94928935461252</v>
+        <v>0</v>
       </c>
       <c r="K5" t="n">
         <v>0</v>
@@ -27658,7 +27660,7 @@
         <v>0</v>
       </c>
       <c r="Q5" t="n">
-        <v>9.990699214544804</v>
+        <v>0</v>
       </c>
       <c r="R5" t="n">
         <v>149.8691179411497</v>
@@ -27667,7 +27669,7 @@
         <v>209.0200695862453</v>
       </c>
       <c r="T5" t="n">
-        <v>0</v>
+        <v>223.0958495641314</v>
       </c>
       <c r="U5" t="n">
         <v>251.3456529078365</v>
@@ -27695,22 +27697,22 @@
         <v>166.5331836498673</v>
       </c>
       <c r="C6" t="n">
-        <v>0</v>
+        <v>172.7084989883157</v>
       </c>
       <c r="D6" t="n">
         <v>147.4450655646388</v>
       </c>
       <c r="E6" t="n">
-        <v>151.6577303945424</v>
+        <v>0</v>
       </c>
       <c r="F6" t="n">
-        <v>0</v>
+        <v>145.0692123933839</v>
       </c>
       <c r="G6" t="n">
-        <v>0</v>
+        <v>137.3435171632106</v>
       </c>
       <c r="H6" t="n">
-        <v>0</v>
+        <v>112.2354442364965</v>
       </c>
       <c r="I6" t="n">
         <v>0</v>
@@ -27743,10 +27745,10 @@
         <v>0</v>
       </c>
       <c r="S6" t="n">
-        <v>0</v>
+        <v>171.6831711038378</v>
       </c>
       <c r="T6" t="n">
-        <v>200.1647286948216</v>
+        <v>24.23829618490132</v>
       </c>
       <c r="U6" t="n">
         <v>225.9413820809748</v>
@@ -27758,10 +27760,10 @@
         <v>251.6949831609196</v>
       </c>
       <c r="X6" t="n">
-        <v>205.7729852034775</v>
+        <v>0</v>
       </c>
       <c r="Y6" t="n">
-        <v>205.6826957773044</v>
+        <v>0</v>
       </c>
     </row>
     <row r="7">
@@ -27786,7 +27788,7 @@
         <v>145.4210480229312</v>
       </c>
       <c r="G7" t="n">
-        <v>59.79494433408007</v>
+        <v>167.9909793584588</v>
       </c>
       <c r="H7" t="n">
         <v>162.2271725074396</v>
@@ -27798,7 +27800,7 @@
         <v>93.35918011667277</v>
       </c>
       <c r="K7" t="n">
-        <v>0</v>
+        <v>22.26949182588285</v>
       </c>
       <c r="L7" t="n">
         <v>0</v>
@@ -27825,7 +27827,7 @@
         <v>224.0165980369723</v>
       </c>
       <c r="T7" t="n">
-        <v>227.9455894282815</v>
+        <v>97.48006257801995</v>
       </c>
       <c r="U7" t="n">
         <v>286.3190293564909</v>
@@ -27850,7 +27852,7 @@
         </is>
       </c>
       <c r="B8" t="n">
-        <v>382.7338416634806</v>
+        <v>141.7195527858215</v>
       </c>
       <c r="C8" t="n">
         <v>365.2728917710076</v>
@@ -27862,10 +27864,10 @@
         <v>381.9303700722618</v>
       </c>
       <c r="F8" t="n">
-        <v>400</v>
+        <v>165.8617568640524</v>
       </c>
       <c r="G8" t="n">
-        <v>400</v>
+        <v>374.8264583819999</v>
       </c>
       <c r="H8" t="n">
         <v>339.4748021157671</v>
@@ -27874,7 +27876,7 @@
         <v>210.4758895704059</v>
       </c>
       <c r="J8" t="n">
-        <v>11.94928935461252</v>
+        <v>0</v>
       </c>
       <c r="K8" t="n">
         <v>0</v>
@@ -27895,10 +27897,10 @@
         <v>0</v>
       </c>
       <c r="Q8" t="n">
-        <v>9.990699214544804</v>
+        <v>0</v>
       </c>
       <c r="R8" t="n">
-        <v>149.8691179411497</v>
+        <v>0</v>
       </c>
       <c r="S8" t="n">
         <v>209.0200695862453</v>
@@ -27910,13 +27912,13 @@
         <v>251.3456529078365</v>
       </c>
       <c r="V8" t="n">
-        <v>86.73796959247585</v>
+        <v>327.7522584701349</v>
       </c>
       <c r="W8" t="n">
-        <v>108.226679839754</v>
+        <v>349.240968717413</v>
       </c>
       <c r="X8" t="n">
-        <v>179.6244982918734</v>
+        <v>369.731100678469</v>
       </c>
       <c r="Y8" t="n">
         <v>145.2236497783945</v>
@@ -27929,7 +27931,7 @@
         </is>
       </c>
       <c r="B9" t="n">
-        <v>81.59806750672084</v>
+        <v>166.5331836498673</v>
       </c>
       <c r="C9" t="n">
         <v>0</v>
@@ -27938,19 +27940,19 @@
         <v>0</v>
       </c>
       <c r="E9" t="n">
-        <v>0</v>
+        <v>157.6450804554009</v>
       </c>
       <c r="F9" t="n">
         <v>145.0692123933839</v>
       </c>
       <c r="G9" t="n">
-        <v>137.3435171632106</v>
+        <v>0</v>
       </c>
       <c r="H9" t="n">
         <v>112.2354442364965</v>
       </c>
       <c r="I9" t="n">
-        <v>89.39663285141508</v>
+        <v>0</v>
       </c>
       <c r="J9" t="n">
         <v>0</v>
@@ -27977,13 +27979,13 @@
         <v>0</v>
       </c>
       <c r="R9" t="n">
-        <v>100.1578341526431</v>
+        <v>0</v>
       </c>
       <c r="S9" t="n">
         <v>0</v>
       </c>
       <c r="T9" t="n">
-        <v>0</v>
+        <v>84.31778756872143</v>
       </c>
       <c r="U9" t="n">
         <v>225.9413820809748</v>
@@ -28029,7 +28031,7 @@
         <v>162.2271725074396</v>
       </c>
       <c r="I10" t="n">
-        <v>155.4504749272583</v>
+        <v>22.26350734189026</v>
       </c>
       <c r="J10" t="n">
         <v>93.35918011667277</v>
@@ -28059,7 +28061,7 @@
         <v>177.2933913771695</v>
       </c>
       <c r="S10" t="n">
-        <v>90.82963045160423</v>
+        <v>224.0165980369723</v>
       </c>
       <c r="T10" t="n">
         <v>227.9455894282815</v>
@@ -32461,22 +32463,22 @@
         <v>0</v>
       </c>
       <c r="G20" t="n">
-        <v>0.5892333846011535</v>
+        <v>0.5892333846011536</v>
       </c>
       <c r="H20" t="n">
-        <v>6.034486400046565</v>
+        <v>6.034486400046566</v>
       </c>
       <c r="I20" t="n">
-        <v>22.71642005983599</v>
+        <v>22.716420059836</v>
       </c>
       <c r="J20" t="n">
-        <v>50.0104469762922</v>
+        <v>50.01044697629221</v>
       </c>
       <c r="K20" t="n">
-        <v>74.95269614645905</v>
+        <v>74.95269614645906</v>
       </c>
       <c r="L20" t="n">
-        <v>92.98544734044661</v>
+        <v>92.98544734044663</v>
       </c>
       <c r="M20" t="n">
         <v>103.4642265438474</v>
@@ -32485,16 +32487,16 @@
         <v>105.1383858978454</v>
       </c>
       <c r="O20" t="n">
-        <v>99.27919642971769</v>
+        <v>99.2791964297177</v>
       </c>
       <c r="P20" t="n">
-        <v>84.73249724737668</v>
+        <v>84.73249724737671</v>
       </c>
       <c r="Q20" t="n">
-        <v>63.63057666134786</v>
+        <v>63.63057666134787</v>
       </c>
       <c r="R20" t="n">
-        <v>37.01343159545224</v>
+        <v>37.01343159545225</v>
       </c>
       <c r="S20" t="n">
         <v>13.4271557515988</v>
@@ -32503,7 +32505,7 @@
         <v>2.579369141091551</v>
       </c>
       <c r="U20" t="n">
-        <v>0.04713867076809227</v>
+        <v>0.04713867076809228</v>
       </c>
       <c r="V20" t="n">
         <v>0</v>
@@ -32543,46 +32545,46 @@
         <v>0.3152676547891929</v>
       </c>
       <c r="H21" t="n">
-        <v>3.0448218238851</v>
+        <v>3.044821823885101</v>
       </c>
       <c r="I21" t="n">
         <v>10.85461004427704</v>
       </c>
       <c r="J21" t="n">
-        <v>29.78587961321932</v>
+        <v>29.78587961321933</v>
       </c>
       <c r="K21" t="n">
-        <v>50.90881248409524</v>
+        <v>50.90881248409525</v>
       </c>
       <c r="L21" t="n">
-        <v>68.45318092253946</v>
+        <v>68.45318092253947</v>
       </c>
       <c r="M21" t="n">
-        <v>79.88163340864767</v>
+        <v>79.8816334086477</v>
       </c>
       <c r="N21" t="n">
-        <v>81.99586254975593</v>
+        <v>81.99586254975594</v>
       </c>
       <c r="O21" t="n">
-        <v>75.0101950410059</v>
+        <v>75.01019504100591</v>
       </c>
       <c r="P21" t="n">
-        <v>60.20229453601702</v>
+        <v>60.20229453601704</v>
       </c>
       <c r="Q21" t="n">
-        <v>40.2436395832661</v>
+        <v>40.24363958326611</v>
       </c>
       <c r="R21" t="n">
         <v>19.57424965436762</v>
       </c>
       <c r="S21" t="n">
-        <v>5.855958412422066</v>
+        <v>5.855958412422067</v>
       </c>
       <c r="T21" t="n">
         <v>1.270749889259948</v>
       </c>
       <c r="U21" t="n">
-        <v>0.02074129307823638</v>
+        <v>0.02074129307823639</v>
       </c>
       <c r="V21" t="n">
         <v>0</v>
@@ -32622,40 +32624,40 @@
         <v>0.2643098112483455</v>
       </c>
       <c r="H22" t="n">
-        <v>2.349954503644382</v>
+        <v>2.349954503644383</v>
       </c>
       <c r="I22" t="n">
-        <v>7.948516869177519</v>
+        <v>7.94851686917752</v>
       </c>
       <c r="J22" t="n">
-        <v>18.68670365525802</v>
+        <v>18.68670365525803</v>
       </c>
       <c r="K22" t="n">
         <v>30.70799443412595</v>
       </c>
       <c r="L22" t="n">
-        <v>39.29566048323129</v>
+        <v>39.2956604832313</v>
       </c>
       <c r="M22" t="n">
-        <v>41.43176432141109</v>
+        <v>41.4317643214111</v>
       </c>
       <c r="N22" t="n">
-        <v>40.44660957039456</v>
+        <v>40.44660957039457</v>
       </c>
       <c r="O22" t="n">
         <v>37.3589904117207</v>
       </c>
       <c r="P22" t="n">
-        <v>31.96707026225442</v>
+        <v>31.96707026225443</v>
       </c>
       <c r="Q22" t="n">
-        <v>22.13234246735009</v>
+        <v>22.1323424673501</v>
       </c>
       <c r="R22" t="n">
         <v>11.88433024031197</v>
       </c>
       <c r="S22" t="n">
-        <v>4.606199165118891</v>
+        <v>4.606199165118892</v>
       </c>
       <c r="T22" t="n">
         <v>1.129323738970203</v>
@@ -33883,22 +33885,22 @@
         <v>0</v>
       </c>
       <c r="G38" t="n">
-        <v>0.5892333846011536</v>
+        <v>0.5892333846011535</v>
       </c>
       <c r="H38" t="n">
-        <v>6.034486400046566</v>
+        <v>6.034486400046565</v>
       </c>
       <c r="I38" t="n">
-        <v>22.716420059836</v>
+        <v>22.71642005983599</v>
       </c>
       <c r="J38" t="n">
-        <v>50.01044697629221</v>
+        <v>50.0104469762922</v>
       </c>
       <c r="K38" t="n">
-        <v>74.95269614645906</v>
+        <v>74.95269614645905</v>
       </c>
       <c r="L38" t="n">
-        <v>92.98544734044663</v>
+        <v>92.98544734044661</v>
       </c>
       <c r="M38" t="n">
         <v>103.4642265438474</v>
@@ -33907,16 +33909,16 @@
         <v>105.1383858978454</v>
       </c>
       <c r="O38" t="n">
-        <v>99.2791964297177</v>
+        <v>99.27919642971769</v>
       </c>
       <c r="P38" t="n">
-        <v>84.73249724737671</v>
+        <v>84.73249724737668</v>
       </c>
       <c r="Q38" t="n">
-        <v>63.63057666134787</v>
+        <v>63.63057666134786</v>
       </c>
       <c r="R38" t="n">
-        <v>37.01343159545225</v>
+        <v>37.01343159545224</v>
       </c>
       <c r="S38" t="n">
         <v>13.4271557515988</v>
@@ -33925,7 +33927,7 @@
         <v>2.579369141091551</v>
       </c>
       <c r="U38" t="n">
-        <v>0.04713867076809228</v>
+        <v>0.04713867076809227</v>
       </c>
       <c r="V38" t="n">
         <v>0</v>
@@ -33965,46 +33967,46 @@
         <v>0.3152676547891929</v>
       </c>
       <c r="H39" t="n">
-        <v>3.044821823885101</v>
+        <v>3.0448218238851</v>
       </c>
       <c r="I39" t="n">
         <v>10.85461004427704</v>
       </c>
       <c r="J39" t="n">
-        <v>29.78587961321933</v>
+        <v>29.78587961321932</v>
       </c>
       <c r="K39" t="n">
-        <v>50.90881248409525</v>
+        <v>50.90881248409524</v>
       </c>
       <c r="L39" t="n">
-        <v>68.45318092253947</v>
+        <v>68.45318092253946</v>
       </c>
       <c r="M39" t="n">
-        <v>79.8816334086477</v>
+        <v>79.88163340864767</v>
       </c>
       <c r="N39" t="n">
-        <v>81.99586254975594</v>
+        <v>81.99586254975593</v>
       </c>
       <c r="O39" t="n">
-        <v>75.01019504100591</v>
+        <v>75.0101950410059</v>
       </c>
       <c r="P39" t="n">
-        <v>60.20229453601704</v>
+        <v>60.20229453601702</v>
       </c>
       <c r="Q39" t="n">
-        <v>40.24363958326611</v>
+        <v>40.2436395832661</v>
       </c>
       <c r="R39" t="n">
         <v>19.57424965436762</v>
       </c>
       <c r="S39" t="n">
-        <v>5.855958412422067</v>
+        <v>5.855958412422066</v>
       </c>
       <c r="T39" t="n">
         <v>1.270749889259948</v>
       </c>
       <c r="U39" t="n">
-        <v>0.02074129307823639</v>
+        <v>0.02074129307823638</v>
       </c>
       <c r="V39" t="n">
         <v>0</v>
@@ -34044,40 +34046,40 @@
         <v>0.2643098112483455</v>
       </c>
       <c r="H40" t="n">
-        <v>2.349954503644383</v>
+        <v>2.349954503644382</v>
       </c>
       <c r="I40" t="n">
-        <v>7.94851686917752</v>
+        <v>7.948516869177519</v>
       </c>
       <c r="J40" t="n">
-        <v>18.68670365525803</v>
+        <v>18.68670365525802</v>
       </c>
       <c r="K40" t="n">
         <v>30.70799443412595</v>
       </c>
       <c r="L40" t="n">
-        <v>39.2956604832313</v>
+        <v>39.29566048323129</v>
       </c>
       <c r="M40" t="n">
-        <v>41.4317643214111</v>
+        <v>41.43176432141109</v>
       </c>
       <c r="N40" t="n">
-        <v>40.44660957039457</v>
+        <v>40.44660957039456</v>
       </c>
       <c r="O40" t="n">
         <v>37.3589904117207</v>
       </c>
       <c r="P40" t="n">
-        <v>31.96707026225443</v>
+        <v>31.96707026225442</v>
       </c>
       <c r="Q40" t="n">
-        <v>22.1323424673501</v>
+        <v>22.13234246735009</v>
       </c>
       <c r="R40" t="n">
         <v>11.88433024031197</v>
       </c>
       <c r="S40" t="n">
-        <v>4.606199165118892</v>
+        <v>4.606199165118891</v>
       </c>
       <c r="T40" t="n">
         <v>1.129323738970203</v>
@@ -34787,16 +34789,16 @@
         <v>241.0142888776591</v>
       </c>
       <c r="N3" t="n">
-        <v>0</v>
+        <v>241.0142888776591</v>
       </c>
       <c r="O3" t="n">
-        <v>169.9067907798016</v>
+        <v>43.28534947792182</v>
       </c>
       <c r="P3" t="n">
-        <v>184.4883612256069</v>
+        <v>0</v>
       </c>
       <c r="Q3" t="n">
-        <v>0</v>
+        <v>70.09551364982758</v>
       </c>
       <c r="R3" t="n">
         <v>0</v>
@@ -35015,13 +35017,13 @@
         <v>0</v>
       </c>
       <c r="K6" t="n">
-        <v>126.6237980382196</v>
+        <v>0</v>
       </c>
       <c r="L6" t="n">
-        <v>232.285965523585</v>
+        <v>0</v>
       </c>
       <c r="M6" t="n">
-        <v>43.28534947792188</v>
+        <v>217.7067518141195</v>
       </c>
       <c r="N6" t="n">
         <v>241.0142888776591</v>
@@ -35030,7 +35032,7 @@
         <v>241.0142888776591</v>
       </c>
       <c r="P6" t="n">
-        <v>0</v>
+        <v>184.4883612256069</v>
       </c>
       <c r="Q6" t="n">
         <v>70.09551364982758</v>
@@ -35252,7 +35254,7 @@
         <v>0</v>
       </c>
       <c r="K9" t="n">
-        <v>0</v>
+        <v>55.51629994036225</v>
       </c>
       <c r="L9" t="n">
         <v>232.285965523585</v>
@@ -35261,7 +35263,7 @@
         <v>0</v>
       </c>
       <c r="N9" t="n">
-        <v>226.4350751681936</v>
+        <v>241.0142888776591</v>
       </c>
       <c r="O9" t="n">
         <v>241.0142888776591</v>
@@ -35270,7 +35272,7 @@
         <v>184.4883612256069</v>
       </c>
       <c r="Q9" t="n">
-        <v>70.09551364982758</v>
+        <v>0</v>
       </c>
       <c r="R9" t="n">
         <v>0</v>
@@ -35495,13 +35497,13 @@
         <v>300.7391464461244</v>
       </c>
       <c r="M12" t="n">
-        <v>403.4526632366293</v>
+        <v>329.125045041106</v>
       </c>
       <c r="N12" t="n">
         <v>405.7415719969023</v>
       </c>
       <c r="O12" t="n">
-        <v>251.9486516777676</v>
+        <v>326.276269873291</v>
       </c>
       <c r="P12" t="n">
         <v>244.6906557616239</v>
@@ -35960,10 +35962,10 @@
         <v>0</v>
       </c>
       <c r="J18" t="n">
-        <v>0</v>
+        <v>29.03928828696147</v>
       </c>
       <c r="K18" t="n">
-        <v>177.5326105223149</v>
+        <v>0</v>
       </c>
       <c r="L18" t="n">
         <v>300.7391464461244</v>
@@ -35972,10 +35974,10 @@
         <v>403.4526632366293</v>
       </c>
       <c r="N18" t="n">
-        <v>405.7415719969023</v>
+        <v>302.3746655144178</v>
       </c>
       <c r="O18" t="n">
-        <v>74.41604115545286</v>
+        <v>326.276269873291</v>
       </c>
       <c r="P18" t="n">
         <v>244.6906557616239</v>
@@ -36118,7 +36120,7 @@
         <v>0</v>
       </c>
       <c r="J20" t="n">
-        <v>38.06115762167968</v>
+        <v>38.06115762167969</v>
       </c>
       <c r="K20" t="n">
         <v>179.0082576726433</v>
@@ -36139,7 +36141,7 @@
         <v>175.2982096635898</v>
       </c>
       <c r="Q20" t="n">
-        <v>53.63987744680306</v>
+        <v>53.63987744680307</v>
       </c>
       <c r="R20" t="n">
         <v>0</v>
@@ -36197,25 +36199,25 @@
         <v>0</v>
       </c>
       <c r="J21" t="n">
-        <v>0</v>
+        <v>29.03928828696147</v>
       </c>
       <c r="K21" t="n">
-        <v>0</v>
+        <v>177.5326105223149</v>
       </c>
       <c r="L21" t="n">
         <v>300.7391464461244</v>
       </c>
       <c r="M21" t="n">
-        <v>329.125045041106</v>
+        <v>403.4526632366293</v>
       </c>
       <c r="N21" t="n">
-        <v>405.7415719969023</v>
+        <v>124.8420549921024</v>
       </c>
       <c r="O21" t="n">
         <v>326.276269873291</v>
       </c>
       <c r="P21" t="n">
-        <v>244.6906557616239</v>
+        <v>244.690655761624</v>
       </c>
       <c r="Q21" t="n">
         <v>0</v>
@@ -36279,7 +36281,7 @@
         <v>0</v>
       </c>
       <c r="K22" t="n">
-        <v>8.438502608243095</v>
+        <v>8.438502608243102</v>
       </c>
       <c r="L22" t="n">
         <v>66.88568574354744</v>
@@ -36291,10 +36293,10 @@
         <v>84.57878194962316</v>
       </c>
       <c r="O22" t="n">
-        <v>61.94411832576037</v>
+        <v>61.94411832576038</v>
       </c>
       <c r="P22" t="n">
-        <v>29.24562952714791</v>
+        <v>29.24562952714792</v>
       </c>
       <c r="Q22" t="n">
         <v>0</v>
@@ -36434,28 +36436,28 @@
         <v>0</v>
       </c>
       <c r="J24" t="n">
-        <v>0</v>
+        <v>29.03928828696147</v>
       </c>
       <c r="K24" t="n">
-        <v>177.5326105223149</v>
+        <v>30.98459604604544</v>
       </c>
       <c r="L24" t="n">
         <v>300.7391464461244</v>
       </c>
       <c r="M24" t="n">
-        <v>151.5924345187912</v>
+        <v>403.4526632366293</v>
       </c>
       <c r="N24" t="n">
-        <v>405.7415719969023</v>
+        <v>405.7415719969024</v>
       </c>
       <c r="O24" t="n">
         <v>326.276269873291</v>
       </c>
       <c r="P24" t="n">
-        <v>244.6906557616239</v>
+        <v>0</v>
       </c>
       <c r="Q24" t="n">
-        <v>0</v>
+        <v>110.3391532330937</v>
       </c>
       <c r="R24" t="n">
         <v>0</v>
@@ -36671,16 +36673,16 @@
         <v>0</v>
       </c>
       <c r="J27" t="n">
-        <v>0</v>
+        <v>29.03928828696147</v>
       </c>
       <c r="K27" t="n">
-        <v>177.5326105223149</v>
+        <v>0</v>
       </c>
       <c r="L27" t="n">
         <v>300.7391464461244</v>
       </c>
       <c r="M27" t="n">
-        <v>151.5924345187912</v>
+        <v>403.4526632366293</v>
       </c>
       <c r="N27" t="n">
         <v>405.7415719969023</v>
@@ -36689,10 +36691,10 @@
         <v>326.276269873291</v>
       </c>
       <c r="P27" t="n">
-        <v>244.6906557616239</v>
+        <v>30.98459604604517</v>
       </c>
       <c r="Q27" t="n">
-        <v>0</v>
+        <v>110.3391532330937</v>
       </c>
       <c r="R27" t="n">
         <v>0</v>
@@ -36911,7 +36913,7 @@
         <v>29.03928828696147</v>
       </c>
       <c r="K30" t="n">
-        <v>0</v>
+        <v>177.5326105223149</v>
       </c>
       <c r="L30" t="n">
         <v>300.7391464461244</v>
@@ -36920,7 +36922,7 @@
         <v>403.4526632366293</v>
       </c>
       <c r="N30" t="n">
-        <v>302.3746655144176</v>
+        <v>14.50290175900885</v>
       </c>
       <c r="O30" t="n">
         <v>326.276269873291</v>
@@ -36929,7 +36931,7 @@
         <v>244.6906557616239</v>
       </c>
       <c r="Q30" t="n">
-        <v>0</v>
+        <v>110.3391532330937</v>
       </c>
       <c r="R30" t="n">
         <v>0</v>
@@ -37148,7 +37150,7 @@
         <v>29.03928828696147</v>
       </c>
       <c r="K33" t="n">
-        <v>177.5326105223149</v>
+        <v>0</v>
       </c>
       <c r="L33" t="n">
         <v>300.7391464461244</v>
@@ -37157,7 +37159,7 @@
         <v>403.4526632366293</v>
       </c>
       <c r="N33" t="n">
-        <v>124.8420549921026</v>
+        <v>192.0355122813238</v>
       </c>
       <c r="O33" t="n">
         <v>326.276269873291</v>
@@ -37166,7 +37168,7 @@
         <v>244.6906557616239</v>
       </c>
       <c r="Q33" t="n">
-        <v>0</v>
+        <v>110.3391532330937</v>
       </c>
       <c r="R33" t="n">
         <v>0</v>
@@ -37382,16 +37384,16 @@
         <v>0</v>
       </c>
       <c r="J36" t="n">
-        <v>29.03928828696147</v>
+        <v>0</v>
       </c>
       <c r="K36" t="n">
-        <v>0</v>
+        <v>177.5326105223149</v>
       </c>
       <c r="L36" t="n">
         <v>300.7391464461244</v>
       </c>
       <c r="M36" t="n">
-        <v>403.4526632366293</v>
+        <v>151.5924345187912</v>
       </c>
       <c r="N36" t="n">
         <v>405.7415719969023</v>
@@ -37400,10 +37402,10 @@
         <v>326.276269873291</v>
       </c>
       <c r="P36" t="n">
-        <v>30.98459604604517</v>
+        <v>244.6906557616239</v>
       </c>
       <c r="Q36" t="n">
-        <v>110.3391532330937</v>
+        <v>0</v>
       </c>
       <c r="R36" t="n">
         <v>0</v>
@@ -37540,10 +37542,10 @@
         <v>0</v>
       </c>
       <c r="J38" t="n">
-        <v>38.06115762167969</v>
+        <v>38.06115762167968</v>
       </c>
       <c r="K38" t="n">
-        <v>179.0082576726434</v>
+        <v>179.0082576726433</v>
       </c>
       <c r="L38" t="n">
         <v>274.8802469209098</v>
@@ -37561,7 +37563,7 @@
         <v>175.2982096635898</v>
       </c>
       <c r="Q38" t="n">
-        <v>53.63987744680307</v>
+        <v>53.63987744680306</v>
       </c>
       <c r="R38" t="n">
         <v>0</v>
@@ -37619,25 +37621,25 @@
         <v>0</v>
       </c>
       <c r="J39" t="n">
-        <v>0</v>
+        <v>29.03928828696147</v>
       </c>
       <c r="K39" t="n">
         <v>0</v>
       </c>
       <c r="L39" t="n">
-        <v>226.4115282506013</v>
+        <v>300.7391464461244</v>
       </c>
       <c r="M39" t="n">
         <v>403.4526632366293</v>
       </c>
       <c r="N39" t="n">
-        <v>405.7415719969024</v>
+        <v>302.3746655144176</v>
       </c>
       <c r="O39" t="n">
         <v>326.276269873291</v>
       </c>
       <c r="P39" t="n">
-        <v>244.690655761624</v>
+        <v>244.6906557616239</v>
       </c>
       <c r="Q39" t="n">
         <v>0</v>
@@ -37701,7 +37703,7 @@
         <v>0</v>
       </c>
       <c r="K40" t="n">
-        <v>8.438502608243102</v>
+        <v>8.438502608243095</v>
       </c>
       <c r="L40" t="n">
         <v>66.88568574354744</v>
@@ -37713,10 +37715,10 @@
         <v>84.57878194962316</v>
       </c>
       <c r="O40" t="n">
-        <v>61.94411832576038</v>
+        <v>61.94411832576037</v>
       </c>
       <c r="P40" t="n">
-        <v>29.24562952714792</v>
+        <v>29.24562952714791</v>
       </c>
       <c r="Q40" t="n">
         <v>0</v>
@@ -37777,7 +37779,7 @@
         <v>0</v>
       </c>
       <c r="J41" t="n">
-        <v>38.0611576216798</v>
+        <v>38.06115762167969</v>
       </c>
       <c r="K41" t="n">
         <v>179.0082576726433</v>
@@ -37856,19 +37858,19 @@
         <v>0</v>
       </c>
       <c r="J42" t="n">
-        <v>0</v>
+        <v>29.03928828696147</v>
       </c>
       <c r="K42" t="n">
         <v>0</v>
       </c>
       <c r="L42" t="n">
-        <v>300.7391464461244</v>
+        <v>87.03308673054569</v>
       </c>
       <c r="M42" t="n">
-        <v>329.1250450411061</v>
+        <v>403.4526632366293</v>
       </c>
       <c r="N42" t="n">
-        <v>405.7415719969024</v>
+        <v>405.7415719969023</v>
       </c>
       <c r="O42" t="n">
         <v>326.276269873291</v>
@@ -37877,7 +37879,7 @@
         <v>244.690655761624</v>
       </c>
       <c r="Q42" t="n">
-        <v>0</v>
+        <v>110.3391532330937</v>
       </c>
       <c r="R42" t="n">
         <v>0</v>
@@ -38014,7 +38016,7 @@
         <v>0</v>
       </c>
       <c r="J44" t="n">
-        <v>38.06115762167969</v>
+        <v>38.06115762167934</v>
       </c>
       <c r="K44" t="n">
         <v>179.0082576726433</v>
@@ -38093,13 +38095,13 @@
         <v>0</v>
       </c>
       <c r="J45" t="n">
-        <v>0</v>
+        <v>29.03928828696147</v>
       </c>
       <c r="K45" t="n">
-        <v>170.3630375661006</v>
+        <v>0</v>
       </c>
       <c r="L45" t="n">
-        <v>300.7391464461244</v>
+        <v>87.03308673054569</v>
       </c>
       <c r="M45" t="n">
         <v>403.4526632366293</v>
@@ -38111,10 +38113,10 @@
         <v>326.276269873291</v>
       </c>
       <c r="P45" t="n">
-        <v>0</v>
+        <v>244.690655761624</v>
       </c>
       <c r="Q45" t="n">
-        <v>0</v>
+        <v>110.3391532330937</v>
       </c>
       <c r="R45" t="n">
         <v>0</v>

--- a/Outputs/1. Budget/Grid Search/Output Files/250000/Output_3_25.xlsx
+++ b/Outputs/1. Budget/Grid Search/Output Files/250000/Output_3_25.xlsx
@@ -471,7 +471,7 @@
         </is>
       </c>
       <c r="B3" t="n">
-        <v>0</v>
+        <v>0.01</v>
       </c>
     </row>
     <row r="4">
@@ -503,7 +503,7 @@
         </is>
       </c>
       <c r="B6" t="n">
-        <v>1408701.785116098</v>
+        <v>1352924.262973493</v>
       </c>
     </row>
     <row r="7">
@@ -658,7 +658,7 @@
         </is>
       </c>
       <c r="B2" t="n">
-        <v>0</v>
+        <v>216.6234524382191</v>
       </c>
       <c r="C2" t="n">
         <v>0</v>
@@ -679,10 +679,10 @@
         <v>0</v>
       </c>
       <c r="I2" t="n">
-        <v>0</v>
+        <v>210.4758895704059</v>
       </c>
       <c r="J2" t="n">
-        <v>0</v>
+        <v>11.94928935461252</v>
       </c>
       <c r="K2" t="n">
         <v>0</v>
@@ -706,28 +706,28 @@
         <v>9.990699214544804</v>
       </c>
       <c r="R2" t="n">
-        <v>149.8691179411497</v>
+        <v>0</v>
       </c>
       <c r="S2" t="n">
         <v>0</v>
       </c>
       <c r="T2" t="n">
-        <v>0</v>
+        <v>223.0958495641314</v>
       </c>
       <c r="U2" t="n">
         <v>241.0142888776591</v>
       </c>
       <c r="V2" t="n">
-        <v>30.24678523090109</v>
+        <v>0</v>
       </c>
       <c r="W2" t="n">
         <v>0</v>
       </c>
       <c r="X2" t="n">
-        <v>241.0142888776591</v>
+        <v>0</v>
       </c>
       <c r="Y2" t="n">
-        <v>241.0142888776591</v>
+        <v>0</v>
       </c>
     </row>
     <row r="3">
@@ -740,16 +740,16 @@
         <v>0</v>
       </c>
       <c r="C3" t="n">
-        <v>0</v>
+        <v>95.77809019286801</v>
       </c>
       <c r="D3" t="n">
-        <v>147.4450655646388</v>
+        <v>0</v>
       </c>
       <c r="E3" t="n">
         <v>0</v>
       </c>
       <c r="F3" t="n">
-        <v>145.0692123933839</v>
+        <v>0</v>
       </c>
       <c r="G3" t="n">
         <v>0</v>
@@ -758,10 +758,10 @@
         <v>0</v>
       </c>
       <c r="I3" t="n">
-        <v>89.39663285141508</v>
+        <v>0</v>
       </c>
       <c r="J3" t="n">
-        <v>0</v>
+        <v>0.7465913262578567</v>
       </c>
       <c r="K3" t="n">
         <v>0</v>
@@ -788,10 +788,10 @@
         <v>0</v>
       </c>
       <c r="S3" t="n">
-        <v>121.7029741825291</v>
+        <v>171.6831711038378</v>
       </c>
       <c r="T3" t="n">
-        <v>0</v>
+        <v>200.1647286948216</v>
       </c>
       <c r="U3" t="n">
         <v>225.9413820809748</v>
@@ -800,10 +800,10 @@
         <v>0</v>
       </c>
       <c r="W3" t="n">
-        <v>0</v>
+        <v>241.0142888776591</v>
       </c>
       <c r="X3" t="n">
-        <v>205.7729852034775</v>
+        <v>0</v>
       </c>
       <c r="Y3" t="n">
         <v>0</v>
@@ -858,13 +858,13 @@
         <v>0</v>
       </c>
       <c r="P4" t="n">
-        <v>0</v>
+        <v>2.721440735106512</v>
       </c>
       <c r="Q4" t="n">
         <v>0</v>
       </c>
       <c r="R4" t="n">
-        <v>133.186967585368</v>
+        <v>130.4655268502615</v>
       </c>
       <c r="S4" t="n">
         <v>0</v>
@@ -895,7 +895,7 @@
         </is>
       </c>
       <c r="B5" t="n">
-        <v>0</v>
+        <v>241.0142888776591</v>
       </c>
       <c r="C5" t="n">
         <v>241.0142888776591</v>
@@ -904,19 +904,19 @@
         <v>0</v>
       </c>
       <c r="E5" t="n">
-        <v>241.0142888776591</v>
+        <v>0</v>
       </c>
       <c r="F5" t="n">
-        <v>205.5810588664028</v>
+        <v>25.17354161800005</v>
       </c>
       <c r="G5" t="n">
         <v>15.30273751513505</v>
       </c>
       <c r="H5" t="n">
-        <v>0</v>
+        <v>241.0142888776591</v>
       </c>
       <c r="I5" t="n">
-        <v>210.4758895704059</v>
+        <v>0</v>
       </c>
       <c r="J5" t="n">
         <v>11.94928935461252</v>
@@ -943,7 +943,7 @@
         <v>9.990699214544804</v>
       </c>
       <c r="R5" t="n">
-        <v>0</v>
+        <v>149.8691179411497</v>
       </c>
       <c r="S5" t="n">
         <v>0</v>
@@ -983,7 +983,7 @@
         <v>0</v>
       </c>
       <c r="E6" t="n">
-        <v>157.6450804554009</v>
+        <v>0</v>
       </c>
       <c r="F6" t="n">
         <v>0</v>
@@ -1028,13 +1028,13 @@
         <v>0</v>
       </c>
       <c r="T6" t="n">
-        <v>175.9264325099203</v>
+        <v>0</v>
       </c>
       <c r="U6" t="n">
-        <v>0</v>
+        <v>225.9413820809748</v>
       </c>
       <c r="V6" t="n">
-        <v>0</v>
+        <v>232.8005871494253</v>
       </c>
       <c r="W6" t="n">
         <v>0</v>
@@ -1043,7 +1043,7 @@
         <v>205.7729852034775</v>
       </c>
       <c r="Y6" t="n">
-        <v>205.6826957773044</v>
+        <v>80.51223951222546</v>
       </c>
     </row>
     <row r="7">
@@ -1068,7 +1068,7 @@
         <v>0</v>
       </c>
       <c r="G7" t="n">
-        <v>0</v>
+        <v>44.30348359856715</v>
       </c>
       <c r="H7" t="n">
         <v>0</v>
@@ -1098,7 +1098,7 @@
         <v>2.721440735106512</v>
       </c>
       <c r="Q7" t="n">
-        <v>0</v>
+        <v>86.16204325169439</v>
       </c>
       <c r="R7" t="n">
         <v>0</v>
@@ -1107,7 +1107,7 @@
         <v>0</v>
       </c>
       <c r="T7" t="n">
-        <v>130.4655268502615</v>
+        <v>0</v>
       </c>
       <c r="U7" t="n">
         <v>0</v>
@@ -1132,7 +1132,7 @@
         </is>
       </c>
       <c r="B8" t="n">
-        <v>241.0142888776591</v>
+        <v>0</v>
       </c>
       <c r="C8" t="n">
         <v>0</v>
@@ -1147,7 +1147,7 @@
         <v>241.0142888776591</v>
       </c>
       <c r="G8" t="n">
-        <v>40.47627913313511</v>
+        <v>241.0142888776591</v>
       </c>
       <c r="H8" t="n">
         <v>0</v>
@@ -1156,7 +1156,7 @@
         <v>0</v>
       </c>
       <c r="J8" t="n">
-        <v>11.94928935461252</v>
+        <v>0</v>
       </c>
       <c r="K8" t="n">
         <v>0</v>
@@ -1177,10 +1177,10 @@
         <v>0</v>
       </c>
       <c r="Q8" t="n">
-        <v>9.990699214544804</v>
+        <v>0</v>
       </c>
       <c r="R8" t="n">
-        <v>149.8691179411497</v>
+        <v>0</v>
       </c>
       <c r="S8" t="n">
         <v>0</v>
@@ -1198,7 +1198,7 @@
         <v>0</v>
       </c>
       <c r="X8" t="n">
-        <v>0</v>
+        <v>212.285385643442</v>
       </c>
       <c r="Y8" t="n">
         <v>241.0142888776591</v>
@@ -1211,7 +1211,7 @@
         </is>
       </c>
       <c r="B9" t="n">
-        <v>0</v>
+        <v>166.5331836498673</v>
       </c>
       <c r="C9" t="n">
         <v>172.7084989883157</v>
@@ -1226,10 +1226,10 @@
         <v>0</v>
       </c>
       <c r="G9" t="n">
-        <v>137.3435171632106</v>
+        <v>0</v>
       </c>
       <c r="H9" t="n">
-        <v>0</v>
+        <v>112.2354442364965</v>
       </c>
       <c r="I9" t="n">
         <v>89.39663285141508</v>
@@ -1259,13 +1259,13 @@
         <v>0</v>
       </c>
       <c r="R9" t="n">
-        <v>100.1578341526431</v>
+        <v>0</v>
       </c>
       <c r="S9" t="n">
-        <v>171.6831711038378</v>
+        <v>0</v>
       </c>
       <c r="T9" t="n">
-        <v>115.8469411261002</v>
+        <v>0</v>
       </c>
       <c r="U9" t="n">
         <v>0</v>
@@ -1277,10 +1277,10 @@
         <v>0</v>
       </c>
       <c r="X9" t="n">
-        <v>0</v>
+        <v>40.58013988212374</v>
       </c>
       <c r="Y9" t="n">
-        <v>0</v>
+        <v>205.6826957773044</v>
       </c>
     </row>
     <row r="10">
@@ -1311,13 +1311,13 @@
         <v>0</v>
       </c>
       <c r="I10" t="n">
-        <v>133.186967585368</v>
+        <v>0</v>
       </c>
       <c r="J10" t="n">
         <v>0</v>
       </c>
       <c r="K10" t="n">
-        <v>0</v>
+        <v>22.26949182588285</v>
       </c>
       <c r="L10" t="n">
         <v>0</v>
@@ -1332,13 +1332,13 @@
         <v>0</v>
       </c>
       <c r="P10" t="n">
-        <v>0</v>
+        <v>2.721440735106512</v>
       </c>
       <c r="Q10" t="n">
-        <v>0</v>
+        <v>86.16204325169439</v>
       </c>
       <c r="R10" t="n">
-        <v>0</v>
+        <v>22.0339917726843</v>
       </c>
       <c r="S10" t="n">
         <v>0</v>
@@ -1369,7 +1369,7 @@
         </is>
       </c>
       <c r="B11" t="n">
-        <v>0</v>
+        <v>382.7338416634806</v>
       </c>
       <c r="C11" t="n">
         <v>0</v>
@@ -1378,7 +1378,7 @@
         <v>0</v>
       </c>
       <c r="E11" t="n">
-        <v>0</v>
+        <v>381.9303700722618</v>
       </c>
       <c r="F11" t="n">
         <v>0</v>
@@ -1390,7 +1390,7 @@
         <v>0</v>
       </c>
       <c r="I11" t="n">
-        <v>117.3450705775783</v>
+        <v>0</v>
       </c>
       <c r="J11" t="n">
         <v>0</v>
@@ -1417,7 +1417,7 @@
         <v>0</v>
       </c>
       <c r="R11" t="n">
-        <v>112.8556863456974</v>
+        <v>0</v>
       </c>
       <c r="S11" t="n">
         <v>195.5929138346465</v>
@@ -1426,19 +1426,19 @@
         <v>220.5164804230398</v>
       </c>
       <c r="U11" t="n">
-        <v>251.2985142370684</v>
+        <v>7.590347956096195</v>
       </c>
       <c r="V11" t="n">
-        <v>327.7522584701349</v>
+        <v>0</v>
       </c>
       <c r="W11" t="n">
-        <v>349.240968717413</v>
+        <v>0</v>
       </c>
       <c r="X11" t="n">
         <v>0</v>
       </c>
       <c r="Y11" t="n">
-        <v>0</v>
+        <v>386.2379386560536</v>
       </c>
     </row>
     <row r="12">
@@ -1448,7 +1448,7 @@
         </is>
       </c>
       <c r="B12" t="n">
-        <v>166.5331836498673</v>
+        <v>0</v>
       </c>
       <c r="C12" t="n">
         <v>172.7084989883157</v>
@@ -1466,7 +1466,7 @@
         <v>0</v>
       </c>
       <c r="H12" t="n">
-        <v>109.1906224126114</v>
+        <v>0</v>
       </c>
       <c r="I12" t="n">
         <v>0</v>
@@ -1499,16 +1499,16 @@
         <v>0</v>
       </c>
       <c r="S12" t="n">
-        <v>165.8272126914158</v>
+        <v>81.12752273267807</v>
       </c>
       <c r="T12" t="n">
         <v>198.8939788055617</v>
       </c>
       <c r="U12" t="n">
-        <v>0</v>
+        <v>225.9206407878966</v>
       </c>
       <c r="V12" t="n">
-        <v>98.29773191610518</v>
+        <v>232.8005871494253</v>
       </c>
       <c r="W12" t="n">
         <v>251.6949831609196</v>
@@ -1548,10 +1548,10 @@
         <v>0</v>
       </c>
       <c r="I13" t="n">
-        <v>21.38816470214935</v>
+        <v>0</v>
       </c>
       <c r="J13" t="n">
-        <v>74.67247646141476</v>
+        <v>0</v>
       </c>
       <c r="K13" t="n">
         <v>0</v>
@@ -1572,16 +1572,16 @@
         <v>0</v>
       </c>
       <c r="Q13" t="n">
-        <v>64.0297007843443</v>
+        <v>0</v>
       </c>
       <c r="R13" t="n">
-        <v>165.4090611368575</v>
+        <v>0</v>
       </c>
       <c r="S13" t="n">
         <v>0</v>
       </c>
       <c r="T13" t="n">
-        <v>0</v>
+        <v>38.97640474817497</v>
       </c>
       <c r="U13" t="n">
         <v>0</v>
@@ -1590,7 +1590,7 @@
         <v>0</v>
       </c>
       <c r="W13" t="n">
-        <v>0</v>
+        <v>286.522998336591</v>
       </c>
       <c r="X13" t="n">
         <v>0</v>
@@ -1624,10 +1624,10 @@
         <v>405.7415719969023</v>
       </c>
       <c r="H14" t="n">
-        <v>333.4403157157206</v>
+        <v>0</v>
       </c>
       <c r="I14" t="n">
-        <v>47.74806282379119</v>
+        <v>0</v>
       </c>
       <c r="J14" t="n">
         <v>0</v>
@@ -1666,10 +1666,10 @@
         <v>0</v>
       </c>
       <c r="V14" t="n">
-        <v>0</v>
+        <v>327.7522584701349</v>
       </c>
       <c r="W14" t="n">
-        <v>0</v>
+        <v>53.43612006937676</v>
       </c>
       <c r="X14" t="n">
         <v>0</v>
@@ -1685,7 +1685,7 @@
         </is>
       </c>
       <c r="B15" t="n">
-        <v>0</v>
+        <v>166.5331836498673</v>
       </c>
       <c r="C15" t="n">
         <v>0</v>
@@ -1697,13 +1697,13 @@
         <v>0</v>
       </c>
       <c r="F15" t="n">
-        <v>47.40618530196901</v>
+        <v>0</v>
       </c>
       <c r="G15" t="n">
-        <v>137.0282495084215</v>
+        <v>0</v>
       </c>
       <c r="H15" t="n">
-        <v>109.1906224126114</v>
+        <v>0</v>
       </c>
       <c r="I15" t="n">
         <v>78.54202280713804</v>
@@ -1739,10 +1739,10 @@
         <v>165.8272126914158</v>
       </c>
       <c r="T15" t="n">
-        <v>198.8939788055617</v>
+        <v>100.1555010169726</v>
       </c>
       <c r="U15" t="n">
-        <v>0</v>
+        <v>225.9206407878966</v>
       </c>
       <c r="V15" t="n">
         <v>232.8005871494253</v>
@@ -1751,10 +1751,10 @@
         <v>251.6949831609196</v>
       </c>
       <c r="X15" t="n">
-        <v>205.7729852034775</v>
+        <v>0</v>
       </c>
       <c r="Y15" t="n">
-        <v>0</v>
+        <v>205.6826957773044</v>
       </c>
     </row>
     <row r="16">
@@ -1785,7 +1785,7 @@
         <v>0</v>
       </c>
       <c r="I16" t="n">
-        <v>0</v>
+        <v>73.36175976093797</v>
       </c>
       <c r="J16" t="n">
         <v>0</v>
@@ -1809,13 +1809,13 @@
         <v>0</v>
       </c>
       <c r="Q16" t="n">
-        <v>64.0297007843443</v>
+        <v>0</v>
       </c>
       <c r="R16" t="n">
-        <v>165.4090611368575</v>
+        <v>0</v>
       </c>
       <c r="S16" t="n">
-        <v>96.06064116356413</v>
+        <v>0</v>
       </c>
       <c r="T16" t="n">
         <v>0</v>
@@ -1824,7 +1824,7 @@
         <v>0</v>
       </c>
       <c r="V16" t="n">
-        <v>0</v>
+        <v>252.137643323828</v>
       </c>
       <c r="W16" t="n">
         <v>0</v>
@@ -1849,22 +1849,22 @@
         <v>0</v>
       </c>
       <c r="D17" t="n">
-        <v>354.683041620683</v>
+        <v>0</v>
       </c>
       <c r="E17" t="n">
-        <v>381.9303700722618</v>
+        <v>0</v>
       </c>
       <c r="F17" t="n">
-        <v>405.7415719969024</v>
+        <v>0</v>
       </c>
       <c r="G17" t="n">
-        <v>405.7415719969024</v>
+        <v>405.7415719969023</v>
       </c>
       <c r="H17" t="n">
-        <v>26.50533691882915</v>
+        <v>333.4403157157206</v>
       </c>
       <c r="I17" t="n">
-        <v>0</v>
+        <v>187.7594695105699</v>
       </c>
       <c r="J17" t="n">
         <v>0</v>
@@ -1906,10 +1906,10 @@
         <v>0</v>
       </c>
       <c r="W17" t="n">
-        <v>0</v>
+        <v>349.240968717413</v>
       </c>
       <c r="X17" t="n">
-        <v>0</v>
+        <v>298.4195666649726</v>
       </c>
       <c r="Y17" t="n">
         <v>0</v>
@@ -1922,13 +1922,13 @@
         </is>
       </c>
       <c r="B18" t="n">
-        <v>166.5331836498673</v>
+        <v>0</v>
       </c>
       <c r="C18" t="n">
-        <v>172.7084989883157</v>
+        <v>7.42522453130207</v>
       </c>
       <c r="D18" t="n">
-        <v>147.4450655646388</v>
+        <v>0</v>
       </c>
       <c r="E18" t="n">
         <v>0</v>
@@ -1970,13 +1970,13 @@
         <v>0</v>
       </c>
       <c r="R18" t="n">
-        <v>0</v>
+        <v>80.58358449827551</v>
       </c>
       <c r="S18" t="n">
-        <v>0</v>
+        <v>165.8272126914158</v>
       </c>
       <c r="T18" t="n">
-        <v>0</v>
+        <v>198.8939788055617</v>
       </c>
       <c r="U18" t="n">
         <v>225.9206407878966</v>
@@ -1985,7 +1985,7 @@
         <v>232.8005871494253</v>
       </c>
       <c r="W18" t="n">
-        <v>217.7382354846533</v>
+        <v>251.6949831609196</v>
       </c>
       <c r="X18" t="n">
         <v>205.7729852034775</v>
@@ -2007,16 +2007,16 @@
         <v>0</v>
       </c>
       <c r="D19" t="n">
-        <v>148.6154730182124</v>
+        <v>0</v>
       </c>
       <c r="E19" t="n">
-        <v>112.8542292822093</v>
+        <v>0</v>
       </c>
       <c r="F19" t="n">
         <v>0</v>
       </c>
       <c r="G19" t="n">
-        <v>0</v>
+        <v>39.19479062707046</v>
       </c>
       <c r="H19" t="n">
         <v>0</v>
@@ -2046,7 +2046,7 @@
         <v>0</v>
       </c>
       <c r="Q19" t="n">
-        <v>64.0297007843443</v>
+        <v>0</v>
       </c>
       <c r="R19" t="n">
         <v>0</v>
@@ -2058,7 +2058,7 @@
         <v>0</v>
       </c>
       <c r="U19" t="n">
-        <v>0</v>
+        <v>286.3046124576955</v>
       </c>
       <c r="V19" t="n">
         <v>0</v>
@@ -2092,7 +2092,7 @@
         <v>0</v>
       </c>
       <c r="F20" t="n">
-        <v>62.98985437657991</v>
+        <v>405.7415719969023</v>
       </c>
       <c r="G20" t="n">
         <v>405.7415719969023</v>
@@ -2101,7 +2101,7 @@
         <v>333.4403157157206</v>
       </c>
       <c r="I20" t="n">
-        <v>187.7594695105699</v>
+        <v>0</v>
       </c>
       <c r="J20" t="n">
         <v>0</v>
@@ -2128,16 +2128,16 @@
         <v>0</v>
       </c>
       <c r="R20" t="n">
-        <v>112.8556863456974</v>
+        <v>0</v>
       </c>
       <c r="S20" t="n">
         <v>0</v>
       </c>
       <c r="T20" t="n">
-        <v>220.5164804230398</v>
+        <v>43.44049423999956</v>
       </c>
       <c r="U20" t="n">
-        <v>251.2985142370684</v>
+        <v>0</v>
       </c>
       <c r="V20" t="n">
         <v>0</v>
@@ -2149,7 +2149,7 @@
         <v>0</v>
       </c>
       <c r="Y20" t="n">
-        <v>0</v>
+        <v>386.2379386560536</v>
       </c>
     </row>
     <row r="21">
@@ -2159,10 +2159,10 @@
         </is>
       </c>
       <c r="B21" t="n">
-        <v>166.5331836498673</v>
+        <v>0</v>
       </c>
       <c r="C21" t="n">
-        <v>0</v>
+        <v>172.7084989883157</v>
       </c>
       <c r="D21" t="n">
         <v>0</v>
@@ -2207,25 +2207,25 @@
         <v>0</v>
       </c>
       <c r="R21" t="n">
-        <v>80.58358449827551</v>
+        <v>0</v>
       </c>
       <c r="S21" t="n">
-        <v>165.8272126914158</v>
+        <v>149.8722584277341</v>
       </c>
       <c r="T21" t="n">
         <v>198.8939788055617</v>
       </c>
       <c r="U21" t="n">
-        <v>162.5850193103353</v>
+        <v>225.9206407878966</v>
       </c>
       <c r="V21" t="n">
-        <v>0</v>
+        <v>232.8005871494253</v>
       </c>
       <c r="W21" t="n">
         <v>251.6949831609196</v>
       </c>
       <c r="X21" t="n">
-        <v>205.7729852034775</v>
+        <v>0</v>
       </c>
       <c r="Y21" t="n">
         <v>205.6826957773044</v>
@@ -2238,16 +2238,16 @@
         </is>
       </c>
       <c r="B22" t="n">
-        <v>0</v>
+        <v>179.0654404381968</v>
       </c>
       <c r="C22" t="n">
-        <v>160.0903419479084</v>
+        <v>0</v>
       </c>
       <c r="D22" t="n">
         <v>0</v>
       </c>
       <c r="E22" t="n">
-        <v>0</v>
+        <v>146.4339626465692</v>
       </c>
       <c r="F22" t="n">
         <v>0</v>
@@ -2286,7 +2286,7 @@
         <v>0</v>
       </c>
       <c r="R22" t="n">
-        <v>165.4090611368575</v>
+        <v>0</v>
       </c>
       <c r="S22" t="n">
         <v>0</v>
@@ -2317,22 +2317,22 @@
         </is>
       </c>
       <c r="B23" t="n">
-        <v>275.5951865066846</v>
+        <v>0</v>
       </c>
       <c r="C23" t="n">
-        <v>365.2728917710076</v>
+        <v>95.71084011701895</v>
       </c>
       <c r="D23" t="n">
-        <v>354.683041620683</v>
+        <v>0</v>
       </c>
       <c r="E23" t="n">
         <v>0</v>
       </c>
       <c r="F23" t="n">
-        <v>0</v>
+        <v>405.7415719969024</v>
       </c>
       <c r="G23" t="n">
-        <v>0</v>
+        <v>405.7415719969024</v>
       </c>
       <c r="H23" t="n">
         <v>0</v>
@@ -2368,16 +2368,16 @@
         <v>0</v>
       </c>
       <c r="S23" t="n">
-        <v>0</v>
+        <v>195.5929138346465</v>
       </c>
       <c r="T23" t="n">
-        <v>0</v>
+        <v>220.5164804230398</v>
       </c>
       <c r="U23" t="n">
         <v>251.2985142370684</v>
       </c>
       <c r="V23" t="n">
-        <v>327.7522584701349</v>
+        <v>0</v>
       </c>
       <c r="W23" t="n">
         <v>0</v>
@@ -2396,16 +2396,16 @@
         </is>
       </c>
       <c r="B24" t="n">
-        <v>166.5331836498673</v>
+        <v>0</v>
       </c>
       <c r="C24" t="n">
-        <v>0</v>
+        <v>172.7084989883157</v>
       </c>
       <c r="D24" t="n">
         <v>0</v>
       </c>
       <c r="E24" t="n">
-        <v>0</v>
+        <v>0.5439382344026726</v>
       </c>
       <c r="F24" t="n">
         <v>0</v>
@@ -2417,7 +2417,7 @@
         <v>0</v>
       </c>
       <c r="I24" t="n">
-        <v>78.54202280713804</v>
+        <v>0</v>
       </c>
       <c r="J24" t="n">
         <v>0</v>
@@ -2444,13 +2444,13 @@
         <v>0</v>
       </c>
       <c r="R24" t="n">
-        <v>0</v>
+        <v>80.58358449827551</v>
       </c>
       <c r="S24" t="n">
-        <v>165.8272126914158</v>
+        <v>0</v>
       </c>
       <c r="T24" t="n">
-        <v>41.82758137813433</v>
+        <v>198.8939788055617</v>
       </c>
       <c r="U24" t="n">
         <v>225.9206407878966</v>
@@ -2490,16 +2490,16 @@
         <v>0</v>
       </c>
       <c r="G25" t="n">
-        <v>167.7266695472104</v>
+        <v>0</v>
       </c>
       <c r="H25" t="n">
         <v>0</v>
       </c>
       <c r="I25" t="n">
-        <v>147.5019580580808</v>
+        <v>0</v>
       </c>
       <c r="J25" t="n">
-        <v>10.27077547947482</v>
+        <v>0</v>
       </c>
       <c r="K25" t="n">
         <v>0</v>
@@ -2532,13 +2532,13 @@
         <v>0</v>
       </c>
       <c r="U25" t="n">
-        <v>0</v>
+        <v>38.97640474817497</v>
       </c>
       <c r="V25" t="n">
         <v>0</v>
       </c>
       <c r="W25" t="n">
-        <v>0</v>
+        <v>286.522998336591</v>
       </c>
       <c r="X25" t="n">
         <v>0</v>
@@ -2557,22 +2557,22 @@
         <v>382.7338416634806</v>
       </c>
       <c r="C26" t="n">
-        <v>365.2728917710076</v>
+        <v>0</v>
       </c>
       <c r="D26" t="n">
-        <v>0</v>
+        <v>354.683041620683</v>
       </c>
       <c r="E26" t="n">
         <v>0</v>
       </c>
       <c r="F26" t="n">
-        <v>0</v>
+        <v>405.7415719969023</v>
       </c>
       <c r="G26" t="n">
         <v>0</v>
       </c>
       <c r="H26" t="n">
-        <v>0</v>
+        <v>82.20246860709963</v>
       </c>
       <c r="I26" t="n">
         <v>0</v>
@@ -2602,7 +2602,7 @@
         <v>0</v>
       </c>
       <c r="R26" t="n">
-        <v>70.6261198365675</v>
+        <v>0</v>
       </c>
       <c r="S26" t="n">
         <v>0</v>
@@ -2617,13 +2617,13 @@
         <v>0</v>
       </c>
       <c r="W26" t="n">
-        <v>0</v>
+        <v>349.240968717413</v>
       </c>
       <c r="X26" t="n">
-        <v>369.731100678469</v>
+        <v>0</v>
       </c>
       <c r="Y26" t="n">
-        <v>386.2379386560536</v>
+        <v>0</v>
       </c>
     </row>
     <row r="27">
@@ -2636,7 +2636,7 @@
         <v>166.5331836498673</v>
       </c>
       <c r="C27" t="n">
-        <v>172.7084989883157</v>
+        <v>0</v>
       </c>
       <c r="D27" t="n">
         <v>147.4450655646388</v>
@@ -2648,13 +2648,13 @@
         <v>145.0692123933839</v>
       </c>
       <c r="G27" t="n">
-        <v>41.46660291399468</v>
+        <v>0</v>
       </c>
       <c r="H27" t="n">
-        <v>0</v>
+        <v>109.1906224126114</v>
       </c>
       <c r="I27" t="n">
-        <v>0</v>
+        <v>78.54202280713804</v>
       </c>
       <c r="J27" t="n">
         <v>0</v>
@@ -2681,28 +2681,28 @@
         <v>0</v>
       </c>
       <c r="R27" t="n">
-        <v>80.58358449827551</v>
+        <v>0</v>
       </c>
       <c r="S27" t="n">
         <v>0</v>
       </c>
       <c r="T27" t="n">
-        <v>0</v>
+        <v>59.7604942242966</v>
       </c>
       <c r="U27" t="n">
-        <v>0</v>
+        <v>225.9206407878966</v>
       </c>
       <c r="V27" t="n">
-        <v>0</v>
+        <v>232.8005871494253</v>
       </c>
       <c r="W27" t="n">
         <v>251.6949831609196</v>
       </c>
       <c r="X27" t="n">
-        <v>205.7729852034775</v>
+        <v>0</v>
       </c>
       <c r="Y27" t="n">
-        <v>205.6826957773044</v>
+        <v>0</v>
       </c>
     </row>
     <row r="28">
@@ -2718,13 +2718,13 @@
         <v>0</v>
       </c>
       <c r="D28" t="n">
-        <v>0</v>
+        <v>33.64439241526557</v>
       </c>
       <c r="E28" t="n">
-        <v>0</v>
+        <v>146.4339626465692</v>
       </c>
       <c r="F28" t="n">
-        <v>0</v>
+        <v>145.4210480229312</v>
       </c>
       <c r="G28" t="n">
         <v>0</v>
@@ -2775,10 +2775,10 @@
         <v>0</v>
       </c>
       <c r="W28" t="n">
-        <v>99.78974769572881</v>
+        <v>0</v>
       </c>
       <c r="X28" t="n">
-        <v>225.7096553890372</v>
+        <v>0</v>
       </c>
       <c r="Y28" t="n">
         <v>0</v>
@@ -2794,13 +2794,13 @@
         <v>382.7338416634806</v>
       </c>
       <c r="C29" t="n">
-        <v>365.2728917710076</v>
+        <v>0</v>
       </c>
       <c r="D29" t="n">
         <v>0</v>
       </c>
       <c r="E29" t="n">
-        <v>0</v>
+        <v>381.9303700722618</v>
       </c>
       <c r="F29" t="n">
         <v>0</v>
@@ -2812,7 +2812,7 @@
         <v>0</v>
       </c>
       <c r="I29" t="n">
-        <v>187.7594695105699</v>
+        <v>0</v>
       </c>
       <c r="J29" t="n">
         <v>0</v>
@@ -2845,22 +2845,22 @@
         <v>195.5929138346465</v>
       </c>
       <c r="T29" t="n">
-        <v>0</v>
+        <v>220.5164804230398</v>
       </c>
       <c r="U29" t="n">
-        <v>115.490517355739</v>
+        <v>0</v>
       </c>
       <c r="V29" t="n">
-        <v>327.7522584701349</v>
+        <v>0</v>
       </c>
       <c r="W29" t="n">
         <v>0</v>
       </c>
       <c r="X29" t="n">
-        <v>0</v>
+        <v>7.59034795609642</v>
       </c>
       <c r="Y29" t="n">
-        <v>0</v>
+        <v>386.2379386560536</v>
       </c>
     </row>
     <row r="30">
@@ -2873,25 +2873,25 @@
         <v>166.5331836498673</v>
       </c>
       <c r="C30" t="n">
-        <v>172.7084989883157</v>
+        <v>0</v>
       </c>
       <c r="D30" t="n">
-        <v>147.4450655646388</v>
+        <v>0</v>
       </c>
       <c r="E30" t="n">
         <v>157.6450804554009</v>
       </c>
       <c r="F30" t="n">
-        <v>145.0692123933839</v>
+        <v>0</v>
       </c>
       <c r="G30" t="n">
-        <v>112.3079472530807</v>
+        <v>0</v>
       </c>
       <c r="H30" t="n">
-        <v>109.1906224126114</v>
+        <v>0</v>
       </c>
       <c r="I30" t="n">
-        <v>78.54202280713804</v>
+        <v>0</v>
       </c>
       <c r="J30" t="n">
         <v>0</v>
@@ -2918,25 +2918,25 @@
         <v>0</v>
       </c>
       <c r="R30" t="n">
-        <v>80.58358449827551</v>
+        <v>0</v>
       </c>
       <c r="S30" t="n">
-        <v>0</v>
+        <v>165.8272126914158</v>
       </c>
       <c r="T30" t="n">
-        <v>198.8939788055617</v>
+        <v>188.645164517768</v>
       </c>
       <c r="U30" t="n">
         <v>0</v>
       </c>
       <c r="V30" t="n">
-        <v>0</v>
+        <v>232.8005871494253</v>
       </c>
       <c r="W30" t="n">
-        <v>0</v>
+        <v>251.6949831609196</v>
       </c>
       <c r="X30" t="n">
-        <v>0</v>
+        <v>205.7729852034775</v>
       </c>
       <c r="Y30" t="n">
         <v>205.6826957773044</v>
@@ -2955,16 +2955,16 @@
         <v>0</v>
       </c>
       <c r="D31" t="n">
-        <v>0</v>
+        <v>148.6154730182124</v>
       </c>
       <c r="E31" t="n">
-        <v>0</v>
+        <v>146.4339626465692</v>
       </c>
       <c r="F31" t="n">
-        <v>0</v>
+        <v>30.44996741998441</v>
       </c>
       <c r="G31" t="n">
-        <v>167.7266695472104</v>
+        <v>0</v>
       </c>
       <c r="H31" t="n">
         <v>0</v>
@@ -3015,7 +3015,7 @@
         <v>0</v>
       </c>
       <c r="X31" t="n">
-        <v>157.7727335375556</v>
+        <v>0</v>
       </c>
       <c r="Y31" t="n">
         <v>0</v>
@@ -3031,10 +3031,10 @@
         <v>382.7338416634806</v>
       </c>
       <c r="C32" t="n">
-        <v>0</v>
+        <v>365.2728917710076</v>
       </c>
       <c r="D32" t="n">
-        <v>354.683041620683</v>
+        <v>0</v>
       </c>
       <c r="E32" t="n">
         <v>0</v>
@@ -3043,10 +3043,10 @@
         <v>0</v>
       </c>
       <c r="G32" t="n">
-        <v>405.7415719969023</v>
+        <v>0</v>
       </c>
       <c r="H32" t="n">
-        <v>318.5877509788154</v>
+        <v>0</v>
       </c>
       <c r="I32" t="n">
         <v>0</v>
@@ -3076,7 +3076,7 @@
         <v>0</v>
       </c>
       <c r="R32" t="n">
-        <v>112.8556863456974</v>
+        <v>0</v>
       </c>
       <c r="S32" t="n">
         <v>0</v>
@@ -3085,7 +3085,7 @@
         <v>0</v>
       </c>
       <c r="U32" t="n">
-        <v>0</v>
+        <v>70.62611983656795</v>
       </c>
       <c r="V32" t="n">
         <v>0</v>
@@ -3094,10 +3094,10 @@
         <v>0</v>
       </c>
       <c r="X32" t="n">
-        <v>0</v>
+        <v>369.731100678469</v>
       </c>
       <c r="Y32" t="n">
-        <v>0</v>
+        <v>386.2379386560536</v>
       </c>
     </row>
     <row r="33">
@@ -3107,25 +3107,25 @@
         </is>
       </c>
       <c r="B33" t="n">
-        <v>166.5331836498673</v>
+        <v>0</v>
       </c>
       <c r="C33" t="n">
         <v>172.7084989883157</v>
       </c>
       <c r="D33" t="n">
-        <v>147.4450655646388</v>
+        <v>0</v>
       </c>
       <c r="E33" t="n">
-        <v>0</v>
+        <v>157.6450804554009</v>
       </c>
       <c r="F33" t="n">
-        <v>0</v>
+        <v>145.0692123933839</v>
       </c>
       <c r="G33" t="n">
-        <v>0</v>
+        <v>137.0282495084215</v>
       </c>
       <c r="H33" t="n">
-        <v>32.83828580621645</v>
+        <v>0</v>
       </c>
       <c r="I33" t="n">
         <v>78.54202280713804</v>
@@ -3155,13 +3155,13 @@
         <v>0</v>
       </c>
       <c r="R33" t="n">
-        <v>80.58358449827551</v>
+        <v>0</v>
       </c>
       <c r="S33" t="n">
-        <v>0</v>
+        <v>165.8272126914158</v>
       </c>
       <c r="T33" t="n">
-        <v>0</v>
+        <v>27.51306024768049</v>
       </c>
       <c r="U33" t="n">
         <v>0</v>
@@ -3176,7 +3176,7 @@
         <v>205.7729852034775</v>
       </c>
       <c r="Y33" t="n">
-        <v>205.6826957773044</v>
+        <v>0</v>
       </c>
     </row>
     <row r="34">
@@ -3189,16 +3189,16 @@
         <v>0</v>
       </c>
       <c r="C34" t="n">
-        <v>0</v>
+        <v>33.64439241526551</v>
       </c>
       <c r="D34" t="n">
         <v>0</v>
       </c>
       <c r="E34" t="n">
-        <v>0</v>
+        <v>146.4339626465692</v>
       </c>
       <c r="F34" t="n">
-        <v>0</v>
+        <v>145.4210480229312</v>
       </c>
       <c r="G34" t="n">
         <v>0</v>
@@ -3249,10 +3249,10 @@
         <v>0</v>
       </c>
       <c r="W34" t="n">
-        <v>286.522998336591</v>
+        <v>0</v>
       </c>
       <c r="X34" t="n">
-        <v>38.97640474817464</v>
+        <v>0</v>
       </c>
       <c r="Y34" t="n">
         <v>0</v>
@@ -3265,22 +3265,22 @@
         </is>
       </c>
       <c r="B35" t="n">
-        <v>0</v>
+        <v>382.7338416634806</v>
       </c>
       <c r="C35" t="n">
         <v>0</v>
       </c>
       <c r="D35" t="n">
-        <v>354.683041620683</v>
+        <v>0</v>
       </c>
       <c r="E35" t="n">
-        <v>0</v>
+        <v>381.9303700722618</v>
       </c>
       <c r="F35" t="n">
-        <v>0</v>
+        <v>53.96864153531357</v>
       </c>
       <c r="G35" t="n">
-        <v>111.9029976743084</v>
+        <v>0</v>
       </c>
       <c r="H35" t="n">
         <v>0</v>
@@ -3313,28 +3313,28 @@
         <v>0</v>
       </c>
       <c r="R35" t="n">
-        <v>112.8556863456974</v>
+        <v>0</v>
       </c>
       <c r="S35" t="n">
-        <v>195.5929138346465</v>
+        <v>0</v>
       </c>
       <c r="T35" t="n">
-        <v>220.5164804230398</v>
+        <v>0</v>
       </c>
       <c r="U35" t="n">
-        <v>251.2985142370684</v>
+        <v>0</v>
       </c>
       <c r="V35" t="n">
-        <v>327.7522584701349</v>
+        <v>0</v>
       </c>
       <c r="W35" t="n">
         <v>0</v>
       </c>
       <c r="X35" t="n">
-        <v>0</v>
+        <v>369.731100678469</v>
       </c>
       <c r="Y35" t="n">
-        <v>0</v>
+        <v>386.2379386560536</v>
       </c>
     </row>
     <row r="36">
@@ -3344,13 +3344,13 @@
         </is>
       </c>
       <c r="B36" t="n">
-        <v>0</v>
+        <v>25.80737165807945</v>
       </c>
       <c r="C36" t="n">
         <v>0</v>
       </c>
       <c r="D36" t="n">
-        <v>0</v>
+        <v>147.4450655646388</v>
       </c>
       <c r="E36" t="n">
         <v>0</v>
@@ -3365,7 +3365,7 @@
         <v>0</v>
       </c>
       <c r="I36" t="n">
-        <v>7.42522453130207</v>
+        <v>0</v>
       </c>
       <c r="J36" t="n">
         <v>0</v>
@@ -3395,7 +3395,7 @@
         <v>80.58358449827551</v>
       </c>
       <c r="S36" t="n">
-        <v>165.8272126914158</v>
+        <v>0</v>
       </c>
       <c r="T36" t="n">
         <v>198.8939788055617</v>
@@ -3426,10 +3426,10 @@
         <v>0</v>
       </c>
       <c r="C37" t="n">
-        <v>167.2468210986278</v>
+        <v>0</v>
       </c>
       <c r="D37" t="n">
-        <v>148.6154730182124</v>
+        <v>0</v>
       </c>
       <c r="E37" t="n">
         <v>0</v>
@@ -3438,7 +3438,7 @@
         <v>0</v>
       </c>
       <c r="G37" t="n">
-        <v>0</v>
+        <v>98.68313739545468</v>
       </c>
       <c r="H37" t="n">
         <v>0</v>
@@ -3477,7 +3477,7 @@
         <v>0</v>
       </c>
       <c r="T37" t="n">
-        <v>0</v>
+        <v>226.8162656893113</v>
       </c>
       <c r="U37" t="n">
         <v>0</v>
@@ -3492,7 +3492,7 @@
         <v>0</v>
       </c>
       <c r="Y37" t="n">
-        <v>9.637108967925709</v>
+        <v>0</v>
       </c>
     </row>
     <row r="38">
@@ -3511,16 +3511,16 @@
         <v>0</v>
       </c>
       <c r="E38" t="n">
-        <v>0</v>
+        <v>381.9303700722618</v>
       </c>
       <c r="F38" t="n">
         <v>0</v>
       </c>
       <c r="G38" t="n">
-        <v>405.7415719969023</v>
+        <v>405.7415719969024</v>
       </c>
       <c r="H38" t="n">
-        <v>333.4403157157206</v>
+        <v>0</v>
       </c>
       <c r="I38" t="n">
         <v>0</v>
@@ -3550,25 +3550,25 @@
         <v>0</v>
       </c>
       <c r="R38" t="n">
-        <v>112.8556863456974</v>
+        <v>0</v>
       </c>
       <c r="S38" t="n">
-        <v>0</v>
+        <v>195.5929138346465</v>
       </c>
       <c r="T38" t="n">
-        <v>0</v>
+        <v>220.5164804230398</v>
       </c>
       <c r="U38" t="n">
-        <v>25.08095939865413</v>
+        <v>0</v>
       </c>
       <c r="V38" t="n">
-        <v>327.7522584701349</v>
+        <v>0</v>
       </c>
       <c r="W38" t="n">
-        <v>0</v>
+        <v>349.240968717413</v>
       </c>
       <c r="X38" t="n">
-        <v>369.731100678469</v>
+        <v>21.57958756131522</v>
       </c>
       <c r="Y38" t="n">
         <v>0</v>
@@ -3584,22 +3584,22 @@
         <v>0</v>
       </c>
       <c r="C39" t="n">
-        <v>172.7084989883157</v>
+        <v>0</v>
       </c>
       <c r="D39" t="n">
-        <v>147.4450655646388</v>
+        <v>0</v>
       </c>
       <c r="E39" t="n">
-        <v>157.6450804554009</v>
+        <v>0</v>
       </c>
       <c r="F39" t="n">
-        <v>145.0692123933839</v>
+        <v>0</v>
       </c>
       <c r="G39" t="n">
         <v>137.0282495084215</v>
       </c>
       <c r="H39" t="n">
-        <v>0</v>
+        <v>76.0796708001852</v>
       </c>
       <c r="I39" t="n">
         <v>0</v>
@@ -3635,22 +3635,22 @@
         <v>165.8272126914158</v>
       </c>
       <c r="T39" t="n">
-        <v>0</v>
+        <v>198.8939788055617</v>
       </c>
       <c r="U39" t="n">
         <v>225.9206407878966</v>
       </c>
       <c r="V39" t="n">
-        <v>0</v>
+        <v>232.8005871494253</v>
       </c>
       <c r="W39" t="n">
-        <v>0</v>
+        <v>251.6949831609196</v>
       </c>
       <c r="X39" t="n">
-        <v>136.6916519405255</v>
+        <v>205.7729852034775</v>
       </c>
       <c r="Y39" t="n">
-        <v>205.6826957773044</v>
+        <v>0</v>
       </c>
     </row>
     <row r="40">
@@ -3714,22 +3714,22 @@
         <v>0</v>
       </c>
       <c r="T40" t="n">
-        <v>226.8162656893113</v>
+        <v>0</v>
       </c>
       <c r="U40" t="n">
-        <v>98.68313739545452</v>
+        <v>0</v>
       </c>
       <c r="V40" t="n">
         <v>0</v>
       </c>
       <c r="W40" t="n">
-        <v>0</v>
+        <v>286.522998336591</v>
       </c>
       <c r="X40" t="n">
         <v>0</v>
       </c>
       <c r="Y40" t="n">
-        <v>0</v>
+        <v>38.97640474817496</v>
       </c>
     </row>
     <row r="41">
@@ -3745,7 +3745,7 @@
         <v>0</v>
       </c>
       <c r="D41" t="n">
-        <v>0</v>
+        <v>256.4373811327358</v>
       </c>
       <c r="E41" t="n">
         <v>0</v>
@@ -3754,7 +3754,7 @@
         <v>0</v>
       </c>
       <c r="G41" t="n">
-        <v>405.7415719969023</v>
+        <v>405.7415719969024</v>
       </c>
       <c r="H41" t="n">
         <v>0</v>
@@ -3787,13 +3787,13 @@
         <v>0</v>
       </c>
       <c r="R41" t="n">
-        <v>0</v>
+        <v>112.8556863456974</v>
       </c>
       <c r="S41" t="n">
         <v>0</v>
       </c>
       <c r="T41" t="n">
-        <v>0</v>
+        <v>220.5164804230398</v>
       </c>
       <c r="U41" t="n">
         <v>251.2985142370684</v>
@@ -3802,10 +3802,10 @@
         <v>327.7522584701349</v>
       </c>
       <c r="W41" t="n">
-        <v>220.0784472230038</v>
+        <v>0</v>
       </c>
       <c r="X41" t="n">
-        <v>369.731100678469</v>
+        <v>0</v>
       </c>
       <c r="Y41" t="n">
         <v>0</v>
@@ -3818,10 +3818,10 @@
         </is>
       </c>
       <c r="B42" t="n">
-        <v>0</v>
+        <v>166.5331836498673</v>
       </c>
       <c r="C42" t="n">
-        <v>0</v>
+        <v>172.7084989883157</v>
       </c>
       <c r="D42" t="n">
         <v>0</v>
@@ -3830,13 +3830,13 @@
         <v>0</v>
       </c>
       <c r="F42" t="n">
-        <v>0</v>
+        <v>145.0692123933839</v>
       </c>
       <c r="G42" t="n">
         <v>0</v>
       </c>
       <c r="H42" t="n">
-        <v>109.1906224126114</v>
+        <v>0</v>
       </c>
       <c r="I42" t="n">
         <v>0</v>
@@ -3866,7 +3866,7 @@
         <v>0</v>
       </c>
       <c r="R42" t="n">
-        <v>0</v>
+        <v>80.58358449827551</v>
       </c>
       <c r="S42" t="n">
         <v>165.8272126914158</v>
@@ -3875,7 +3875,7 @@
         <v>198.8939788055617</v>
       </c>
       <c r="U42" t="n">
-        <v>225.9206407878966</v>
+        <v>160.490651268414</v>
       </c>
       <c r="V42" t="n">
         <v>232.8005871494253</v>
@@ -3884,10 +3884,10 @@
         <v>251.6949831609196</v>
       </c>
       <c r="X42" t="n">
-        <v>205.7729852034775</v>
+        <v>0</v>
       </c>
       <c r="Y42" t="n">
-        <v>184.5008823942709</v>
+        <v>0</v>
       </c>
     </row>
     <row r="43">
@@ -3909,7 +3909,7 @@
         <v>0</v>
       </c>
       <c r="F43" t="n">
-        <v>0</v>
+        <v>145.4210480229312</v>
       </c>
       <c r="G43" t="n">
         <v>0</v>
@@ -3954,7 +3954,7 @@
         <v>0</v>
       </c>
       <c r="U43" t="n">
-        <v>0</v>
+        <v>180.0783550618347</v>
       </c>
       <c r="V43" t="n">
         <v>0</v>
@@ -3963,10 +3963,10 @@
         <v>0</v>
       </c>
       <c r="X43" t="n">
-        <v>106.9147497326712</v>
+        <v>0</v>
       </c>
       <c r="Y43" t="n">
-        <v>218.5846533520948</v>
+        <v>0</v>
       </c>
     </row>
     <row r="44">
@@ -3982,19 +3982,19 @@
         <v>0</v>
       </c>
       <c r="D44" t="n">
-        <v>354.683041620683</v>
+        <v>0</v>
       </c>
       <c r="E44" t="n">
         <v>0</v>
       </c>
       <c r="F44" t="n">
-        <v>0</v>
+        <v>289.6677726676721</v>
       </c>
       <c r="G44" t="n">
         <v>0</v>
       </c>
       <c r="H44" t="n">
-        <v>333.4403157157206</v>
+        <v>0</v>
       </c>
       <c r="I44" t="n">
         <v>0</v>
@@ -4024,25 +4024,25 @@
         <v>0</v>
       </c>
       <c r="R44" t="n">
-        <v>0</v>
+        <v>112.8556863456974</v>
       </c>
       <c r="S44" t="n">
-        <v>0</v>
+        <v>195.5929138346465</v>
       </c>
       <c r="T44" t="n">
-        <v>0</v>
+        <v>220.5164804230398</v>
       </c>
       <c r="U44" t="n">
-        <v>172.4883381429863</v>
+        <v>0</v>
       </c>
       <c r="V44" t="n">
-        <v>327.7522584701349</v>
+        <v>0</v>
       </c>
       <c r="W44" t="n">
         <v>0</v>
       </c>
       <c r="X44" t="n">
-        <v>0</v>
+        <v>369.731100678469</v>
       </c>
       <c r="Y44" t="n">
         <v>386.2379386560536</v>
@@ -4055,19 +4055,19 @@
         </is>
       </c>
       <c r="B45" t="n">
-        <v>0</v>
+        <v>166.5331836498673</v>
       </c>
       <c r="C45" t="n">
         <v>0</v>
       </c>
       <c r="D45" t="n">
-        <v>0</v>
+        <v>147.4450655646388</v>
       </c>
       <c r="E45" t="n">
-        <v>154.0112920676447</v>
+        <v>0</v>
       </c>
       <c r="F45" t="n">
-        <v>145.0692123933839</v>
+        <v>58.95463610244747</v>
       </c>
       <c r="G45" t="n">
         <v>137.0282495084215</v>
@@ -4106,22 +4106,22 @@
         <v>80.58358449827551</v>
       </c>
       <c r="S45" t="n">
-        <v>0</v>
+        <v>165.8272126914158</v>
       </c>
       <c r="T45" t="n">
-        <v>0</v>
+        <v>198.8939788055617</v>
       </c>
       <c r="U45" t="n">
         <v>225.9206407878966</v>
       </c>
       <c r="V45" t="n">
-        <v>232.8005871494253</v>
+        <v>0</v>
       </c>
       <c r="W45" t="n">
         <v>0</v>
       </c>
       <c r="X45" t="n">
-        <v>205.7729852034775</v>
+        <v>0</v>
       </c>
       <c r="Y45" t="n">
         <v>205.6826957773044</v>
@@ -4137,7 +4137,7 @@
         <v>0</v>
       </c>
       <c r="C46" t="n">
-        <v>0</v>
+        <v>167.2468210986278</v>
       </c>
       <c r="D46" t="n">
         <v>0</v>
@@ -4191,13 +4191,13 @@
         <v>0</v>
       </c>
       <c r="U46" t="n">
-        <v>38.97640474817497</v>
+        <v>0</v>
       </c>
       <c r="V46" t="n">
         <v>0</v>
       </c>
       <c r="W46" t="n">
-        <v>286.522998336591</v>
+        <v>158.2525819861381</v>
       </c>
       <c r="X46" t="n">
         <v>0</v>
@@ -4306,28 +4306,28 @@
         </is>
       </c>
       <c r="B2" t="n">
-        <v>41.68395448076474</v>
+        <v>266.3558523848238</v>
       </c>
       <c r="C2" t="n">
-        <v>41.68395448076474</v>
+        <v>266.3558523848238</v>
       </c>
       <c r="D2" t="n">
-        <v>41.68395448076474</v>
+        <v>266.3558523848238</v>
       </c>
       <c r="E2" t="n">
-        <v>41.68395448076474</v>
+        <v>266.3558523848238</v>
       </c>
       <c r="F2" t="n">
-        <v>34.73845373156126</v>
+        <v>259.4103516356203</v>
       </c>
       <c r="G2" t="n">
-        <v>19.28114311021272</v>
+        <v>243.9530410142718</v>
       </c>
       <c r="H2" t="n">
-        <v>19.28114311021272</v>
+        <v>243.9530410142718</v>
       </c>
       <c r="I2" t="n">
-        <v>19.28114311021272</v>
+        <v>31.35113235729608</v>
       </c>
       <c r="J2" t="n">
         <v>19.28114311021272</v>
@@ -4354,28 +4354,28 @@
         <v>953.9655401424092</v>
       </c>
       <c r="R2" t="n">
-        <v>802.5825927271064</v>
+        <v>953.9655401424092</v>
       </c>
       <c r="S2" t="n">
-        <v>802.5825927271064</v>
+        <v>953.9655401424092</v>
       </c>
       <c r="T2" t="n">
-        <v>802.5825927271064</v>
+        <v>728.6161971483371</v>
       </c>
       <c r="U2" t="n">
-        <v>559.1338160830064</v>
+        <v>485.167420504237</v>
       </c>
       <c r="V2" t="n">
-        <v>528.5815077689649</v>
+        <v>485.167420504237</v>
       </c>
       <c r="W2" t="n">
-        <v>528.5815077689649</v>
+        <v>485.167420504237</v>
       </c>
       <c r="X2" t="n">
-        <v>285.1327311248648</v>
+        <v>485.167420504237</v>
       </c>
       <c r="Y2" t="n">
-        <v>41.68395448076474</v>
+        <v>485.167420504237</v>
       </c>
     </row>
     <row r="3">
@@ -4385,28 +4385,28 @@
         </is>
       </c>
       <c r="B3" t="n">
-        <v>405.0497398874226</v>
+        <v>116.7808214123601</v>
       </c>
       <c r="C3" t="n">
-        <v>405.0497398874226</v>
+        <v>20.03527576299844</v>
       </c>
       <c r="D3" t="n">
-        <v>256.1153302261713</v>
+        <v>20.03527576299844</v>
       </c>
       <c r="E3" t="n">
-        <v>256.1153302261713</v>
+        <v>20.03527576299844</v>
       </c>
       <c r="F3" t="n">
-        <v>109.5807722530562</v>
+        <v>20.03527576299844</v>
       </c>
       <c r="G3" t="n">
-        <v>109.5807722530562</v>
+        <v>20.03527576299844</v>
       </c>
       <c r="H3" t="n">
-        <v>109.5807722530562</v>
+        <v>20.03527576299844</v>
       </c>
       <c r="I3" t="n">
-        <v>19.28114311021272</v>
+        <v>20.03527576299844</v>
       </c>
       <c r="J3" t="n">
         <v>19.28114311021272</v>
@@ -4424,7 +4424,7 @@
         <v>851.8101010141643</v>
       </c>
       <c r="O3" t="n">
-        <v>894.6625969973069</v>
+        <v>851.8101010141643</v>
       </c>
       <c r="P3" t="n">
         <v>894.6625969973069</v>
@@ -4436,25 +4436,25 @@
         <v>964.0571555106362</v>
       </c>
       <c r="S3" t="n">
-        <v>841.1248583565664</v>
+        <v>790.6398109613051</v>
       </c>
       <c r="T3" t="n">
-        <v>841.1248583565664</v>
+        <v>588.4532163200711</v>
       </c>
       <c r="U3" t="n">
-        <v>612.9012400929554</v>
+        <v>360.2295980564601</v>
       </c>
       <c r="V3" t="n">
-        <v>612.9012400929554</v>
+        <v>360.2295980564601</v>
       </c>
       <c r="W3" t="n">
-        <v>612.9012400929554</v>
+        <v>116.7808214123601</v>
       </c>
       <c r="X3" t="n">
-        <v>405.0497398874226</v>
+        <v>116.7808214123601</v>
       </c>
       <c r="Y3" t="n">
-        <v>405.0497398874226</v>
+        <v>116.7808214123601</v>
       </c>
     </row>
     <row r="4">
@@ -4506,10 +4506,10 @@
         <v>153.8134336004835</v>
       </c>
       <c r="P4" t="n">
-        <v>153.8134336004835</v>
+        <v>151.0645035650224</v>
       </c>
       <c r="Q4" t="n">
-        <v>153.8134336004835</v>
+        <v>151.0645035650224</v>
       </c>
       <c r="R4" t="n">
         <v>19.28114311021272</v>
@@ -4543,25 +4543,25 @@
         </is>
       </c>
       <c r="B5" t="n">
-        <v>953.9655401424092</v>
+        <v>559.1338160830064</v>
       </c>
       <c r="C5" t="n">
-        <v>710.516763498309</v>
+        <v>315.6850394389064</v>
       </c>
       <c r="D5" t="n">
-        <v>710.516763498309</v>
+        <v>315.6850394389064</v>
       </c>
       <c r="E5" t="n">
-        <v>467.067986854209</v>
+        <v>315.6850394389064</v>
       </c>
       <c r="F5" t="n">
-        <v>259.4103516356203</v>
+        <v>290.2572196227447</v>
       </c>
       <c r="G5" t="n">
-        <v>243.9530410142718</v>
+        <v>274.7999090013961</v>
       </c>
       <c r="H5" t="n">
-        <v>243.9530410142718</v>
+        <v>31.35113235729608</v>
       </c>
       <c r="I5" t="n">
         <v>31.35113235729608</v>
@@ -4591,28 +4591,28 @@
         <v>953.9655401424092</v>
       </c>
       <c r="R5" t="n">
-        <v>953.9655401424092</v>
+        <v>802.5825927271064</v>
       </c>
       <c r="S5" t="n">
-        <v>953.9655401424092</v>
+        <v>802.5825927271064</v>
       </c>
       <c r="T5" t="n">
-        <v>953.9655401424092</v>
+        <v>802.5825927271064</v>
       </c>
       <c r="U5" t="n">
-        <v>953.9655401424092</v>
+        <v>802.5825927271064</v>
       </c>
       <c r="V5" t="n">
-        <v>953.9655401424092</v>
+        <v>802.5825927271064</v>
       </c>
       <c r="W5" t="n">
-        <v>953.9655401424092</v>
+        <v>802.5825927271064</v>
       </c>
       <c r="X5" t="n">
-        <v>953.9655401424092</v>
+        <v>802.5825927271064</v>
       </c>
       <c r="Y5" t="n">
-        <v>953.9655401424092</v>
+        <v>802.5825927271064</v>
       </c>
     </row>
     <row r="6">
@@ -4622,13 +4622,13 @@
         </is>
       </c>
       <c r="B6" t="n">
-        <v>269.5723599112974</v>
+        <v>110.334904905842</v>
       </c>
       <c r="C6" t="n">
-        <v>269.5723599112974</v>
+        <v>110.334904905842</v>
       </c>
       <c r="D6" t="n">
-        <v>269.5723599112974</v>
+        <v>110.334904905842</v>
       </c>
       <c r="E6" t="n">
         <v>110.334904905842</v>
@@ -4649,22 +4649,22 @@
         <v>19.28114311021272</v>
       </c>
       <c r="K6" t="n">
-        <v>19.28114311021272</v>
+        <v>144.6387031680501</v>
       </c>
       <c r="L6" t="n">
-        <v>19.28114311021272</v>
+        <v>248.2447175439888</v>
       </c>
       <c r="M6" t="n">
-        <v>234.810827406191</v>
+        <v>486.8488635328713</v>
       </c>
       <c r="N6" t="n">
-        <v>473.4149733950735</v>
+        <v>725.4530095217538</v>
       </c>
       <c r="O6" t="n">
-        <v>712.019119383956</v>
+        <v>964.0571555106362</v>
       </c>
       <c r="P6" t="n">
-        <v>894.6625969973069</v>
+        <v>964.0571555106362</v>
       </c>
       <c r="Q6" t="n">
         <v>964.0571555106362</v>
@@ -4676,22 +4676,22 @@
         <v>862.8876260635219</v>
       </c>
       <c r="T6" t="n">
-        <v>685.1841588817842</v>
+        <v>862.8876260635219</v>
       </c>
       <c r="U6" t="n">
-        <v>685.1841588817842</v>
+        <v>634.6640077999109</v>
       </c>
       <c r="V6" t="n">
-        <v>685.1841588817842</v>
+        <v>399.5118995681682</v>
       </c>
       <c r="W6" t="n">
-        <v>685.1841588817842</v>
+        <v>399.5118995681682</v>
       </c>
       <c r="X6" t="n">
-        <v>477.3326586762514</v>
+        <v>191.6603993626354</v>
       </c>
       <c r="Y6" t="n">
-        <v>269.5723599112974</v>
+        <v>110.334904905842</v>
       </c>
     </row>
     <row r="7">
@@ -4701,19 +4701,19 @@
         </is>
       </c>
       <c r="B7" t="n">
-        <v>19.28114311021272</v>
+        <v>64.03213664411894</v>
       </c>
       <c r="C7" t="n">
-        <v>19.28114311021272</v>
+        <v>64.03213664411894</v>
       </c>
       <c r="D7" t="n">
-        <v>19.28114311021272</v>
+        <v>64.03213664411894</v>
       </c>
       <c r="E7" t="n">
-        <v>19.28114311021272</v>
+        <v>64.03213664411894</v>
       </c>
       <c r="F7" t="n">
-        <v>19.28114311021272</v>
+        <v>64.03213664411894</v>
       </c>
       <c r="G7" t="n">
         <v>19.28114311021272</v>
@@ -4746,31 +4746,31 @@
         <v>151.0645035650224</v>
       </c>
       <c r="Q7" t="n">
-        <v>151.0645035650224</v>
+        <v>64.03213664411894</v>
       </c>
       <c r="R7" t="n">
-        <v>151.0645035650224</v>
+        <v>64.03213664411894</v>
       </c>
       <c r="S7" t="n">
-        <v>151.0645035650224</v>
+        <v>64.03213664411894</v>
       </c>
       <c r="T7" t="n">
-        <v>19.28114311021272</v>
+        <v>64.03213664411894</v>
       </c>
       <c r="U7" t="n">
-        <v>19.28114311021272</v>
+        <v>64.03213664411894</v>
       </c>
       <c r="V7" t="n">
-        <v>19.28114311021272</v>
+        <v>64.03213664411894</v>
       </c>
       <c r="W7" t="n">
-        <v>19.28114311021272</v>
+        <v>64.03213664411894</v>
       </c>
       <c r="X7" t="n">
-        <v>19.28114311021272</v>
+        <v>64.03213664411894</v>
       </c>
       <c r="Y7" t="n">
-        <v>19.28114311021272</v>
+        <v>64.03213664411894</v>
       </c>
     </row>
     <row r="8">
@@ -4780,31 +4780,31 @@
         </is>
       </c>
       <c r="B8" t="n">
-        <v>315.6850394389064</v>
+        <v>506.1786963984129</v>
       </c>
       <c r="C8" t="n">
-        <v>315.6850394389064</v>
+        <v>506.1786963984129</v>
       </c>
       <c r="D8" t="n">
-        <v>315.6850394389064</v>
+        <v>506.1786963984129</v>
       </c>
       <c r="E8" t="n">
-        <v>315.6850394389064</v>
+        <v>506.1786963984129</v>
       </c>
       <c r="F8" t="n">
-        <v>72.23626279480629</v>
+        <v>262.7299197543128</v>
       </c>
       <c r="G8" t="n">
-        <v>31.35113235729608</v>
+        <v>19.28114311021275</v>
       </c>
       <c r="H8" t="n">
-        <v>31.35113235729608</v>
+        <v>19.28114311021275</v>
       </c>
       <c r="I8" t="n">
-        <v>31.35113235729608</v>
+        <v>19.28114311021275</v>
       </c>
       <c r="J8" t="n">
-        <v>19.28114311021272</v>
+        <v>19.28114311021275</v>
       </c>
       <c r="K8" t="n">
         <v>122.2961490211351</v>
@@ -4825,31 +4825,31 @@
         <v>964.0571555106362</v>
       </c>
       <c r="Q8" t="n">
-        <v>953.9655401424092</v>
+        <v>964.0571555106362</v>
       </c>
       <c r="R8" t="n">
-        <v>802.5825927271064</v>
+        <v>964.0571555106362</v>
       </c>
       <c r="S8" t="n">
-        <v>802.5825927271064</v>
+        <v>964.0571555106362</v>
       </c>
       <c r="T8" t="n">
-        <v>802.5825927271064</v>
+        <v>964.0571555106362</v>
       </c>
       <c r="U8" t="n">
-        <v>802.5825927271064</v>
+        <v>964.0571555106362</v>
       </c>
       <c r="V8" t="n">
-        <v>802.5825927271064</v>
+        <v>964.0571555106362</v>
       </c>
       <c r="W8" t="n">
-        <v>802.5825927271064</v>
+        <v>964.0571555106362</v>
       </c>
       <c r="X8" t="n">
-        <v>802.5825927271064</v>
+        <v>749.627473042513</v>
       </c>
       <c r="Y8" t="n">
-        <v>559.1338160830064</v>
+        <v>506.1786963984129</v>
       </c>
     </row>
     <row r="9">
@@ -4859,22 +4859,22 @@
         </is>
       </c>
       <c r="B9" t="n">
-        <v>572.4531692656047</v>
+        <v>547.0914794406409</v>
       </c>
       <c r="C9" t="n">
-        <v>398.0001399844777</v>
+        <v>372.6384501595139</v>
       </c>
       <c r="D9" t="n">
-        <v>249.0657303232264</v>
+        <v>223.7040404982626</v>
       </c>
       <c r="E9" t="n">
-        <v>249.0657303232264</v>
+        <v>223.7040404982626</v>
       </c>
       <c r="F9" t="n">
-        <v>249.0657303232264</v>
+        <v>223.7040404982626</v>
       </c>
       <c r="G9" t="n">
-        <v>110.334904905842</v>
+        <v>223.7040404982626</v>
       </c>
       <c r="H9" t="n">
         <v>110.334904905842</v>
@@ -4886,13 +4886,13 @@
         <v>19.28114311021272</v>
       </c>
       <c r="K9" t="n">
-        <v>74.24228005117135</v>
+        <v>144.6387031680501</v>
       </c>
       <c r="L9" t="n">
-        <v>304.2053859195205</v>
+        <v>374.6018090363993</v>
       </c>
       <c r="M9" t="n">
-        <v>304.2053859195205</v>
+        <v>374.6018090363993</v>
       </c>
       <c r="N9" t="n">
         <v>542.809531908403</v>
@@ -4907,28 +4907,28 @@
         <v>964.0571555106362</v>
       </c>
       <c r="R9" t="n">
-        <v>862.8876260635219</v>
+        <v>964.0571555106362</v>
       </c>
       <c r="S9" t="n">
-        <v>689.4702815141908</v>
+        <v>964.0571555106362</v>
       </c>
       <c r="T9" t="n">
-        <v>572.4531692656047</v>
+        <v>964.0571555106362</v>
       </c>
       <c r="U9" t="n">
-        <v>572.4531692656047</v>
+        <v>964.0571555106362</v>
       </c>
       <c r="V9" t="n">
-        <v>572.4531692656047</v>
+        <v>964.0571555106362</v>
       </c>
       <c r="W9" t="n">
-        <v>572.4531692656047</v>
+        <v>964.0571555106362</v>
       </c>
       <c r="X9" t="n">
-        <v>572.4531692656047</v>
+        <v>923.0671152256627</v>
       </c>
       <c r="Y9" t="n">
-        <v>572.4531692656047</v>
+        <v>715.3068164607089</v>
       </c>
     </row>
     <row r="10">
@@ -4938,31 +4938,31 @@
         </is>
       </c>
       <c r="B10" t="n">
-        <v>153.8134336004835</v>
+        <v>41.77557929797318</v>
       </c>
       <c r="C10" t="n">
-        <v>153.8134336004835</v>
+        <v>41.77557929797318</v>
       </c>
       <c r="D10" t="n">
-        <v>153.8134336004835</v>
+        <v>41.77557929797318</v>
       </c>
       <c r="E10" t="n">
-        <v>153.8134336004835</v>
+        <v>41.77557929797318</v>
       </c>
       <c r="F10" t="n">
-        <v>153.8134336004835</v>
+        <v>41.77557929797318</v>
       </c>
       <c r="G10" t="n">
-        <v>153.8134336004835</v>
+        <v>41.77557929797318</v>
       </c>
       <c r="H10" t="n">
-        <v>153.8134336004835</v>
+        <v>41.77557929797318</v>
       </c>
       <c r="I10" t="n">
-        <v>19.28114311021272</v>
+        <v>41.77557929797318</v>
       </c>
       <c r="J10" t="n">
-        <v>19.28114311021272</v>
+        <v>41.77557929797318</v>
       </c>
       <c r="K10" t="n">
         <v>19.28114311021272</v>
@@ -4980,34 +4980,34 @@
         <v>153.8134336004835</v>
       </c>
       <c r="P10" t="n">
-        <v>153.8134336004835</v>
+        <v>151.0645035650224</v>
       </c>
       <c r="Q10" t="n">
-        <v>153.8134336004835</v>
+        <v>64.03213664411894</v>
       </c>
       <c r="R10" t="n">
-        <v>153.8134336004835</v>
+        <v>41.77557929797318</v>
       </c>
       <c r="S10" t="n">
-        <v>153.8134336004835</v>
+        <v>41.77557929797318</v>
       </c>
       <c r="T10" t="n">
-        <v>153.8134336004835</v>
+        <v>41.77557929797318</v>
       </c>
       <c r="U10" t="n">
-        <v>153.8134336004835</v>
+        <v>41.77557929797318</v>
       </c>
       <c r="V10" t="n">
-        <v>153.8134336004835</v>
+        <v>41.77557929797318</v>
       </c>
       <c r="W10" t="n">
-        <v>153.8134336004835</v>
+        <v>41.77557929797318</v>
       </c>
       <c r="X10" t="n">
-        <v>153.8134336004835</v>
+        <v>41.77557929797318</v>
       </c>
       <c r="Y10" t="n">
-        <v>153.8134336004835</v>
+        <v>41.77557929797318</v>
       </c>
     </row>
     <row r="11">
@@ -5017,25 +5017,25 @@
         </is>
       </c>
       <c r="B11" t="n">
-        <v>150.9897000805384</v>
+        <v>418.2475783579964</v>
       </c>
       <c r="C11" t="n">
-        <v>150.9897000805384</v>
+        <v>418.2475783579964</v>
       </c>
       <c r="D11" t="n">
-        <v>150.9897000805384</v>
+        <v>418.2475783579964</v>
       </c>
       <c r="E11" t="n">
-        <v>150.9897000805384</v>
+        <v>32.45932575975219</v>
       </c>
       <c r="F11" t="n">
-        <v>150.9897000805384</v>
+        <v>32.45932575975219</v>
       </c>
       <c r="G11" t="n">
-        <v>150.9897000805384</v>
+        <v>32.45932575975219</v>
       </c>
       <c r="H11" t="n">
-        <v>150.9897000805384</v>
+        <v>32.45932575975219</v>
       </c>
       <c r="I11" t="n">
         <v>32.45932575975219</v>
@@ -5065,28 +5065,28 @@
         <v>1622.966287987609</v>
       </c>
       <c r="R11" t="n">
-        <v>1508.970645214178</v>
+        <v>1622.966287987609</v>
       </c>
       <c r="S11" t="n">
-        <v>1311.402045381201</v>
+        <v>1425.397688154633</v>
       </c>
       <c r="T11" t="n">
-        <v>1088.658125761969</v>
+        <v>1202.653768535401</v>
       </c>
       <c r="U11" t="n">
-        <v>834.8212426942232</v>
+        <v>1194.98675039793</v>
       </c>
       <c r="V11" t="n">
-        <v>503.7583553506526</v>
+        <v>1194.98675039793</v>
       </c>
       <c r="W11" t="n">
-        <v>150.9897000805384</v>
+        <v>1194.98675039793</v>
       </c>
       <c r="X11" t="n">
-        <v>150.9897000805384</v>
+        <v>1194.98675039793</v>
       </c>
       <c r="Y11" t="n">
-        <v>150.9897000805384</v>
+        <v>804.8474184221182</v>
       </c>
     </row>
     <row r="12">
@@ -5096,22 +5096,22 @@
         </is>
       </c>
       <c r="B12" t="n">
-        <v>317.205913033416</v>
+        <v>206.9123550408792</v>
       </c>
       <c r="C12" t="n">
-        <v>142.7528837522889</v>
+        <v>32.45932575975219</v>
       </c>
       <c r="D12" t="n">
-        <v>142.7528837522889</v>
+        <v>32.45932575975219</v>
       </c>
       <c r="E12" t="n">
-        <v>142.7528837522889</v>
+        <v>32.45932575975219</v>
       </c>
       <c r="F12" t="n">
-        <v>142.7528837522889</v>
+        <v>32.45932575975219</v>
       </c>
       <c r="G12" t="n">
-        <v>142.7528837522889</v>
+        <v>32.45932575975219</v>
       </c>
       <c r="H12" t="n">
         <v>32.45932575975219</v>
@@ -5120,25 +5120,25 @@
         <v>32.45932575975219</v>
       </c>
       <c r="J12" t="n">
-        <v>32.45932575975219</v>
+        <v>61.20822116384404</v>
       </c>
       <c r="K12" t="n">
-        <v>32.45932575975219</v>
+        <v>236.9655055809358</v>
       </c>
       <c r="L12" t="n">
-        <v>330.1910807414154</v>
+        <v>534.697260562599</v>
       </c>
       <c r="M12" t="n">
-        <v>656.0248753321104</v>
+        <v>546.7891136313475</v>
       </c>
       <c r="N12" t="n">
-        <v>1057.709031609044</v>
+        <v>948.4732699082808</v>
       </c>
       <c r="O12" t="n">
-        <v>1380.722538783602</v>
+        <v>1271.486777082839</v>
       </c>
       <c r="P12" t="n">
-        <v>1622.966287987609</v>
+        <v>1513.730526286846</v>
       </c>
       <c r="Q12" t="n">
         <v>1622.966287987609</v>
@@ -5147,25 +5147,25 @@
         <v>1622.966287987609</v>
       </c>
       <c r="S12" t="n">
-        <v>1455.464052945775</v>
+        <v>1541.019295328339</v>
       </c>
       <c r="T12" t="n">
-        <v>1254.561044051268</v>
+        <v>1340.116286433832</v>
       </c>
       <c r="U12" t="n">
-        <v>1254.561044051268</v>
+        <v>1111.91361897131</v>
       </c>
       <c r="V12" t="n">
-        <v>1155.270405752172</v>
+        <v>876.7615107395675</v>
       </c>
       <c r="W12" t="n">
-        <v>901.0330490239708</v>
+        <v>622.5241540113659</v>
       </c>
       <c r="X12" t="n">
-        <v>693.1815488184379</v>
+        <v>414.6726538058331</v>
       </c>
       <c r="Y12" t="n">
-        <v>485.421250053484</v>
+        <v>206.9123550408792</v>
       </c>
     </row>
     <row r="13">
@@ -5175,28 +5175,28 @@
         </is>
       </c>
       <c r="B13" t="n">
-        <v>129.490276430019</v>
+        <v>32.45932575975219</v>
       </c>
       <c r="C13" t="n">
-        <v>129.490276430019</v>
+        <v>32.45932575975219</v>
       </c>
       <c r="D13" t="n">
-        <v>129.490276430019</v>
+        <v>32.45932575975219</v>
       </c>
       <c r="E13" t="n">
-        <v>129.490276430019</v>
+        <v>32.45932575975219</v>
       </c>
       <c r="F13" t="n">
-        <v>129.490276430019</v>
+        <v>32.45932575975219</v>
       </c>
       <c r="G13" t="n">
-        <v>129.490276430019</v>
+        <v>32.45932575975219</v>
       </c>
       <c r="H13" t="n">
-        <v>129.490276430019</v>
+        <v>32.45932575975219</v>
       </c>
       <c r="I13" t="n">
-        <v>107.8860696601711</v>
+        <v>32.45932575975219</v>
       </c>
       <c r="J13" t="n">
         <v>32.45932575975219</v>
@@ -5220,31 +5220,31 @@
         <v>361.2466016029501</v>
       </c>
       <c r="Q13" t="n">
-        <v>296.5701361642185</v>
+        <v>361.2466016029501</v>
       </c>
       <c r="R13" t="n">
-        <v>129.490276430019</v>
+        <v>361.2466016029501</v>
       </c>
       <c r="S13" t="n">
-        <v>129.490276430019</v>
+        <v>361.2466016029501</v>
       </c>
       <c r="T13" t="n">
-        <v>129.490276430019</v>
+        <v>321.8764957967128</v>
       </c>
       <c r="U13" t="n">
-        <v>129.490276430019</v>
+        <v>321.8764957967128</v>
       </c>
       <c r="V13" t="n">
-        <v>129.490276430019</v>
+        <v>321.8764957967128</v>
       </c>
       <c r="W13" t="n">
-        <v>129.490276430019</v>
+        <v>32.45932575975219</v>
       </c>
       <c r="X13" t="n">
-        <v>129.490276430019</v>
+        <v>32.45932575975219</v>
       </c>
       <c r="Y13" t="n">
-        <v>129.490276430019</v>
+        <v>32.45932575975219</v>
       </c>
     </row>
     <row r="14">
@@ -5254,25 +5254,25 @@
         </is>
       </c>
       <c r="B14" t="n">
-        <v>1622.966287987609</v>
+        <v>1237.927521786082</v>
       </c>
       <c r="C14" t="n">
-        <v>1622.966287987609</v>
+        <v>1237.927521786082</v>
       </c>
       <c r="D14" t="n">
-        <v>1622.966287987609</v>
+        <v>1237.927521786082</v>
       </c>
       <c r="E14" t="n">
-        <v>1237.178035389365</v>
+        <v>852.1392691878377</v>
       </c>
       <c r="F14" t="n">
-        <v>827.338063675322</v>
+        <v>442.2992974737949</v>
       </c>
       <c r="G14" t="n">
-        <v>417.4980919612793</v>
+        <v>32.45932575975218</v>
       </c>
       <c r="H14" t="n">
-        <v>80.68969224843016</v>
+        <v>32.45932575975218</v>
       </c>
       <c r="I14" t="n">
         <v>32.45932575975218</v>
@@ -5314,16 +5314,16 @@
         <v>1622.966287987609</v>
       </c>
       <c r="V14" t="n">
-        <v>1622.966287987609</v>
+        <v>1291.903400644038</v>
       </c>
       <c r="W14" t="n">
-        <v>1622.966287987609</v>
+        <v>1237.927521786082</v>
       </c>
       <c r="X14" t="n">
-        <v>1622.966287987609</v>
+        <v>1237.927521786082</v>
       </c>
       <c r="Y14" t="n">
-        <v>1622.966287987609</v>
+        <v>1237.927521786082</v>
       </c>
     </row>
     <row r="15">
@@ -5333,22 +5333,22 @@
         </is>
       </c>
       <c r="B15" t="n">
-        <v>557.3200788857912</v>
+        <v>260.7291119938702</v>
       </c>
       <c r="C15" t="n">
-        <v>557.3200788857912</v>
+        <v>260.7291119938702</v>
       </c>
       <c r="D15" t="n">
-        <v>408.3856692245399</v>
+        <v>111.7947023326189</v>
       </c>
       <c r="E15" t="n">
-        <v>408.3856692245399</v>
+        <v>111.7947023326189</v>
       </c>
       <c r="F15" t="n">
-        <v>360.5006335659854</v>
+        <v>111.7947023326189</v>
       </c>
       <c r="G15" t="n">
-        <v>222.0882603251556</v>
+        <v>111.7947023326189</v>
       </c>
       <c r="H15" t="n">
         <v>111.7947023326189</v>
@@ -5366,7 +5366,7 @@
         <v>330.1910807414154</v>
       </c>
       <c r="M15" t="n">
-        <v>656.0248753321102</v>
+        <v>729.6092173456784</v>
       </c>
       <c r="N15" t="n">
         <v>1057.709031609043</v>
@@ -5387,22 +5387,22 @@
         <v>1455.464052945775</v>
       </c>
       <c r="T15" t="n">
-        <v>1254.561044051268</v>
+        <v>1354.296880201358</v>
       </c>
       <c r="U15" t="n">
-        <v>1254.561044051268</v>
+        <v>1126.094212738836</v>
       </c>
       <c r="V15" t="n">
-        <v>1019.408935819526</v>
+        <v>890.9421045070937</v>
       </c>
       <c r="W15" t="n">
-        <v>765.171579091324</v>
+        <v>636.7047477788922</v>
       </c>
       <c r="X15" t="n">
-        <v>557.3200788857912</v>
+        <v>636.7047477788922</v>
       </c>
       <c r="Y15" t="n">
-        <v>557.3200788857912</v>
+        <v>428.9444490139382</v>
       </c>
     </row>
     <row r="16">
@@ -5412,25 +5412,25 @@
         </is>
       </c>
       <c r="B16" t="n">
-        <v>32.45932575975218</v>
+        <v>106.5621133970633</v>
       </c>
       <c r="C16" t="n">
-        <v>32.45932575975218</v>
+        <v>106.5621133970633</v>
       </c>
       <c r="D16" t="n">
-        <v>32.45932575975218</v>
+        <v>106.5621133970633</v>
       </c>
       <c r="E16" t="n">
-        <v>32.45932575975218</v>
+        <v>106.5621133970633</v>
       </c>
       <c r="F16" t="n">
-        <v>32.45932575975218</v>
+        <v>106.5621133970633</v>
       </c>
       <c r="G16" t="n">
-        <v>32.45932575975218</v>
+        <v>106.5621133970633</v>
       </c>
       <c r="H16" t="n">
-        <v>32.45932575975218</v>
+        <v>106.5621133970633</v>
       </c>
       <c r="I16" t="n">
         <v>32.45932575975218</v>
@@ -5457,31 +5457,31 @@
         <v>361.2466016029501</v>
       </c>
       <c r="Q16" t="n">
-        <v>296.5701361642185</v>
+        <v>361.2466016029501</v>
       </c>
       <c r="R16" t="n">
-        <v>129.490276430019</v>
+        <v>361.2466016029501</v>
       </c>
       <c r="S16" t="n">
-        <v>32.45932575975218</v>
+        <v>361.2466016029501</v>
       </c>
       <c r="T16" t="n">
-        <v>32.45932575975218</v>
+        <v>361.2466016029501</v>
       </c>
       <c r="U16" t="n">
-        <v>32.45932575975218</v>
+        <v>361.2466016029501</v>
       </c>
       <c r="V16" t="n">
-        <v>32.45932575975218</v>
+        <v>106.5621133970633</v>
       </c>
       <c r="W16" t="n">
-        <v>32.45932575975218</v>
+        <v>106.5621133970633</v>
       </c>
       <c r="X16" t="n">
-        <v>32.45932575975218</v>
+        <v>106.5621133970633</v>
       </c>
       <c r="Y16" t="n">
-        <v>32.45932575975218</v>
+        <v>106.5621133970633</v>
       </c>
     </row>
     <row r="17">
@@ -5491,25 +5491,25 @@
         </is>
       </c>
       <c r="B17" t="n">
-        <v>1622.96628798761</v>
+        <v>968.7637269953007</v>
       </c>
       <c r="C17" t="n">
-        <v>1622.96628798761</v>
+        <v>968.7637269953007</v>
       </c>
       <c r="D17" t="n">
-        <v>1264.700589380859</v>
+        <v>968.7637269953007</v>
       </c>
       <c r="E17" t="n">
-        <v>878.9123367826148</v>
+        <v>968.7637269953007</v>
       </c>
       <c r="F17" t="n">
-        <v>469.072365068572</v>
+        <v>968.7637269953007</v>
       </c>
       <c r="G17" t="n">
-        <v>59.23239335452911</v>
+        <v>558.9237552812579</v>
       </c>
       <c r="H17" t="n">
-        <v>32.45932575975219</v>
+        <v>222.1153555684087</v>
       </c>
       <c r="I17" t="n">
         <v>32.45932575975219</v>
@@ -5518,49 +5518,49 @@
         <v>70.13987180521508</v>
       </c>
       <c r="K17" t="n">
-        <v>247.358046901132</v>
+        <v>247.3580469011319</v>
       </c>
       <c r="L17" t="n">
-        <v>519.4894913528328</v>
+        <v>519.4894913528326</v>
       </c>
       <c r="M17" t="n">
-        <v>838.8947028941458</v>
+        <v>838.8947028941457</v>
       </c>
       <c r="N17" t="n">
         <v>1148.836227140252</v>
       </c>
       <c r="O17" t="n">
-        <v>1396.317581748321</v>
+        <v>1396.31758174832</v>
       </c>
       <c r="P17" t="n">
         <v>1569.862809315274</v>
       </c>
       <c r="Q17" t="n">
-        <v>1622.96628798761</v>
+        <v>1622.966287987609</v>
       </c>
       <c r="R17" t="n">
-        <v>1622.96628798761</v>
+        <v>1622.966287987609</v>
       </c>
       <c r="S17" t="n">
-        <v>1622.96628798761</v>
+        <v>1622.966287987609</v>
       </c>
       <c r="T17" t="n">
-        <v>1622.96628798761</v>
+        <v>1622.966287987609</v>
       </c>
       <c r="U17" t="n">
-        <v>1622.96628798761</v>
+        <v>1622.966287987609</v>
       </c>
       <c r="V17" t="n">
-        <v>1622.96628798761</v>
+        <v>1622.966287987609</v>
       </c>
       <c r="W17" t="n">
-        <v>1622.96628798761</v>
+        <v>1270.197632717495</v>
       </c>
       <c r="X17" t="n">
-        <v>1622.96628798761</v>
+        <v>968.7637269953007</v>
       </c>
       <c r="Y17" t="n">
-        <v>1622.96628798761</v>
+        <v>968.7637269953007</v>
       </c>
     </row>
     <row r="18">
@@ -5570,10 +5570,10 @@
         </is>
       </c>
       <c r="B18" t="n">
-        <v>355.8467647021305</v>
+        <v>39.95955255904721</v>
       </c>
       <c r="C18" t="n">
-        <v>181.3937354210034</v>
+        <v>32.45932575975219</v>
       </c>
       <c r="D18" t="n">
         <v>32.45932575975219</v>
@@ -5606,40 +5606,40 @@
         <v>758.3581127497703</v>
       </c>
       <c r="N18" t="n">
-        <v>1057.709031609044</v>
+        <v>1160.042269026704</v>
       </c>
       <c r="O18" t="n">
-        <v>1380.722538783602</v>
+        <v>1483.055776201262</v>
       </c>
       <c r="P18" t="n">
-        <v>1622.96628798761</v>
+        <v>1622.966287987609</v>
       </c>
       <c r="Q18" t="n">
-        <v>1622.96628798761</v>
+        <v>1622.966287987609</v>
       </c>
       <c r="R18" t="n">
-        <v>1622.96628798761</v>
+        <v>1541.568727888341</v>
       </c>
       <c r="S18" t="n">
-        <v>1622.96628798761</v>
+        <v>1374.066492846507</v>
       </c>
       <c r="T18" t="n">
-        <v>1622.96628798761</v>
+        <v>1173.163483952</v>
       </c>
       <c r="U18" t="n">
-        <v>1394.763620525088</v>
+        <v>944.9608164894784</v>
       </c>
       <c r="V18" t="n">
-        <v>1159.611512293345</v>
+        <v>709.8087082577356</v>
       </c>
       <c r="W18" t="n">
-        <v>939.6739006926853</v>
+        <v>455.571351529534</v>
       </c>
       <c r="X18" t="n">
-        <v>731.8224004871524</v>
+        <v>247.7198513240011</v>
       </c>
       <c r="Y18" t="n">
-        <v>524.0621017221986</v>
+        <v>39.95955255904721</v>
       </c>
     </row>
     <row r="19">
@@ -5649,19 +5649,19 @@
         </is>
       </c>
       <c r="B19" t="n">
-        <v>296.5701361642185</v>
+        <v>72.05002336285366</v>
       </c>
       <c r="C19" t="n">
-        <v>296.5701361642185</v>
+        <v>72.05002336285366</v>
       </c>
       <c r="D19" t="n">
-        <v>146.4534967518828</v>
+        <v>72.05002336285366</v>
       </c>
       <c r="E19" t="n">
-        <v>32.45932575975219</v>
+        <v>72.05002336285366</v>
       </c>
       <c r="F19" t="n">
-        <v>32.45932575975219</v>
+        <v>72.05002336285366</v>
       </c>
       <c r="G19" t="n">
         <v>32.45932575975219</v>
@@ -5694,31 +5694,31 @@
         <v>361.2466016029501</v>
       </c>
       <c r="Q19" t="n">
-        <v>296.5701361642185</v>
+        <v>361.2466016029501</v>
       </c>
       <c r="R19" t="n">
-        <v>296.5701361642185</v>
+        <v>361.2466016029501</v>
       </c>
       <c r="S19" t="n">
-        <v>296.5701361642185</v>
+        <v>361.2466016029501</v>
       </c>
       <c r="T19" t="n">
-        <v>296.5701361642185</v>
+        <v>361.2466016029501</v>
       </c>
       <c r="U19" t="n">
-        <v>296.5701361642185</v>
+        <v>72.05002336285366</v>
       </c>
       <c r="V19" t="n">
-        <v>296.5701361642185</v>
+        <v>72.05002336285366</v>
       </c>
       <c r="W19" t="n">
-        <v>296.5701361642185</v>
+        <v>72.05002336285366</v>
       </c>
       <c r="X19" t="n">
-        <v>296.5701361642185</v>
+        <v>72.05002336285366</v>
       </c>
       <c r="Y19" t="n">
-        <v>296.5701361642185</v>
+        <v>72.05002336285366</v>
       </c>
     </row>
     <row r="20">
@@ -5728,25 +5728,25 @@
         </is>
       </c>
       <c r="B20" t="n">
-        <v>1032.3898425272</v>
+        <v>1188.947668900687</v>
       </c>
       <c r="C20" t="n">
-        <v>1032.3898425272</v>
+        <v>1188.947668900687</v>
       </c>
       <c r="D20" t="n">
-        <v>1032.3898425272</v>
+        <v>1188.947668900687</v>
       </c>
       <c r="E20" t="n">
-        <v>1032.3898425272</v>
+        <v>1188.947668900687</v>
       </c>
       <c r="F20" t="n">
-        <v>968.7637269953007</v>
+        <v>779.1076971866441</v>
       </c>
       <c r="G20" t="n">
-        <v>558.9237552812579</v>
+        <v>369.2677254726013</v>
       </c>
       <c r="H20" t="n">
-        <v>222.1153555684087</v>
+        <v>32.45932575975219</v>
       </c>
       <c r="I20" t="n">
         <v>32.45932575975219</v>
@@ -5758,10 +5758,10 @@
         <v>247.3580469011319</v>
       </c>
       <c r="L20" t="n">
-        <v>519.4894913528327</v>
+        <v>519.4894913528326</v>
       </c>
       <c r="M20" t="n">
-        <v>838.8947028941458</v>
+        <v>838.8947028941457</v>
       </c>
       <c r="N20" t="n">
         <v>1148.836227140252</v>
@@ -5776,28 +5776,28 @@
         <v>1622.966287987609</v>
       </c>
       <c r="R20" t="n">
-        <v>1508.970645214178</v>
+        <v>1622.966287987609</v>
       </c>
       <c r="S20" t="n">
-        <v>1508.970645214178</v>
+        <v>1622.966287987609</v>
       </c>
       <c r="T20" t="n">
-        <v>1286.226725594945</v>
+        <v>1579.087000876499</v>
       </c>
       <c r="U20" t="n">
-        <v>1032.3898425272</v>
+        <v>1579.087000876499</v>
       </c>
       <c r="V20" t="n">
-        <v>1032.3898425272</v>
+        <v>1579.087000876499</v>
       </c>
       <c r="W20" t="n">
-        <v>1032.3898425272</v>
+        <v>1579.087000876499</v>
       </c>
       <c r="X20" t="n">
-        <v>1032.3898425272</v>
+        <v>1579.087000876499</v>
       </c>
       <c r="Y20" t="n">
-        <v>1032.3898425272</v>
+        <v>1188.947668900687</v>
       </c>
     </row>
     <row r="21">
@@ -5807,7 +5807,7 @@
         </is>
       </c>
       <c r="B21" t="n">
-        <v>170.8716990005819</v>
+        <v>345.324728281709</v>
       </c>
       <c r="C21" t="n">
         <v>170.8716990005819</v>
@@ -5834,19 +5834,19 @@
         <v>61.20822116384404</v>
       </c>
       <c r="K21" t="n">
-        <v>236.9655055809358</v>
+        <v>61.20822116384404</v>
       </c>
       <c r="L21" t="n">
-        <v>534.697260562599</v>
+        <v>358.9399761455072</v>
       </c>
       <c r="M21" t="n">
-        <v>934.1153971668621</v>
+        <v>758.3581127497703</v>
       </c>
       <c r="N21" t="n">
-        <v>1057.709031609043</v>
+        <v>1160.042269026704</v>
       </c>
       <c r="O21" t="n">
-        <v>1380.722538783602</v>
+        <v>1483.055776201262</v>
       </c>
       <c r="P21" t="n">
         <v>1622.966287987609</v>
@@ -5855,28 +5855,28 @@
         <v>1622.966287987609</v>
       </c>
       <c r="R21" t="n">
-        <v>1541.568727888341</v>
+        <v>1622.966287987609</v>
       </c>
       <c r="S21" t="n">
-        <v>1374.066492846507</v>
+        <v>1471.580168363635</v>
       </c>
       <c r="T21" t="n">
-        <v>1173.163483952</v>
+        <v>1270.677159469129</v>
       </c>
       <c r="U21" t="n">
-        <v>1008.936191719338</v>
+        <v>1042.474492006607</v>
       </c>
       <c r="V21" t="n">
-        <v>1008.936191719338</v>
+        <v>807.3223837748644</v>
       </c>
       <c r="W21" t="n">
-        <v>754.6988349911367</v>
+        <v>553.0850270466628</v>
       </c>
       <c r="X21" t="n">
-        <v>546.8473347856038</v>
+        <v>553.0850270466628</v>
       </c>
       <c r="Y21" t="n">
-        <v>339.08703602065</v>
+        <v>345.324728281709</v>
       </c>
     </row>
     <row r="22">
@@ -5886,13 +5886,13 @@
         </is>
       </c>
       <c r="B22" t="n">
-        <v>194.1667418687506</v>
+        <v>180.3724193421453</v>
       </c>
       <c r="C22" t="n">
-        <v>32.45932575975219</v>
+        <v>180.3724193421453</v>
       </c>
       <c r="D22" t="n">
-        <v>32.45932575975219</v>
+        <v>180.3724193421453</v>
       </c>
       <c r="E22" t="n">
         <v>32.45932575975219</v>
@@ -5913,7 +5913,7 @@
         <v>32.45932575975219</v>
       </c>
       <c r="K22" t="n">
-        <v>40.81344334191286</v>
+        <v>40.81344334191285</v>
       </c>
       <c r="L22" t="n">
         <v>107.0302722280248</v>
@@ -5934,28 +5934,28 @@
         <v>361.2466016029501</v>
       </c>
       <c r="R22" t="n">
-        <v>194.1667418687506</v>
+        <v>361.2466016029501</v>
       </c>
       <c r="S22" t="n">
-        <v>194.1667418687506</v>
+        <v>361.2466016029501</v>
       </c>
       <c r="T22" t="n">
-        <v>194.1667418687506</v>
+        <v>361.2466016029501</v>
       </c>
       <c r="U22" t="n">
-        <v>194.1667418687506</v>
+        <v>361.2466016029501</v>
       </c>
       <c r="V22" t="n">
-        <v>194.1667418687506</v>
+        <v>361.2466016029501</v>
       </c>
       <c r="W22" t="n">
-        <v>194.1667418687506</v>
+        <v>361.2466016029501</v>
       </c>
       <c r="X22" t="n">
-        <v>194.1667418687506</v>
+        <v>361.2466016029501</v>
       </c>
       <c r="Y22" t="n">
-        <v>194.1667418687506</v>
+        <v>361.2466016029501</v>
       </c>
     </row>
     <row r="23">
@@ -5965,19 +5965,19 @@
         </is>
       </c>
       <c r="B23" t="n">
-        <v>759.6875413069145</v>
+        <v>948.8168854676551</v>
       </c>
       <c r="C23" t="n">
-        <v>390.7250243665027</v>
+        <v>852.139269187838</v>
       </c>
       <c r="D23" t="n">
-        <v>32.45932575975219</v>
+        <v>852.139269187838</v>
       </c>
       <c r="E23" t="n">
-        <v>32.45932575975219</v>
+        <v>852.139269187838</v>
       </c>
       <c r="F23" t="n">
-        <v>32.45932575975219</v>
+        <v>442.299297473795</v>
       </c>
       <c r="G23" t="n">
         <v>32.45932575975219</v>
@@ -5989,16 +5989,16 @@
         <v>32.45932575975219</v>
       </c>
       <c r="J23" t="n">
-        <v>70.13987180521508</v>
+        <v>70.13987180521519</v>
       </c>
       <c r="K23" t="n">
-        <v>247.3580469011319</v>
+        <v>247.3580469011321</v>
       </c>
       <c r="L23" t="n">
         <v>519.4894913528328</v>
       </c>
       <c r="M23" t="n">
-        <v>838.8947028941459</v>
+        <v>838.8947028941458</v>
       </c>
       <c r="N23" t="n">
         <v>1148.836227140252</v>
@@ -6016,25 +6016,25 @@
         <v>1622.96628798761</v>
       </c>
       <c r="S23" t="n">
-        <v>1622.96628798761</v>
+        <v>1425.397688154633</v>
       </c>
       <c r="T23" t="n">
-        <v>1622.96628798761</v>
+        <v>1202.653768535401</v>
       </c>
       <c r="U23" t="n">
-        <v>1369.129404919864</v>
+        <v>948.8168854676551</v>
       </c>
       <c r="V23" t="n">
-        <v>1038.066517576293</v>
+        <v>948.8168854676551</v>
       </c>
       <c r="W23" t="n">
-        <v>1038.066517576293</v>
+        <v>948.8168854676551</v>
       </c>
       <c r="X23" t="n">
-        <v>1038.066517576293</v>
+        <v>948.8168854676551</v>
       </c>
       <c r="Y23" t="n">
-        <v>1038.066517576293</v>
+        <v>948.8168854676551</v>
       </c>
     </row>
     <row r="24">
@@ -6044,76 +6044,76 @@
         </is>
       </c>
       <c r="B24" t="n">
-        <v>111.7947023326189</v>
+        <v>207.4617876008819</v>
       </c>
       <c r="C24" t="n">
-        <v>111.7947023326189</v>
+        <v>33.00875831975489</v>
       </c>
       <c r="D24" t="n">
-        <v>111.7947023326189</v>
+        <v>33.00875831975489</v>
       </c>
       <c r="E24" t="n">
-        <v>111.7947023326189</v>
+        <v>32.45932575975219</v>
       </c>
       <c r="F24" t="n">
-        <v>111.7947023326189</v>
+        <v>32.45932575975219</v>
       </c>
       <c r="G24" t="n">
-        <v>111.7947023326189</v>
+        <v>32.45932575975219</v>
       </c>
       <c r="H24" t="n">
-        <v>111.7947023326189</v>
+        <v>32.45932575975219</v>
       </c>
       <c r="I24" t="n">
         <v>32.45932575975219</v>
       </c>
       <c r="J24" t="n">
-        <v>61.20822116384404</v>
+        <v>32.45932575975219</v>
       </c>
       <c r="K24" t="n">
-        <v>91.88297124942903</v>
+        <v>32.45932575975219</v>
       </c>
       <c r="L24" t="n">
-        <v>389.6147262310922</v>
+        <v>330.1910807414154</v>
       </c>
       <c r="M24" t="n">
-        <v>789.0328628353552</v>
+        <v>656.0248753321105</v>
       </c>
       <c r="N24" t="n">
-        <v>1190.717019112289</v>
+        <v>1057.709031609044</v>
       </c>
       <c r="O24" t="n">
-        <v>1513.730526286847</v>
+        <v>1380.722538783602</v>
       </c>
       <c r="P24" t="n">
-        <v>1513.730526286847</v>
+        <v>1622.96628798761</v>
       </c>
       <c r="Q24" t="n">
         <v>1622.96628798761</v>
       </c>
       <c r="R24" t="n">
-        <v>1622.96628798761</v>
+        <v>1541.568727888341</v>
       </c>
       <c r="S24" t="n">
-        <v>1455.464052945775</v>
+        <v>1541.568727888341</v>
       </c>
       <c r="T24" t="n">
-        <v>1413.21397074564</v>
+        <v>1340.665718993835</v>
       </c>
       <c r="U24" t="n">
-        <v>1185.011303283118</v>
+        <v>1112.463051531313</v>
       </c>
       <c r="V24" t="n">
-        <v>949.8591950513753</v>
+        <v>877.3109432995702</v>
       </c>
       <c r="W24" t="n">
-        <v>695.6218383231737</v>
+        <v>623.0735865713687</v>
       </c>
       <c r="X24" t="n">
-        <v>487.7703381176408</v>
+        <v>415.2220863658358</v>
       </c>
       <c r="Y24" t="n">
-        <v>280.0100393526869</v>
+        <v>207.4617876008819</v>
       </c>
     </row>
     <row r="25">
@@ -6123,76 +6123,76 @@
         </is>
       </c>
       <c r="B25" t="n">
-        <v>1622.96628798761</v>
+        <v>32.45932575975219</v>
       </c>
       <c r="C25" t="n">
-        <v>1622.96628798761</v>
+        <v>32.45932575975219</v>
       </c>
       <c r="D25" t="n">
-        <v>1622.96628798761</v>
+        <v>32.45932575975219</v>
       </c>
       <c r="E25" t="n">
-        <v>1622.96628798761</v>
+        <v>32.45932575975219</v>
       </c>
       <c r="F25" t="n">
-        <v>1622.96628798761</v>
+        <v>32.45932575975219</v>
       </c>
       <c r="G25" t="n">
-        <v>1453.545409657094</v>
+        <v>32.45932575975219</v>
       </c>
       <c r="H25" t="n">
-        <v>1453.545409657094</v>
+        <v>32.45932575975219</v>
       </c>
       <c r="I25" t="n">
-        <v>1304.55353283075</v>
+        <v>32.45932575975219</v>
       </c>
       <c r="J25" t="n">
-        <v>1294.179012144412</v>
+        <v>32.45932575975219</v>
       </c>
       <c r="K25" t="n">
-        <v>1302.533129726572</v>
+        <v>40.81344334191286</v>
       </c>
       <c r="L25" t="n">
-        <v>1368.749958612684</v>
+        <v>107.0302722280248</v>
       </c>
       <c r="M25" t="n">
-        <v>1448.955443483103</v>
+        <v>187.235757098444</v>
       </c>
       <c r="N25" t="n">
-        <v>1532.68843761323</v>
+        <v>270.9687512285709</v>
       </c>
       <c r="O25" t="n">
-        <v>1594.013114755733</v>
+        <v>332.2934283710737</v>
       </c>
       <c r="P25" t="n">
-        <v>1622.96628798761</v>
+        <v>361.2466016029501</v>
       </c>
       <c r="Q25" t="n">
-        <v>1622.96628798761</v>
+        <v>361.2466016029501</v>
       </c>
       <c r="R25" t="n">
-        <v>1622.96628798761</v>
+        <v>361.2466016029501</v>
       </c>
       <c r="S25" t="n">
-        <v>1622.96628798761</v>
+        <v>361.2466016029501</v>
       </c>
       <c r="T25" t="n">
-        <v>1622.96628798761</v>
+        <v>361.2466016029501</v>
       </c>
       <c r="U25" t="n">
-        <v>1622.96628798761</v>
+        <v>321.8764957967128</v>
       </c>
       <c r="V25" t="n">
-        <v>1622.96628798761</v>
+        <v>321.8764957967128</v>
       </c>
       <c r="W25" t="n">
-        <v>1622.96628798761</v>
+        <v>32.45932575975219</v>
       </c>
       <c r="X25" t="n">
-        <v>1622.96628798761</v>
+        <v>32.45932575975219</v>
       </c>
       <c r="Y25" t="n">
-        <v>1622.96628798761</v>
+        <v>32.45932575975219</v>
       </c>
     </row>
     <row r="26">
@@ -6202,22 +6202,22 @@
         </is>
       </c>
       <c r="B26" t="n">
-        <v>401.4218427001639</v>
+        <v>883.5977926533733</v>
       </c>
       <c r="C26" t="n">
-        <v>32.45932575975218</v>
+        <v>883.5977926533733</v>
       </c>
       <c r="D26" t="n">
-        <v>32.45932575975218</v>
+        <v>525.3320940466228</v>
       </c>
       <c r="E26" t="n">
-        <v>32.45932575975218</v>
+        <v>525.3320940466228</v>
       </c>
       <c r="F26" t="n">
-        <v>32.45932575975218</v>
+        <v>115.4921223325801</v>
       </c>
       <c r="G26" t="n">
-        <v>32.45932575975218</v>
+        <v>115.4921223325801</v>
       </c>
       <c r="H26" t="n">
         <v>32.45932575975218</v>
@@ -6250,28 +6250,28 @@
         <v>1622.966287987609</v>
       </c>
       <c r="R26" t="n">
-        <v>1551.626773001177</v>
+        <v>1622.966287987609</v>
       </c>
       <c r="S26" t="n">
-        <v>1551.626773001177</v>
+        <v>1622.966287987609</v>
       </c>
       <c r="T26" t="n">
-        <v>1551.626773001177</v>
+        <v>1622.966287987609</v>
       </c>
       <c r="U26" t="n">
-        <v>1551.626773001177</v>
+        <v>1622.966287987609</v>
       </c>
       <c r="V26" t="n">
-        <v>1551.626773001177</v>
+        <v>1622.966287987609</v>
       </c>
       <c r="W26" t="n">
-        <v>1551.626773001177</v>
+        <v>1270.197632717495</v>
       </c>
       <c r="X26" t="n">
-        <v>1178.161014740097</v>
+        <v>1270.197632717495</v>
       </c>
       <c r="Y26" t="n">
-        <v>788.0216827642857</v>
+        <v>1270.197632717495</v>
       </c>
     </row>
     <row r="27">
@@ -6281,25 +6281,25 @@
         </is>
       </c>
       <c r="B27" t="n">
-        <v>703.5042351695845</v>
+        <v>676.7946829649775</v>
       </c>
       <c r="C27" t="n">
-        <v>529.0512058884575</v>
+        <v>676.7946829649775</v>
       </c>
       <c r="D27" t="n">
-        <v>380.1167962272062</v>
+        <v>527.8602733037262</v>
       </c>
       <c r="E27" t="n">
-        <v>220.8793412217507</v>
+        <v>368.6228182982707</v>
       </c>
       <c r="F27" t="n">
-        <v>74.34478324863571</v>
+        <v>222.0882603251556</v>
       </c>
       <c r="G27" t="n">
-        <v>32.45932575975218</v>
+        <v>222.0882603251556</v>
       </c>
       <c r="H27" t="n">
-        <v>32.45932575975218</v>
+        <v>111.7947023326189</v>
       </c>
       <c r="I27" t="n">
         <v>32.45932575975218</v>
@@ -6311,46 +6311,46 @@
         <v>61.20822116384403</v>
       </c>
       <c r="L27" t="n">
-        <v>358.9399761455072</v>
+        <v>256.6067387278472</v>
       </c>
       <c r="M27" t="n">
-        <v>758.3581127497703</v>
+        <v>656.0248753321102</v>
       </c>
       <c r="N27" t="n">
-        <v>1160.042269026703</v>
+        <v>1057.709031609043</v>
       </c>
       <c r="O27" t="n">
-        <v>1483.055776201262</v>
+        <v>1380.722538783602</v>
       </c>
       <c r="P27" t="n">
-        <v>1513.730526286846</v>
+        <v>1622.966287987609</v>
       </c>
       <c r="Q27" t="n">
         <v>1622.966287987609</v>
       </c>
       <c r="R27" t="n">
-        <v>1541.568727888341</v>
+        <v>1622.966287987609</v>
       </c>
       <c r="S27" t="n">
-        <v>1541.568727888341</v>
+        <v>1622.966287987609</v>
       </c>
       <c r="T27" t="n">
-        <v>1541.568727888341</v>
+        <v>1562.602152407512</v>
       </c>
       <c r="U27" t="n">
-        <v>1541.568727888341</v>
+        <v>1334.39948494499</v>
       </c>
       <c r="V27" t="n">
-        <v>1541.568727888341</v>
+        <v>1099.247376713247</v>
       </c>
       <c r="W27" t="n">
-        <v>1287.331371160139</v>
+        <v>845.0100199850456</v>
       </c>
       <c r="X27" t="n">
-        <v>1079.479870954606</v>
+        <v>845.0100199850456</v>
       </c>
       <c r="Y27" t="n">
-        <v>871.7195721896526</v>
+        <v>845.0100199850456</v>
       </c>
     </row>
     <row r="28">
@@ -6360,16 +6360,16 @@
         </is>
       </c>
       <c r="B28" t="n">
-        <v>32.45932575975218</v>
+        <v>361.2466016029501</v>
       </c>
       <c r="C28" t="n">
-        <v>32.45932575975218</v>
+        <v>361.2466016029501</v>
       </c>
       <c r="D28" t="n">
-        <v>32.45932575975218</v>
+        <v>327.2623668400556</v>
       </c>
       <c r="E28" t="n">
-        <v>32.45932575975218</v>
+        <v>179.3492732576625</v>
       </c>
       <c r="F28" t="n">
         <v>32.45932575975218</v>
@@ -6423,13 +6423,13 @@
         <v>361.2466016029501</v>
       </c>
       <c r="W28" t="n">
-        <v>260.4488766577695</v>
+        <v>361.2466016029501</v>
       </c>
       <c r="X28" t="n">
-        <v>32.45932575975218</v>
+        <v>361.2466016029501</v>
       </c>
       <c r="Y28" t="n">
-        <v>32.45932575975218</v>
+        <v>361.2466016029501</v>
       </c>
     </row>
     <row r="29">
@@ -6439,40 +6439,40 @@
         </is>
       </c>
       <c r="B29" t="n">
-        <v>591.0778725088204</v>
+        <v>418.2475783579964</v>
       </c>
       <c r="C29" t="n">
-        <v>222.1153555684087</v>
+        <v>418.2475783579964</v>
       </c>
       <c r="D29" t="n">
-        <v>222.1153555684087</v>
+        <v>418.2475783579964</v>
       </c>
       <c r="E29" t="n">
-        <v>222.1153555684087</v>
+        <v>32.45932575975219</v>
       </c>
       <c r="F29" t="n">
-        <v>222.1153555684087</v>
+        <v>32.45932575975219</v>
       </c>
       <c r="G29" t="n">
-        <v>222.1153555684087</v>
+        <v>32.45932575975219</v>
       </c>
       <c r="H29" t="n">
-        <v>222.1153555684087</v>
+        <v>32.45932575975219</v>
       </c>
       <c r="I29" t="n">
-        <v>32.45932575975218</v>
+        <v>32.45932575975219</v>
       </c>
       <c r="J29" t="n">
-        <v>70.13987180521507</v>
+        <v>70.13987180521508</v>
       </c>
       <c r="K29" t="n">
-        <v>247.3580469011319</v>
+        <v>247.358046901132</v>
       </c>
       <c r="L29" t="n">
-        <v>519.4894913528326</v>
+        <v>519.4894913528328</v>
       </c>
       <c r="M29" t="n">
-        <v>838.8947028941457</v>
+        <v>838.8947028941458</v>
       </c>
       <c r="N29" t="n">
         <v>1148.836227140252</v>
@@ -6493,22 +6493,22 @@
         <v>1425.397688154633</v>
       </c>
       <c r="T29" t="n">
-        <v>1425.397688154633</v>
+        <v>1202.653768535401</v>
       </c>
       <c r="U29" t="n">
-        <v>1308.740599916513</v>
+        <v>1202.653768535401</v>
       </c>
       <c r="V29" t="n">
-        <v>977.6777125729423</v>
+        <v>1202.653768535401</v>
       </c>
       <c r="W29" t="n">
-        <v>977.6777125729423</v>
+        <v>1202.653768535401</v>
       </c>
       <c r="X29" t="n">
-        <v>977.6777125729423</v>
+        <v>1194.98675039793</v>
       </c>
       <c r="Y29" t="n">
-        <v>977.6777125729423</v>
+        <v>804.8474184221182</v>
       </c>
     </row>
     <row r="30">
@@ -6518,76 +6518,76 @@
         </is>
       </c>
       <c r="B30" t="n">
-        <v>964.6900832088122</v>
+        <v>191.6967807652077</v>
       </c>
       <c r="C30" t="n">
-        <v>790.2370539276852</v>
+        <v>191.6967807652077</v>
       </c>
       <c r="D30" t="n">
-        <v>641.302644266434</v>
+        <v>191.6967807652077</v>
       </c>
       <c r="E30" t="n">
-        <v>482.0651892609785</v>
+        <v>32.45932575975219</v>
       </c>
       <c r="F30" t="n">
-        <v>335.5306312878635</v>
+        <v>32.45932575975219</v>
       </c>
       <c r="G30" t="n">
-        <v>222.0882603251556</v>
+        <v>32.45932575975219</v>
       </c>
       <c r="H30" t="n">
-        <v>111.7947023326189</v>
+        <v>32.45932575975219</v>
       </c>
       <c r="I30" t="n">
-        <v>32.45932575975218</v>
+        <v>32.45932575975219</v>
       </c>
       <c r="J30" t="n">
-        <v>61.20822116384403</v>
+        <v>32.45932575975219</v>
       </c>
       <c r="K30" t="n">
-        <v>236.9655055809357</v>
+        <v>208.2166101768439</v>
       </c>
       <c r="L30" t="n">
-        <v>534.6972605625989</v>
+        <v>505.9483651585071</v>
       </c>
       <c r="M30" t="n">
-        <v>934.1153971668618</v>
+        <v>905.3665017627701</v>
       </c>
       <c r="N30" t="n">
-        <v>948.4732699082806</v>
+        <v>1299.952780813052</v>
       </c>
       <c r="O30" t="n">
-        <v>1271.486777082839</v>
+        <v>1622.96628798761</v>
       </c>
       <c r="P30" t="n">
-        <v>1513.730526286846</v>
+        <v>1622.96628798761</v>
       </c>
       <c r="Q30" t="n">
-        <v>1622.966287987609</v>
+        <v>1622.96628798761</v>
       </c>
       <c r="R30" t="n">
-        <v>1541.568727888341</v>
+        <v>1622.96628798761</v>
       </c>
       <c r="S30" t="n">
-        <v>1541.568727888341</v>
+        <v>1455.464052945775</v>
       </c>
       <c r="T30" t="n">
-        <v>1340.665718993834</v>
+        <v>1264.913381715707</v>
       </c>
       <c r="U30" t="n">
-        <v>1340.665718993834</v>
+        <v>1264.913381715707</v>
       </c>
       <c r="V30" t="n">
-        <v>1340.665718993834</v>
+        <v>1029.761273483964</v>
       </c>
       <c r="W30" t="n">
-        <v>1340.665718993834</v>
+        <v>775.5239167557625</v>
       </c>
       <c r="X30" t="n">
-        <v>1340.665718993834</v>
+        <v>567.6724165502296</v>
       </c>
       <c r="Y30" t="n">
-        <v>1132.90542022888</v>
+        <v>359.9121177852757</v>
       </c>
     </row>
     <row r="31">
@@ -6597,34 +6597,34 @@
         </is>
       </c>
       <c r="B31" t="n">
-        <v>201.8802040902677</v>
+        <v>361.2466016029501</v>
       </c>
       <c r="C31" t="n">
-        <v>201.8802040902677</v>
+        <v>361.2466016029501</v>
       </c>
       <c r="D31" t="n">
-        <v>201.8802040902677</v>
+        <v>211.1299621906144</v>
       </c>
       <c r="E31" t="n">
-        <v>201.8802040902677</v>
+        <v>63.21686860822129</v>
       </c>
       <c r="F31" t="n">
-        <v>201.8802040902677</v>
+        <v>32.45932575975219</v>
       </c>
       <c r="G31" t="n">
-        <v>32.45932575975218</v>
+        <v>32.45932575975219</v>
       </c>
       <c r="H31" t="n">
-        <v>32.45932575975218</v>
+        <v>32.45932575975219</v>
       </c>
       <c r="I31" t="n">
-        <v>32.45932575975218</v>
+        <v>32.45932575975219</v>
       </c>
       <c r="J31" t="n">
-        <v>32.45932575975218</v>
+        <v>32.45932575975219</v>
       </c>
       <c r="K31" t="n">
-        <v>40.81344334191284</v>
+        <v>40.81344334191285</v>
       </c>
       <c r="L31" t="n">
         <v>107.0302722280248</v>
@@ -6663,10 +6663,10 @@
         <v>361.2466016029501</v>
       </c>
       <c r="X31" t="n">
-        <v>201.8802040902677</v>
+        <v>361.2466016029501</v>
       </c>
       <c r="Y31" t="n">
-        <v>201.8802040902677</v>
+        <v>361.2466016029501</v>
       </c>
     </row>
     <row r="32">
@@ -6676,22 +6676,22 @@
         </is>
       </c>
       <c r="B32" t="n">
-        <v>1122.370805150056</v>
+        <v>401.4218427001639</v>
       </c>
       <c r="C32" t="n">
-        <v>1122.370805150056</v>
+        <v>32.45932575975219</v>
       </c>
       <c r="D32" t="n">
-        <v>764.1051065433055</v>
+        <v>32.45932575975219</v>
       </c>
       <c r="E32" t="n">
-        <v>764.1051065433055</v>
+        <v>32.45932575975219</v>
       </c>
       <c r="F32" t="n">
-        <v>764.1051065433055</v>
+        <v>32.45932575975219</v>
       </c>
       <c r="G32" t="n">
-        <v>354.2651348292627</v>
+        <v>32.45932575975219</v>
       </c>
       <c r="H32" t="n">
         <v>32.45932575975219</v>
@@ -6709,43 +6709,43 @@
         <v>519.4894913528326</v>
       </c>
       <c r="M32" t="n">
-        <v>838.8947028941456</v>
+        <v>838.8947028941457</v>
       </c>
       <c r="N32" t="n">
         <v>1148.836227140252</v>
       </c>
       <c r="O32" t="n">
-        <v>1396.31758174832</v>
+        <v>1396.317581748321</v>
       </c>
       <c r="P32" t="n">
         <v>1569.862809315274</v>
       </c>
       <c r="Q32" t="n">
-        <v>1622.966287987609</v>
+        <v>1622.96628798761</v>
       </c>
       <c r="R32" t="n">
-        <v>1508.970645214178</v>
+        <v>1622.96628798761</v>
       </c>
       <c r="S32" t="n">
-        <v>1508.970645214178</v>
+        <v>1622.96628798761</v>
       </c>
       <c r="T32" t="n">
-        <v>1508.970645214178</v>
+        <v>1622.96628798761</v>
       </c>
       <c r="U32" t="n">
-        <v>1508.970645214178</v>
+        <v>1551.626773001177</v>
       </c>
       <c r="V32" t="n">
-        <v>1508.970645214178</v>
+        <v>1551.626773001177</v>
       </c>
       <c r="W32" t="n">
-        <v>1508.970645214178</v>
+        <v>1551.626773001177</v>
       </c>
       <c r="X32" t="n">
-        <v>1508.970645214178</v>
+        <v>1178.161014740097</v>
       </c>
       <c r="Y32" t="n">
-        <v>1508.970645214178</v>
+        <v>788.0216827642857</v>
       </c>
     </row>
     <row r="33">
@@ -6755,22 +6755,22 @@
         </is>
       </c>
       <c r="B33" t="n">
-        <v>468.3521269378421</v>
+        <v>730.4321178331462</v>
       </c>
       <c r="C33" t="n">
-        <v>293.8990976567151</v>
+        <v>555.9790885520192</v>
       </c>
       <c r="D33" t="n">
-        <v>144.9646879954638</v>
+        <v>555.9790885520192</v>
       </c>
       <c r="E33" t="n">
-        <v>144.9646879954638</v>
+        <v>396.7416335465637</v>
       </c>
       <c r="F33" t="n">
-        <v>144.9646879954638</v>
+        <v>250.2070755734487</v>
       </c>
       <c r="G33" t="n">
-        <v>144.9646879954638</v>
+        <v>111.7947023326189</v>
       </c>
       <c r="H33" t="n">
         <v>111.7947023326189</v>
@@ -6779,52 +6779,52 @@
         <v>32.45932575975219</v>
       </c>
       <c r="J33" t="n">
-        <v>61.20822116384404</v>
+        <v>32.45932575975219</v>
       </c>
       <c r="K33" t="n">
-        <v>61.20822116384404</v>
+        <v>208.2166101768439</v>
       </c>
       <c r="L33" t="n">
-        <v>358.9399761455072</v>
+        <v>505.9483651585071</v>
       </c>
       <c r="M33" t="n">
-        <v>758.3581127497703</v>
+        <v>546.7891136313476</v>
       </c>
       <c r="N33" t="n">
-        <v>948.4732699082808</v>
+        <v>948.4732699082811</v>
       </c>
       <c r="O33" t="n">
         <v>1271.486777082839</v>
       </c>
       <c r="P33" t="n">
-        <v>1513.730526286846</v>
+        <v>1513.730526286847</v>
       </c>
       <c r="Q33" t="n">
-        <v>1622.966287987609</v>
+        <v>1622.96628798761</v>
       </c>
       <c r="R33" t="n">
-        <v>1541.568727888341</v>
+        <v>1622.96628798761</v>
       </c>
       <c r="S33" t="n">
-        <v>1541.568727888341</v>
+        <v>1455.464052945775</v>
       </c>
       <c r="T33" t="n">
-        <v>1541.568727888341</v>
+        <v>1427.673082998623</v>
       </c>
       <c r="U33" t="n">
-        <v>1541.568727888341</v>
+        <v>1427.673082998623</v>
       </c>
       <c r="V33" t="n">
-        <v>1306.416619656598</v>
+        <v>1192.520974766881</v>
       </c>
       <c r="W33" t="n">
-        <v>1052.179262928397</v>
+        <v>938.283618038679</v>
       </c>
       <c r="X33" t="n">
-        <v>844.327762722864</v>
+        <v>730.4321178331462</v>
       </c>
       <c r="Y33" t="n">
-        <v>636.5674639579101</v>
+        <v>730.4321178331462</v>
       </c>
     </row>
     <row r="34">
@@ -6834,76 +6834,76 @@
         </is>
       </c>
       <c r="B34" t="n">
-        <v>1294.179012144412</v>
+        <v>361.2466016029501</v>
       </c>
       <c r="C34" t="n">
-        <v>1294.179012144412</v>
+        <v>327.2623668400557</v>
       </c>
       <c r="D34" t="n">
-        <v>1294.179012144412</v>
+        <v>327.2623668400557</v>
       </c>
       <c r="E34" t="n">
-        <v>1294.179012144412</v>
+        <v>179.3492732576626</v>
       </c>
       <c r="F34" t="n">
-        <v>1294.179012144412</v>
+        <v>32.45932575975219</v>
       </c>
       <c r="G34" t="n">
-        <v>1294.179012144412</v>
+        <v>32.45932575975219</v>
       </c>
       <c r="H34" t="n">
-        <v>1294.179012144412</v>
+        <v>32.45932575975219</v>
       </c>
       <c r="I34" t="n">
-        <v>1294.179012144412</v>
+        <v>32.45932575975219</v>
       </c>
       <c r="J34" t="n">
-        <v>1294.179012144412</v>
+        <v>32.45932575975219</v>
       </c>
       <c r="K34" t="n">
-        <v>1302.533129726572</v>
+        <v>40.81344334191285</v>
       </c>
       <c r="L34" t="n">
-        <v>1368.749958612684</v>
+        <v>107.0302722280248</v>
       </c>
       <c r="M34" t="n">
-        <v>1448.955443483103</v>
+        <v>187.235757098444</v>
       </c>
       <c r="N34" t="n">
-        <v>1532.68843761323</v>
+        <v>270.9687512285709</v>
       </c>
       <c r="O34" t="n">
-        <v>1594.013114755733</v>
+        <v>332.2934283710737</v>
       </c>
       <c r="P34" t="n">
-        <v>1622.966287987609</v>
+        <v>361.2466016029501</v>
       </c>
       <c r="Q34" t="n">
-        <v>1622.966287987609</v>
+        <v>361.2466016029501</v>
       </c>
       <c r="R34" t="n">
-        <v>1622.966287987609</v>
+        <v>361.2466016029501</v>
       </c>
       <c r="S34" t="n">
-        <v>1622.966287987609</v>
+        <v>361.2466016029501</v>
       </c>
       <c r="T34" t="n">
-        <v>1622.966287987609</v>
+        <v>361.2466016029501</v>
       </c>
       <c r="U34" t="n">
-        <v>1622.966287987609</v>
+        <v>361.2466016029501</v>
       </c>
       <c r="V34" t="n">
-        <v>1622.966287987609</v>
+        <v>361.2466016029501</v>
       </c>
       <c r="W34" t="n">
-        <v>1333.549117950649</v>
+        <v>361.2466016029501</v>
       </c>
       <c r="X34" t="n">
-        <v>1294.179012144412</v>
+        <v>361.2466016029501</v>
       </c>
       <c r="Y34" t="n">
-        <v>1294.179012144412</v>
+        <v>361.2466016029501</v>
       </c>
     </row>
     <row r="35">
@@ -6913,19 +6913,19 @@
         </is>
       </c>
       <c r="B35" t="n">
-        <v>503.7583553506526</v>
+        <v>472.761357686596</v>
       </c>
       <c r="C35" t="n">
-        <v>503.7583553506526</v>
+        <v>472.761357686596</v>
       </c>
       <c r="D35" t="n">
-        <v>145.492656743902</v>
+        <v>472.761357686596</v>
       </c>
       <c r="E35" t="n">
-        <v>145.492656743902</v>
+        <v>86.97310508835176</v>
       </c>
       <c r="F35" t="n">
-        <v>145.492656743902</v>
+        <v>32.45932575975219</v>
       </c>
       <c r="G35" t="n">
         <v>32.45932575975219</v>
@@ -6946,7 +6946,7 @@
         <v>519.4894913528326</v>
       </c>
       <c r="M35" t="n">
-        <v>838.8947028941458</v>
+        <v>838.8947028941456</v>
       </c>
       <c r="N35" t="n">
         <v>1148.836227140252</v>
@@ -6961,28 +6961,28 @@
         <v>1622.966287987609</v>
       </c>
       <c r="R35" t="n">
-        <v>1508.970645214178</v>
+        <v>1622.966287987609</v>
       </c>
       <c r="S35" t="n">
-        <v>1311.402045381201</v>
+        <v>1622.966287987609</v>
       </c>
       <c r="T35" t="n">
-        <v>1088.658125761969</v>
+        <v>1622.966287987609</v>
       </c>
       <c r="U35" t="n">
-        <v>834.8212426942232</v>
+        <v>1622.966287987609</v>
       </c>
       <c r="V35" t="n">
-        <v>503.7583553506526</v>
+        <v>1622.966287987609</v>
       </c>
       <c r="W35" t="n">
-        <v>503.7583553506526</v>
+        <v>1622.966287987609</v>
       </c>
       <c r="X35" t="n">
-        <v>503.7583553506526</v>
+        <v>1249.50052972653</v>
       </c>
       <c r="Y35" t="n">
-        <v>503.7583553506526</v>
+        <v>859.3611977507178</v>
       </c>
     </row>
     <row r="36">
@@ -6992,25 +6992,25 @@
         </is>
       </c>
       <c r="B36" t="n">
-        <v>39.95955255904721</v>
+        <v>181.3937354210034</v>
       </c>
       <c r="C36" t="n">
-        <v>39.95955255904721</v>
+        <v>181.3937354210034</v>
       </c>
       <c r="D36" t="n">
-        <v>39.95955255904721</v>
+        <v>32.45932575975219</v>
       </c>
       <c r="E36" t="n">
-        <v>39.95955255904721</v>
+        <v>32.45932575975219</v>
       </c>
       <c r="F36" t="n">
-        <v>39.95955255904721</v>
+        <v>32.45932575975219</v>
       </c>
       <c r="G36" t="n">
-        <v>39.95955255904721</v>
+        <v>32.45932575975219</v>
       </c>
       <c r="H36" t="n">
-        <v>39.95955255904721</v>
+        <v>32.45932575975219</v>
       </c>
       <c r="I36" t="n">
         <v>32.45932575975219</v>
@@ -7019,10 +7019,10 @@
         <v>32.45932575975219</v>
       </c>
       <c r="K36" t="n">
-        <v>208.2166101768439</v>
+        <v>32.45932575975219</v>
       </c>
       <c r="L36" t="n">
-        <v>505.9483651585071</v>
+        <v>256.6067387278474</v>
       </c>
       <c r="M36" t="n">
         <v>656.0248753321104</v>
@@ -7043,25 +7043,25 @@
         <v>1541.568727888341</v>
       </c>
       <c r="S36" t="n">
-        <v>1374.066492846507</v>
+        <v>1541.568727888341</v>
       </c>
       <c r="T36" t="n">
-        <v>1173.163483952</v>
+        <v>1340.665718993834</v>
       </c>
       <c r="U36" t="n">
-        <v>944.9608164894784</v>
+        <v>1112.463051531313</v>
       </c>
       <c r="V36" t="n">
-        <v>709.8087082577356</v>
+        <v>877.31094329957</v>
       </c>
       <c r="W36" t="n">
-        <v>455.571351529534</v>
+        <v>623.0735865713684</v>
       </c>
       <c r="X36" t="n">
-        <v>247.7198513240011</v>
+        <v>415.2220863658356</v>
       </c>
       <c r="Y36" t="n">
-        <v>39.95955255904721</v>
+        <v>207.4617876008817</v>
       </c>
     </row>
     <row r="37">
@@ -7071,19 +7071,19 @@
         </is>
       </c>
       <c r="B37" t="n">
-        <v>351.5121480999949</v>
+        <v>132.1392625228377</v>
       </c>
       <c r="C37" t="n">
-        <v>182.5759651720879</v>
+        <v>132.1392625228377</v>
       </c>
       <c r="D37" t="n">
-        <v>32.45932575975219</v>
+        <v>132.1392625228377</v>
       </c>
       <c r="E37" t="n">
-        <v>32.45932575975219</v>
+        <v>132.1392625228377</v>
       </c>
       <c r="F37" t="n">
-        <v>32.45932575975219</v>
+        <v>132.1392625228377</v>
       </c>
       <c r="G37" t="n">
         <v>32.45932575975219</v>
@@ -7125,22 +7125,22 @@
         <v>361.2466016029501</v>
       </c>
       <c r="T37" t="n">
-        <v>361.2466016029501</v>
+        <v>132.1392625228377</v>
       </c>
       <c r="U37" t="n">
-        <v>361.2466016029501</v>
+        <v>132.1392625228377</v>
       </c>
       <c r="V37" t="n">
-        <v>361.2466016029501</v>
+        <v>132.1392625228377</v>
       </c>
       <c r="W37" t="n">
-        <v>361.2466016029501</v>
+        <v>132.1392625228377</v>
       </c>
       <c r="X37" t="n">
-        <v>361.2466016029501</v>
+        <v>132.1392625228377</v>
       </c>
       <c r="Y37" t="n">
-        <v>351.5121480999949</v>
+        <v>132.1392625228377</v>
       </c>
     </row>
     <row r="38">
@@ -7150,22 +7150,22 @@
         </is>
       </c>
       <c r="B38" t="n">
-        <v>779.1076971866441</v>
+        <v>828.0875500720392</v>
       </c>
       <c r="C38" t="n">
-        <v>779.1076971866441</v>
+        <v>828.0875500720392</v>
       </c>
       <c r="D38" t="n">
-        <v>779.1076971866441</v>
+        <v>828.0875500720392</v>
       </c>
       <c r="E38" t="n">
-        <v>779.1076971866441</v>
+        <v>442.299297473795</v>
       </c>
       <c r="F38" t="n">
-        <v>779.1076971866441</v>
+        <v>442.299297473795</v>
       </c>
       <c r="G38" t="n">
-        <v>369.2677254726013</v>
+        <v>32.45932575975219</v>
       </c>
       <c r="H38" t="n">
         <v>32.45932575975219</v>
@@ -7180,7 +7180,7 @@
         <v>247.358046901132</v>
       </c>
       <c r="L38" t="n">
-        <v>519.4894913528327</v>
+        <v>519.4894913528328</v>
       </c>
       <c r="M38" t="n">
         <v>838.8947028941458</v>
@@ -7195,31 +7195,31 @@
         <v>1569.862809315274</v>
       </c>
       <c r="Q38" t="n">
-        <v>1622.966287987609</v>
+        <v>1622.96628798761</v>
       </c>
       <c r="R38" t="n">
-        <v>1508.970645214178</v>
+        <v>1622.96628798761</v>
       </c>
       <c r="S38" t="n">
-        <v>1508.970645214178</v>
+        <v>1425.397688154633</v>
       </c>
       <c r="T38" t="n">
-        <v>1508.970645214178</v>
+        <v>1202.653768535401</v>
       </c>
       <c r="U38" t="n">
-        <v>1483.636342791295</v>
+        <v>1202.653768535401</v>
       </c>
       <c r="V38" t="n">
-        <v>1152.573455447724</v>
+        <v>1202.653768535401</v>
       </c>
       <c r="W38" t="n">
-        <v>1152.573455447724</v>
+        <v>849.8851132652869</v>
       </c>
       <c r="X38" t="n">
-        <v>779.1076971866441</v>
+        <v>828.0875500720392</v>
       </c>
       <c r="Y38" t="n">
-        <v>779.1076971866441</v>
+        <v>828.0875500720392</v>
       </c>
     </row>
     <row r="39">
@@ -7229,22 +7229,22 @@
         </is>
       </c>
       <c r="B39" t="n">
-        <v>800.0311509215306</v>
+        <v>247.7198513240014</v>
       </c>
       <c r="C39" t="n">
-        <v>625.5781216404037</v>
+        <v>247.7198513240014</v>
       </c>
       <c r="D39" t="n">
-        <v>476.6437119791524</v>
+        <v>247.7198513240014</v>
       </c>
       <c r="E39" t="n">
-        <v>317.4062569736969</v>
+        <v>247.7198513240014</v>
       </c>
       <c r="F39" t="n">
-        <v>170.8716990005819</v>
+        <v>247.7198513240014</v>
       </c>
       <c r="G39" t="n">
-        <v>32.45932575975219</v>
+        <v>109.3074780831716</v>
       </c>
       <c r="H39" t="n">
         <v>32.45932575975219</v>
@@ -7265,16 +7265,16 @@
         <v>758.3581127497703</v>
       </c>
       <c r="N39" t="n">
-        <v>1057.709031609044</v>
+        <v>1160.042269026704</v>
       </c>
       <c r="O39" t="n">
-        <v>1380.722538783602</v>
+        <v>1483.055776201262</v>
       </c>
       <c r="P39" t="n">
-        <v>1622.966287987609</v>
+        <v>1622.96628798761</v>
       </c>
       <c r="Q39" t="n">
-        <v>1622.966287987609</v>
+        <v>1622.96628798761</v>
       </c>
       <c r="R39" t="n">
         <v>1541.568727888341</v>
@@ -7283,22 +7283,22 @@
         <v>1374.066492846507</v>
       </c>
       <c r="T39" t="n">
-        <v>1374.066492846507</v>
+        <v>1173.163483952</v>
       </c>
       <c r="U39" t="n">
-        <v>1145.863825383985</v>
+        <v>944.9608164894786</v>
       </c>
       <c r="V39" t="n">
-        <v>1145.863825383985</v>
+        <v>709.8087082577358</v>
       </c>
       <c r="W39" t="n">
-        <v>1145.863825383985</v>
+        <v>455.5713515295342</v>
       </c>
       <c r="X39" t="n">
-        <v>1007.791449686485</v>
+        <v>247.7198513240014</v>
       </c>
       <c r="Y39" t="n">
-        <v>800.0311509215306</v>
+        <v>247.7198513240014</v>
       </c>
     </row>
     <row r="40">
@@ -7308,76 +7308,76 @@
         </is>
       </c>
       <c r="B40" t="n">
-        <v>1294.179012144412</v>
+        <v>32.45932575975219</v>
       </c>
       <c r="C40" t="n">
-        <v>1294.179012144412</v>
+        <v>32.45932575975219</v>
       </c>
       <c r="D40" t="n">
-        <v>1294.179012144412</v>
+        <v>32.45932575975219</v>
       </c>
       <c r="E40" t="n">
-        <v>1294.179012144412</v>
+        <v>32.45932575975219</v>
       </c>
       <c r="F40" t="n">
-        <v>1294.179012144412</v>
+        <v>32.45932575975219</v>
       </c>
       <c r="G40" t="n">
-        <v>1294.179012144412</v>
+        <v>32.45932575975219</v>
       </c>
       <c r="H40" t="n">
-        <v>1294.179012144412</v>
+        <v>32.45932575975219</v>
       </c>
       <c r="I40" t="n">
-        <v>1294.179012144412</v>
+        <v>32.45932575975219</v>
       </c>
       <c r="J40" t="n">
-        <v>1294.179012144412</v>
+        <v>32.45932575975219</v>
       </c>
       <c r="K40" t="n">
-        <v>1302.533129726572</v>
+        <v>40.81344334191285</v>
       </c>
       <c r="L40" t="n">
-        <v>1368.749958612684</v>
+        <v>107.0302722280248</v>
       </c>
       <c r="M40" t="n">
-        <v>1448.955443483103</v>
+        <v>187.235757098444</v>
       </c>
       <c r="N40" t="n">
-        <v>1532.68843761323</v>
+        <v>270.9687512285709</v>
       </c>
       <c r="O40" t="n">
-        <v>1594.013114755733</v>
+        <v>332.2934283710737</v>
       </c>
       <c r="P40" t="n">
-        <v>1622.966287987609</v>
+        <v>361.2466016029501</v>
       </c>
       <c r="Q40" t="n">
-        <v>1622.966287987609</v>
+        <v>361.2466016029501</v>
       </c>
       <c r="R40" t="n">
-        <v>1622.966287987609</v>
+        <v>361.2466016029501</v>
       </c>
       <c r="S40" t="n">
-        <v>1622.966287987609</v>
+        <v>361.2466016029501</v>
       </c>
       <c r="T40" t="n">
-        <v>1393.858948907497</v>
+        <v>361.2466016029501</v>
       </c>
       <c r="U40" t="n">
-        <v>1294.179012144412</v>
+        <v>361.2466016029501</v>
       </c>
       <c r="V40" t="n">
-        <v>1294.179012144412</v>
+        <v>361.2466016029501</v>
       </c>
       <c r="W40" t="n">
-        <v>1294.179012144412</v>
+        <v>71.82943156598952</v>
       </c>
       <c r="X40" t="n">
-        <v>1294.179012144412</v>
+        <v>71.82943156598952</v>
       </c>
       <c r="Y40" t="n">
-        <v>1294.179012144412</v>
+        <v>32.45932575975219</v>
       </c>
     </row>
     <row r="41">
@@ -7387,10 +7387,10 @@
         </is>
       </c>
       <c r="B41" t="n">
-        <v>442.299297473795</v>
+        <v>701.3269551836291</v>
       </c>
       <c r="C41" t="n">
-        <v>442.299297473795</v>
+        <v>701.3269551836291</v>
       </c>
       <c r="D41" t="n">
         <v>442.299297473795</v>
@@ -7414,10 +7414,10 @@
         <v>70.13987180521508</v>
       </c>
       <c r="K41" t="n">
-        <v>247.358046901132</v>
+        <v>247.3580469011319</v>
       </c>
       <c r="L41" t="n">
-        <v>519.4894913528327</v>
+        <v>519.4894913528326</v>
       </c>
       <c r="M41" t="n">
         <v>838.8947028941457</v>
@@ -7426,37 +7426,37 @@
         <v>1148.836227140252</v>
       </c>
       <c r="O41" t="n">
-        <v>1396.31758174832</v>
+        <v>1396.317581748321</v>
       </c>
       <c r="P41" t="n">
         <v>1569.862809315274</v>
       </c>
       <c r="Q41" t="n">
-        <v>1622.966287987609</v>
+        <v>1622.96628798761</v>
       </c>
       <c r="R41" t="n">
-        <v>1622.966287987609</v>
+        <v>1508.970645214178</v>
       </c>
       <c r="S41" t="n">
-        <v>1622.966287987609</v>
+        <v>1508.970645214178</v>
       </c>
       <c r="T41" t="n">
-        <v>1622.966287987609</v>
+        <v>1286.226725594946</v>
       </c>
       <c r="U41" t="n">
-        <v>1369.129404919863</v>
+        <v>1032.3898425272</v>
       </c>
       <c r="V41" t="n">
-        <v>1038.066517576293</v>
+        <v>701.3269551836291</v>
       </c>
       <c r="W41" t="n">
-        <v>815.7650557348749</v>
+        <v>701.3269551836291</v>
       </c>
       <c r="X41" t="n">
-        <v>442.299297473795</v>
+        <v>701.3269551836291</v>
       </c>
       <c r="Y41" t="n">
-        <v>442.299297473795</v>
+        <v>701.3269551836291</v>
       </c>
     </row>
     <row r="42">
@@ -7466,22 +7466,22 @@
         </is>
       </c>
       <c r="B42" t="n">
-        <v>142.7528837522889</v>
+        <v>353.4469130139943</v>
       </c>
       <c r="C42" t="n">
-        <v>142.7528837522889</v>
+        <v>178.9938837328672</v>
       </c>
       <c r="D42" t="n">
-        <v>142.7528837522889</v>
+        <v>178.9938837328672</v>
       </c>
       <c r="E42" t="n">
-        <v>142.7528837522889</v>
+        <v>178.9938837328672</v>
       </c>
       <c r="F42" t="n">
-        <v>142.7528837522889</v>
+        <v>32.45932575975219</v>
       </c>
       <c r="G42" t="n">
-        <v>142.7528837522889</v>
+        <v>32.45932575975219</v>
       </c>
       <c r="H42" t="n">
         <v>32.45932575975219</v>
@@ -7496,46 +7496,46 @@
         <v>61.20822116384404</v>
       </c>
       <c r="L42" t="n">
-        <v>147.3709770270843</v>
+        <v>358.9399761455072</v>
       </c>
       <c r="M42" t="n">
-        <v>546.7891136313473</v>
+        <v>758.3581127497703</v>
       </c>
       <c r="N42" t="n">
-        <v>948.4732699082806</v>
+        <v>1057.709031609044</v>
       </c>
       <c r="O42" t="n">
-        <v>1271.486777082839</v>
+        <v>1380.722538783602</v>
       </c>
       <c r="P42" t="n">
-        <v>1513.730526286846</v>
+        <v>1622.96628798761</v>
       </c>
       <c r="Q42" t="n">
-        <v>1622.966287987609</v>
+        <v>1622.96628798761</v>
       </c>
       <c r="R42" t="n">
-        <v>1622.966287987609</v>
+        <v>1541.568727888341</v>
       </c>
       <c r="S42" t="n">
-        <v>1455.464052945775</v>
+        <v>1374.066492846507</v>
       </c>
       <c r="T42" t="n">
-        <v>1254.561044051268</v>
+        <v>1173.163483952</v>
       </c>
       <c r="U42" t="n">
-        <v>1026.358376588747</v>
+        <v>1011.051714994006</v>
       </c>
       <c r="V42" t="n">
-        <v>791.2062683570041</v>
+        <v>775.8996067622638</v>
       </c>
       <c r="W42" t="n">
-        <v>536.9689116288025</v>
+        <v>521.6622500340623</v>
       </c>
       <c r="X42" t="n">
-        <v>329.1174114232697</v>
+        <v>521.6622500340623</v>
       </c>
       <c r="Y42" t="n">
-        <v>142.7528837522889</v>
+        <v>521.6622500340623</v>
       </c>
     </row>
     <row r="43">
@@ -7545,76 +7545,76 @@
         </is>
       </c>
       <c r="B43" t="n">
-        <v>1294.179012144411</v>
+        <v>179.3492732576626</v>
       </c>
       <c r="C43" t="n">
-        <v>1294.179012144411</v>
+        <v>179.3492732576626</v>
       </c>
       <c r="D43" t="n">
-        <v>1294.179012144411</v>
+        <v>179.3492732576626</v>
       </c>
       <c r="E43" t="n">
-        <v>1294.179012144411</v>
+        <v>179.3492732576626</v>
       </c>
       <c r="F43" t="n">
-        <v>1294.179012144411</v>
+        <v>32.45932575975219</v>
       </c>
       <c r="G43" t="n">
-        <v>1294.179012144411</v>
+        <v>32.45932575975219</v>
       </c>
       <c r="H43" t="n">
-        <v>1294.179012144411</v>
+        <v>32.45932575975219</v>
       </c>
       <c r="I43" t="n">
-        <v>1294.179012144411</v>
+        <v>32.45932575975219</v>
       </c>
       <c r="J43" t="n">
-        <v>1294.179012144411</v>
+        <v>32.45932575975219</v>
       </c>
       <c r="K43" t="n">
-        <v>1302.533129726572</v>
+        <v>40.81344334191286</v>
       </c>
       <c r="L43" t="n">
-        <v>1368.749958612684</v>
+        <v>107.0302722280248</v>
       </c>
       <c r="M43" t="n">
-        <v>1448.955443483103</v>
+        <v>187.235757098444</v>
       </c>
       <c r="N43" t="n">
-        <v>1532.68843761323</v>
+        <v>270.9687512285709</v>
       </c>
       <c r="O43" t="n">
-        <v>1594.013114755733</v>
+        <v>332.2934283710737</v>
       </c>
       <c r="P43" t="n">
-        <v>1622.966287987609</v>
+        <v>361.2466016029501</v>
       </c>
       <c r="Q43" t="n">
-        <v>1622.966287987609</v>
+        <v>361.2466016029501</v>
       </c>
       <c r="R43" t="n">
-        <v>1622.966287987609</v>
+        <v>361.2466016029501</v>
       </c>
       <c r="S43" t="n">
-        <v>1622.966287987609</v>
+        <v>361.2466016029501</v>
       </c>
       <c r="T43" t="n">
-        <v>1622.966287987609</v>
+        <v>361.2466016029501</v>
       </c>
       <c r="U43" t="n">
-        <v>1622.966287987609</v>
+        <v>179.3492732576626</v>
       </c>
       <c r="V43" t="n">
-        <v>1622.966287987609</v>
+        <v>179.3492732576626</v>
       </c>
       <c r="W43" t="n">
-        <v>1622.966287987609</v>
+        <v>179.3492732576626</v>
       </c>
       <c r="X43" t="n">
-        <v>1514.971591287941</v>
+        <v>179.3492732576626</v>
       </c>
       <c r="Y43" t="n">
-        <v>1294.179012144411</v>
+        <v>179.3492732576626</v>
       </c>
     </row>
     <row r="44">
@@ -7624,22 +7624,22 @@
         </is>
       </c>
       <c r="B44" t="n">
-        <v>727.5334240793518</v>
+        <v>325.0530355250776</v>
       </c>
       <c r="C44" t="n">
-        <v>727.5334240793518</v>
+        <v>325.0530355250776</v>
       </c>
       <c r="D44" t="n">
-        <v>369.2677254726013</v>
+        <v>325.0530355250776</v>
       </c>
       <c r="E44" t="n">
-        <v>369.2677254726013</v>
+        <v>325.0530355250776</v>
       </c>
       <c r="F44" t="n">
-        <v>369.2677254726013</v>
+        <v>32.45932575975219</v>
       </c>
       <c r="G44" t="n">
-        <v>369.2677254726013</v>
+        <v>32.45932575975219</v>
       </c>
       <c r="H44" t="n">
         <v>32.45932575975219</v>
@@ -7648,16 +7648,16 @@
         <v>32.45932575975219</v>
       </c>
       <c r="J44" t="n">
-        <v>70.13987180521474</v>
+        <v>70.13987180521508</v>
       </c>
       <c r="K44" t="n">
-        <v>247.3580469011316</v>
+        <v>247.358046901132</v>
       </c>
       <c r="L44" t="n">
-        <v>519.4894913528323</v>
+        <v>519.4894913528327</v>
       </c>
       <c r="M44" t="n">
-        <v>838.8947028941453</v>
+        <v>838.8947028941457</v>
       </c>
       <c r="N44" t="n">
         <v>1148.836227140252</v>
@@ -7672,28 +7672,28 @@
         <v>1622.966287987609</v>
       </c>
       <c r="R44" t="n">
-        <v>1622.966287987609</v>
+        <v>1508.970645214178</v>
       </c>
       <c r="S44" t="n">
-        <v>1622.966287987609</v>
+        <v>1311.402045381201</v>
       </c>
       <c r="T44" t="n">
-        <v>1622.966287987609</v>
+        <v>1088.658125761969</v>
       </c>
       <c r="U44" t="n">
-        <v>1448.735643398734</v>
+        <v>1088.658125761969</v>
       </c>
       <c r="V44" t="n">
-        <v>1117.672756055164</v>
+        <v>1088.658125761969</v>
       </c>
       <c r="W44" t="n">
-        <v>1117.672756055164</v>
+        <v>1088.658125761969</v>
       </c>
       <c r="X44" t="n">
-        <v>1117.672756055164</v>
+        <v>715.1923675008893</v>
       </c>
       <c r="Y44" t="n">
-        <v>727.5334240793518</v>
+        <v>325.0530355250776</v>
       </c>
     </row>
     <row r="45">
@@ -7703,16 +7703,16 @@
         </is>
       </c>
       <c r="B45" t="n">
-        <v>662.60215322359</v>
+        <v>568.9851807044563</v>
       </c>
       <c r="C45" t="n">
-        <v>662.60215322359</v>
+        <v>568.9851807044563</v>
       </c>
       <c r="D45" t="n">
-        <v>662.60215322359</v>
+        <v>420.050771043205</v>
       </c>
       <c r="E45" t="n">
-        <v>507.0351915391004</v>
+        <v>420.050771043205</v>
       </c>
       <c r="F45" t="n">
         <v>360.5006335659854</v>
@@ -7733,19 +7733,19 @@
         <v>61.20822116384404</v>
       </c>
       <c r="L45" t="n">
-        <v>147.3709770270843</v>
+        <v>358.9399761455072</v>
       </c>
       <c r="M45" t="n">
-        <v>546.7891136313473</v>
+        <v>758.3581127497703</v>
       </c>
       <c r="N45" t="n">
-        <v>948.4732699082806</v>
+        <v>1160.042269026704</v>
       </c>
       <c r="O45" t="n">
-        <v>1271.486777082839</v>
+        <v>1483.055776201262</v>
       </c>
       <c r="P45" t="n">
-        <v>1513.730526286846</v>
+        <v>1622.966287987609</v>
       </c>
       <c r="Q45" t="n">
         <v>1622.966287987609</v>
@@ -7754,25 +7754,25 @@
         <v>1541.568727888341</v>
       </c>
       <c r="S45" t="n">
-        <v>1541.568727888341</v>
+        <v>1374.066492846507</v>
       </c>
       <c r="T45" t="n">
-        <v>1541.568727888341</v>
+        <v>1173.163483952</v>
       </c>
       <c r="U45" t="n">
-        <v>1313.366060425819</v>
+        <v>944.9608164894784</v>
       </c>
       <c r="V45" t="n">
-        <v>1078.213952194077</v>
+        <v>944.9608164894784</v>
       </c>
       <c r="W45" t="n">
-        <v>1078.213952194077</v>
+        <v>944.9608164894784</v>
       </c>
       <c r="X45" t="n">
-        <v>870.3624519885439</v>
+        <v>944.9608164894784</v>
       </c>
       <c r="Y45" t="n">
-        <v>662.60215322359</v>
+        <v>737.2005177245244</v>
       </c>
     </row>
     <row r="46">
@@ -7782,7 +7782,7 @@
         </is>
       </c>
       <c r="B46" t="n">
-        <v>32.45932575975219</v>
+        <v>201.3955086876591</v>
       </c>
       <c r="C46" t="n">
         <v>32.45932575975219</v>
@@ -7839,19 +7839,19 @@
         <v>361.2466016029501</v>
       </c>
       <c r="U46" t="n">
-        <v>321.8764957967128</v>
+        <v>361.2466016029501</v>
       </c>
       <c r="V46" t="n">
-        <v>321.8764957967128</v>
+        <v>361.2466016029501</v>
       </c>
       <c r="W46" t="n">
-        <v>32.45932575975219</v>
+        <v>201.3955086876591</v>
       </c>
       <c r="X46" t="n">
-        <v>32.45932575975219</v>
+        <v>201.3955086876591</v>
       </c>
       <c r="Y46" t="n">
-        <v>32.45932575975219</v>
+        <v>201.3955086876591</v>
       </c>
     </row>
   </sheetData>
@@ -7981,7 +7981,7 @@
         <v>169.0966151720738</v>
       </c>
       <c r="K2" t="n">
-        <v>324.1454125711648</v>
+        <v>324.1454125711647</v>
       </c>
       <c r="L2" t="n">
         <v>417.6612145504504</v>
@@ -8072,10 +8072,10 @@
         <v>372.3560009609923</v>
       </c>
       <c r="O3" t="n">
-        <v>185.8815939223662</v>
+        <v>142.5962444444444</v>
       </c>
       <c r="P3" t="n">
-        <v>133.9744074143302</v>
+        <v>177.2597568922521</v>
       </c>
       <c r="Q3" t="n">
         <v>210.0772877358491</v>
@@ -8297,13 +8297,13 @@
         <v>126.0910353404088</v>
       </c>
       <c r="K6" t="n">
-        <v>137.841438974359</v>
+        <v>264.4652370125786</v>
       </c>
       <c r="L6" t="n">
-        <v>138.5543797798742</v>
+        <v>243.2069195535496</v>
       </c>
       <c r="M6" t="n">
-        <v>359.8407857361378</v>
+        <v>383.1483227996774</v>
       </c>
       <c r="N6" t="n">
         <v>372.3560009609923</v>
@@ -8312,10 +8312,10 @@
         <v>383.6105333221035</v>
       </c>
       <c r="P6" t="n">
-        <v>318.4627686399372</v>
+        <v>133.9744074143302</v>
       </c>
       <c r="Q6" t="n">
-        <v>210.0772877358491</v>
+        <v>139.9817740860215</v>
       </c>
       <c r="R6" t="n">
         <v>45.52166981132082</v>
@@ -8534,7 +8534,7 @@
         <v>126.0910353404088</v>
       </c>
       <c r="K9" t="n">
-        <v>193.3577389147212</v>
+        <v>264.4652370125786</v>
       </c>
       <c r="L9" t="n">
         <v>370.8403453034592</v>
@@ -8543,7 +8543,7 @@
         <v>142.1340339220183</v>
       </c>
       <c r="N9" t="n">
-        <v>372.3560009609923</v>
+        <v>301.248502863135</v>
       </c>
       <c r="O9" t="n">
         <v>383.6105333221035</v>
@@ -8768,16 +8768,16 @@
         <v>10.12574714858493</v>
       </c>
       <c r="J12" t="n">
-        <v>97.05174705344737</v>
+        <v>126.0910353404088</v>
       </c>
       <c r="K12" t="n">
-        <v>86.93262649026374</v>
+        <v>264.4652370125786</v>
       </c>
       <c r="L12" t="n">
         <v>370.8403453034592</v>
       </c>
       <c r="M12" t="n">
-        <v>391.3774455544767</v>
+        <v>74.46639351210649</v>
       </c>
       <c r="N12" t="n">
         <v>455.0874215304797</v>
@@ -8789,7 +8789,7 @@
         <v>318.4627686399372</v>
       </c>
       <c r="Q12" t="n">
-        <v>99.73813450275541</v>
+        <v>210.0772877358491</v>
       </c>
       <c r="R12" t="n">
         <v>45.52166981132082</v>
@@ -9014,10 +9014,10 @@
         <v>370.8403453034592</v>
       </c>
       <c r="M15" t="n">
-        <v>391.3774455544766</v>
+        <v>465.7050637499999</v>
       </c>
       <c r="N15" t="n">
-        <v>455.0874215304796</v>
+        <v>380.7598033349562</v>
       </c>
       <c r="O15" t="n">
         <v>393.8623192767295</v>
@@ -9254,13 +9254,13 @@
         <v>465.7050637499999</v>
       </c>
       <c r="N18" t="n">
-        <v>351.7205150479952</v>
+        <v>455.0874215304797</v>
       </c>
       <c r="O18" t="n">
         <v>393.8623192767295</v>
       </c>
       <c r="P18" t="n">
-        <v>318.4627686399372</v>
+        <v>215.0958621574522</v>
       </c>
       <c r="Q18" t="n">
         <v>99.73813450275541</v>
@@ -9482,7 +9482,7 @@
         <v>126.0910353404088</v>
       </c>
       <c r="K21" t="n">
-        <v>264.4652370125786</v>
+        <v>86.93262649026374</v>
       </c>
       <c r="L21" t="n">
         <v>370.8403453034592</v>
@@ -9491,16 +9491,16 @@
         <v>465.7050637499999</v>
       </c>
       <c r="N21" t="n">
-        <v>174.1879045256798</v>
+        <v>455.0874215304797</v>
       </c>
       <c r="O21" t="n">
         <v>393.8623192767295</v>
       </c>
       <c r="P21" t="n">
-        <v>318.4627686399372</v>
+        <v>215.0958621574522</v>
       </c>
       <c r="Q21" t="n">
-        <v>99.7381345027554</v>
+        <v>99.73813450275541</v>
       </c>
       <c r="R21" t="n">
         <v>45.52166981132082</v>
@@ -9716,16 +9716,16 @@
         <v>10.12574714858493</v>
       </c>
       <c r="J24" t="n">
-        <v>126.0910353404088</v>
+        <v>97.05174705344737</v>
       </c>
       <c r="K24" t="n">
-        <v>117.9172225363092</v>
+        <v>86.93262649026374</v>
       </c>
       <c r="L24" t="n">
         <v>370.8403453034592</v>
       </c>
       <c r="M24" t="n">
-        <v>465.7050637499999</v>
+        <v>391.3774455544768</v>
       </c>
       <c r="N24" t="n">
         <v>455.0874215304797</v>
@@ -9734,10 +9734,10 @@
         <v>393.8623192767295</v>
       </c>
       <c r="P24" t="n">
-        <v>73.77211287831322</v>
+        <v>318.4627686399372</v>
       </c>
       <c r="Q24" t="n">
-        <v>210.0772877358491</v>
+        <v>99.7381345027554</v>
       </c>
       <c r="R24" t="n">
         <v>45.52166981132082</v>
@@ -9959,22 +9959,22 @@
         <v>86.93262649026374</v>
       </c>
       <c r="L27" t="n">
-        <v>370.8403453034592</v>
+        <v>267.4734388209743</v>
       </c>
       <c r="M27" t="n">
         <v>465.7050637499999</v>
       </c>
       <c r="N27" t="n">
-        <v>455.0874215304797</v>
+        <v>455.0874215304796</v>
       </c>
       <c r="O27" t="n">
         <v>393.8623192767295</v>
       </c>
       <c r="P27" t="n">
-        <v>104.7567089243584</v>
+        <v>318.4627686399372</v>
       </c>
       <c r="Q27" t="n">
-        <v>210.0772877358491</v>
+        <v>99.73813450275541</v>
       </c>
       <c r="R27" t="n">
         <v>45.52166981132082</v>
@@ -10190,7 +10190,7 @@
         <v>10.12574714858493</v>
       </c>
       <c r="J30" t="n">
-        <v>126.0910353404088</v>
+        <v>97.05174705344737</v>
       </c>
       <c r="K30" t="n">
         <v>264.4652370125786</v>
@@ -10202,16 +10202,16 @@
         <v>465.7050637499999</v>
       </c>
       <c r="N30" t="n">
-        <v>63.84875129258623</v>
+        <v>447.9178485742657</v>
       </c>
       <c r="O30" t="n">
         <v>393.8623192767295</v>
       </c>
       <c r="P30" t="n">
-        <v>318.4627686399372</v>
+        <v>73.77211287831322</v>
       </c>
       <c r="Q30" t="n">
-        <v>210.0772877358491</v>
+        <v>99.73813450275541</v>
       </c>
       <c r="R30" t="n">
         <v>45.52166981132082</v>
@@ -10427,19 +10427,19 @@
         <v>10.12574714858493</v>
       </c>
       <c r="J33" t="n">
-        <v>126.0910353404088</v>
+        <v>97.05174705344737</v>
       </c>
       <c r="K33" t="n">
-        <v>86.93262649026374</v>
+        <v>264.4652370125786</v>
       </c>
       <c r="L33" t="n">
         <v>370.8403453034592</v>
       </c>
       <c r="M33" t="n">
-        <v>465.7050637499999</v>
+        <v>103.5056817990681</v>
       </c>
       <c r="N33" t="n">
-        <v>241.3813618149012</v>
+        <v>455.0874215304797</v>
       </c>
       <c r="O33" t="n">
         <v>393.8623192767295</v>
@@ -10667,13 +10667,13 @@
         <v>97.05174705344737</v>
       </c>
       <c r="K36" t="n">
-        <v>264.4652370125786</v>
+        <v>86.93262649026374</v>
       </c>
       <c r="L36" t="n">
-        <v>370.8403453034592</v>
+        <v>296.5127271079359</v>
       </c>
       <c r="M36" t="n">
-        <v>213.8448350321618</v>
+        <v>465.7050637499999</v>
       </c>
       <c r="N36" t="n">
         <v>455.0874215304797</v>
@@ -10913,13 +10913,13 @@
         <v>465.7050637499999</v>
       </c>
       <c r="N39" t="n">
-        <v>351.720515047995</v>
+        <v>455.0874215304798</v>
       </c>
       <c r="O39" t="n">
         <v>393.8623192767295</v>
       </c>
       <c r="P39" t="n">
-        <v>318.4627686399372</v>
+        <v>215.0958621574524</v>
       </c>
       <c r="Q39" t="n">
         <v>99.73813450275541</v>
@@ -11071,7 +11071,7 @@
         <v>449.5135334928325</v>
       </c>
       <c r="N41" t="n">
-        <v>437.3469244119842</v>
+        <v>437.3469244119843</v>
       </c>
       <c r="O41" t="n">
         <v>380.8001812627454</v>
@@ -11144,13 +11144,13 @@
         <v>86.93262649026374</v>
       </c>
       <c r="L42" t="n">
-        <v>157.1342855878804</v>
+        <v>370.8403453034592</v>
       </c>
       <c r="M42" t="n">
         <v>465.7050637499999</v>
       </c>
       <c r="N42" t="n">
-        <v>455.0874215304797</v>
+        <v>351.7205150479951</v>
       </c>
       <c r="O42" t="n">
         <v>393.8623192767295</v>
@@ -11159,7 +11159,7 @@
         <v>318.4627686399372</v>
       </c>
       <c r="Q42" t="n">
-        <v>210.0772877358491</v>
+        <v>99.7381345027554</v>
       </c>
       <c r="R42" t="n">
         <v>45.52166981132082</v>
@@ -11296,7 +11296,7 @@
         <v>0</v>
       </c>
       <c r="J44" t="n">
-        <v>169.0966151720734</v>
+        <v>169.0966151720738</v>
       </c>
       <c r="K44" t="n">
         <v>324.1454125711647</v>
@@ -11381,7 +11381,7 @@
         <v>86.93262649026374</v>
       </c>
       <c r="L45" t="n">
-        <v>157.1342855878804</v>
+        <v>370.8403453034592</v>
       </c>
       <c r="M45" t="n">
         <v>465.7050637499999</v>
@@ -11393,10 +11393,10 @@
         <v>393.8623192767295</v>
       </c>
       <c r="P45" t="n">
-        <v>318.4627686399372</v>
+        <v>215.0958621574522</v>
       </c>
       <c r="Q45" t="n">
-        <v>210.0772877358491</v>
+        <v>99.7381345027554</v>
       </c>
       <c r="R45" t="n">
         <v>45.52166981132082</v>
@@ -23257,7 +23257,7 @@
         </is>
       </c>
       <c r="B11" t="n">
-        <v>382.7338416634806</v>
+        <v>0</v>
       </c>
       <c r="C11" t="n">
         <v>365.2728917710076</v>
@@ -23266,7 +23266,7 @@
         <v>354.683041620683</v>
       </c>
       <c r="E11" t="n">
-        <v>381.9303700722618</v>
+        <v>0</v>
       </c>
       <c r="F11" t="n">
         <v>406.8760457417114</v>
@@ -23278,7 +23278,7 @@
         <v>333.4403157157206</v>
       </c>
       <c r="I11" t="n">
-        <v>70.41439893299157</v>
+        <v>187.7594695105699</v>
       </c>
       <c r="J11" t="n">
         <v>0</v>
@@ -23305,7 +23305,7 @@
         <v>0</v>
       </c>
       <c r="R11" t="n">
-        <v>0</v>
+        <v>112.8556863456974</v>
       </c>
       <c r="S11" t="n">
         <v>0</v>
@@ -23314,19 +23314,19 @@
         <v>0</v>
       </c>
       <c r="U11" t="n">
-        <v>0</v>
+        <v>243.7081662809722</v>
       </c>
       <c r="V11" t="n">
-        <v>0</v>
+        <v>327.7522584701349</v>
       </c>
       <c r="W11" t="n">
-        <v>0</v>
+        <v>349.240968717413</v>
       </c>
       <c r="X11" t="n">
         <v>369.731100678469</v>
       </c>
       <c r="Y11" t="n">
-        <v>386.2379386560536</v>
+        <v>0</v>
       </c>
     </row>
     <row r="12">
@@ -23336,7 +23336,7 @@
         </is>
       </c>
       <c r="B12" t="n">
-        <v>0</v>
+        <v>166.5331836498673</v>
       </c>
       <c r="C12" t="n">
         <v>0</v>
@@ -23354,7 +23354,7 @@
         <v>137.0282495084215</v>
       </c>
       <c r="H12" t="n">
-        <v>0</v>
+        <v>109.1906224126114</v>
       </c>
       <c r="I12" t="n">
         <v>78.54202280713804</v>
@@ -23387,16 +23387,16 @@
         <v>80.58358449827551</v>
       </c>
       <c r="S12" t="n">
-        <v>0</v>
+        <v>84.69968995873768</v>
       </c>
       <c r="T12" t="n">
         <v>0</v>
       </c>
       <c r="U12" t="n">
-        <v>225.9206407878966</v>
+        <v>0</v>
       </c>
       <c r="V12" t="n">
-        <v>134.5028552333201</v>
+        <v>0</v>
       </c>
       <c r="W12" t="n">
         <v>0</v>
@@ -23436,10 +23436,10 @@
         <v>159.8772180037952</v>
       </c>
       <c r="I13" t="n">
-        <v>126.1137933559314</v>
+        <v>147.5019580580808</v>
       </c>
       <c r="J13" t="n">
-        <v>0</v>
+        <v>74.67247646141476</v>
       </c>
       <c r="K13" t="n">
         <v>0</v>
@@ -23460,16 +23460,16 @@
         <v>0</v>
       </c>
       <c r="Q13" t="n">
-        <v>0</v>
+        <v>64.0297007843443</v>
       </c>
       <c r="R13" t="n">
-        <v>0</v>
+        <v>165.4090611368575</v>
       </c>
       <c r="S13" t="n">
         <v>219.4103988718534</v>
       </c>
       <c r="T13" t="n">
-        <v>226.8162656893113</v>
+        <v>187.8398609411363</v>
       </c>
       <c r="U13" t="n">
         <v>286.3046124576955</v>
@@ -23478,7 +23478,7 @@
         <v>252.137643323828</v>
       </c>
       <c r="W13" t="n">
-        <v>286.522998336591</v>
+        <v>0</v>
       </c>
       <c r="X13" t="n">
         <v>225.7096553890372</v>
@@ -23512,10 +23512,10 @@
         <v>8.97193213363164</v>
       </c>
       <c r="H14" t="n">
-        <v>0</v>
+        <v>333.4403157157206</v>
       </c>
       <c r="I14" t="n">
-        <v>140.0114066867787</v>
+        <v>187.7594695105699</v>
       </c>
       <c r="J14" t="n">
         <v>0</v>
@@ -23554,10 +23554,10 @@
         <v>251.2985142370684</v>
       </c>
       <c r="V14" t="n">
-        <v>327.7522584701349</v>
+        <v>0</v>
       </c>
       <c r="W14" t="n">
-        <v>349.240968717413</v>
+        <v>295.8048486480362</v>
       </c>
       <c r="X14" t="n">
         <v>369.731100678469</v>
@@ -23573,7 +23573,7 @@
         </is>
       </c>
       <c r="B15" t="n">
-        <v>166.5331836498673</v>
+        <v>0</v>
       </c>
       <c r="C15" t="n">
         <v>172.7084989883157</v>
@@ -23585,13 +23585,13 @@
         <v>157.6450804554009</v>
       </c>
       <c r="F15" t="n">
-        <v>97.66302709141488</v>
+        <v>145.0692123933839</v>
       </c>
       <c r="G15" t="n">
-        <v>0</v>
+        <v>137.0282495084215</v>
       </c>
       <c r="H15" t="n">
-        <v>0</v>
+        <v>109.1906224126114</v>
       </c>
       <c r="I15" t="n">
         <v>0</v>
@@ -23627,10 +23627,10 @@
         <v>0</v>
       </c>
       <c r="T15" t="n">
-        <v>0</v>
+        <v>98.73847778858904</v>
       </c>
       <c r="U15" t="n">
-        <v>225.9206407878966</v>
+        <v>0</v>
       </c>
       <c r="V15" t="n">
         <v>0</v>
@@ -23639,10 +23639,10 @@
         <v>0</v>
       </c>
       <c r="X15" t="n">
-        <v>0</v>
+        <v>205.7729852034775</v>
       </c>
       <c r="Y15" t="n">
-        <v>205.6826957773044</v>
+        <v>0</v>
       </c>
     </row>
     <row r="16">
@@ -23673,7 +23673,7 @@
         <v>159.8772180037952</v>
       </c>
       <c r="I16" t="n">
-        <v>147.5019580580808</v>
+        <v>74.14019829714279</v>
       </c>
       <c r="J16" t="n">
         <v>74.67247646141476</v>
@@ -23697,13 +23697,13 @@
         <v>0</v>
       </c>
       <c r="Q16" t="n">
-        <v>0</v>
+        <v>64.0297007843443</v>
       </c>
       <c r="R16" t="n">
-        <v>0</v>
+        <v>165.4090611368575</v>
       </c>
       <c r="S16" t="n">
-        <v>123.3497577082892</v>
+        <v>219.4103988718534</v>
       </c>
       <c r="T16" t="n">
         <v>226.8162656893113</v>
@@ -23712,7 +23712,7 @@
         <v>286.3046124576955</v>
       </c>
       <c r="V16" t="n">
-        <v>252.137643323828</v>
+        <v>0</v>
       </c>
       <c r="W16" t="n">
         <v>286.522998336591</v>
@@ -23737,22 +23737,22 @@
         <v>365.2728917710076</v>
       </c>
       <c r="D17" t="n">
-        <v>0</v>
+        <v>354.683041620683</v>
       </c>
       <c r="E17" t="n">
-        <v>0</v>
+        <v>381.9303700722618</v>
       </c>
       <c r="F17" t="n">
-        <v>1.134473744809043</v>
+        <v>406.8760457417114</v>
       </c>
       <c r="G17" t="n">
-        <v>8.971932133631526</v>
+        <v>8.971932133631583</v>
       </c>
       <c r="H17" t="n">
-        <v>306.9349787968915</v>
+        <v>0</v>
       </c>
       <c r="I17" t="n">
-        <v>187.7594695105699</v>
+        <v>0</v>
       </c>
       <c r="J17" t="n">
         <v>0</v>
@@ -23794,10 +23794,10 @@
         <v>327.7522584701349</v>
       </c>
       <c r="W17" t="n">
-        <v>349.240968717413</v>
+        <v>0</v>
       </c>
       <c r="X17" t="n">
-        <v>369.731100678469</v>
+        <v>71.31153401349638</v>
       </c>
       <c r="Y17" t="n">
         <v>386.2379386560536</v>
@@ -23810,13 +23810,13 @@
         </is>
       </c>
       <c r="B18" t="n">
-        <v>0</v>
+        <v>166.5331836498673</v>
       </c>
       <c r="C18" t="n">
-        <v>0</v>
+        <v>165.2832744570137</v>
       </c>
       <c r="D18" t="n">
-        <v>0</v>
+        <v>147.4450655646388</v>
       </c>
       <c r="E18" t="n">
         <v>157.6450804554009</v>
@@ -23858,13 +23858,13 @@
         <v>0</v>
       </c>
       <c r="R18" t="n">
-        <v>80.58358449827551</v>
+        <v>0</v>
       </c>
       <c r="S18" t="n">
-        <v>165.8272126914158</v>
+        <v>0</v>
       </c>
       <c r="T18" t="n">
-        <v>198.8939788055617</v>
+        <v>0</v>
       </c>
       <c r="U18" t="n">
         <v>0</v>
@@ -23873,7 +23873,7 @@
         <v>0</v>
       </c>
       <c r="W18" t="n">
-        <v>33.9567476762663</v>
+        <v>0</v>
       </c>
       <c r="X18" t="n">
         <v>0</v>
@@ -23895,16 +23895,16 @@
         <v>167.2468210986278</v>
       </c>
       <c r="D19" t="n">
-        <v>0</v>
+        <v>148.6154730182124</v>
       </c>
       <c r="E19" t="n">
-        <v>33.57973336435988</v>
+        <v>146.4339626465692</v>
       </c>
       <c r="F19" t="n">
         <v>145.4210480229312</v>
       </c>
       <c r="G19" t="n">
-        <v>167.7266695472104</v>
+        <v>128.5318789201399</v>
       </c>
       <c r="H19" t="n">
         <v>159.8772180037952</v>
@@ -23934,7 +23934,7 @@
         <v>0</v>
       </c>
       <c r="Q19" t="n">
-        <v>0</v>
+        <v>64.0297007843443</v>
       </c>
       <c r="R19" t="n">
         <v>165.4090611368575</v>
@@ -23946,7 +23946,7 @@
         <v>226.8162656893113</v>
       </c>
       <c r="U19" t="n">
-        <v>286.3046124576955</v>
+        <v>0</v>
       </c>
       <c r="V19" t="n">
         <v>252.137643323828</v>
@@ -23980,7 +23980,7 @@
         <v>381.9303700722618</v>
       </c>
       <c r="F20" t="n">
-        <v>343.8861913651315</v>
+        <v>1.1344737448091</v>
       </c>
       <c r="G20" t="n">
         <v>8.971932133631583</v>
@@ -23989,7 +23989,7 @@
         <v>0</v>
       </c>
       <c r="I20" t="n">
-        <v>0</v>
+        <v>187.7594695105699</v>
       </c>
       <c r="J20" t="n">
         <v>0</v>
@@ -24016,16 +24016,16 @@
         <v>0</v>
       </c>
       <c r="R20" t="n">
-        <v>0</v>
+        <v>112.8556863456974</v>
       </c>
       <c r="S20" t="n">
         <v>195.5929138346465</v>
       </c>
       <c r="T20" t="n">
-        <v>0</v>
+        <v>177.0759861830402</v>
       </c>
       <c r="U20" t="n">
-        <v>0</v>
+        <v>251.2985142370684</v>
       </c>
       <c r="V20" t="n">
         <v>327.7522584701349</v>
@@ -24037,7 +24037,7 @@
         <v>369.731100678469</v>
       </c>
       <c r="Y20" t="n">
-        <v>386.2379386560536</v>
+        <v>0</v>
       </c>
     </row>
     <row r="21">
@@ -24047,10 +24047,10 @@
         </is>
       </c>
       <c r="B21" t="n">
-        <v>0</v>
+        <v>166.5331836498673</v>
       </c>
       <c r="C21" t="n">
-        <v>172.7084989883157</v>
+        <v>0</v>
       </c>
       <c r="D21" t="n">
         <v>147.4450655646388</v>
@@ -24095,25 +24095,25 @@
         <v>0</v>
       </c>
       <c r="R21" t="n">
-        <v>0</v>
+        <v>80.58358449827551</v>
       </c>
       <c r="S21" t="n">
-        <v>0</v>
+        <v>15.95495426368166</v>
       </c>
       <c r="T21" t="n">
         <v>0</v>
       </c>
       <c r="U21" t="n">
-        <v>63.33562147756126</v>
+        <v>0</v>
       </c>
       <c r="V21" t="n">
-        <v>232.8005871494253</v>
+        <v>0</v>
       </c>
       <c r="W21" t="n">
         <v>0</v>
       </c>
       <c r="X21" t="n">
-        <v>0</v>
+        <v>205.7729852034775</v>
       </c>
       <c r="Y21" t="n">
         <v>0</v>
@@ -24126,16 +24126,16 @@
         </is>
       </c>
       <c r="B22" t="n">
-        <v>179.8319801819373</v>
+        <v>0.766539743740509</v>
       </c>
       <c r="C22" t="n">
-        <v>7.156479150719406</v>
+        <v>167.2468210986278</v>
       </c>
       <c r="D22" t="n">
         <v>148.6154730182124</v>
       </c>
       <c r="E22" t="n">
-        <v>146.4339626465692</v>
+        <v>0</v>
       </c>
       <c r="F22" t="n">
         <v>145.4210480229312</v>
@@ -24150,7 +24150,7 @@
         <v>147.5019580580808</v>
       </c>
       <c r="J22" t="n">
-        <v>74.67247646141475</v>
+        <v>74.67247646141476</v>
       </c>
       <c r="K22" t="n">
         <v>0</v>
@@ -24171,10 +24171,10 @@
         <v>0</v>
       </c>
       <c r="Q22" t="n">
-        <v>64.02970078434429</v>
+        <v>64.0297007843443</v>
       </c>
       <c r="R22" t="n">
-        <v>0</v>
+        <v>165.4090611368575</v>
       </c>
       <c r="S22" t="n">
         <v>219.4103988718534</v>
@@ -24205,22 +24205,22 @@
         </is>
       </c>
       <c r="B23" t="n">
-        <v>107.1386551567959</v>
+        <v>382.7338416634806</v>
       </c>
       <c r="C23" t="n">
-        <v>0</v>
+        <v>269.5620516539886</v>
       </c>
       <c r="D23" t="n">
-        <v>0</v>
+        <v>354.683041620683</v>
       </c>
       <c r="E23" t="n">
         <v>381.9303700722618</v>
       </c>
       <c r="F23" t="n">
-        <v>406.8760457417114</v>
+        <v>1.134473744809043</v>
       </c>
       <c r="G23" t="n">
-        <v>414.7135041305339</v>
+        <v>8.971932133631526</v>
       </c>
       <c r="H23" t="n">
         <v>333.4403157157206</v>
@@ -24256,16 +24256,16 @@
         <v>112.8556863456974</v>
       </c>
       <c r="S23" t="n">
-        <v>195.5929138346465</v>
+        <v>0</v>
       </c>
       <c r="T23" t="n">
-        <v>220.5164804230398</v>
+        <v>0</v>
       </c>
       <c r="U23" t="n">
         <v>0</v>
       </c>
       <c r="V23" t="n">
-        <v>0</v>
+        <v>327.7522584701349</v>
       </c>
       <c r="W23" t="n">
         <v>349.240968717413</v>
@@ -24284,16 +24284,16 @@
         </is>
       </c>
       <c r="B24" t="n">
-        <v>0</v>
+        <v>166.5331836498673</v>
       </c>
       <c r="C24" t="n">
-        <v>172.7084989883157</v>
+        <v>0</v>
       </c>
       <c r="D24" t="n">
         <v>147.4450655646388</v>
       </c>
       <c r="E24" t="n">
-        <v>157.6450804554009</v>
+        <v>157.1011422209983</v>
       </c>
       <c r="F24" t="n">
         <v>145.0692123933839</v>
@@ -24305,7 +24305,7 @@
         <v>109.1906224126114</v>
       </c>
       <c r="I24" t="n">
-        <v>0</v>
+        <v>78.54202280713804</v>
       </c>
       <c r="J24" t="n">
         <v>0</v>
@@ -24332,13 +24332,13 @@
         <v>0</v>
       </c>
       <c r="R24" t="n">
-        <v>80.58358449827551</v>
+        <v>0</v>
       </c>
       <c r="S24" t="n">
-        <v>0</v>
+        <v>165.8272126914158</v>
       </c>
       <c r="T24" t="n">
-        <v>157.0663974274273</v>
+        <v>0</v>
       </c>
       <c r="U24" t="n">
         <v>0</v>
@@ -24378,16 +24378,16 @@
         <v>145.4210480229312</v>
       </c>
       <c r="G25" t="n">
-        <v>0</v>
+        <v>167.7266695472104</v>
       </c>
       <c r="H25" t="n">
         <v>159.8772180037952</v>
       </c>
       <c r="I25" t="n">
-        <v>0</v>
+        <v>147.5019580580808</v>
       </c>
       <c r="J25" t="n">
-        <v>64.40170098193994</v>
+        <v>74.67247646141475</v>
       </c>
       <c r="K25" t="n">
         <v>0</v>
@@ -24408,7 +24408,7 @@
         <v>0</v>
       </c>
       <c r="Q25" t="n">
-        <v>64.0297007843443</v>
+        <v>64.02970078434429</v>
       </c>
       <c r="R25" t="n">
         <v>165.4090611368575</v>
@@ -24420,13 +24420,13 @@
         <v>226.8162656893113</v>
       </c>
       <c r="U25" t="n">
-        <v>286.3046124576955</v>
+        <v>247.3282077095205</v>
       </c>
       <c r="V25" t="n">
         <v>252.137643323828</v>
       </c>
       <c r="W25" t="n">
-        <v>286.522998336591</v>
+        <v>0</v>
       </c>
       <c r="X25" t="n">
         <v>225.7096553890372</v>
@@ -24445,22 +24445,22 @@
         <v>0</v>
       </c>
       <c r="C26" t="n">
-        <v>0</v>
+        <v>365.2728917710076</v>
       </c>
       <c r="D26" t="n">
-        <v>354.683041620683</v>
+        <v>0</v>
       </c>
       <c r="E26" t="n">
         <v>381.9303700722618</v>
       </c>
       <c r="F26" t="n">
-        <v>406.8760457417114</v>
+        <v>1.134473744809156</v>
       </c>
       <c r="G26" t="n">
         <v>414.7135041305339</v>
       </c>
       <c r="H26" t="n">
-        <v>333.4403157157206</v>
+        <v>251.237847108621</v>
       </c>
       <c r="I26" t="n">
         <v>187.7594695105699</v>
@@ -24490,7 +24490,7 @@
         <v>0</v>
       </c>
       <c r="R26" t="n">
-        <v>42.22956650912995</v>
+        <v>112.8556863456974</v>
       </c>
       <c r="S26" t="n">
         <v>195.5929138346465</v>
@@ -24505,13 +24505,13 @@
         <v>327.7522584701349</v>
       </c>
       <c r="W26" t="n">
-        <v>349.240968717413</v>
+        <v>0</v>
       </c>
       <c r="X26" t="n">
-        <v>0</v>
+        <v>369.731100678469</v>
       </c>
       <c r="Y26" t="n">
-        <v>0</v>
+        <v>386.2379386560536</v>
       </c>
     </row>
     <row r="27">
@@ -24524,7 +24524,7 @@
         <v>0</v>
       </c>
       <c r="C27" t="n">
-        <v>0</v>
+        <v>172.7084989883157</v>
       </c>
       <c r="D27" t="n">
         <v>0</v>
@@ -24536,13 +24536,13 @@
         <v>0</v>
       </c>
       <c r="G27" t="n">
-        <v>95.56164659442678</v>
+        <v>137.0282495084215</v>
       </c>
       <c r="H27" t="n">
-        <v>109.1906224126114</v>
+        <v>0</v>
       </c>
       <c r="I27" t="n">
-        <v>78.54202280713804</v>
+        <v>0</v>
       </c>
       <c r="J27" t="n">
         <v>0</v>
@@ -24569,28 +24569,28 @@
         <v>0</v>
       </c>
       <c r="R27" t="n">
-        <v>0</v>
+        <v>80.58358449827551</v>
       </c>
       <c r="S27" t="n">
         <v>165.8272126914158</v>
       </c>
       <c r="T27" t="n">
-        <v>198.8939788055617</v>
+        <v>139.1334845812651</v>
       </c>
       <c r="U27" t="n">
-        <v>225.9206407878966</v>
+        <v>0</v>
       </c>
       <c r="V27" t="n">
-        <v>232.8005871494253</v>
+        <v>0</v>
       </c>
       <c r="W27" t="n">
         <v>0</v>
       </c>
       <c r="X27" t="n">
-        <v>0</v>
+        <v>205.7729852034775</v>
       </c>
       <c r="Y27" t="n">
-        <v>0</v>
+        <v>205.6826957773044</v>
       </c>
     </row>
     <row r="28">
@@ -24606,13 +24606,13 @@
         <v>167.2468210986278</v>
       </c>
       <c r="D28" t="n">
-        <v>148.6154730182124</v>
+        <v>114.9710806029468</v>
       </c>
       <c r="E28" t="n">
-        <v>146.4339626465692</v>
+        <v>0</v>
       </c>
       <c r="F28" t="n">
-        <v>145.4210480229312</v>
+        <v>0</v>
       </c>
       <c r="G28" t="n">
         <v>167.7266695472104</v>
@@ -24663,10 +24663,10 @@
         <v>252.137643323828</v>
       </c>
       <c r="W28" t="n">
-        <v>186.7332506408622</v>
+        <v>286.522998336591</v>
       </c>
       <c r="X28" t="n">
-        <v>0</v>
+        <v>225.7096553890372</v>
       </c>
       <c r="Y28" t="n">
         <v>218.5846533520948</v>
@@ -24682,13 +24682,13 @@
         <v>0</v>
       </c>
       <c r="C29" t="n">
-        <v>0</v>
+        <v>365.2728917710076</v>
       </c>
       <c r="D29" t="n">
         <v>354.683041620683</v>
       </c>
       <c r="E29" t="n">
-        <v>381.9303700722618</v>
+        <v>0</v>
       </c>
       <c r="F29" t="n">
         <v>406.8760457417114</v>
@@ -24700,7 +24700,7 @@
         <v>333.4403157157206</v>
       </c>
       <c r="I29" t="n">
-        <v>0</v>
+        <v>187.7594695105699</v>
       </c>
       <c r="J29" t="n">
         <v>0</v>
@@ -24733,22 +24733,22 @@
         <v>0</v>
       </c>
       <c r="T29" t="n">
-        <v>220.5164804230398</v>
+        <v>0</v>
       </c>
       <c r="U29" t="n">
-        <v>135.8079968813294</v>
+        <v>251.2985142370684</v>
       </c>
       <c r="V29" t="n">
-        <v>0</v>
+        <v>327.7522584701349</v>
       </c>
       <c r="W29" t="n">
         <v>349.240968717413</v>
       </c>
       <c r="X29" t="n">
-        <v>369.731100678469</v>
+        <v>362.1407527223726</v>
       </c>
       <c r="Y29" t="n">
-        <v>386.2379386560536</v>
+        <v>0</v>
       </c>
     </row>
     <row r="30">
@@ -24761,25 +24761,25 @@
         <v>0</v>
       </c>
       <c r="C30" t="n">
-        <v>0</v>
+        <v>172.7084989883157</v>
       </c>
       <c r="D30" t="n">
-        <v>0</v>
+        <v>147.4450655646388</v>
       </c>
       <c r="E30" t="n">
         <v>0</v>
       </c>
       <c r="F30" t="n">
-        <v>0</v>
+        <v>145.0692123933839</v>
       </c>
       <c r="G30" t="n">
-        <v>24.72030225534071</v>
+        <v>137.0282495084215</v>
       </c>
       <c r="H30" t="n">
-        <v>0</v>
+        <v>109.1906224126114</v>
       </c>
       <c r="I30" t="n">
-        <v>0</v>
+        <v>78.54202280713804</v>
       </c>
       <c r="J30" t="n">
         <v>0</v>
@@ -24806,25 +24806,25 @@
         <v>0</v>
       </c>
       <c r="R30" t="n">
-        <v>0</v>
+        <v>80.58358449827551</v>
       </c>
       <c r="S30" t="n">
-        <v>165.8272126914158</v>
+        <v>0</v>
       </c>
       <c r="T30" t="n">
-        <v>0</v>
+        <v>10.24881428779366</v>
       </c>
       <c r="U30" t="n">
         <v>225.9206407878966</v>
       </c>
       <c r="V30" t="n">
-        <v>232.8005871494253</v>
+        <v>0</v>
       </c>
       <c r="W30" t="n">
-        <v>251.6949831609196</v>
+        <v>0</v>
       </c>
       <c r="X30" t="n">
-        <v>205.7729852034775</v>
+        <v>0</v>
       </c>
       <c r="Y30" t="n">
         <v>0</v>
@@ -24843,16 +24843,16 @@
         <v>167.2468210986278</v>
       </c>
       <c r="D31" t="n">
-        <v>148.6154730182124</v>
+        <v>0</v>
       </c>
       <c r="E31" t="n">
-        <v>146.4339626465692</v>
+        <v>0</v>
       </c>
       <c r="F31" t="n">
-        <v>145.4210480229312</v>
+        <v>114.9710806029468</v>
       </c>
       <c r="G31" t="n">
-        <v>0</v>
+        <v>167.7266695472104</v>
       </c>
       <c r="H31" t="n">
         <v>159.8772180037952</v>
@@ -24903,7 +24903,7 @@
         <v>286.522998336591</v>
       </c>
       <c r="X31" t="n">
-        <v>67.9369218514816</v>
+        <v>225.7096553890372</v>
       </c>
       <c r="Y31" t="n">
         <v>218.5846533520948</v>
@@ -24919,10 +24919,10 @@
         <v>0</v>
       </c>
       <c r="C32" t="n">
-        <v>365.2728917710076</v>
+        <v>0</v>
       </c>
       <c r="D32" t="n">
-        <v>0</v>
+        <v>354.683041620683</v>
       </c>
       <c r="E32" t="n">
         <v>381.9303700722618</v>
@@ -24931,10 +24931,10 @@
         <v>406.8760457417114</v>
       </c>
       <c r="G32" t="n">
-        <v>8.971932133631583</v>
+        <v>414.7135041305339</v>
       </c>
       <c r="H32" t="n">
-        <v>14.85256473690521</v>
+        <v>333.4403157157206</v>
       </c>
       <c r="I32" t="n">
         <v>187.7594695105699</v>
@@ -24964,7 +24964,7 @@
         <v>0</v>
       </c>
       <c r="R32" t="n">
-        <v>0</v>
+        <v>112.8556863456974</v>
       </c>
       <c r="S32" t="n">
         <v>195.5929138346465</v>
@@ -24973,7 +24973,7 @@
         <v>220.5164804230398</v>
       </c>
       <c r="U32" t="n">
-        <v>251.2985142370684</v>
+        <v>180.6723944005004</v>
       </c>
       <c r="V32" t="n">
         <v>327.7522584701349</v>
@@ -24982,10 +24982,10 @@
         <v>349.240968717413</v>
       </c>
       <c r="X32" t="n">
-        <v>369.731100678469</v>
+        <v>0</v>
       </c>
       <c r="Y32" t="n">
-        <v>386.2379386560536</v>
+        <v>0</v>
       </c>
     </row>
     <row r="33">
@@ -24995,25 +24995,25 @@
         </is>
       </c>
       <c r="B33" t="n">
-        <v>0</v>
+        <v>166.5331836498673</v>
       </c>
       <c r="C33" t="n">
         <v>0</v>
       </c>
       <c r="D33" t="n">
-        <v>0</v>
+        <v>147.4450655646388</v>
       </c>
       <c r="E33" t="n">
-        <v>157.6450804554009</v>
+        <v>0</v>
       </c>
       <c r="F33" t="n">
-        <v>145.0692123933839</v>
+        <v>0</v>
       </c>
       <c r="G33" t="n">
-        <v>137.0282495084215</v>
+        <v>0</v>
       </c>
       <c r="H33" t="n">
-        <v>76.35233660639491</v>
+        <v>109.1906224126114</v>
       </c>
       <c r="I33" t="n">
         <v>0</v>
@@ -25043,13 +25043,13 @@
         <v>0</v>
       </c>
       <c r="R33" t="n">
-        <v>0</v>
+        <v>80.58358449827551</v>
       </c>
       <c r="S33" t="n">
-        <v>165.8272126914158</v>
+        <v>0</v>
       </c>
       <c r="T33" t="n">
-        <v>198.8939788055617</v>
+        <v>171.3809185578812</v>
       </c>
       <c r="U33" t="n">
         <v>225.9206407878966</v>
@@ -25064,7 +25064,7 @@
         <v>0</v>
       </c>
       <c r="Y33" t="n">
-        <v>0</v>
+        <v>205.6826957773044</v>
       </c>
     </row>
     <row r="34">
@@ -25077,16 +25077,16 @@
         <v>179.8319801819373</v>
       </c>
       <c r="C34" t="n">
-        <v>167.2468210986278</v>
+        <v>133.6024286833623</v>
       </c>
       <c r="D34" t="n">
         <v>148.6154730182124</v>
       </c>
       <c r="E34" t="n">
-        <v>146.4339626465692</v>
+        <v>0</v>
       </c>
       <c r="F34" t="n">
-        <v>145.4210480229312</v>
+        <v>0</v>
       </c>
       <c r="G34" t="n">
         <v>167.7266695472104</v>
@@ -25137,10 +25137,10 @@
         <v>252.137643323828</v>
       </c>
       <c r="W34" t="n">
-        <v>0</v>
+        <v>286.522998336591</v>
       </c>
       <c r="X34" t="n">
-        <v>186.7332506408625</v>
+        <v>225.7096553890372</v>
       </c>
       <c r="Y34" t="n">
         <v>218.5846533520948</v>
@@ -25153,22 +25153,22 @@
         </is>
       </c>
       <c r="B35" t="n">
-        <v>382.7338416634806</v>
+        <v>0</v>
       </c>
       <c r="C35" t="n">
         <v>365.2728917710076</v>
       </c>
       <c r="D35" t="n">
-        <v>0</v>
+        <v>354.683041620683</v>
       </c>
       <c r="E35" t="n">
-        <v>381.9303700722618</v>
+        <v>0</v>
       </c>
       <c r="F35" t="n">
-        <v>406.8760457417114</v>
+        <v>352.9074042063979</v>
       </c>
       <c r="G35" t="n">
-        <v>302.8105064562255</v>
+        <v>414.7135041305339</v>
       </c>
       <c r="H35" t="n">
         <v>333.4403157157206</v>
@@ -25201,28 +25201,28 @@
         <v>0</v>
       </c>
       <c r="R35" t="n">
-        <v>0</v>
+        <v>112.8556863456974</v>
       </c>
       <c r="S35" t="n">
-        <v>0</v>
+        <v>195.5929138346465</v>
       </c>
       <c r="T35" t="n">
-        <v>0</v>
+        <v>220.5164804230398</v>
       </c>
       <c r="U35" t="n">
-        <v>0</v>
+        <v>251.2985142370684</v>
       </c>
       <c r="V35" t="n">
-        <v>0</v>
+        <v>327.7522584701349</v>
       </c>
       <c r="W35" t="n">
         <v>349.240968717413</v>
       </c>
       <c r="X35" t="n">
-        <v>369.731100678469</v>
+        <v>0</v>
       </c>
       <c r="Y35" t="n">
-        <v>386.2379386560536</v>
+        <v>0</v>
       </c>
     </row>
     <row r="36">
@@ -25232,13 +25232,13 @@
         </is>
       </c>
       <c r="B36" t="n">
-        <v>166.5331836498673</v>
+        <v>140.7258119917879</v>
       </c>
       <c r="C36" t="n">
         <v>172.7084989883157</v>
       </c>
       <c r="D36" t="n">
-        <v>147.4450655646388</v>
+        <v>0</v>
       </c>
       <c r="E36" t="n">
         <v>157.6450804554009</v>
@@ -25253,7 +25253,7 @@
         <v>109.1906224126114</v>
       </c>
       <c r="I36" t="n">
-        <v>71.11679827583598</v>
+        <v>78.54202280713804</v>
       </c>
       <c r="J36" t="n">
         <v>0</v>
@@ -25283,7 +25283,7 @@
         <v>0</v>
       </c>
       <c r="S36" t="n">
-        <v>0</v>
+        <v>165.8272126914158</v>
       </c>
       <c r="T36" t="n">
         <v>0</v>
@@ -25314,10 +25314,10 @@
         <v>179.8319801819373</v>
       </c>
       <c r="C37" t="n">
-        <v>0</v>
+        <v>167.2468210986278</v>
       </c>
       <c r="D37" t="n">
-        <v>0</v>
+        <v>148.6154730182124</v>
       </c>
       <c r="E37" t="n">
         <v>146.4339626465692</v>
@@ -25326,7 +25326,7 @@
         <v>145.4210480229312</v>
       </c>
       <c r="G37" t="n">
-        <v>167.7266695472104</v>
+        <v>69.04353215175573</v>
       </c>
       <c r="H37" t="n">
         <v>159.8772180037952</v>
@@ -25365,7 +25365,7 @@
         <v>219.4103988718534</v>
       </c>
       <c r="T37" t="n">
-        <v>226.8162656893113</v>
+        <v>0</v>
       </c>
       <c r="U37" t="n">
         <v>286.3046124576955</v>
@@ -25380,7 +25380,7 @@
         <v>225.7096553890372</v>
       </c>
       <c r="Y37" t="n">
-        <v>208.9475443841691</v>
+        <v>218.5846533520948</v>
       </c>
     </row>
     <row r="38">
@@ -25399,16 +25399,16 @@
         <v>354.683041620683</v>
       </c>
       <c r="E38" t="n">
-        <v>381.9303700722618</v>
+        <v>0</v>
       </c>
       <c r="F38" t="n">
         <v>406.8760457417114</v>
       </c>
       <c r="G38" t="n">
-        <v>8.971932133631583</v>
+        <v>8.971932133631526</v>
       </c>
       <c r="H38" t="n">
-        <v>0</v>
+        <v>333.4403157157206</v>
       </c>
       <c r="I38" t="n">
         <v>187.7594695105699</v>
@@ -25438,25 +25438,25 @@
         <v>0</v>
       </c>
       <c r="R38" t="n">
-        <v>0</v>
+        <v>112.8556863456974</v>
       </c>
       <c r="S38" t="n">
-        <v>195.5929138346465</v>
+        <v>0</v>
       </c>
       <c r="T38" t="n">
-        <v>220.5164804230398</v>
+        <v>0</v>
       </c>
       <c r="U38" t="n">
-        <v>226.2175548384143</v>
+        <v>251.2985142370684</v>
       </c>
       <c r="V38" t="n">
-        <v>0</v>
+        <v>327.7522584701349</v>
       </c>
       <c r="W38" t="n">
-        <v>349.240968717413</v>
+        <v>0</v>
       </c>
       <c r="X38" t="n">
-        <v>0</v>
+        <v>348.1515131171538</v>
       </c>
       <c r="Y38" t="n">
         <v>386.2379386560536</v>
@@ -25472,22 +25472,22 @@
         <v>166.5331836498673</v>
       </c>
       <c r="C39" t="n">
-        <v>0</v>
+        <v>172.7084989883157</v>
       </c>
       <c r="D39" t="n">
-        <v>0</v>
+        <v>147.4450655646388</v>
       </c>
       <c r="E39" t="n">
-        <v>0</v>
+        <v>157.6450804554009</v>
       </c>
       <c r="F39" t="n">
-        <v>0</v>
+        <v>145.0692123933839</v>
       </c>
       <c r="G39" t="n">
         <v>0</v>
       </c>
       <c r="H39" t="n">
-        <v>109.1906224126114</v>
+        <v>33.11095161242616</v>
       </c>
       <c r="I39" t="n">
         <v>78.54202280713804</v>
@@ -25523,22 +25523,22 @@
         <v>0</v>
       </c>
       <c r="T39" t="n">
-        <v>198.8939788055617</v>
+        <v>0</v>
       </c>
       <c r="U39" t="n">
         <v>0</v>
       </c>
       <c r="V39" t="n">
-        <v>232.8005871494253</v>
+        <v>0</v>
       </c>
       <c r="W39" t="n">
-        <v>251.6949831609196</v>
+        <v>0</v>
       </c>
       <c r="X39" t="n">
-        <v>69.08133326295194</v>
+        <v>0</v>
       </c>
       <c r="Y39" t="n">
-        <v>0</v>
+        <v>205.6826957773044</v>
       </c>
     </row>
     <row r="40">
@@ -25602,22 +25602,22 @@
         <v>219.4103988718534</v>
       </c>
       <c r="T40" t="n">
-        <v>0</v>
+        <v>226.8162656893113</v>
       </c>
       <c r="U40" t="n">
-        <v>187.621475062241</v>
+        <v>286.3046124576955</v>
       </c>
       <c r="V40" t="n">
         <v>252.137643323828</v>
       </c>
       <c r="W40" t="n">
-        <v>286.522998336591</v>
+        <v>0</v>
       </c>
       <c r="X40" t="n">
         <v>225.7096553890372</v>
       </c>
       <c r="Y40" t="n">
-        <v>218.5846533520948</v>
+        <v>179.6082486039198</v>
       </c>
     </row>
     <row r="41">
@@ -25633,7 +25633,7 @@
         <v>365.2728917710076</v>
       </c>
       <c r="D41" t="n">
-        <v>354.683041620683</v>
+        <v>98.24566048794719</v>
       </c>
       <c r="E41" t="n">
         <v>381.9303700722618</v>
@@ -25642,7 +25642,7 @@
         <v>406.8760457417114</v>
       </c>
       <c r="G41" t="n">
-        <v>8.971932133631583</v>
+        <v>8.971932133631526</v>
       </c>
       <c r="H41" t="n">
         <v>333.4403157157206</v>
@@ -25675,13 +25675,13 @@
         <v>0</v>
       </c>
       <c r="R41" t="n">
-        <v>112.8556863456974</v>
+        <v>0</v>
       </c>
       <c r="S41" t="n">
         <v>195.5929138346465</v>
       </c>
       <c r="T41" t="n">
-        <v>220.5164804230398</v>
+        <v>0</v>
       </c>
       <c r="U41" t="n">
         <v>0</v>
@@ -25690,10 +25690,10 @@
         <v>0</v>
       </c>
       <c r="W41" t="n">
-        <v>129.1625214944092</v>
+        <v>349.240968717413</v>
       </c>
       <c r="X41" t="n">
-        <v>0</v>
+        <v>369.731100678469</v>
       </c>
       <c r="Y41" t="n">
         <v>386.2379386560536</v>
@@ -25706,10 +25706,10 @@
         </is>
       </c>
       <c r="B42" t="n">
-        <v>166.5331836498673</v>
+        <v>0</v>
       </c>
       <c r="C42" t="n">
-        <v>172.7084989883157</v>
+        <v>0</v>
       </c>
       <c r="D42" t="n">
         <v>147.4450655646388</v>
@@ -25718,13 +25718,13 @@
         <v>157.6450804554009</v>
       </c>
       <c r="F42" t="n">
-        <v>145.0692123933839</v>
+        <v>0</v>
       </c>
       <c r="G42" t="n">
         <v>137.0282495084215</v>
       </c>
       <c r="H42" t="n">
-        <v>0</v>
+        <v>109.1906224126114</v>
       </c>
       <c r="I42" t="n">
         <v>78.54202280713804</v>
@@ -25754,7 +25754,7 @@
         <v>0</v>
       </c>
       <c r="R42" t="n">
-        <v>80.58358449827551</v>
+        <v>0</v>
       </c>
       <c r="S42" t="n">
         <v>0</v>
@@ -25763,7 +25763,7 @@
         <v>0</v>
       </c>
       <c r="U42" t="n">
-        <v>0</v>
+        <v>65.4299895194826</v>
       </c>
       <c r="V42" t="n">
         <v>0</v>
@@ -25772,10 +25772,10 @@
         <v>0</v>
       </c>
       <c r="X42" t="n">
-        <v>0</v>
+        <v>205.7729852034775</v>
       </c>
       <c r="Y42" t="n">
-        <v>21.18181338303344</v>
+        <v>205.6826957773044</v>
       </c>
     </row>
     <row r="43">
@@ -25797,7 +25797,7 @@
         <v>146.4339626465692</v>
       </c>
       <c r="F43" t="n">
-        <v>145.4210480229312</v>
+        <v>0</v>
       </c>
       <c r="G43" t="n">
         <v>167.7266695472104</v>
@@ -25842,7 +25842,7 @@
         <v>226.8162656893113</v>
       </c>
       <c r="U43" t="n">
-        <v>286.3046124576955</v>
+        <v>106.2262573958608</v>
       </c>
       <c r="V43" t="n">
         <v>252.137643323828</v>
@@ -25851,10 +25851,10 @@
         <v>286.522998336591</v>
       </c>
       <c r="X43" t="n">
-        <v>118.794905656366</v>
+        <v>225.7096553890372</v>
       </c>
       <c r="Y43" t="n">
-        <v>0</v>
+        <v>218.5846533520948</v>
       </c>
     </row>
     <row r="44">
@@ -25870,19 +25870,19 @@
         <v>365.2728917710076</v>
       </c>
       <c r="D44" t="n">
-        <v>0</v>
+        <v>354.683041620683</v>
       </c>
       <c r="E44" t="n">
         <v>381.9303700722618</v>
       </c>
       <c r="F44" t="n">
-        <v>406.8760457417114</v>
+        <v>117.2082730740393</v>
       </c>
       <c r="G44" t="n">
         <v>414.7135041305339</v>
       </c>
       <c r="H44" t="n">
-        <v>0</v>
+        <v>333.4403157157206</v>
       </c>
       <c r="I44" t="n">
         <v>187.7594695105699</v>
@@ -25912,25 +25912,25 @@
         <v>0</v>
       </c>
       <c r="R44" t="n">
-        <v>112.8556863456974</v>
+        <v>0</v>
       </c>
       <c r="S44" t="n">
-        <v>195.5929138346465</v>
+        <v>0</v>
       </c>
       <c r="T44" t="n">
-        <v>220.5164804230398</v>
+        <v>0</v>
       </c>
       <c r="U44" t="n">
-        <v>78.8101760940821</v>
+        <v>251.2985142370684</v>
       </c>
       <c r="V44" t="n">
-        <v>0</v>
+        <v>327.7522584701349</v>
       </c>
       <c r="W44" t="n">
         <v>349.240968717413</v>
       </c>
       <c r="X44" t="n">
-        <v>369.731100678469</v>
+        <v>0</v>
       </c>
       <c r="Y44" t="n">
         <v>0</v>
@@ -25943,19 +25943,19 @@
         </is>
       </c>
       <c r="B45" t="n">
-        <v>166.5331836498673</v>
+        <v>0</v>
       </c>
       <c r="C45" t="n">
         <v>172.7084989883157</v>
       </c>
       <c r="D45" t="n">
-        <v>147.4450655646388</v>
+        <v>0</v>
       </c>
       <c r="E45" t="n">
-        <v>3.633788387756283</v>
+        <v>157.6450804554009</v>
       </c>
       <c r="F45" t="n">
-        <v>0</v>
+        <v>86.11457629093641</v>
       </c>
       <c r="G45" t="n">
         <v>0</v>
@@ -25994,22 +25994,22 @@
         <v>0</v>
       </c>
       <c r="S45" t="n">
-        <v>165.8272126914158</v>
+        <v>0</v>
       </c>
       <c r="T45" t="n">
-        <v>198.8939788055617</v>
+        <v>0</v>
       </c>
       <c r="U45" t="n">
         <v>0</v>
       </c>
       <c r="V45" t="n">
-        <v>0</v>
+        <v>232.8005871494253</v>
       </c>
       <c r="W45" t="n">
         <v>251.6949831609196</v>
       </c>
       <c r="X45" t="n">
-        <v>0</v>
+        <v>205.7729852034775</v>
       </c>
       <c r="Y45" t="n">
         <v>0</v>
@@ -26025,7 +26025,7 @@
         <v>179.8319801819373</v>
       </c>
       <c r="C46" t="n">
-        <v>167.2468210986278</v>
+        <v>0</v>
       </c>
       <c r="D46" t="n">
         <v>148.6154730182124</v>
@@ -26079,13 +26079,13 @@
         <v>226.8162656893113</v>
       </c>
       <c r="U46" t="n">
-        <v>247.3282077095205</v>
+        <v>286.3046124576955</v>
       </c>
       <c r="V46" t="n">
         <v>252.137643323828</v>
       </c>
       <c r="W46" t="n">
-        <v>0</v>
+        <v>128.2704163504529</v>
       </c>
       <c r="X46" t="n">
         <v>225.7096553890372</v>
@@ -26149,7 +26149,7 @@
         <v>3</v>
       </c>
       <c r="B5" t="n">
-        <v>506297.2831878812</v>
+        <v>506297.2831878806</v>
       </c>
     </row>
     <row r="6">
@@ -26157,7 +26157,7 @@
         <v>4</v>
       </c>
       <c r="B6" t="n">
-        <v>506297.2831878809</v>
+        <v>506297.2831878808</v>
       </c>
     </row>
     <row r="7">
@@ -26165,7 +26165,7 @@
         <v>5</v>
       </c>
       <c r="B7" t="n">
-        <v>506297.2831878811</v>
+        <v>506297.2831878809</v>
       </c>
     </row>
     <row r="8">
@@ -26173,7 +26173,7 @@
         <v>6</v>
       </c>
       <c r="B8" t="n">
-        <v>506297.283187881</v>
+        <v>506297.2831878812</v>
       </c>
     </row>
     <row r="9">
@@ -26181,7 +26181,7 @@
         <v>7</v>
       </c>
       <c r="B9" t="n">
-        <v>506297.2831878812</v>
+        <v>506297.2831878808</v>
       </c>
     </row>
     <row r="10">
@@ -26189,7 +26189,7 @@
         <v>8</v>
       </c>
       <c r="B10" t="n">
-        <v>506297.2831878809</v>
+        <v>506297.2831878812</v>
       </c>
     </row>
     <row r="11">
@@ -26197,7 +26197,7 @@
         <v>9</v>
       </c>
       <c r="B11" t="n">
-        <v>506297.2831878811</v>
+        <v>506297.2831878812</v>
       </c>
     </row>
     <row r="12">
@@ -26205,7 +26205,7 @@
         <v>10</v>
       </c>
       <c r="B12" t="n">
-        <v>506297.2831878808</v>
+        <v>506297.2831878812</v>
       </c>
     </row>
     <row r="13">
@@ -26213,7 +26213,7 @@
         <v>11</v>
       </c>
       <c r="B13" t="n">
-        <v>506297.2831878812</v>
+        <v>506297.2831878811</v>
       </c>
     </row>
     <row r="14">
@@ -26221,7 +26221,7 @@
         <v>12</v>
       </c>
       <c r="B14" t="n">
-        <v>506297.2831878809</v>
+        <v>506297.2831878808</v>
       </c>
     </row>
     <row r="15">
@@ -26229,7 +26229,7 @@
         <v>13</v>
       </c>
       <c r="B15" t="n">
-        <v>506297.2831878808</v>
+        <v>506297.2831878809</v>
       </c>
     </row>
     <row r="16">
@@ -26237,7 +26237,7 @@
         <v>14</v>
       </c>
       <c r="B16" t="n">
-        <v>506297.2831878808</v>
+        <v>506297.2831878811</v>
       </c>
     </row>
   </sheetData>
@@ -26313,13 +26313,13 @@
         </is>
       </c>
       <c r="B2" t="n">
+        <v>513151.106165177</v>
+      </c>
+      <c r="C2" t="n">
+        <v>513151.1061651768</v>
+      </c>
+      <c r="D2" t="n">
         <v>513151.1061651769</v>
-      </c>
-      <c r="C2" t="n">
-        <v>513151.106165177</v>
-      </c>
-      <c r="D2" t="n">
-        <v>513151.1061651768</v>
       </c>
       <c r="E2" t="n">
         <v>267036.1213307581</v>
@@ -26331,16 +26331,16 @@
         <v>267036.121330758</v>
       </c>
       <c r="H2" t="n">
+        <v>267036.121330758</v>
+      </c>
+      <c r="I2" t="n">
         <v>267036.1213307581</v>
-      </c>
-      <c r="I2" t="n">
-        <v>267036.121330758</v>
       </c>
       <c r="J2" t="n">
         <v>267036.121330758</v>
       </c>
       <c r="K2" t="n">
-        <v>267036.1213307579</v>
+        <v>267036.121330758</v>
       </c>
       <c r="L2" t="n">
         <v>267036.121330758</v>
@@ -26441,7 +26441,7 @@
         <v>25938.22349556464</v>
       </c>
       <c r="J4" t="n">
-        <v>25938.22349556463</v>
+        <v>25938.22349556464</v>
       </c>
       <c r="K4" t="n">
         <v>25938.22349556464</v>
@@ -26456,10 +26456,10 @@
         <v>25938.22349556464</v>
       </c>
       <c r="O4" t="n">
-        <v>25938.22349556463</v>
+        <v>25938.22349556464</v>
       </c>
       <c r="P4" t="n">
-        <v>25938.22349556463</v>
+        <v>25938.22349556464</v>
       </c>
     </row>
     <row r="5">
@@ -26490,13 +26490,13 @@
         <v>27864.35291375757</v>
       </c>
       <c r="I5" t="n">
-        <v>27864.35291375757</v>
+        <v>27864.35291375758</v>
       </c>
       <c r="J5" t="n">
         <v>27864.35291375756</v>
       </c>
       <c r="K5" t="n">
-        <v>27864.35291375756</v>
+        <v>27864.35291375757</v>
       </c>
       <c r="L5" t="n">
         <v>27864.35291375757</v>
@@ -26508,7 +26508,7 @@
         <v>27864.35291375757</v>
       </c>
       <c r="O5" t="n">
-        <v>27864.35291375757</v>
+        <v>27864.35291375758</v>
       </c>
       <c r="P5" t="n">
         <v>27864.35291375757</v>
@@ -26521,49 +26521,49 @@
         </is>
       </c>
       <c r="B6" t="n">
-        <v>79872.61002278881</v>
+        <v>79872.61002278887</v>
       </c>
       <c r="C6" t="n">
-        <v>160642.0415543367</v>
+        <v>160642.0415543365</v>
       </c>
       <c r="D6" t="n">
-        <v>160642.0415543365</v>
+        <v>160642.0415543366</v>
       </c>
       <c r="E6" t="n">
-        <v>46293.37479618913</v>
+        <v>36448.77540281238</v>
       </c>
       <c r="F6" t="n">
-        <v>213233.5449214358</v>
+        <v>203388.945528059</v>
       </c>
       <c r="G6" t="n">
-        <v>213233.5449214357</v>
+        <v>203388.945528059</v>
       </c>
       <c r="H6" t="n">
-        <v>213233.5449214359</v>
+        <v>203388.945528059</v>
       </c>
       <c r="I6" t="n">
-        <v>213233.5449214358</v>
+        <v>203388.9455280591</v>
       </c>
       <c r="J6" t="n">
-        <v>150173.6023223296</v>
+        <v>140329.0029289529</v>
       </c>
       <c r="K6" t="n">
-        <v>213233.5449214357</v>
+        <v>203388.945528059</v>
       </c>
       <c r="L6" t="n">
-        <v>213233.5449214358</v>
+        <v>203388.945528059</v>
       </c>
       <c r="M6" t="n">
-        <v>172182.8470589879</v>
+        <v>162338.2476656112</v>
       </c>
       <c r="N6" t="n">
-        <v>213233.5449214358</v>
+        <v>203388.945528059</v>
       </c>
       <c r="O6" t="n">
-        <v>213233.5449214359</v>
+        <v>203388.9455280592</v>
       </c>
       <c r="P6" t="n">
-        <v>213233.5449214358</v>
+        <v>203388.9455280591</v>
       </c>
     </row>
   </sheetData>
@@ -26755,10 +26755,10 @@
         <v>146.571804419537</v>
       </c>
       <c r="H3" t="n">
+        <v>146.571804419537</v>
+      </c>
+      <c r="I3" t="n">
         <v>146.5718044195371</v>
-      </c>
-      <c r="I3" t="n">
-        <v>146.571804419537</v>
       </c>
       <c r="J3" t="n">
         <v>146.571804419537</v>
@@ -26804,7 +26804,7 @@
         <v>405.7415719969023</v>
       </c>
       <c r="G4" t="n">
-        <v>405.7415719969024</v>
+        <v>405.7415719969023</v>
       </c>
       <c r="H4" t="n">
         <v>405.7415719969023</v>
@@ -26816,19 +26816,19 @@
         <v>405.7415719969023</v>
       </c>
       <c r="K4" t="n">
-        <v>405.7415719969023</v>
+        <v>405.7415719969024</v>
       </c>
       <c r="L4" t="n">
-        <v>405.7415719969023</v>
+        <v>405.7415719969024</v>
       </c>
       <c r="M4" t="n">
         <v>405.7415719969023</v>
       </c>
       <c r="N4" t="n">
-        <v>405.7415719969023</v>
+        <v>405.7415719969024</v>
       </c>
       <c r="O4" t="n">
-        <v>405.7415719969023</v>
+        <v>405.7415719969024</v>
       </c>
       <c r="P4" t="n">
         <v>405.7415719969023</v>
@@ -27378,7 +27378,7 @@
         </is>
       </c>
       <c r="B2" t="n">
-        <v>382.7338416634806</v>
+        <v>166.1103892252615</v>
       </c>
       <c r="C2" t="n">
         <v>365.2728917710076</v>
@@ -27399,10 +27399,10 @@
         <v>339.4748021157671</v>
       </c>
       <c r="I2" t="n">
-        <v>210.4758895704059</v>
+        <v>0</v>
       </c>
       <c r="J2" t="n">
-        <v>11.94928935461252</v>
+        <v>0</v>
       </c>
       <c r="K2" t="n">
         <v>0</v>
@@ -27426,28 +27426,28 @@
         <v>0</v>
       </c>
       <c r="R2" t="n">
-        <v>0</v>
+        <v>149.8691179411497</v>
       </c>
       <c r="S2" t="n">
         <v>209.0200695862453</v>
       </c>
       <c r="T2" t="n">
-        <v>223.0958495641314</v>
+        <v>0</v>
       </c>
       <c r="U2" t="n">
         <v>10.33136403017744</v>
       </c>
       <c r="V2" t="n">
-        <v>297.5054732392338</v>
+        <v>327.7522584701349</v>
       </c>
       <c r="W2" t="n">
         <v>349.240968717413</v>
       </c>
       <c r="X2" t="n">
-        <v>128.71681180081</v>
+        <v>369.731100678469</v>
       </c>
       <c r="Y2" t="n">
-        <v>145.2236497783945</v>
+        <v>386.2379386560536</v>
       </c>
     </row>
     <row r="3">
@@ -27460,16 +27460,16 @@
         <v>166.5331836498673</v>
       </c>
       <c r="C3" t="n">
-        <v>172.7084989883157</v>
+        <v>76.93040879544773</v>
       </c>
       <c r="D3" t="n">
-        <v>0</v>
+        <v>147.4450655646388</v>
       </c>
       <c r="E3" t="n">
         <v>157.6450804554009</v>
       </c>
       <c r="F3" t="n">
-        <v>0</v>
+        <v>145.0692123933839</v>
       </c>
       <c r="G3" t="n">
         <v>137.3435171632106</v>
@@ -27478,10 +27478,10 @@
         <v>112.2354442364965</v>
       </c>
       <c r="I3" t="n">
-        <v>0</v>
+        <v>89.39663285141508</v>
       </c>
       <c r="J3" t="n">
-        <v>0.7465913262578567</v>
+        <v>0</v>
       </c>
       <c r="K3" t="n">
         <v>0</v>
@@ -27508,10 +27508,10 @@
         <v>100.1578341526431</v>
       </c>
       <c r="S3" t="n">
-        <v>49.9801969213087</v>
+        <v>0</v>
       </c>
       <c r="T3" t="n">
-        <v>200.1647286948216</v>
+        <v>0</v>
       </c>
       <c r="U3" t="n">
         <v>0</v>
@@ -27520,10 +27520,10 @@
         <v>232.8005871494253</v>
       </c>
       <c r="W3" t="n">
-        <v>251.6949831609196</v>
+        <v>10.68069428326055</v>
       </c>
       <c r="X3" t="n">
-        <v>0</v>
+        <v>205.7729852034775</v>
       </c>
       <c r="Y3" t="n">
         <v>205.6826957773044</v>
@@ -27578,13 +27578,13 @@
         <v>0</v>
       </c>
       <c r="P4" t="n">
-        <v>2.721440735106512</v>
+        <v>0</v>
       </c>
       <c r="Q4" t="n">
         <v>86.16204325169439</v>
       </c>
       <c r="R4" t="n">
-        <v>44.10642379180146</v>
+        <v>46.82786452690794</v>
       </c>
       <c r="S4" t="n">
         <v>224.0165980369723</v>
@@ -27615,7 +27615,7 @@
         </is>
       </c>
       <c r="B5" t="n">
-        <v>382.7338416634806</v>
+        <v>141.7195527858215</v>
       </c>
       <c r="C5" t="n">
         <v>124.2586028933485</v>
@@ -27624,19 +27624,19 @@
         <v>354.683041620683</v>
       </c>
       <c r="E5" t="n">
-        <v>140.9160811946027</v>
+        <v>381.9303700722618</v>
       </c>
       <c r="F5" t="n">
-        <v>201.2949868753087</v>
+        <v>381.7025041237114</v>
       </c>
       <c r="G5" t="n">
         <v>400</v>
       </c>
       <c r="H5" t="n">
-        <v>339.4748021157671</v>
+        <v>98.46051323810809</v>
       </c>
       <c r="I5" t="n">
-        <v>0</v>
+        <v>210.4758895704059</v>
       </c>
       <c r="J5" t="n">
         <v>0</v>
@@ -27663,7 +27663,7 @@
         <v>0</v>
       </c>
       <c r="R5" t="n">
-        <v>149.8691179411497</v>
+        <v>0</v>
       </c>
       <c r="S5" t="n">
         <v>209.0200695862453</v>
@@ -27703,7 +27703,7 @@
         <v>147.4450655646388</v>
       </c>
       <c r="E6" t="n">
-        <v>0</v>
+        <v>157.6450804554009</v>
       </c>
       <c r="F6" t="n">
         <v>145.0692123933839</v>
@@ -27748,13 +27748,13 @@
         <v>171.6831711038378</v>
       </c>
       <c r="T6" t="n">
-        <v>24.23829618490132</v>
+        <v>200.1647286948216</v>
       </c>
       <c r="U6" t="n">
-        <v>225.9413820809748</v>
+        <v>0</v>
       </c>
       <c r="V6" t="n">
-        <v>232.8005871494253</v>
+        <v>0</v>
       </c>
       <c r="W6" t="n">
         <v>251.6949831609196</v>
@@ -27763,7 +27763,7 @@
         <v>0</v>
       </c>
       <c r="Y6" t="n">
-        <v>0</v>
+        <v>125.1704562650789</v>
       </c>
     </row>
     <row r="7">
@@ -27788,7 +27788,7 @@
         <v>145.4210480229312</v>
       </c>
       <c r="G7" t="n">
-        <v>167.9909793584588</v>
+        <v>123.6874957598916</v>
       </c>
       <c r="H7" t="n">
         <v>162.2271725074396</v>
@@ -27818,7 +27818,7 @@
         <v>0</v>
       </c>
       <c r="Q7" t="n">
-        <v>86.16204325169439</v>
+        <v>0</v>
       </c>
       <c r="R7" t="n">
         <v>177.2933913771695</v>
@@ -27827,7 +27827,7 @@
         <v>224.0165980369723</v>
       </c>
       <c r="T7" t="n">
-        <v>97.48006257801995</v>
+        <v>227.9455894282815</v>
       </c>
       <c r="U7" t="n">
         <v>286.3190293564909</v>
@@ -27852,7 +27852,7 @@
         </is>
       </c>
       <c r="B8" t="n">
-        <v>141.7195527858215</v>
+        <v>382.7338416634806</v>
       </c>
       <c r="C8" t="n">
         <v>365.2728917710076</v>
@@ -27867,7 +27867,7 @@
         <v>165.8617568640524</v>
       </c>
       <c r="G8" t="n">
-        <v>374.8264583819999</v>
+        <v>174.288448637476</v>
       </c>
       <c r="H8" t="n">
         <v>339.4748021157671</v>
@@ -27876,7 +27876,7 @@
         <v>210.4758895704059</v>
       </c>
       <c r="J8" t="n">
-        <v>0</v>
+        <v>11.94928935461252</v>
       </c>
       <c r="K8" t="n">
         <v>0</v>
@@ -27897,10 +27897,10 @@
         <v>0</v>
       </c>
       <c r="Q8" t="n">
-        <v>0</v>
+        <v>9.990699214544804</v>
       </c>
       <c r="R8" t="n">
-        <v>0</v>
+        <v>149.8691179411497</v>
       </c>
       <c r="S8" t="n">
         <v>209.0200695862453</v>
@@ -27918,7 +27918,7 @@
         <v>349.240968717413</v>
       </c>
       <c r="X8" t="n">
-        <v>369.731100678469</v>
+        <v>157.445715035027</v>
       </c>
       <c r="Y8" t="n">
         <v>145.2236497783945</v>
@@ -27931,7 +27931,7 @@
         </is>
       </c>
       <c r="B9" t="n">
-        <v>166.5331836498673</v>
+        <v>0</v>
       </c>
       <c r="C9" t="n">
         <v>0</v>
@@ -27946,10 +27946,10 @@
         <v>145.0692123933839</v>
       </c>
       <c r="G9" t="n">
-        <v>0</v>
+        <v>137.3435171632106</v>
       </c>
       <c r="H9" t="n">
-        <v>112.2354442364965</v>
+        <v>0</v>
       </c>
       <c r="I9" t="n">
         <v>0</v>
@@ -27979,13 +27979,13 @@
         <v>0</v>
       </c>
       <c r="R9" t="n">
-        <v>0</v>
+        <v>100.1578341526431</v>
       </c>
       <c r="S9" t="n">
-        <v>0</v>
+        <v>171.6831711038378</v>
       </c>
       <c r="T9" t="n">
-        <v>84.31778756872143</v>
+        <v>200.1647286948216</v>
       </c>
       <c r="U9" t="n">
         <v>225.9413820809748</v>
@@ -27997,10 +27997,10 @@
         <v>251.6949831609196</v>
       </c>
       <c r="X9" t="n">
-        <v>205.7729852034775</v>
+        <v>165.1928453213537</v>
       </c>
       <c r="Y9" t="n">
-        <v>205.6826957773044</v>
+        <v>0</v>
       </c>
     </row>
     <row r="10">
@@ -28031,13 +28031,13 @@
         <v>162.2271725074396</v>
       </c>
       <c r="I10" t="n">
-        <v>22.26350734189026</v>
+        <v>155.4504749272583</v>
       </c>
       <c r="J10" t="n">
         <v>93.35918011667277</v>
       </c>
       <c r="K10" t="n">
-        <v>22.26949182588285</v>
+        <v>0</v>
       </c>
       <c r="L10" t="n">
         <v>0</v>
@@ -28052,13 +28052,13 @@
         <v>0</v>
       </c>
       <c r="P10" t="n">
-        <v>2.721440735106512</v>
+        <v>0</v>
       </c>
       <c r="Q10" t="n">
-        <v>86.16204325169439</v>
+        <v>0</v>
       </c>
       <c r="R10" t="n">
-        <v>177.2933913771695</v>
+        <v>155.2593996044852</v>
       </c>
       <c r="S10" t="n">
         <v>224.0165980369723</v>
@@ -32463,22 +32463,22 @@
         <v>0</v>
       </c>
       <c r="G20" t="n">
-        <v>0.5892333846011536</v>
+        <v>0.5892333846011535</v>
       </c>
       <c r="H20" t="n">
-        <v>6.034486400046566</v>
+        <v>6.034486400046565</v>
       </c>
       <c r="I20" t="n">
-        <v>22.716420059836</v>
+        <v>22.71642005983599</v>
       </c>
       <c r="J20" t="n">
-        <v>50.01044697629221</v>
+        <v>50.0104469762922</v>
       </c>
       <c r="K20" t="n">
-        <v>74.95269614645906</v>
+        <v>74.95269614645905</v>
       </c>
       <c r="L20" t="n">
-        <v>92.98544734044663</v>
+        <v>92.98544734044661</v>
       </c>
       <c r="M20" t="n">
         <v>103.4642265438474</v>
@@ -32487,16 +32487,16 @@
         <v>105.1383858978454</v>
       </c>
       <c r="O20" t="n">
-        <v>99.2791964297177</v>
+        <v>99.27919642971769</v>
       </c>
       <c r="P20" t="n">
-        <v>84.73249724737671</v>
+        <v>84.73249724737668</v>
       </c>
       <c r="Q20" t="n">
-        <v>63.63057666134787</v>
+        <v>63.63057666134786</v>
       </c>
       <c r="R20" t="n">
-        <v>37.01343159545225</v>
+        <v>37.01343159545224</v>
       </c>
       <c r="S20" t="n">
         <v>13.4271557515988</v>
@@ -32505,7 +32505,7 @@
         <v>2.579369141091551</v>
       </c>
       <c r="U20" t="n">
-        <v>0.04713867076809228</v>
+        <v>0.04713867076809227</v>
       </c>
       <c r="V20" t="n">
         <v>0</v>
@@ -32545,46 +32545,46 @@
         <v>0.3152676547891929</v>
       </c>
       <c r="H21" t="n">
-        <v>3.044821823885101</v>
+        <v>3.0448218238851</v>
       </c>
       <c r="I21" t="n">
         <v>10.85461004427704</v>
       </c>
       <c r="J21" t="n">
-        <v>29.78587961321933</v>
+        <v>29.78587961321932</v>
       </c>
       <c r="K21" t="n">
-        <v>50.90881248409525</v>
+        <v>50.90881248409524</v>
       </c>
       <c r="L21" t="n">
-        <v>68.45318092253947</v>
+        <v>68.45318092253946</v>
       </c>
       <c r="M21" t="n">
-        <v>79.8816334086477</v>
+        <v>79.88163340864767</v>
       </c>
       <c r="N21" t="n">
-        <v>81.99586254975594</v>
+        <v>81.99586254975593</v>
       </c>
       <c r="O21" t="n">
-        <v>75.01019504100591</v>
+        <v>75.0101950410059</v>
       </c>
       <c r="P21" t="n">
-        <v>60.20229453601704</v>
+        <v>60.20229453601702</v>
       </c>
       <c r="Q21" t="n">
-        <v>40.24363958326611</v>
+        <v>40.2436395832661</v>
       </c>
       <c r="R21" t="n">
         <v>19.57424965436762</v>
       </c>
       <c r="S21" t="n">
-        <v>5.855958412422067</v>
+        <v>5.855958412422066</v>
       </c>
       <c r="T21" t="n">
         <v>1.270749889259948</v>
       </c>
       <c r="U21" t="n">
-        <v>0.02074129307823639</v>
+        <v>0.02074129307823638</v>
       </c>
       <c r="V21" t="n">
         <v>0</v>
@@ -32624,40 +32624,40 @@
         <v>0.2643098112483455</v>
       </c>
       <c r="H22" t="n">
-        <v>2.349954503644383</v>
+        <v>2.349954503644382</v>
       </c>
       <c r="I22" t="n">
-        <v>7.94851686917752</v>
+        <v>7.948516869177519</v>
       </c>
       <c r="J22" t="n">
-        <v>18.68670365525803</v>
+        <v>18.68670365525802</v>
       </c>
       <c r="K22" t="n">
         <v>30.70799443412595</v>
       </c>
       <c r="L22" t="n">
-        <v>39.2956604832313</v>
+        <v>39.29566048323129</v>
       </c>
       <c r="M22" t="n">
-        <v>41.4317643214111</v>
+        <v>41.43176432141109</v>
       </c>
       <c r="N22" t="n">
-        <v>40.44660957039457</v>
+        <v>40.44660957039456</v>
       </c>
       <c r="O22" t="n">
         <v>37.3589904117207</v>
       </c>
       <c r="P22" t="n">
-        <v>31.96707026225443</v>
+        <v>31.96707026225442</v>
       </c>
       <c r="Q22" t="n">
-        <v>22.1323424673501</v>
+        <v>22.13234246735009</v>
       </c>
       <c r="R22" t="n">
         <v>11.88433024031197</v>
       </c>
       <c r="S22" t="n">
-        <v>4.606199165118892</v>
+        <v>4.606199165118891</v>
       </c>
       <c r="T22" t="n">
         <v>1.129323738970203</v>
@@ -32700,22 +32700,22 @@
         <v>0</v>
       </c>
       <c r="G23" t="n">
-        <v>0.5892333846011535</v>
+        <v>0.5892333846011536</v>
       </c>
       <c r="H23" t="n">
-        <v>6.034486400046565</v>
+        <v>6.034486400046566</v>
       </c>
       <c r="I23" t="n">
-        <v>22.71642005983599</v>
+        <v>22.716420059836</v>
       </c>
       <c r="J23" t="n">
-        <v>50.0104469762922</v>
+        <v>50.01044697629221</v>
       </c>
       <c r="K23" t="n">
-        <v>74.95269614645905</v>
+        <v>74.95269614645906</v>
       </c>
       <c r="L23" t="n">
-        <v>92.98544734044661</v>
+        <v>92.98544734044663</v>
       </c>
       <c r="M23" t="n">
         <v>103.4642265438474</v>
@@ -32724,16 +32724,16 @@
         <v>105.1383858978454</v>
       </c>
       <c r="O23" t="n">
-        <v>99.27919642971769</v>
+        <v>99.2791964297177</v>
       </c>
       <c r="P23" t="n">
-        <v>84.73249724737668</v>
+        <v>84.73249724737671</v>
       </c>
       <c r="Q23" t="n">
-        <v>63.63057666134786</v>
+        <v>63.63057666134787</v>
       </c>
       <c r="R23" t="n">
-        <v>37.01343159545224</v>
+        <v>37.01343159545225</v>
       </c>
       <c r="S23" t="n">
         <v>13.4271557515988</v>
@@ -32742,7 +32742,7 @@
         <v>2.579369141091551</v>
       </c>
       <c r="U23" t="n">
-        <v>0.04713867076809227</v>
+        <v>0.04713867076809228</v>
       </c>
       <c r="V23" t="n">
         <v>0</v>
@@ -32782,46 +32782,46 @@
         <v>0.3152676547891929</v>
       </c>
       <c r="H24" t="n">
-        <v>3.0448218238851</v>
+        <v>3.044821823885101</v>
       </c>
       <c r="I24" t="n">
         <v>10.85461004427704</v>
       </c>
       <c r="J24" t="n">
-        <v>29.78587961321932</v>
+        <v>29.78587961321933</v>
       </c>
       <c r="K24" t="n">
-        <v>50.90881248409524</v>
+        <v>50.90881248409525</v>
       </c>
       <c r="L24" t="n">
-        <v>68.45318092253946</v>
+        <v>68.45318092253947</v>
       </c>
       <c r="M24" t="n">
-        <v>79.88163340864767</v>
+        <v>79.8816334086477</v>
       </c>
       <c r="N24" t="n">
-        <v>81.99586254975593</v>
+        <v>81.99586254975594</v>
       </c>
       <c r="O24" t="n">
-        <v>75.0101950410059</v>
+        <v>75.01019504100591</v>
       </c>
       <c r="P24" t="n">
-        <v>60.20229453601702</v>
+        <v>60.20229453601704</v>
       </c>
       <c r="Q24" t="n">
-        <v>40.2436395832661</v>
+        <v>40.24363958326611</v>
       </c>
       <c r="R24" t="n">
         <v>19.57424965436762</v>
       </c>
       <c r="S24" t="n">
-        <v>5.855958412422066</v>
+        <v>5.855958412422067</v>
       </c>
       <c r="T24" t="n">
         <v>1.270749889259948</v>
       </c>
       <c r="U24" t="n">
-        <v>0.02074129307823638</v>
+        <v>0.02074129307823639</v>
       </c>
       <c r="V24" t="n">
         <v>0</v>
@@ -32861,40 +32861,40 @@
         <v>0.2643098112483455</v>
       </c>
       <c r="H25" t="n">
-        <v>2.349954503644382</v>
+        <v>2.349954503644383</v>
       </c>
       <c r="I25" t="n">
-        <v>7.948516869177519</v>
+        <v>7.94851686917752</v>
       </c>
       <c r="J25" t="n">
-        <v>18.68670365525802</v>
+        <v>18.68670365525803</v>
       </c>
       <c r="K25" t="n">
         <v>30.70799443412595</v>
       </c>
       <c r="L25" t="n">
-        <v>39.29566048323129</v>
+        <v>39.2956604832313</v>
       </c>
       <c r="M25" t="n">
-        <v>41.43176432141109</v>
+        <v>41.4317643214111</v>
       </c>
       <c r="N25" t="n">
-        <v>40.44660957039456</v>
+        <v>40.44660957039457</v>
       </c>
       <c r="O25" t="n">
         <v>37.3589904117207</v>
       </c>
       <c r="P25" t="n">
-        <v>31.96707026225442</v>
+        <v>31.96707026225443</v>
       </c>
       <c r="Q25" t="n">
-        <v>22.13234246735009</v>
+        <v>22.1323424673501</v>
       </c>
       <c r="R25" t="n">
         <v>11.88433024031197</v>
       </c>
       <c r="S25" t="n">
-        <v>4.606199165118891</v>
+        <v>4.606199165118892</v>
       </c>
       <c r="T25" t="n">
         <v>1.129323738970203</v>
@@ -34792,10 +34792,10 @@
         <v>241.0142888776591</v>
       </c>
       <c r="O3" t="n">
+        <v>0</v>
+      </c>
+      <c r="P3" t="n">
         <v>43.28534947792182</v>
-      </c>
-      <c r="P3" t="n">
-        <v>0</v>
       </c>
       <c r="Q3" t="n">
         <v>70.09551364982758</v>
@@ -35017,13 +35017,13 @@
         <v>0</v>
       </c>
       <c r="K6" t="n">
-        <v>0</v>
+        <v>126.6237980382196</v>
       </c>
       <c r="L6" t="n">
-        <v>0</v>
+        <v>104.6525397736754</v>
       </c>
       <c r="M6" t="n">
-        <v>217.7067518141195</v>
+        <v>241.0142888776591</v>
       </c>
       <c r="N6" t="n">
         <v>241.0142888776591</v>
@@ -35032,10 +35032,10 @@
         <v>241.0142888776591</v>
       </c>
       <c r="P6" t="n">
-        <v>184.4883612256069</v>
+        <v>0</v>
       </c>
       <c r="Q6" t="n">
-        <v>70.09551364982758</v>
+        <v>0</v>
       </c>
       <c r="R6" t="n">
         <v>0</v>
@@ -35254,7 +35254,7 @@
         <v>0</v>
       </c>
       <c r="K9" t="n">
-        <v>55.51629994036225</v>
+        <v>126.6237980382196</v>
       </c>
       <c r="L9" t="n">
         <v>232.285965523585</v>
@@ -35263,7 +35263,7 @@
         <v>0</v>
       </c>
       <c r="N9" t="n">
-        <v>241.0142888776591</v>
+        <v>169.9067907798017</v>
       </c>
       <c r="O9" t="n">
         <v>241.0142888776591</v>
@@ -35488,16 +35488,16 @@
         <v>0</v>
       </c>
       <c r="J12" t="n">
-        <v>0</v>
+        <v>29.03928828696147</v>
       </c>
       <c r="K12" t="n">
-        <v>0</v>
+        <v>177.5326105223149</v>
       </c>
       <c r="L12" t="n">
         <v>300.7391464461244</v>
       </c>
       <c r="M12" t="n">
-        <v>329.125045041106</v>
+        <v>12.21399299873585</v>
       </c>
       <c r="N12" t="n">
         <v>405.7415719969023</v>
@@ -35509,7 +35509,7 @@
         <v>244.6906557616239</v>
       </c>
       <c r="Q12" t="n">
-        <v>0</v>
+        <v>110.3391532330937</v>
       </c>
       <c r="R12" t="n">
         <v>0</v>
@@ -35734,10 +35734,10 @@
         <v>300.7391464461244</v>
       </c>
       <c r="M15" t="n">
-        <v>329.1250450411059</v>
+        <v>403.4526632366293</v>
       </c>
       <c r="N15" t="n">
-        <v>405.7415719969023</v>
+        <v>331.4139538013789</v>
       </c>
       <c r="O15" t="n">
         <v>326.276269873291</v>
@@ -35974,13 +35974,13 @@
         <v>403.4526632366293</v>
       </c>
       <c r="N18" t="n">
-        <v>302.3746655144178</v>
+        <v>405.7415719969023</v>
       </c>
       <c r="O18" t="n">
         <v>326.276269873291</v>
       </c>
       <c r="P18" t="n">
-        <v>244.6906557616239</v>
+        <v>141.323749279139</v>
       </c>
       <c r="Q18" t="n">
         <v>0</v>
@@ -36120,7 +36120,7 @@
         <v>0</v>
       </c>
       <c r="J20" t="n">
-        <v>38.06115762167969</v>
+        <v>38.06115762167968</v>
       </c>
       <c r="K20" t="n">
         <v>179.0082576726433</v>
@@ -36141,7 +36141,7 @@
         <v>175.2982096635898</v>
       </c>
       <c r="Q20" t="n">
-        <v>53.63987744680307</v>
+        <v>53.63987744680306</v>
       </c>
       <c r="R20" t="n">
         <v>0</v>
@@ -36202,7 +36202,7 @@
         <v>29.03928828696147</v>
       </c>
       <c r="K21" t="n">
-        <v>177.5326105223149</v>
+        <v>0</v>
       </c>
       <c r="L21" t="n">
         <v>300.7391464461244</v>
@@ -36211,13 +36211,13 @@
         <v>403.4526632366293</v>
       </c>
       <c r="N21" t="n">
-        <v>124.8420549921024</v>
+        <v>405.7415719969023</v>
       </c>
       <c r="O21" t="n">
         <v>326.276269873291</v>
       </c>
       <c r="P21" t="n">
-        <v>244.690655761624</v>
+        <v>141.323749279139</v>
       </c>
       <c r="Q21" t="n">
         <v>0</v>
@@ -36281,7 +36281,7 @@
         <v>0</v>
       </c>
       <c r="K22" t="n">
-        <v>8.438502608243102</v>
+        <v>8.438502608243095</v>
       </c>
       <c r="L22" t="n">
         <v>66.88568574354744</v>
@@ -36293,10 +36293,10 @@
         <v>84.57878194962316</v>
       </c>
       <c r="O22" t="n">
-        <v>61.94411832576038</v>
+        <v>61.94411832576037</v>
       </c>
       <c r="P22" t="n">
-        <v>29.24562952714792</v>
+        <v>29.24562952714791</v>
       </c>
       <c r="Q22" t="n">
         <v>0</v>
@@ -36357,7 +36357,7 @@
         <v>0</v>
       </c>
       <c r="J23" t="n">
-        <v>38.06115762167968</v>
+        <v>38.06115762167969</v>
       </c>
       <c r="K23" t="n">
         <v>179.0082576726433</v>
@@ -36378,7 +36378,7 @@
         <v>175.2982096635898</v>
       </c>
       <c r="Q23" t="n">
-        <v>53.63987744680306</v>
+        <v>53.63987744680307</v>
       </c>
       <c r="R23" t="n">
         <v>0</v>
@@ -36436,16 +36436,16 @@
         <v>0</v>
       </c>
       <c r="J24" t="n">
-        <v>29.03928828696147</v>
+        <v>0</v>
       </c>
       <c r="K24" t="n">
-        <v>30.98459604604544</v>
+        <v>0</v>
       </c>
       <c r="L24" t="n">
         <v>300.7391464461244</v>
       </c>
       <c r="M24" t="n">
-        <v>403.4526632366293</v>
+        <v>329.1250450411061</v>
       </c>
       <c r="N24" t="n">
         <v>405.7415719969024</v>
@@ -36454,10 +36454,10 @@
         <v>326.276269873291</v>
       </c>
       <c r="P24" t="n">
-        <v>0</v>
+        <v>244.690655761624</v>
       </c>
       <c r="Q24" t="n">
-        <v>110.3391532330937</v>
+        <v>0</v>
       </c>
       <c r="R24" t="n">
         <v>0</v>
@@ -36518,7 +36518,7 @@
         <v>0</v>
       </c>
       <c r="K25" t="n">
-        <v>8.438502608243095</v>
+        <v>8.438502608243102</v>
       </c>
       <c r="L25" t="n">
         <v>66.88568574354744</v>
@@ -36530,10 +36530,10 @@
         <v>84.57878194962316</v>
       </c>
       <c r="O25" t="n">
-        <v>61.94411832576037</v>
+        <v>61.94411832576038</v>
       </c>
       <c r="P25" t="n">
-        <v>29.24562952714791</v>
+        <v>29.24562952714792</v>
       </c>
       <c r="Q25" t="n">
         <v>0</v>
@@ -36679,7 +36679,7 @@
         <v>0</v>
       </c>
       <c r="L27" t="n">
-        <v>300.7391464461244</v>
+        <v>197.3722399636396</v>
       </c>
       <c r="M27" t="n">
         <v>403.4526632366293</v>
@@ -36691,10 +36691,10 @@
         <v>326.276269873291</v>
       </c>
       <c r="P27" t="n">
-        <v>30.98459604604517</v>
+        <v>244.6906557616239</v>
       </c>
       <c r="Q27" t="n">
-        <v>110.3391532330937</v>
+        <v>0</v>
       </c>
       <c r="R27" t="n">
         <v>0</v>
@@ -36910,7 +36910,7 @@
         <v>0</v>
       </c>
       <c r="J30" t="n">
-        <v>29.03928828696147</v>
+        <v>0</v>
       </c>
       <c r="K30" t="n">
         <v>177.5326105223149</v>
@@ -36922,16 +36922,16 @@
         <v>403.4526632366293</v>
       </c>
       <c r="N30" t="n">
-        <v>14.50290175900885</v>
+        <v>398.5719990406883</v>
       </c>
       <c r="O30" t="n">
         <v>326.276269873291</v>
       </c>
       <c r="P30" t="n">
-        <v>244.6906557616239</v>
+        <v>0</v>
       </c>
       <c r="Q30" t="n">
-        <v>110.3391532330937</v>
+        <v>0</v>
       </c>
       <c r="R30" t="n">
         <v>0</v>
@@ -37147,19 +37147,19 @@
         <v>0</v>
       </c>
       <c r="J33" t="n">
-        <v>29.03928828696147</v>
+        <v>0</v>
       </c>
       <c r="K33" t="n">
-        <v>0</v>
+        <v>177.5326105223149</v>
       </c>
       <c r="L33" t="n">
         <v>300.7391464461244</v>
       </c>
       <c r="M33" t="n">
-        <v>403.4526632366293</v>
+        <v>41.25328128569749</v>
       </c>
       <c r="N33" t="n">
-        <v>192.0355122813238</v>
+        <v>405.7415719969024</v>
       </c>
       <c r="O33" t="n">
         <v>326.276269873291</v>
@@ -37387,13 +37387,13 @@
         <v>0</v>
       </c>
       <c r="K36" t="n">
-        <v>177.5326105223149</v>
+        <v>0</v>
       </c>
       <c r="L36" t="n">
-        <v>300.7391464461244</v>
+        <v>226.4115282506012</v>
       </c>
       <c r="M36" t="n">
-        <v>151.5924345187912</v>
+        <v>403.4526632366293</v>
       </c>
       <c r="N36" t="n">
         <v>405.7415719969023</v>
@@ -37633,13 +37633,13 @@
         <v>403.4526632366293</v>
       </c>
       <c r="N39" t="n">
-        <v>302.3746655144176</v>
+        <v>405.7415719969024</v>
       </c>
       <c r="O39" t="n">
         <v>326.276269873291</v>
       </c>
       <c r="P39" t="n">
-        <v>244.6906557616239</v>
+        <v>141.3237492791392</v>
       </c>
       <c r="Q39" t="n">
         <v>0</v>
@@ -37791,7 +37791,7 @@
         <v>322.6315268094071</v>
       </c>
       <c r="N41" t="n">
-        <v>313.0722467132387</v>
+        <v>313.0722467132388</v>
       </c>
       <c r="O41" t="n">
         <v>249.9811662707763</v>
@@ -37864,13 +37864,13 @@
         <v>0</v>
       </c>
       <c r="L42" t="n">
-        <v>87.03308673054569</v>
+        <v>300.7391464461244</v>
       </c>
       <c r="M42" t="n">
         <v>403.4526632366293</v>
       </c>
       <c r="N42" t="n">
-        <v>405.7415719969023</v>
+        <v>302.3746655144178</v>
       </c>
       <c r="O42" t="n">
         <v>326.276269873291</v>
@@ -37879,7 +37879,7 @@
         <v>244.690655761624</v>
       </c>
       <c r="Q42" t="n">
-        <v>110.3391532330937</v>
+        <v>0</v>
       </c>
       <c r="R42" t="n">
         <v>0</v>
@@ -38016,7 +38016,7 @@
         <v>0</v>
       </c>
       <c r="J44" t="n">
-        <v>38.06115762167934</v>
+        <v>38.06115762167969</v>
       </c>
       <c r="K44" t="n">
         <v>179.0082576726433</v>
@@ -38101,7 +38101,7 @@
         <v>0</v>
       </c>
       <c r="L45" t="n">
-        <v>87.03308673054569</v>
+        <v>300.7391464461244</v>
       </c>
       <c r="M45" t="n">
         <v>403.4526632366293</v>
@@ -38113,10 +38113,10 @@
         <v>326.276269873291</v>
       </c>
       <c r="P45" t="n">
-        <v>244.690655761624</v>
+        <v>141.323749279139</v>
       </c>
       <c r="Q45" t="n">
-        <v>110.3391532330937</v>
+        <v>0</v>
       </c>
       <c r="R45" t="n">
         <v>0</v>

--- a/Outputs/1. Budget/Grid Search/Output Files/250000/Output_3_25.xlsx
+++ b/Outputs/1. Budget/Grid Search/Output Files/250000/Output_3_25.xlsx
@@ -471,7 +471,7 @@
         </is>
       </c>
       <c r="B3" t="n">
-        <v>0.01</v>
+        <v>0.001</v>
       </c>
     </row>
     <row r="4">
@@ -503,7 +503,7 @@
         </is>
       </c>
       <c r="B6" t="n">
-        <v>1352924.262973493</v>
+        <v>1402817.039624491</v>
       </c>
     </row>
     <row r="7">
@@ -658,7 +658,7 @@
         </is>
       </c>
       <c r="B2" t="n">
-        <v>216.6234524382191</v>
+        <v>0</v>
       </c>
       <c r="C2" t="n">
         <v>0</v>
@@ -670,7 +670,7 @@
         <v>0</v>
       </c>
       <c r="F2" t="n">
-        <v>6.876045741711437</v>
+        <v>14.47942859368512</v>
       </c>
       <c r="G2" t="n">
         <v>15.30273751513505</v>
@@ -709,7 +709,7 @@
         <v>0</v>
       </c>
       <c r="S2" t="n">
-        <v>0</v>
+        <v>209.0200695862453</v>
       </c>
       <c r="T2" t="n">
         <v>223.0958495641314</v>
@@ -740,7 +740,7 @@
         <v>0</v>
       </c>
       <c r="C3" t="n">
-        <v>95.77809019286801</v>
+        <v>0</v>
       </c>
       <c r="D3" t="n">
         <v>0</v>
@@ -755,10 +755,10 @@
         <v>0</v>
       </c>
       <c r="H3" t="n">
-        <v>0</v>
+        <v>112.2354442364965</v>
       </c>
       <c r="I3" t="n">
-        <v>0</v>
+        <v>89.39663285141508</v>
       </c>
       <c r="J3" t="n">
         <v>0.7465913262578567</v>
@@ -785,7 +785,7 @@
         <v>0</v>
       </c>
       <c r="R3" t="n">
-        <v>0</v>
+        <v>100.1578341526431</v>
       </c>
       <c r="S3" t="n">
         <v>171.6831711038378</v>
@@ -794,19 +794,19 @@
         <v>200.1647286948216</v>
       </c>
       <c r="U3" t="n">
-        <v>225.9413820809748</v>
+        <v>0</v>
       </c>
       <c r="V3" t="n">
         <v>0</v>
       </c>
       <c r="W3" t="n">
-        <v>241.0142888776591</v>
+        <v>0</v>
       </c>
       <c r="X3" t="n">
-        <v>0</v>
+        <v>55.2611541336429</v>
       </c>
       <c r="Y3" t="n">
-        <v>0</v>
+        <v>205.6826957773044</v>
       </c>
     </row>
     <row r="4">
@@ -819,7 +819,7 @@
         <v>0</v>
       </c>
       <c r="C4" t="n">
-        <v>0</v>
+        <v>108.1960350243787</v>
       </c>
       <c r="D4" t="n">
         <v>0</v>
@@ -843,7 +843,7 @@
         <v>0</v>
       </c>
       <c r="K4" t="n">
-        <v>0</v>
+        <v>22.26949182588285</v>
       </c>
       <c r="L4" t="n">
         <v>0</v>
@@ -864,7 +864,7 @@
         <v>0</v>
       </c>
       <c r="R4" t="n">
-        <v>130.4655268502615</v>
+        <v>0</v>
       </c>
       <c r="S4" t="n">
         <v>0</v>
@@ -895,10 +895,10 @@
         </is>
       </c>
       <c r="B5" t="n">
-        <v>241.0142888776591</v>
+        <v>0</v>
       </c>
       <c r="C5" t="n">
-        <v>241.0142888776591</v>
+        <v>0</v>
       </c>
       <c r="D5" t="n">
         <v>0</v>
@@ -907,13 +907,13 @@
         <v>0</v>
       </c>
       <c r="F5" t="n">
-        <v>25.17354161800005</v>
+        <v>43.09198093152767</v>
       </c>
       <c r="G5" t="n">
         <v>15.30273751513505</v>
       </c>
       <c r="H5" t="n">
-        <v>241.0142888776591</v>
+        <v>0</v>
       </c>
       <c r="I5" t="n">
         <v>0</v>
@@ -949,13 +949,13 @@
         <v>0</v>
       </c>
       <c r="T5" t="n">
-        <v>0</v>
+        <v>223.0958495641314</v>
       </c>
       <c r="U5" t="n">
-        <v>0</v>
+        <v>241.0142888776591</v>
       </c>
       <c r="V5" t="n">
-        <v>0</v>
+        <v>241.0142888776591</v>
       </c>
       <c r="W5" t="n">
         <v>0</v>
@@ -989,10 +989,10 @@
         <v>0</v>
       </c>
       <c r="G6" t="n">
-        <v>0</v>
+        <v>35.00246782997241</v>
       </c>
       <c r="H6" t="n">
-        <v>0</v>
+        <v>112.2354442364965</v>
       </c>
       <c r="I6" t="n">
         <v>89.39663285141508</v>
@@ -1025,25 +1025,25 @@
         <v>100.1578341526431</v>
       </c>
       <c r="S6" t="n">
-        <v>0</v>
+        <v>171.6831711038378</v>
       </c>
       <c r="T6" t="n">
-        <v>0</v>
+        <v>200.1647286948216</v>
       </c>
       <c r="U6" t="n">
         <v>225.9413820809748</v>
       </c>
       <c r="V6" t="n">
-        <v>232.8005871494253</v>
+        <v>0</v>
       </c>
       <c r="W6" t="n">
         <v>0</v>
       </c>
       <c r="X6" t="n">
-        <v>205.7729852034775</v>
+        <v>0</v>
       </c>
       <c r="Y6" t="n">
-        <v>80.51223951222546</v>
+        <v>0</v>
       </c>
     </row>
     <row r="7">
@@ -1068,7 +1068,7 @@
         <v>0</v>
       </c>
       <c r="G7" t="n">
-        <v>44.30348359856715</v>
+        <v>0</v>
       </c>
       <c r="H7" t="n">
         <v>0</v>
@@ -1080,7 +1080,7 @@
         <v>0</v>
       </c>
       <c r="K7" t="n">
-        <v>0</v>
+        <v>22.26949182588285</v>
       </c>
       <c r="L7" t="n">
         <v>0</v>
@@ -1098,7 +1098,7 @@
         <v>2.721440735106512</v>
       </c>
       <c r="Q7" t="n">
-        <v>86.16204325169439</v>
+        <v>0</v>
       </c>
       <c r="R7" t="n">
         <v>0</v>
@@ -1113,7 +1113,7 @@
         <v>0</v>
       </c>
       <c r="V7" t="n">
-        <v>0</v>
+        <v>108.1960350243787</v>
       </c>
       <c r="W7" t="n">
         <v>0</v>
@@ -1147,50 +1147,50 @@
         <v>241.0142888776591</v>
       </c>
       <c r="G8" t="n">
+        <v>15.30273751513505</v>
+      </c>
+      <c r="H8" t="n">
+        <v>57.16776090941368</v>
+      </c>
+      <c r="I8" t="n">
+        <v>0</v>
+      </c>
+      <c r="J8" t="n">
+        <v>11.94928935461252</v>
+      </c>
+      <c r="K8" t="n">
+        <v>0</v>
+      </c>
+      <c r="L8" t="n">
+        <v>0</v>
+      </c>
+      <c r="M8" t="n">
+        <v>0</v>
+      </c>
+      <c r="N8" t="n">
+        <v>0</v>
+      </c>
+      <c r="O8" t="n">
+        <v>0</v>
+      </c>
+      <c r="P8" t="n">
+        <v>0</v>
+      </c>
+      <c r="Q8" t="n">
+        <v>9.990699214544804</v>
+      </c>
+      <c r="R8" t="n">
+        <v>149.8691179411497</v>
+      </c>
+      <c r="S8" t="n">
+        <v>209.0200695862453</v>
+      </c>
+      <c r="T8" t="n">
+        <v>0</v>
+      </c>
+      <c r="U8" t="n">
         <v>241.0142888776591</v>
       </c>
-      <c r="H8" t="n">
-        <v>0</v>
-      </c>
-      <c r="I8" t="n">
-        <v>0</v>
-      </c>
-      <c r="J8" t="n">
-        <v>0</v>
-      </c>
-      <c r="K8" t="n">
-        <v>0</v>
-      </c>
-      <c r="L8" t="n">
-        <v>0</v>
-      </c>
-      <c r="M8" t="n">
-        <v>0</v>
-      </c>
-      <c r="N8" t="n">
-        <v>0</v>
-      </c>
-      <c r="O8" t="n">
-        <v>0</v>
-      </c>
-      <c r="P8" t="n">
-        <v>0</v>
-      </c>
-      <c r="Q8" t="n">
-        <v>0</v>
-      </c>
-      <c r="R8" t="n">
-        <v>0</v>
-      </c>
-      <c r="S8" t="n">
-        <v>0</v>
-      </c>
-      <c r="T8" t="n">
-        <v>0</v>
-      </c>
-      <c r="U8" t="n">
-        <v>0</v>
-      </c>
       <c r="V8" t="n">
         <v>0</v>
       </c>
@@ -1198,10 +1198,10 @@
         <v>0</v>
       </c>
       <c r="X8" t="n">
-        <v>212.285385643442</v>
+        <v>0</v>
       </c>
       <c r="Y8" t="n">
-        <v>241.0142888776591</v>
+        <v>0</v>
       </c>
     </row>
     <row r="9">
@@ -1211,7 +1211,7 @@
         </is>
       </c>
       <c r="B9" t="n">
-        <v>166.5331836498673</v>
+        <v>0</v>
       </c>
       <c r="C9" t="n">
         <v>172.7084989883157</v>
@@ -1220,16 +1220,16 @@
         <v>147.4450655646388</v>
       </c>
       <c r="E9" t="n">
-        <v>0</v>
+        <v>157.6450804554009</v>
       </c>
       <c r="F9" t="n">
         <v>0</v>
       </c>
       <c r="G9" t="n">
-        <v>0</v>
+        <v>137.3435171632106</v>
       </c>
       <c r="H9" t="n">
-        <v>112.2354442364965</v>
+        <v>29.87813723235858</v>
       </c>
       <c r="I9" t="n">
         <v>89.39663285141508</v>
@@ -1265,7 +1265,7 @@
         <v>0</v>
       </c>
       <c r="T9" t="n">
-        <v>0</v>
+        <v>200.1647286948216</v>
       </c>
       <c r="U9" t="n">
         <v>0</v>
@@ -1277,10 +1277,10 @@
         <v>0</v>
       </c>
       <c r="X9" t="n">
-        <v>40.58013988212374</v>
+        <v>0</v>
       </c>
       <c r="Y9" t="n">
-        <v>205.6826957773044</v>
+        <v>0</v>
       </c>
     </row>
     <row r="10">
@@ -1314,7 +1314,7 @@
         <v>0</v>
       </c>
       <c r="J10" t="n">
-        <v>0</v>
+        <v>93.35918011667277</v>
       </c>
       <c r="K10" t="n">
         <v>22.26949182588285</v>
@@ -1335,10 +1335,10 @@
         <v>2.721440735106512</v>
       </c>
       <c r="Q10" t="n">
-        <v>86.16204325169439</v>
+        <v>14.83685490770591</v>
       </c>
       <c r="R10" t="n">
-        <v>22.0339917726843</v>
+        <v>0</v>
       </c>
       <c r="S10" t="n">
         <v>0</v>
@@ -1369,10 +1369,10 @@
         </is>
       </c>
       <c r="B11" t="n">
-        <v>382.7338416634806</v>
+        <v>0</v>
       </c>
       <c r="C11" t="n">
-        <v>0</v>
+        <v>365.2728917710076</v>
       </c>
       <c r="D11" t="n">
         <v>0</v>
@@ -1417,28 +1417,28 @@
         <v>0</v>
       </c>
       <c r="R11" t="n">
-        <v>0</v>
+        <v>112.8556863456974</v>
       </c>
       <c r="S11" t="n">
         <v>195.5929138346465</v>
       </c>
       <c r="T11" t="n">
-        <v>220.5164804230398</v>
+        <v>0</v>
       </c>
       <c r="U11" t="n">
-        <v>7.590347956096195</v>
+        <v>251.2985142370684</v>
       </c>
       <c r="V11" t="n">
         <v>0</v>
       </c>
       <c r="W11" t="n">
-        <v>0</v>
+        <v>267.6515163448964</v>
       </c>
       <c r="X11" t="n">
         <v>0</v>
       </c>
       <c r="Y11" t="n">
-        <v>386.2379386560536</v>
+        <v>0</v>
       </c>
     </row>
     <row r="12">
@@ -1451,25 +1451,25 @@
         <v>0</v>
       </c>
       <c r="C12" t="n">
-        <v>172.7084989883157</v>
+        <v>89.26542836574254</v>
       </c>
       <c r="D12" t="n">
-        <v>0</v>
+        <v>147.4450655646388</v>
       </c>
       <c r="E12" t="n">
-        <v>0</v>
+        <v>157.6450804554009</v>
       </c>
       <c r="F12" t="n">
-        <v>0</v>
+        <v>145.0692123933839</v>
       </c>
       <c r="G12" t="n">
-        <v>0</v>
+        <v>137.0282495084215</v>
       </c>
       <c r="H12" t="n">
-        <v>0</v>
+        <v>109.1906224126114</v>
       </c>
       <c r="I12" t="n">
-        <v>0</v>
+        <v>78.54202280713804</v>
       </c>
       <c r="J12" t="n">
         <v>0</v>
@@ -1499,10 +1499,10 @@
         <v>0</v>
       </c>
       <c r="S12" t="n">
-        <v>81.12752273267807</v>
+        <v>0</v>
       </c>
       <c r="T12" t="n">
-        <v>198.8939788055617</v>
+        <v>0</v>
       </c>
       <c r="U12" t="n">
         <v>225.9206407878966</v>
@@ -1514,10 +1514,10 @@
         <v>251.6949831609196</v>
       </c>
       <c r="X12" t="n">
-        <v>205.7729852034775</v>
+        <v>0</v>
       </c>
       <c r="Y12" t="n">
-        <v>205.6826957773044</v>
+        <v>0</v>
       </c>
     </row>
     <row r="13">
@@ -1539,7 +1539,7 @@
         <v>0</v>
       </c>
       <c r="F13" t="n">
-        <v>0</v>
+        <v>38.97640474817491</v>
       </c>
       <c r="G13" t="n">
         <v>0</v>
@@ -1581,7 +1581,7 @@
         <v>0</v>
       </c>
       <c r="T13" t="n">
-        <v>38.97640474817497</v>
+        <v>0</v>
       </c>
       <c r="U13" t="n">
         <v>0</v>
@@ -1615,13 +1615,13 @@
         <v>0</v>
       </c>
       <c r="E14" t="n">
-        <v>381.9303700722618</v>
+        <v>0</v>
       </c>
       <c r="F14" t="n">
-        <v>405.7415719969023</v>
+        <v>0</v>
       </c>
       <c r="G14" t="n">
-        <v>405.7415719969023</v>
+        <v>405.7415719969024</v>
       </c>
       <c r="H14" t="n">
         <v>0</v>
@@ -1654,22 +1654,22 @@
         <v>0</v>
       </c>
       <c r="R14" t="n">
-        <v>0</v>
+        <v>112.8556863456974</v>
       </c>
       <c r="S14" t="n">
-        <v>0</v>
+        <v>195.5929138346465</v>
       </c>
       <c r="T14" t="n">
         <v>0</v>
       </c>
       <c r="U14" t="n">
-        <v>0</v>
+        <v>183.4184932407841</v>
       </c>
       <c r="V14" t="n">
         <v>327.7522584701349</v>
       </c>
       <c r="W14" t="n">
-        <v>53.43612006937676</v>
+        <v>349.240968717413</v>
       </c>
       <c r="X14" t="n">
         <v>0</v>
@@ -1685,13 +1685,13 @@
         </is>
       </c>
       <c r="B15" t="n">
-        <v>166.5331836498673</v>
+        <v>0</v>
       </c>
       <c r="C15" t="n">
-        <v>0</v>
+        <v>172.7084989883157</v>
       </c>
       <c r="D15" t="n">
-        <v>147.4450655646388</v>
+        <v>0</v>
       </c>
       <c r="E15" t="n">
         <v>0</v>
@@ -1733,13 +1733,13 @@
         <v>0</v>
       </c>
       <c r="R15" t="n">
-        <v>0</v>
+        <v>80.58358449827551</v>
       </c>
       <c r="S15" t="n">
         <v>165.8272126914158</v>
       </c>
       <c r="T15" t="n">
-        <v>100.1555010169726</v>
+        <v>198.8939788055617</v>
       </c>
       <c r="U15" t="n">
         <v>225.9206407878966</v>
@@ -1748,10 +1748,10 @@
         <v>232.8005871494253</v>
       </c>
       <c r="W15" t="n">
-        <v>251.6949831609196</v>
+        <v>7.869685896768042</v>
       </c>
       <c r="X15" t="n">
-        <v>0</v>
+        <v>205.7729852034775</v>
       </c>
       <c r="Y15" t="n">
         <v>205.6826957773044</v>
@@ -1785,7 +1785,7 @@
         <v>0</v>
       </c>
       <c r="I16" t="n">
-        <v>73.36175976093797</v>
+        <v>0</v>
       </c>
       <c r="J16" t="n">
         <v>0</v>
@@ -1812,7 +1812,7 @@
         <v>0</v>
       </c>
       <c r="R16" t="n">
-        <v>0</v>
+        <v>73.36175976093789</v>
       </c>
       <c r="S16" t="n">
         <v>0</v>
@@ -1846,22 +1846,22 @@
         <v>0</v>
       </c>
       <c r="C17" t="n">
-        <v>0</v>
+        <v>18.13463141221182</v>
       </c>
       <c r="D17" t="n">
         <v>0</v>
       </c>
       <c r="E17" t="n">
-        <v>0</v>
+        <v>381.9303700722618</v>
       </c>
       <c r="F17" t="n">
         <v>0</v>
       </c>
       <c r="G17" t="n">
-        <v>405.7415719969023</v>
+        <v>0</v>
       </c>
       <c r="H17" t="n">
-        <v>333.4403157157206</v>
+        <v>0</v>
       </c>
       <c r="I17" t="n">
         <v>187.7594695105699</v>
@@ -1900,7 +1900,7 @@
         <v>0</v>
       </c>
       <c r="U17" t="n">
-        <v>0</v>
+        <v>251.2985142370684</v>
       </c>
       <c r="V17" t="n">
         <v>0</v>
@@ -1909,10 +1909,10 @@
         <v>349.240968717413</v>
       </c>
       <c r="X17" t="n">
-        <v>298.4195666649726</v>
+        <v>0</v>
       </c>
       <c r="Y17" t="n">
-        <v>0</v>
+        <v>386.2379386560536</v>
       </c>
     </row>
     <row r="18">
@@ -1925,19 +1925,19 @@
         <v>0</v>
       </c>
       <c r="C18" t="n">
-        <v>7.42522453130207</v>
+        <v>0</v>
       </c>
       <c r="D18" t="n">
-        <v>0</v>
+        <v>147.4450655646388</v>
       </c>
       <c r="E18" t="n">
-        <v>0</v>
+        <v>157.6450804554009</v>
       </c>
       <c r="F18" t="n">
         <v>0</v>
       </c>
       <c r="G18" t="n">
-        <v>0</v>
+        <v>137.0282495084215</v>
       </c>
       <c r="H18" t="n">
         <v>0</v>
@@ -1973,7 +1973,7 @@
         <v>80.58358449827551</v>
       </c>
       <c r="S18" t="n">
-        <v>165.8272126914158</v>
+        <v>0</v>
       </c>
       <c r="T18" t="n">
         <v>198.8939788055617</v>
@@ -1988,10 +1988,10 @@
         <v>251.6949831609196</v>
       </c>
       <c r="X18" t="n">
-        <v>205.7729852034775</v>
+        <v>0</v>
       </c>
       <c r="Y18" t="n">
-        <v>205.6826957773044</v>
+        <v>142.5897226750389</v>
       </c>
     </row>
     <row r="19">
@@ -2001,7 +2001,7 @@
         </is>
       </c>
       <c r="B19" t="n">
-        <v>0</v>
+        <v>179.8319801819373</v>
       </c>
       <c r="C19" t="n">
         <v>0</v>
@@ -2016,7 +2016,7 @@
         <v>0</v>
       </c>
       <c r="G19" t="n">
-        <v>39.19479062707046</v>
+        <v>145.6674229028286</v>
       </c>
       <c r="H19" t="n">
         <v>0</v>
@@ -2058,7 +2058,7 @@
         <v>0</v>
       </c>
       <c r="U19" t="n">
-        <v>286.3046124576955</v>
+        <v>0</v>
       </c>
       <c r="V19" t="n">
         <v>0</v>
@@ -2086,22 +2086,22 @@
         <v>0</v>
       </c>
       <c r="D20" t="n">
-        <v>0</v>
+        <v>354.683041620683</v>
       </c>
       <c r="E20" t="n">
         <v>0</v>
       </c>
       <c r="F20" t="n">
-        <v>405.7415719969023</v>
+        <v>0</v>
       </c>
       <c r="G20" t="n">
-        <v>405.7415719969023</v>
+        <v>405.7415719969024</v>
       </c>
       <c r="H20" t="n">
-        <v>333.4403157157206</v>
+        <v>277.1768407600105</v>
       </c>
       <c r="I20" t="n">
-        <v>0</v>
+        <v>187.7594695105699</v>
       </c>
       <c r="J20" t="n">
         <v>0</v>
@@ -2134,7 +2134,7 @@
         <v>0</v>
       </c>
       <c r="T20" t="n">
-        <v>43.44049423999956</v>
+        <v>0</v>
       </c>
       <c r="U20" t="n">
         <v>0</v>
@@ -2143,13 +2143,13 @@
         <v>0</v>
       </c>
       <c r="W20" t="n">
-        <v>0</v>
+        <v>349.240968717413</v>
       </c>
       <c r="X20" t="n">
         <v>0</v>
       </c>
       <c r="Y20" t="n">
-        <v>386.2379386560536</v>
+        <v>0</v>
       </c>
     </row>
     <row r="21">
@@ -2171,10 +2171,10 @@
         <v>0</v>
       </c>
       <c r="F21" t="n">
-        <v>0</v>
+        <v>145.0692123933839</v>
       </c>
       <c r="G21" t="n">
-        <v>137.0282495084215</v>
+        <v>0</v>
       </c>
       <c r="H21" t="n">
         <v>0</v>
@@ -2210,10 +2210,10 @@
         <v>0</v>
       </c>
       <c r="S21" t="n">
-        <v>149.8722584277341</v>
+        <v>165.8272126914158</v>
       </c>
       <c r="T21" t="n">
-        <v>198.8939788055617</v>
+        <v>174.8077722307444</v>
       </c>
       <c r="U21" t="n">
         <v>225.9206407878966</v>
@@ -2225,10 +2225,10 @@
         <v>251.6949831609196</v>
       </c>
       <c r="X21" t="n">
-        <v>0</v>
+        <v>205.7729852034775</v>
       </c>
       <c r="Y21" t="n">
-        <v>205.6826957773044</v>
+        <v>0</v>
       </c>
     </row>
     <row r="22">
@@ -2238,7 +2238,7 @@
         </is>
       </c>
       <c r="B22" t="n">
-        <v>179.0654404381968</v>
+        <v>0</v>
       </c>
       <c r="C22" t="n">
         <v>0</v>
@@ -2247,7 +2247,7 @@
         <v>0</v>
       </c>
       <c r="E22" t="n">
-        <v>146.4339626465692</v>
+        <v>0</v>
       </c>
       <c r="F22" t="n">
         <v>0</v>
@@ -2292,7 +2292,7 @@
         <v>0</v>
       </c>
       <c r="T22" t="n">
-        <v>0</v>
+        <v>226.8162656893113</v>
       </c>
       <c r="U22" t="n">
         <v>0</v>
@@ -2301,7 +2301,7 @@
         <v>0</v>
       </c>
       <c r="W22" t="n">
-        <v>0</v>
+        <v>98.68313739545468</v>
       </c>
       <c r="X22" t="n">
         <v>0</v>
@@ -2317,10 +2317,10 @@
         </is>
       </c>
       <c r="B23" t="n">
-        <v>0</v>
+        <v>382.7338416634806</v>
       </c>
       <c r="C23" t="n">
-        <v>95.71084011701895</v>
+        <v>0</v>
       </c>
       <c r="D23" t="n">
         <v>0</v>
@@ -2329,10 +2329,10 @@
         <v>0</v>
       </c>
       <c r="F23" t="n">
-        <v>405.7415719969024</v>
+        <v>405.7415719969023</v>
       </c>
       <c r="G23" t="n">
-        <v>405.7415719969024</v>
+        <v>0</v>
       </c>
       <c r="H23" t="n">
         <v>0</v>
@@ -2368,25 +2368,25 @@
         <v>0</v>
       </c>
       <c r="S23" t="n">
-        <v>195.5929138346465</v>
+        <v>0</v>
       </c>
       <c r="T23" t="n">
-        <v>220.5164804230398</v>
+        <v>0</v>
       </c>
       <c r="U23" t="n">
-        <v>251.2985142370684</v>
+        <v>0</v>
       </c>
       <c r="V23" t="n">
         <v>0</v>
       </c>
       <c r="W23" t="n">
-        <v>0</v>
+        <v>349.240968717413</v>
       </c>
       <c r="X23" t="n">
-        <v>0</v>
+        <v>50.64757157172897</v>
       </c>
       <c r="Y23" t="n">
-        <v>0</v>
+        <v>386.2379386560536</v>
       </c>
     </row>
     <row r="24">
@@ -2399,25 +2399,25 @@
         <v>0</v>
       </c>
       <c r="C24" t="n">
-        <v>172.7084989883157</v>
+        <v>0</v>
       </c>
       <c r="D24" t="n">
         <v>0</v>
       </c>
       <c r="E24" t="n">
-        <v>0.5439382344026726</v>
+        <v>0</v>
       </c>
       <c r="F24" t="n">
-        <v>0</v>
+        <v>127.9691057983845</v>
       </c>
       <c r="G24" t="n">
-        <v>0</v>
+        <v>137.0282495084215</v>
       </c>
       <c r="H24" t="n">
-        <v>0</v>
+        <v>109.1906224126114</v>
       </c>
       <c r="I24" t="n">
-        <v>0</v>
+        <v>78.54202280713804</v>
       </c>
       <c r="J24" t="n">
         <v>0</v>
@@ -2444,13 +2444,13 @@
         <v>0</v>
       </c>
       <c r="R24" t="n">
-        <v>80.58358449827551</v>
+        <v>0</v>
       </c>
       <c r="S24" t="n">
         <v>0</v>
       </c>
       <c r="T24" t="n">
-        <v>198.8939788055617</v>
+        <v>0</v>
       </c>
       <c r="U24" t="n">
         <v>225.9206407878966</v>
@@ -2532,13 +2532,13 @@
         <v>0</v>
       </c>
       <c r="U25" t="n">
-        <v>38.97640474817497</v>
+        <v>73.36175976093794</v>
       </c>
       <c r="V25" t="n">
-        <v>0</v>
+        <v>252.137643323828</v>
       </c>
       <c r="W25" t="n">
-        <v>286.522998336591</v>
+        <v>0</v>
       </c>
       <c r="X25" t="n">
         <v>0</v>
@@ -2554,25 +2554,25 @@
         </is>
       </c>
       <c r="B26" t="n">
-        <v>382.7338416634806</v>
+        <v>0</v>
       </c>
       <c r="C26" t="n">
         <v>0</v>
       </c>
       <c r="D26" t="n">
-        <v>354.683041620683</v>
+        <v>0</v>
       </c>
       <c r="E26" t="n">
-        <v>0</v>
+        <v>381.9303700722618</v>
       </c>
       <c r="F26" t="n">
-        <v>405.7415719969023</v>
+        <v>0</v>
       </c>
       <c r="G26" t="n">
         <v>0</v>
       </c>
       <c r="H26" t="n">
-        <v>82.20246860709963</v>
+        <v>0</v>
       </c>
       <c r="I26" t="n">
         <v>0</v>
@@ -2608,22 +2608,22 @@
         <v>0</v>
       </c>
       <c r="T26" t="n">
-        <v>0</v>
+        <v>220.5164804230398</v>
       </c>
       <c r="U26" t="n">
-        <v>0</v>
+        <v>251.2985142370684</v>
       </c>
       <c r="V26" t="n">
         <v>0</v>
       </c>
       <c r="W26" t="n">
-        <v>349.240968717413</v>
+        <v>0</v>
       </c>
       <c r="X26" t="n">
-        <v>0</v>
+        <v>369.731100678469</v>
       </c>
       <c r="Y26" t="n">
-        <v>0</v>
+        <v>351.1254271947392</v>
       </c>
     </row>
     <row r="27">
@@ -2633,28 +2633,28 @@
         </is>
       </c>
       <c r="B27" t="n">
-        <v>166.5331836498673</v>
+        <v>0</v>
       </c>
       <c r="C27" t="n">
-        <v>0</v>
+        <v>172.7084989883157</v>
       </c>
       <c r="D27" t="n">
-        <v>147.4450655646388</v>
+        <v>0</v>
       </c>
       <c r="E27" t="n">
-        <v>157.6450804554009</v>
+        <v>0</v>
       </c>
       <c r="F27" t="n">
-        <v>145.0692123933839</v>
+        <v>0</v>
       </c>
       <c r="G27" t="n">
         <v>0</v>
       </c>
       <c r="H27" t="n">
-        <v>109.1906224126114</v>
+        <v>0.5439382344022294</v>
       </c>
       <c r="I27" t="n">
-        <v>78.54202280713804</v>
+        <v>0</v>
       </c>
       <c r="J27" t="n">
         <v>0</v>
@@ -2681,13 +2681,13 @@
         <v>0</v>
       </c>
       <c r="R27" t="n">
-        <v>0</v>
+        <v>80.58358449827551</v>
       </c>
       <c r="S27" t="n">
         <v>0</v>
       </c>
       <c r="T27" t="n">
-        <v>59.7604942242966</v>
+        <v>198.8939788055617</v>
       </c>
       <c r="U27" t="n">
         <v>225.9206407878966</v>
@@ -2699,10 +2699,10 @@
         <v>251.6949831609196</v>
       </c>
       <c r="X27" t="n">
-        <v>0</v>
+        <v>205.7729852034775</v>
       </c>
       <c r="Y27" t="n">
-        <v>0</v>
+        <v>205.6826957773044</v>
       </c>
     </row>
     <row r="28">
@@ -2718,13 +2718,13 @@
         <v>0</v>
       </c>
       <c r="D28" t="n">
-        <v>33.64439241526557</v>
+        <v>0</v>
       </c>
       <c r="E28" t="n">
-        <v>146.4339626465692</v>
+        <v>0</v>
       </c>
       <c r="F28" t="n">
-        <v>145.4210480229312</v>
+        <v>0</v>
       </c>
       <c r="G28" t="n">
         <v>0</v>
@@ -2769,10 +2769,10 @@
         <v>0</v>
       </c>
       <c r="U28" t="n">
-        <v>0</v>
+        <v>286.3046124576955</v>
       </c>
       <c r="V28" t="n">
-        <v>0</v>
+        <v>39.19479062707047</v>
       </c>
       <c r="W28" t="n">
         <v>0</v>
@@ -2803,7 +2803,7 @@
         <v>381.9303700722618</v>
       </c>
       <c r="F29" t="n">
-        <v>0</v>
+        <v>405.7415719969024</v>
       </c>
       <c r="G29" t="n">
         <v>0</v>
@@ -2839,10 +2839,10 @@
         <v>0</v>
       </c>
       <c r="R29" t="n">
-        <v>0</v>
+        <v>112.8556863456974</v>
       </c>
       <c r="S29" t="n">
-        <v>195.5929138346465</v>
+        <v>0</v>
       </c>
       <c r="T29" t="n">
         <v>220.5164804230398</v>
@@ -2857,10 +2857,10 @@
         <v>0</v>
       </c>
       <c r="X29" t="n">
-        <v>7.59034795609642</v>
+        <v>0</v>
       </c>
       <c r="Y29" t="n">
-        <v>386.2379386560536</v>
+        <v>70.82394210419669</v>
       </c>
     </row>
     <row r="30">
@@ -2870,13 +2870,13 @@
         </is>
       </c>
       <c r="B30" t="n">
-        <v>166.5331836498673</v>
+        <v>0</v>
       </c>
       <c r="C30" t="n">
         <v>0</v>
       </c>
       <c r="D30" t="n">
-        <v>0</v>
+        <v>147.4450655646388</v>
       </c>
       <c r="E30" t="n">
         <v>157.6450804554009</v>
@@ -2921,13 +2921,13 @@
         <v>0</v>
       </c>
       <c r="S30" t="n">
-        <v>165.8272126914158</v>
+        <v>0</v>
       </c>
       <c r="T30" t="n">
-        <v>188.645164517768</v>
+        <v>147.639854506516</v>
       </c>
       <c r="U30" t="n">
-        <v>0</v>
+        <v>225.9206407878966</v>
       </c>
       <c r="V30" t="n">
         <v>232.8005871494253</v>
@@ -2955,13 +2955,13 @@
         <v>0</v>
       </c>
       <c r="D31" t="n">
-        <v>148.6154730182124</v>
+        <v>0</v>
       </c>
       <c r="E31" t="n">
-        <v>146.4339626465692</v>
+        <v>0</v>
       </c>
       <c r="F31" t="n">
-        <v>30.44996741998441</v>
+        <v>0</v>
       </c>
       <c r="G31" t="n">
         <v>0</v>
@@ -3003,10 +3003,10 @@
         <v>0</v>
       </c>
       <c r="T31" t="n">
-        <v>0</v>
+        <v>226.8162656893113</v>
       </c>
       <c r="U31" t="n">
-        <v>0</v>
+        <v>98.68313739545468</v>
       </c>
       <c r="V31" t="n">
         <v>0</v>
@@ -3028,22 +3028,22 @@
         </is>
       </c>
       <c r="B32" t="n">
-        <v>382.7338416634806</v>
+        <v>0</v>
       </c>
       <c r="C32" t="n">
-        <v>365.2728917710076</v>
+        <v>0</v>
       </c>
       <c r="D32" t="n">
-        <v>0</v>
+        <v>354.683041620683</v>
       </c>
       <c r="E32" t="n">
-        <v>0</v>
+        <v>381.9303700722618</v>
       </c>
       <c r="F32" t="n">
         <v>0</v>
       </c>
       <c r="G32" t="n">
-        <v>0</v>
+        <v>405.7415719969024</v>
       </c>
       <c r="H32" t="n">
         <v>0</v>
@@ -3079,13 +3079,13 @@
         <v>0</v>
       </c>
       <c r="S32" t="n">
-        <v>0</v>
+        <v>195.5929138346465</v>
       </c>
       <c r="T32" t="n">
-        <v>0</v>
+        <v>220.5164804230398</v>
       </c>
       <c r="U32" t="n">
-        <v>70.62611983656795</v>
+        <v>0</v>
       </c>
       <c r="V32" t="n">
         <v>0</v>
@@ -3094,10 +3094,10 @@
         <v>0</v>
       </c>
       <c r="X32" t="n">
-        <v>369.731100678469</v>
+        <v>16.13751465804523</v>
       </c>
       <c r="Y32" t="n">
-        <v>386.2379386560536</v>
+        <v>0</v>
       </c>
     </row>
     <row r="33">
@@ -3107,13 +3107,13 @@
         </is>
       </c>
       <c r="B33" t="n">
-        <v>0</v>
+        <v>166.5331836498673</v>
       </c>
       <c r="C33" t="n">
-        <v>172.7084989883157</v>
+        <v>0</v>
       </c>
       <c r="D33" t="n">
-        <v>0</v>
+        <v>147.4450655646388</v>
       </c>
       <c r="E33" t="n">
         <v>157.6450804554009</v>
@@ -3122,13 +3122,13 @@
         <v>145.0692123933839</v>
       </c>
       <c r="G33" t="n">
-        <v>137.0282495084215</v>
+        <v>0</v>
       </c>
       <c r="H33" t="n">
         <v>0</v>
       </c>
       <c r="I33" t="n">
-        <v>78.54202280713804</v>
+        <v>0</v>
       </c>
       <c r="J33" t="n">
         <v>0</v>
@@ -3161,10 +3161,10 @@
         <v>165.8272126914158</v>
       </c>
       <c r="T33" t="n">
-        <v>27.51306024768049</v>
+        <v>81.66592675263077</v>
       </c>
       <c r="U33" t="n">
-        <v>0</v>
+        <v>225.9206407878966</v>
       </c>
       <c r="V33" t="n">
         <v>232.8005871494253</v>
@@ -3173,7 +3173,7 @@
         <v>251.6949831609196</v>
       </c>
       <c r="X33" t="n">
-        <v>205.7729852034775</v>
+        <v>0</v>
       </c>
       <c r="Y33" t="n">
         <v>0</v>
@@ -3186,19 +3186,19 @@
         </is>
       </c>
       <c r="B34" t="n">
-        <v>0</v>
+        <v>176.8839300665536</v>
       </c>
       <c r="C34" t="n">
-        <v>33.64439241526551</v>
+        <v>0</v>
       </c>
       <c r="D34" t="n">
-        <v>0</v>
+        <v>148.6154730182124</v>
       </c>
       <c r="E34" t="n">
-        <v>146.4339626465692</v>
+        <v>0</v>
       </c>
       <c r="F34" t="n">
-        <v>145.4210480229312</v>
+        <v>0</v>
       </c>
       <c r="G34" t="n">
         <v>0</v>
@@ -3268,16 +3268,16 @@
         <v>382.7338416634806</v>
       </c>
       <c r="C35" t="n">
-        <v>0</v>
+        <v>204.2956264544955</v>
       </c>
       <c r="D35" t="n">
         <v>0</v>
       </c>
       <c r="E35" t="n">
-        <v>381.9303700722618</v>
+        <v>0</v>
       </c>
       <c r="F35" t="n">
-        <v>53.96864153531357</v>
+        <v>405.7415719969023</v>
       </c>
       <c r="G35" t="n">
         <v>0</v>
@@ -3316,7 +3316,7 @@
         <v>0</v>
       </c>
       <c r="S35" t="n">
-        <v>0</v>
+        <v>195.5929138346465</v>
       </c>
       <c r="T35" t="n">
         <v>0</v>
@@ -3331,7 +3331,7 @@
         <v>0</v>
       </c>
       <c r="X35" t="n">
-        <v>369.731100678469</v>
+        <v>0</v>
       </c>
       <c r="Y35" t="n">
         <v>386.2379386560536</v>
@@ -3344,25 +3344,25 @@
         </is>
       </c>
       <c r="B36" t="n">
-        <v>25.80737165807945</v>
+        <v>166.5331836498673</v>
       </c>
       <c r="C36" t="n">
         <v>0</v>
       </c>
       <c r="D36" t="n">
-        <v>147.4450655646388</v>
+        <v>0</v>
       </c>
       <c r="E36" t="n">
         <v>0</v>
       </c>
       <c r="F36" t="n">
-        <v>0</v>
+        <v>145.0692123933839</v>
       </c>
       <c r="G36" t="n">
-        <v>0</v>
+        <v>137.0282495084215</v>
       </c>
       <c r="H36" t="n">
-        <v>0</v>
+        <v>71.07178946927931</v>
       </c>
       <c r="I36" t="n">
         <v>0</v>
@@ -3392,16 +3392,16 @@
         <v>0</v>
       </c>
       <c r="R36" t="n">
-        <v>80.58358449827551</v>
+        <v>0</v>
       </c>
       <c r="S36" t="n">
-        <v>0</v>
+        <v>165.8272126914158</v>
       </c>
       <c r="T36" t="n">
         <v>198.8939788055617</v>
       </c>
       <c r="U36" t="n">
-        <v>225.9206407878966</v>
+        <v>0</v>
       </c>
       <c r="V36" t="n">
         <v>232.8005871494253</v>
@@ -3410,7 +3410,7 @@
         <v>251.6949831609196</v>
       </c>
       <c r="X36" t="n">
-        <v>205.7729852034775</v>
+        <v>0</v>
       </c>
       <c r="Y36" t="n">
         <v>205.6826957773044</v>
@@ -3438,7 +3438,7 @@
         <v>0</v>
       </c>
       <c r="G37" t="n">
-        <v>98.68313739545468</v>
+        <v>0</v>
       </c>
       <c r="H37" t="n">
         <v>0</v>
@@ -3477,7 +3477,7 @@
         <v>0</v>
       </c>
       <c r="T37" t="n">
-        <v>226.8162656893113</v>
+        <v>0</v>
       </c>
       <c r="U37" t="n">
         <v>0</v>
@@ -3489,10 +3489,10 @@
         <v>0</v>
       </c>
       <c r="X37" t="n">
-        <v>0</v>
+        <v>106.9147497326711</v>
       </c>
       <c r="Y37" t="n">
-        <v>0</v>
+        <v>218.5846533520948</v>
       </c>
     </row>
     <row r="38">
@@ -3511,13 +3511,13 @@
         <v>0</v>
       </c>
       <c r="E38" t="n">
-        <v>381.9303700722618</v>
+        <v>0</v>
       </c>
       <c r="F38" t="n">
-        <v>0</v>
+        <v>405.7415719969024</v>
       </c>
       <c r="G38" t="n">
-        <v>405.7415719969024</v>
+        <v>0</v>
       </c>
       <c r="H38" t="n">
         <v>0</v>
@@ -3550,25 +3550,25 @@
         <v>0</v>
       </c>
       <c r="R38" t="n">
-        <v>0</v>
+        <v>112.8556863456974</v>
       </c>
       <c r="S38" t="n">
         <v>195.5929138346465</v>
       </c>
       <c r="T38" t="n">
-        <v>220.5164804230398</v>
+        <v>0</v>
       </c>
       <c r="U38" t="n">
         <v>0</v>
       </c>
       <c r="V38" t="n">
-        <v>0</v>
+        <v>141.4396510324501</v>
       </c>
       <c r="W38" t="n">
         <v>349.240968717413</v>
       </c>
       <c r="X38" t="n">
-        <v>21.57958756131522</v>
+        <v>369.731100678469</v>
       </c>
       <c r="Y38" t="n">
         <v>0</v>
@@ -3581,13 +3581,13 @@
         </is>
       </c>
       <c r="B39" t="n">
-        <v>0</v>
+        <v>166.5331836498673</v>
       </c>
       <c r="C39" t="n">
         <v>0</v>
       </c>
       <c r="D39" t="n">
-        <v>0</v>
+        <v>147.4450655646388</v>
       </c>
       <c r="E39" t="n">
         <v>0</v>
@@ -3596,10 +3596,10 @@
         <v>0</v>
       </c>
       <c r="G39" t="n">
-        <v>137.0282495084215</v>
+        <v>0</v>
       </c>
       <c r="H39" t="n">
-        <v>76.0796708001852</v>
+        <v>0</v>
       </c>
       <c r="I39" t="n">
         <v>0</v>
@@ -3635,7 +3635,7 @@
         <v>165.8272126914158</v>
       </c>
       <c r="T39" t="n">
-        <v>198.8939788055617</v>
+        <v>98.02364989966247</v>
       </c>
       <c r="U39" t="n">
         <v>225.9206407878966</v>
@@ -3669,7 +3669,7 @@
         <v>0</v>
       </c>
       <c r="E40" t="n">
-        <v>0</v>
+        <v>98.68313739545468</v>
       </c>
       <c r="F40" t="n">
         <v>0</v>
@@ -3714,7 +3714,7 @@
         <v>0</v>
       </c>
       <c r="T40" t="n">
-        <v>0</v>
+        <v>226.8162656893113</v>
       </c>
       <c r="U40" t="n">
         <v>0</v>
@@ -3723,13 +3723,13 @@
         <v>0</v>
       </c>
       <c r="W40" t="n">
-        <v>286.522998336591</v>
+        <v>0</v>
       </c>
       <c r="X40" t="n">
         <v>0</v>
       </c>
       <c r="Y40" t="n">
-        <v>38.97640474817496</v>
+        <v>0</v>
       </c>
     </row>
     <row r="41">
@@ -3745,16 +3745,16 @@
         <v>0</v>
       </c>
       <c r="D41" t="n">
-        <v>256.4373811327358</v>
+        <v>0</v>
       </c>
       <c r="E41" t="n">
-        <v>0</v>
+        <v>381.9303700722618</v>
       </c>
       <c r="F41" t="n">
-        <v>0</v>
+        <v>405.7415719969023</v>
       </c>
       <c r="G41" t="n">
-        <v>405.7415719969024</v>
+        <v>405.7415719969023</v>
       </c>
       <c r="H41" t="n">
         <v>0</v>
@@ -3793,13 +3793,13 @@
         <v>0</v>
       </c>
       <c r="T41" t="n">
-        <v>220.5164804230398</v>
+        <v>0</v>
       </c>
       <c r="U41" t="n">
-        <v>251.2985142370684</v>
+        <v>0</v>
       </c>
       <c r="V41" t="n">
-        <v>327.7522584701349</v>
+        <v>268.3326921938147</v>
       </c>
       <c r="W41" t="n">
         <v>0</v>
@@ -3818,7 +3818,7 @@
         </is>
       </c>
       <c r="B42" t="n">
-        <v>166.5331836498673</v>
+        <v>0</v>
       </c>
       <c r="C42" t="n">
         <v>172.7084989883157</v>
@@ -3827,7 +3827,7 @@
         <v>0</v>
       </c>
       <c r="E42" t="n">
-        <v>0</v>
+        <v>157.6450804554009</v>
       </c>
       <c r="F42" t="n">
         <v>145.0692123933839</v>
@@ -3836,7 +3836,7 @@
         <v>0</v>
       </c>
       <c r="H42" t="n">
-        <v>0</v>
+        <v>109.1906224126114</v>
       </c>
       <c r="I42" t="n">
         <v>0</v>
@@ -3866,7 +3866,7 @@
         <v>0</v>
       </c>
       <c r="R42" t="n">
-        <v>80.58358449827551</v>
+        <v>0</v>
       </c>
       <c r="S42" t="n">
         <v>165.8272126914158</v>
@@ -3875,19 +3875,19 @@
         <v>198.8939788055617</v>
       </c>
       <c r="U42" t="n">
-        <v>160.490651268414</v>
+        <v>0</v>
       </c>
       <c r="V42" t="n">
-        <v>232.8005871494253</v>
+        <v>0</v>
       </c>
       <c r="W42" t="n">
         <v>251.6949831609196</v>
       </c>
       <c r="X42" t="n">
-        <v>0</v>
+        <v>167.8896079206653</v>
       </c>
       <c r="Y42" t="n">
-        <v>0</v>
+        <v>205.6826957773044</v>
       </c>
     </row>
     <row r="43">
@@ -3909,7 +3909,7 @@
         <v>0</v>
       </c>
       <c r="F43" t="n">
-        <v>145.4210480229312</v>
+        <v>0</v>
       </c>
       <c r="G43" t="n">
         <v>0</v>
@@ -3945,7 +3945,7 @@
         <v>0</v>
       </c>
       <c r="R43" t="n">
-        <v>0</v>
+        <v>165.4090611368575</v>
       </c>
       <c r="S43" t="n">
         <v>0</v>
@@ -3954,13 +3954,13 @@
         <v>0</v>
       </c>
       <c r="U43" t="n">
-        <v>180.0783550618347</v>
+        <v>0</v>
       </c>
       <c r="V43" t="n">
         <v>0</v>
       </c>
       <c r="W43" t="n">
-        <v>0</v>
+        <v>160.0903419479084</v>
       </c>
       <c r="X43" t="n">
         <v>0</v>
@@ -3976,10 +3976,10 @@
         </is>
       </c>
       <c r="B44" t="n">
-        <v>0</v>
+        <v>382.7338416634806</v>
       </c>
       <c r="C44" t="n">
-        <v>0</v>
+        <v>226.3793645277833</v>
       </c>
       <c r="D44" t="n">
         <v>0</v>
@@ -3988,10 +3988,10 @@
         <v>0</v>
       </c>
       <c r="F44" t="n">
-        <v>289.6677726676721</v>
+        <v>0</v>
       </c>
       <c r="G44" t="n">
-        <v>0</v>
+        <v>405.7415719969023</v>
       </c>
       <c r="H44" t="n">
         <v>0</v>
@@ -4030,10 +4030,10 @@
         <v>195.5929138346465</v>
       </c>
       <c r="T44" t="n">
-        <v>220.5164804230398</v>
+        <v>0</v>
       </c>
       <c r="U44" t="n">
-        <v>0</v>
+        <v>251.2985142370684</v>
       </c>
       <c r="V44" t="n">
         <v>0</v>
@@ -4042,10 +4042,10 @@
         <v>0</v>
       </c>
       <c r="X44" t="n">
-        <v>369.731100678469</v>
+        <v>0</v>
       </c>
       <c r="Y44" t="n">
-        <v>386.2379386560536</v>
+        <v>0</v>
       </c>
     </row>
     <row r="45">
@@ -4058,25 +4058,25 @@
         <v>166.5331836498673</v>
       </c>
       <c r="C45" t="n">
-        <v>0</v>
+        <v>172.7084989883157</v>
       </c>
       <c r="D45" t="n">
         <v>147.4450655646388</v>
       </c>
       <c r="E45" t="n">
-        <v>0</v>
+        <v>157.6450804554009</v>
       </c>
       <c r="F45" t="n">
-        <v>58.95463610244747</v>
+        <v>0</v>
       </c>
       <c r="G45" t="n">
-        <v>137.0282495084215</v>
+        <v>0</v>
       </c>
       <c r="H45" t="n">
-        <v>109.1906224126114</v>
+        <v>0</v>
       </c>
       <c r="I45" t="n">
-        <v>78.54202280713804</v>
+        <v>0</v>
       </c>
       <c r="J45" t="n">
         <v>0</v>
@@ -4109,19 +4109,19 @@
         <v>165.8272126914158</v>
       </c>
       <c r="T45" t="n">
-        <v>198.8939788055617</v>
+        <v>20.70860261596307</v>
       </c>
       <c r="U45" t="n">
-        <v>225.9206407878966</v>
+        <v>0</v>
       </c>
       <c r="V45" t="n">
         <v>0</v>
       </c>
       <c r="W45" t="n">
-        <v>0</v>
+        <v>251.6949831609196</v>
       </c>
       <c r="X45" t="n">
-        <v>0</v>
+        <v>205.7729852034775</v>
       </c>
       <c r="Y45" t="n">
         <v>205.6826957773044</v>
@@ -4152,7 +4152,7 @@
         <v>0</v>
       </c>
       <c r="H46" t="n">
-        <v>0</v>
+        <v>158.2525819861381</v>
       </c>
       <c r="I46" t="n">
         <v>0</v>
@@ -4197,7 +4197,7 @@
         <v>0</v>
       </c>
       <c r="W46" t="n">
-        <v>158.2525819861381</v>
+        <v>0</v>
       </c>
       <c r="X46" t="n">
         <v>0</v>
@@ -4306,16 +4306,16 @@
         </is>
       </c>
       <c r="B2" t="n">
-        <v>266.3558523848238</v>
+        <v>274.0360370837871</v>
       </c>
       <c r="C2" t="n">
-        <v>266.3558523848238</v>
+        <v>274.0360370837871</v>
       </c>
       <c r="D2" t="n">
-        <v>266.3558523848238</v>
+        <v>274.0360370837871</v>
       </c>
       <c r="E2" t="n">
-        <v>266.3558523848238</v>
+        <v>274.0360370837871</v>
       </c>
       <c r="F2" t="n">
         <v>259.4103516356203</v>
@@ -4357,25 +4357,25 @@
         <v>953.9655401424092</v>
       </c>
       <c r="S2" t="n">
-        <v>953.9655401424092</v>
+        <v>742.8341567219593</v>
       </c>
       <c r="T2" t="n">
-        <v>728.6161971483371</v>
+        <v>517.4848137278872</v>
       </c>
       <c r="U2" t="n">
-        <v>485.167420504237</v>
+        <v>274.0360370837871</v>
       </c>
       <c r="V2" t="n">
-        <v>485.167420504237</v>
+        <v>274.0360370837871</v>
       </c>
       <c r="W2" t="n">
-        <v>485.167420504237</v>
+        <v>274.0360370837871</v>
       </c>
       <c r="X2" t="n">
-        <v>485.167420504237</v>
+        <v>274.0360370837871</v>
       </c>
       <c r="Y2" t="n">
-        <v>485.167420504237</v>
+        <v>274.0360370837871</v>
       </c>
     </row>
     <row r="3">
@@ -4385,25 +4385,25 @@
         </is>
       </c>
       <c r="B3" t="n">
-        <v>116.7808214123601</v>
+        <v>223.7040404982626</v>
       </c>
       <c r="C3" t="n">
-        <v>20.03527576299844</v>
+        <v>223.7040404982626</v>
       </c>
       <c r="D3" t="n">
-        <v>20.03527576299844</v>
+        <v>223.7040404982626</v>
       </c>
       <c r="E3" t="n">
-        <v>20.03527576299844</v>
+        <v>223.7040404982626</v>
       </c>
       <c r="F3" t="n">
-        <v>20.03527576299844</v>
+        <v>223.7040404982626</v>
       </c>
       <c r="G3" t="n">
-        <v>20.03527576299844</v>
+        <v>223.7040404982626</v>
       </c>
       <c r="H3" t="n">
-        <v>20.03527576299844</v>
+        <v>110.334904905842</v>
       </c>
       <c r="I3" t="n">
         <v>20.03527576299844</v>
@@ -4412,19 +4412,19 @@
         <v>19.28114311021272</v>
       </c>
       <c r="K3" t="n">
-        <v>144.6387031680501</v>
+        <v>19.28114311021272</v>
       </c>
       <c r="L3" t="n">
-        <v>374.6018090363993</v>
+        <v>19.28114311021272</v>
       </c>
       <c r="M3" t="n">
-        <v>613.2059550252818</v>
+        <v>234.810827406191</v>
       </c>
       <c r="N3" t="n">
-        <v>851.8101010141643</v>
+        <v>473.4149733950735</v>
       </c>
       <c r="O3" t="n">
-        <v>851.8101010141643</v>
+        <v>712.019119383956</v>
       </c>
       <c r="P3" t="n">
         <v>894.6625969973069</v>
@@ -4433,28 +4433,28 @@
         <v>964.0571555106362</v>
       </c>
       <c r="R3" t="n">
-        <v>964.0571555106362</v>
+        <v>862.8876260635219</v>
       </c>
       <c r="S3" t="n">
-        <v>790.6398109613051</v>
+        <v>689.4702815141908</v>
       </c>
       <c r="T3" t="n">
-        <v>588.4532163200711</v>
+        <v>487.2836868729568</v>
       </c>
       <c r="U3" t="n">
-        <v>360.2295980564601</v>
+        <v>487.2836868729568</v>
       </c>
       <c r="V3" t="n">
-        <v>360.2295980564601</v>
+        <v>487.2836868729568</v>
       </c>
       <c r="W3" t="n">
-        <v>116.7808214123601</v>
+        <v>487.2836868729568</v>
       </c>
       <c r="X3" t="n">
-        <v>116.7808214123601</v>
+        <v>431.4643392632165</v>
       </c>
       <c r="Y3" t="n">
-        <v>116.7808214123601</v>
+        <v>223.7040404982626</v>
       </c>
     </row>
     <row r="4">
@@ -4464,31 +4464,31 @@
         </is>
       </c>
       <c r="B4" t="n">
-        <v>19.28114311021272</v>
+        <v>151.0645035650224</v>
       </c>
       <c r="C4" t="n">
-        <v>19.28114311021272</v>
+        <v>41.77557929797318</v>
       </c>
       <c r="D4" t="n">
-        <v>19.28114311021272</v>
+        <v>41.77557929797318</v>
       </c>
       <c r="E4" t="n">
-        <v>19.28114311021272</v>
+        <v>41.77557929797318</v>
       </c>
       <c r="F4" t="n">
-        <v>19.28114311021272</v>
+        <v>41.77557929797318</v>
       </c>
       <c r="G4" t="n">
-        <v>19.28114311021272</v>
+        <v>41.77557929797318</v>
       </c>
       <c r="H4" t="n">
-        <v>19.28114311021272</v>
+        <v>41.77557929797318</v>
       </c>
       <c r="I4" t="n">
-        <v>19.28114311021272</v>
+        <v>41.77557929797318</v>
       </c>
       <c r="J4" t="n">
-        <v>19.28114311021272</v>
+        <v>41.77557929797318</v>
       </c>
       <c r="K4" t="n">
         <v>19.28114311021272</v>
@@ -4512,28 +4512,28 @@
         <v>151.0645035650224</v>
       </c>
       <c r="R4" t="n">
-        <v>19.28114311021272</v>
+        <v>151.0645035650224</v>
       </c>
       <c r="S4" t="n">
-        <v>19.28114311021272</v>
+        <v>151.0645035650224</v>
       </c>
       <c r="T4" t="n">
-        <v>19.28114311021272</v>
+        <v>151.0645035650224</v>
       </c>
       <c r="U4" t="n">
-        <v>19.28114311021272</v>
+        <v>151.0645035650224</v>
       </c>
       <c r="V4" t="n">
-        <v>19.28114311021272</v>
+        <v>151.0645035650224</v>
       </c>
       <c r="W4" t="n">
-        <v>19.28114311021272</v>
+        <v>151.0645035650224</v>
       </c>
       <c r="X4" t="n">
-        <v>19.28114311021272</v>
+        <v>151.0645035650224</v>
       </c>
       <c r="Y4" t="n">
-        <v>19.28114311021272</v>
+        <v>151.0645035650224</v>
       </c>
     </row>
     <row r="5">
@@ -4543,22 +4543,22 @@
         </is>
       </c>
       <c r="B5" t="n">
-        <v>559.1338160830064</v>
+        <v>90.33569644483418</v>
       </c>
       <c r="C5" t="n">
-        <v>315.6850394389064</v>
+        <v>90.33569644483418</v>
       </c>
       <c r="D5" t="n">
-        <v>315.6850394389064</v>
+        <v>90.33569644483418</v>
       </c>
       <c r="E5" t="n">
-        <v>315.6850394389064</v>
+        <v>90.33569644483418</v>
       </c>
       <c r="F5" t="n">
-        <v>290.2572196227447</v>
+        <v>46.80844297864461</v>
       </c>
       <c r="G5" t="n">
-        <v>274.7999090013961</v>
+        <v>31.35113235729608</v>
       </c>
       <c r="H5" t="n">
         <v>31.35113235729608</v>
@@ -4597,22 +4597,22 @@
         <v>802.5825927271064</v>
       </c>
       <c r="T5" t="n">
-        <v>802.5825927271064</v>
+        <v>577.2332497330343</v>
       </c>
       <c r="U5" t="n">
-        <v>802.5825927271064</v>
+        <v>333.7844730889342</v>
       </c>
       <c r="V5" t="n">
-        <v>802.5825927271064</v>
+        <v>90.33569644483418</v>
       </c>
       <c r="W5" t="n">
-        <v>802.5825927271064</v>
+        <v>90.33569644483418</v>
       </c>
       <c r="X5" t="n">
-        <v>802.5825927271064</v>
+        <v>90.33569644483418</v>
       </c>
       <c r="Y5" t="n">
-        <v>802.5825927271064</v>
+        <v>90.33569644483418</v>
       </c>
     </row>
     <row r="6">
@@ -4622,22 +4622,22 @@
         </is>
       </c>
       <c r="B6" t="n">
-        <v>110.334904905842</v>
+        <v>259.0600686093459</v>
       </c>
       <c r="C6" t="n">
-        <v>110.334904905842</v>
+        <v>259.0600686093459</v>
       </c>
       <c r="D6" t="n">
-        <v>110.334904905842</v>
+        <v>259.0600686093459</v>
       </c>
       <c r="E6" t="n">
-        <v>110.334904905842</v>
+        <v>259.0600686093459</v>
       </c>
       <c r="F6" t="n">
-        <v>110.334904905842</v>
+        <v>259.0600686093459</v>
       </c>
       <c r="G6" t="n">
-        <v>110.334904905842</v>
+        <v>223.7040404982626</v>
       </c>
       <c r="H6" t="n">
         <v>110.334904905842</v>
@@ -4652,10 +4652,10 @@
         <v>144.6387031680501</v>
       </c>
       <c r="L6" t="n">
-        <v>248.2447175439888</v>
+        <v>374.6018090363993</v>
       </c>
       <c r="M6" t="n">
-        <v>486.8488635328713</v>
+        <v>613.2059550252818</v>
       </c>
       <c r="N6" t="n">
         <v>725.4530095217538</v>
@@ -4673,25 +4673,25 @@
         <v>862.8876260635219</v>
       </c>
       <c r="S6" t="n">
-        <v>862.8876260635219</v>
+        <v>689.4702815141908</v>
       </c>
       <c r="T6" t="n">
-        <v>862.8876260635219</v>
+        <v>487.2836868729568</v>
       </c>
       <c r="U6" t="n">
-        <v>634.6640077999109</v>
+        <v>259.0600686093459</v>
       </c>
       <c r="V6" t="n">
-        <v>399.5118995681682</v>
+        <v>259.0600686093459</v>
       </c>
       <c r="W6" t="n">
-        <v>399.5118995681682</v>
+        <v>259.0600686093459</v>
       </c>
       <c r="X6" t="n">
-        <v>191.6603993626354</v>
+        <v>259.0600686093459</v>
       </c>
       <c r="Y6" t="n">
-        <v>110.334904905842</v>
+        <v>259.0600686093459</v>
       </c>
     </row>
     <row r="7">
@@ -4701,31 +4701,31 @@
         </is>
       </c>
       <c r="B7" t="n">
-        <v>64.03213664411894</v>
+        <v>41.77557929797318</v>
       </c>
       <c r="C7" t="n">
-        <v>64.03213664411894</v>
+        <v>41.77557929797318</v>
       </c>
       <c r="D7" t="n">
-        <v>64.03213664411894</v>
+        <v>41.77557929797318</v>
       </c>
       <c r="E7" t="n">
-        <v>64.03213664411894</v>
+        <v>41.77557929797318</v>
       </c>
       <c r="F7" t="n">
-        <v>64.03213664411894</v>
+        <v>41.77557929797318</v>
       </c>
       <c r="G7" t="n">
-        <v>19.28114311021272</v>
+        <v>41.77557929797318</v>
       </c>
       <c r="H7" t="n">
-        <v>19.28114311021272</v>
+        <v>41.77557929797318</v>
       </c>
       <c r="I7" t="n">
-        <v>19.28114311021272</v>
+        <v>41.77557929797318</v>
       </c>
       <c r="J7" t="n">
-        <v>19.28114311021272</v>
+        <v>41.77557929797318</v>
       </c>
       <c r="K7" t="n">
         <v>19.28114311021272</v>
@@ -4746,31 +4746,31 @@
         <v>151.0645035650224</v>
       </c>
       <c r="Q7" t="n">
-        <v>64.03213664411894</v>
+        <v>151.0645035650224</v>
       </c>
       <c r="R7" t="n">
-        <v>64.03213664411894</v>
+        <v>151.0645035650224</v>
       </c>
       <c r="S7" t="n">
-        <v>64.03213664411894</v>
+        <v>151.0645035650224</v>
       </c>
       <c r="T7" t="n">
-        <v>64.03213664411894</v>
+        <v>151.0645035650224</v>
       </c>
       <c r="U7" t="n">
-        <v>64.03213664411894</v>
+        <v>151.0645035650224</v>
       </c>
       <c r="V7" t="n">
-        <v>64.03213664411894</v>
+        <v>41.77557929797318</v>
       </c>
       <c r="W7" t="n">
-        <v>64.03213664411894</v>
+        <v>41.77557929797318</v>
       </c>
       <c r="X7" t="n">
-        <v>64.03213664411894</v>
+        <v>41.77557929797318</v>
       </c>
       <c r="Y7" t="n">
-        <v>64.03213664411894</v>
+        <v>41.77557929797318</v>
       </c>
     </row>
     <row r="8">
@@ -4780,31 +4780,31 @@
         </is>
       </c>
       <c r="B8" t="n">
-        <v>506.1786963984129</v>
+        <v>348.0024326625565</v>
       </c>
       <c r="C8" t="n">
-        <v>506.1786963984129</v>
+        <v>348.0024326625565</v>
       </c>
       <c r="D8" t="n">
-        <v>506.1786963984129</v>
+        <v>348.0024326625565</v>
       </c>
       <c r="E8" t="n">
-        <v>506.1786963984129</v>
+        <v>348.0024326625565</v>
       </c>
       <c r="F8" t="n">
-        <v>262.7299197543128</v>
+        <v>104.5536560184564</v>
       </c>
       <c r="G8" t="n">
-        <v>19.28114311021275</v>
+        <v>89.09634539710788</v>
       </c>
       <c r="H8" t="n">
-        <v>19.28114311021275</v>
+        <v>31.35113235729608</v>
       </c>
       <c r="I8" t="n">
-        <v>19.28114311021275</v>
+        <v>31.35113235729608</v>
       </c>
       <c r="J8" t="n">
-        <v>19.28114311021275</v>
+        <v>19.28114311021272</v>
       </c>
       <c r="K8" t="n">
         <v>122.2961490211351</v>
@@ -4825,31 +4825,31 @@
         <v>964.0571555106362</v>
       </c>
       <c r="Q8" t="n">
-        <v>964.0571555106362</v>
+        <v>953.9655401424092</v>
       </c>
       <c r="R8" t="n">
-        <v>964.0571555106362</v>
+        <v>802.5825927271064</v>
       </c>
       <c r="S8" t="n">
-        <v>964.0571555106362</v>
+        <v>591.4512093066566</v>
       </c>
       <c r="T8" t="n">
-        <v>964.0571555106362</v>
+        <v>591.4512093066566</v>
       </c>
       <c r="U8" t="n">
-        <v>964.0571555106362</v>
+        <v>348.0024326625565</v>
       </c>
       <c r="V8" t="n">
-        <v>964.0571555106362</v>
+        <v>348.0024326625565</v>
       </c>
       <c r="W8" t="n">
-        <v>964.0571555106362</v>
+        <v>348.0024326625565</v>
       </c>
       <c r="X8" t="n">
-        <v>749.627473042513</v>
+        <v>348.0024326625565</v>
       </c>
       <c r="Y8" t="n">
-        <v>506.1786963984129</v>
+        <v>348.0024326625565</v>
       </c>
     </row>
     <row r="9">
@@ -4859,22 +4859,22 @@
         </is>
       </c>
       <c r="B9" t="n">
-        <v>547.0914794406409</v>
+        <v>761.8705608694022</v>
       </c>
       <c r="C9" t="n">
-        <v>372.6384501595139</v>
+        <v>587.4175315882752</v>
       </c>
       <c r="D9" t="n">
-        <v>223.7040404982626</v>
+        <v>438.4831219270239</v>
       </c>
       <c r="E9" t="n">
-        <v>223.7040404982626</v>
+        <v>279.2456669215684</v>
       </c>
       <c r="F9" t="n">
-        <v>223.7040404982626</v>
+        <v>279.2456669215684</v>
       </c>
       <c r="G9" t="n">
-        <v>223.7040404982626</v>
+        <v>140.5148415041839</v>
       </c>
       <c r="H9" t="n">
         <v>110.334904905842</v>
@@ -4892,10 +4892,10 @@
         <v>374.6018090363993</v>
       </c>
       <c r="M9" t="n">
-        <v>374.6018090363993</v>
+        <v>613.2059550252818</v>
       </c>
       <c r="N9" t="n">
-        <v>542.809531908403</v>
+        <v>781.4136778972854</v>
       </c>
       <c r="O9" t="n">
         <v>781.4136778972854</v>
@@ -4913,22 +4913,22 @@
         <v>964.0571555106362</v>
       </c>
       <c r="T9" t="n">
-        <v>964.0571555106362</v>
+        <v>761.8705608694022</v>
       </c>
       <c r="U9" t="n">
-        <v>964.0571555106362</v>
+        <v>761.8705608694022</v>
       </c>
       <c r="V9" t="n">
-        <v>964.0571555106362</v>
+        <v>761.8705608694022</v>
       </c>
       <c r="W9" t="n">
-        <v>964.0571555106362</v>
+        <v>761.8705608694022</v>
       </c>
       <c r="X9" t="n">
-        <v>923.0671152256627</v>
+        <v>761.8705608694022</v>
       </c>
       <c r="Y9" t="n">
-        <v>715.3068164607089</v>
+        <v>761.8705608694022</v>
       </c>
     </row>
     <row r="10">
@@ -4938,28 +4938,28 @@
         </is>
       </c>
       <c r="B10" t="n">
-        <v>41.77557929797318</v>
+        <v>136.0777814360265</v>
       </c>
       <c r="C10" t="n">
-        <v>41.77557929797318</v>
+        <v>136.0777814360265</v>
       </c>
       <c r="D10" t="n">
-        <v>41.77557929797318</v>
+        <v>136.0777814360265</v>
       </c>
       <c r="E10" t="n">
-        <v>41.77557929797318</v>
+        <v>136.0777814360265</v>
       </c>
       <c r="F10" t="n">
-        <v>41.77557929797318</v>
+        <v>136.0777814360265</v>
       </c>
       <c r="G10" t="n">
-        <v>41.77557929797318</v>
+        <v>136.0777814360265</v>
       </c>
       <c r="H10" t="n">
-        <v>41.77557929797318</v>
+        <v>136.0777814360265</v>
       </c>
       <c r="I10" t="n">
-        <v>41.77557929797318</v>
+        <v>136.0777814360265</v>
       </c>
       <c r="J10" t="n">
         <v>41.77557929797318</v>
@@ -4983,31 +4983,31 @@
         <v>151.0645035650224</v>
       </c>
       <c r="Q10" t="n">
-        <v>64.03213664411894</v>
+        <v>136.0777814360265</v>
       </c>
       <c r="R10" t="n">
-        <v>41.77557929797318</v>
+        <v>136.0777814360265</v>
       </c>
       <c r="S10" t="n">
-        <v>41.77557929797318</v>
+        <v>136.0777814360265</v>
       </c>
       <c r="T10" t="n">
-        <v>41.77557929797318</v>
+        <v>136.0777814360265</v>
       </c>
       <c r="U10" t="n">
-        <v>41.77557929797318</v>
+        <v>136.0777814360265</v>
       </c>
       <c r="V10" t="n">
-        <v>41.77557929797318</v>
+        <v>136.0777814360265</v>
       </c>
       <c r="W10" t="n">
-        <v>41.77557929797318</v>
+        <v>136.0777814360265</v>
       </c>
       <c r="X10" t="n">
-        <v>41.77557929797318</v>
+        <v>136.0777814360265</v>
       </c>
       <c r="Y10" t="n">
-        <v>41.77557929797318</v>
+        <v>136.0777814360265</v>
       </c>
     </row>
     <row r="11">
@@ -5017,7 +5017,7 @@
         </is>
       </c>
       <c r="B11" t="n">
-        <v>418.2475783579964</v>
+        <v>787.2100952984081</v>
       </c>
       <c r="C11" t="n">
         <v>418.2475783579964</v>
@@ -5026,31 +5026,31 @@
         <v>418.2475783579964</v>
       </c>
       <c r="E11" t="n">
-        <v>32.45932575975219</v>
+        <v>32.45932575975218</v>
       </c>
       <c r="F11" t="n">
-        <v>32.45932575975219</v>
+        <v>32.45932575975218</v>
       </c>
       <c r="G11" t="n">
-        <v>32.45932575975219</v>
+        <v>32.45932575975218</v>
       </c>
       <c r="H11" t="n">
-        <v>32.45932575975219</v>
+        <v>32.45932575975218</v>
       </c>
       <c r="I11" t="n">
-        <v>32.45932575975219</v>
+        <v>32.45932575975218</v>
       </c>
       <c r="J11" t="n">
-        <v>70.13987180521508</v>
+        <v>70.13987180521505</v>
       </c>
       <c r="K11" t="n">
         <v>247.3580469011318</v>
       </c>
       <c r="L11" t="n">
-        <v>519.4894913528326</v>
+        <v>519.4894913528324</v>
       </c>
       <c r="M11" t="n">
-        <v>838.8947028941457</v>
+        <v>838.8947028941454</v>
       </c>
       <c r="N11" t="n">
         <v>1148.836227140252</v>
@@ -5065,28 +5065,28 @@
         <v>1622.966287987609</v>
       </c>
       <c r="R11" t="n">
-        <v>1622.966287987609</v>
+        <v>1508.970645214177</v>
       </c>
       <c r="S11" t="n">
-        <v>1425.397688154633</v>
+        <v>1311.402045381201</v>
       </c>
       <c r="T11" t="n">
-        <v>1202.653768535401</v>
+        <v>1311.402045381201</v>
       </c>
       <c r="U11" t="n">
-        <v>1194.98675039793</v>
+        <v>1057.565162313455</v>
       </c>
       <c r="V11" t="n">
-        <v>1194.98675039793</v>
+        <v>1057.565162313455</v>
       </c>
       <c r="W11" t="n">
-        <v>1194.98675039793</v>
+        <v>787.2100952984081</v>
       </c>
       <c r="X11" t="n">
-        <v>1194.98675039793</v>
+        <v>787.2100952984081</v>
       </c>
       <c r="Y11" t="n">
-        <v>804.8474184221182</v>
+        <v>787.2100952984081</v>
       </c>
     </row>
     <row r="12">
@@ -5096,43 +5096,43 @@
         </is>
       </c>
       <c r="B12" t="n">
-        <v>206.9123550408792</v>
+        <v>905.3741555651432</v>
       </c>
       <c r="C12" t="n">
-        <v>32.45932575975219</v>
+        <v>815.2070562058072</v>
       </c>
       <c r="D12" t="n">
-        <v>32.45932575975219</v>
+        <v>666.272646544556</v>
       </c>
       <c r="E12" t="n">
-        <v>32.45932575975219</v>
+        <v>507.0351915391004</v>
       </c>
       <c r="F12" t="n">
-        <v>32.45932575975219</v>
+        <v>360.5006335659854</v>
       </c>
       <c r="G12" t="n">
-        <v>32.45932575975219</v>
+        <v>222.0882603251556</v>
       </c>
       <c r="H12" t="n">
-        <v>32.45932575975219</v>
+        <v>111.7947023326189</v>
       </c>
       <c r="I12" t="n">
-        <v>32.45932575975219</v>
+        <v>32.45932575975218</v>
       </c>
       <c r="J12" t="n">
-        <v>61.20822116384404</v>
+        <v>32.45932575975218</v>
       </c>
       <c r="K12" t="n">
-        <v>236.9655055809358</v>
+        <v>32.45932575975218</v>
       </c>
       <c r="L12" t="n">
-        <v>534.697260562599</v>
+        <v>330.1910807414154</v>
       </c>
       <c r="M12" t="n">
-        <v>546.7891136313475</v>
+        <v>729.6092173456783</v>
       </c>
       <c r="N12" t="n">
-        <v>948.4732699082808</v>
+        <v>948.4732699082806</v>
       </c>
       <c r="O12" t="n">
         <v>1271.486777082839</v>
@@ -5147,25 +5147,25 @@
         <v>1622.966287987609</v>
       </c>
       <c r="S12" t="n">
-        <v>1541.019295328339</v>
+        <v>1622.966287987609</v>
       </c>
       <c r="T12" t="n">
-        <v>1340.116286433832</v>
+        <v>1622.966287987609</v>
       </c>
       <c r="U12" t="n">
-        <v>1111.91361897131</v>
+        <v>1394.763620525087</v>
       </c>
       <c r="V12" t="n">
-        <v>876.7615107395675</v>
+        <v>1159.611512293345</v>
       </c>
       <c r="W12" t="n">
-        <v>622.5241540113659</v>
+        <v>905.3741555651432</v>
       </c>
       <c r="X12" t="n">
-        <v>414.6726538058331</v>
+        <v>905.3741555651432</v>
       </c>
       <c r="Y12" t="n">
-        <v>206.9123550408792</v>
+        <v>905.3741555651432</v>
       </c>
     </row>
     <row r="13">
@@ -5175,34 +5175,34 @@
         </is>
       </c>
       <c r="B13" t="n">
-        <v>32.45932575975219</v>
+        <v>71.82943156598947</v>
       </c>
       <c r="C13" t="n">
-        <v>32.45932575975219</v>
+        <v>71.82943156598947</v>
       </c>
       <c r="D13" t="n">
-        <v>32.45932575975219</v>
+        <v>71.82943156598947</v>
       </c>
       <c r="E13" t="n">
-        <v>32.45932575975219</v>
+        <v>71.82943156598947</v>
       </c>
       <c r="F13" t="n">
-        <v>32.45932575975219</v>
+        <v>32.45932575975218</v>
       </c>
       <c r="G13" t="n">
-        <v>32.45932575975219</v>
+        <v>32.45932575975218</v>
       </c>
       <c r="H13" t="n">
-        <v>32.45932575975219</v>
+        <v>32.45932575975218</v>
       </c>
       <c r="I13" t="n">
-        <v>32.45932575975219</v>
+        <v>32.45932575975218</v>
       </c>
       <c r="J13" t="n">
-        <v>32.45932575975219</v>
+        <v>32.45932575975218</v>
       </c>
       <c r="K13" t="n">
-        <v>40.81344334191285</v>
+        <v>40.81344334191284</v>
       </c>
       <c r="L13" t="n">
         <v>107.0302722280248</v>
@@ -5229,22 +5229,22 @@
         <v>361.2466016029501</v>
       </c>
       <c r="T13" t="n">
-        <v>321.8764957967128</v>
+        <v>361.2466016029501</v>
       </c>
       <c r="U13" t="n">
-        <v>321.8764957967128</v>
+        <v>361.2466016029501</v>
       </c>
       <c r="V13" t="n">
-        <v>321.8764957967128</v>
+        <v>361.2466016029501</v>
       </c>
       <c r="W13" t="n">
-        <v>32.45932575975219</v>
+        <v>71.82943156598947</v>
       </c>
       <c r="X13" t="n">
-        <v>32.45932575975219</v>
+        <v>71.82943156598947</v>
       </c>
       <c r="Y13" t="n">
-        <v>32.45932575975219</v>
+        <v>71.82943156598947</v>
       </c>
     </row>
     <row r="14">
@@ -5254,76 +5254,76 @@
         </is>
       </c>
       <c r="B14" t="n">
-        <v>1237.927521786082</v>
+        <v>442.299297473795</v>
       </c>
       <c r="C14" t="n">
-        <v>1237.927521786082</v>
+        <v>442.299297473795</v>
       </c>
       <c r="D14" t="n">
-        <v>1237.927521786082</v>
+        <v>442.299297473795</v>
       </c>
       <c r="E14" t="n">
-        <v>852.1392691878377</v>
+        <v>442.299297473795</v>
       </c>
       <c r="F14" t="n">
-        <v>442.2992974737949</v>
+        <v>442.299297473795</v>
       </c>
       <c r="G14" t="n">
-        <v>32.45932575975218</v>
+        <v>32.45932575975219</v>
       </c>
       <c r="H14" t="n">
-        <v>32.45932575975218</v>
+        <v>32.45932575975219</v>
       </c>
       <c r="I14" t="n">
-        <v>32.45932575975218</v>
+        <v>32.45932575975219</v>
       </c>
       <c r="J14" t="n">
         <v>70.13987180521508</v>
       </c>
       <c r="K14" t="n">
-        <v>247.3580469011318</v>
+        <v>247.3580469011319</v>
       </c>
       <c r="L14" t="n">
         <v>519.4894913528326</v>
       </c>
       <c r="M14" t="n">
-        <v>838.8947028941457</v>
+        <v>838.8947028941456</v>
       </c>
       <c r="N14" t="n">
         <v>1148.836227140252</v>
       </c>
       <c r="O14" t="n">
-        <v>1396.31758174832</v>
+        <v>1396.317581748321</v>
       </c>
       <c r="P14" t="n">
         <v>1569.862809315274</v>
       </c>
       <c r="Q14" t="n">
-        <v>1622.966287987609</v>
+        <v>1622.96628798761</v>
       </c>
       <c r="R14" t="n">
-        <v>1622.966287987609</v>
+        <v>1508.970645214178</v>
       </c>
       <c r="S14" t="n">
-        <v>1622.966287987609</v>
+        <v>1311.402045381201</v>
       </c>
       <c r="T14" t="n">
-        <v>1622.966287987609</v>
+        <v>1311.402045381201</v>
       </c>
       <c r="U14" t="n">
-        <v>1622.966287987609</v>
+        <v>1126.13084008748</v>
       </c>
       <c r="V14" t="n">
-        <v>1291.903400644038</v>
+        <v>795.0679527439092</v>
       </c>
       <c r="W14" t="n">
-        <v>1237.927521786082</v>
+        <v>442.299297473795</v>
       </c>
       <c r="X14" t="n">
-        <v>1237.927521786082</v>
+        <v>442.299297473795</v>
       </c>
       <c r="Y14" t="n">
-        <v>1237.927521786082</v>
+        <v>442.299297473795</v>
       </c>
     </row>
     <row r="15">
@@ -5333,10 +5333,10 @@
         </is>
       </c>
       <c r="B15" t="n">
-        <v>260.7291119938702</v>
+        <v>286.2477316137459</v>
       </c>
       <c r="C15" t="n">
-        <v>260.7291119938702</v>
+        <v>111.7947023326189</v>
       </c>
       <c r="D15" t="n">
         <v>111.7947023326189</v>
@@ -5354,55 +5354,55 @@
         <v>111.7947023326189</v>
       </c>
       <c r="I15" t="n">
-        <v>32.45932575975218</v>
+        <v>32.45932575975219</v>
       </c>
       <c r="J15" t="n">
-        <v>32.45932575975218</v>
+        <v>61.20822116384403</v>
       </c>
       <c r="K15" t="n">
-        <v>32.45932575975218</v>
+        <v>61.20822116384403</v>
       </c>
       <c r="L15" t="n">
-        <v>330.1910807414154</v>
+        <v>358.9399761455072</v>
       </c>
       <c r="M15" t="n">
-        <v>729.6092173456784</v>
+        <v>758.3581127497702</v>
       </c>
       <c r="N15" t="n">
-        <v>1057.709031609043</v>
+        <v>1160.042269026703</v>
       </c>
       <c r="O15" t="n">
-        <v>1380.722538783602</v>
+        <v>1483.055776201262</v>
       </c>
       <c r="P15" t="n">
-        <v>1622.966287987609</v>
+        <v>1513.730526286847</v>
       </c>
       <c r="Q15" t="n">
-        <v>1622.966287987609</v>
+        <v>1622.96628798761</v>
       </c>
       <c r="R15" t="n">
-        <v>1622.966287987609</v>
+        <v>1541.568727888341</v>
       </c>
       <c r="S15" t="n">
-        <v>1455.464052945775</v>
+        <v>1374.066492846507</v>
       </c>
       <c r="T15" t="n">
-        <v>1354.296880201358</v>
+        <v>1173.163483952</v>
       </c>
       <c r="U15" t="n">
-        <v>1126.094212738836</v>
+        <v>944.9608164894786</v>
       </c>
       <c r="V15" t="n">
-        <v>890.9421045070937</v>
+        <v>709.8087082577358</v>
       </c>
       <c r="W15" t="n">
-        <v>636.7047477788922</v>
+        <v>701.8595305842327</v>
       </c>
       <c r="X15" t="n">
-        <v>636.7047477788922</v>
+        <v>494.0080303786999</v>
       </c>
       <c r="Y15" t="n">
-        <v>428.9444490139382</v>
+        <v>286.2477316137459</v>
       </c>
     </row>
     <row r="16">
@@ -5412,34 +5412,34 @@
         </is>
       </c>
       <c r="B16" t="n">
-        <v>106.5621133970633</v>
+        <v>32.45932575975219</v>
       </c>
       <c r="C16" t="n">
-        <v>106.5621133970633</v>
+        <v>32.45932575975219</v>
       </c>
       <c r="D16" t="n">
-        <v>106.5621133970633</v>
+        <v>32.45932575975219</v>
       </c>
       <c r="E16" t="n">
-        <v>106.5621133970633</v>
+        <v>32.45932575975219</v>
       </c>
       <c r="F16" t="n">
-        <v>106.5621133970633</v>
+        <v>32.45932575975219</v>
       </c>
       <c r="G16" t="n">
-        <v>106.5621133970633</v>
+        <v>32.45932575975219</v>
       </c>
       <c r="H16" t="n">
-        <v>106.5621133970633</v>
+        <v>32.45932575975219</v>
       </c>
       <c r="I16" t="n">
-        <v>32.45932575975218</v>
+        <v>32.45932575975219</v>
       </c>
       <c r="J16" t="n">
-        <v>32.45932575975218</v>
+        <v>32.45932575975219</v>
       </c>
       <c r="K16" t="n">
-        <v>40.81344334191284</v>
+        <v>40.81344334191285</v>
       </c>
       <c r="L16" t="n">
         <v>107.0302722280248</v>
@@ -5460,28 +5460,28 @@
         <v>361.2466016029501</v>
       </c>
       <c r="R16" t="n">
-        <v>361.2466016029501</v>
+        <v>287.1438139656391</v>
       </c>
       <c r="S16" t="n">
-        <v>361.2466016029501</v>
+        <v>287.1438139656391</v>
       </c>
       <c r="T16" t="n">
-        <v>361.2466016029501</v>
+        <v>287.1438139656391</v>
       </c>
       <c r="U16" t="n">
-        <v>361.2466016029501</v>
+        <v>287.1438139656391</v>
       </c>
       <c r="V16" t="n">
-        <v>106.5621133970633</v>
+        <v>32.45932575975219</v>
       </c>
       <c r="W16" t="n">
-        <v>106.5621133970633</v>
+        <v>32.45932575975219</v>
       </c>
       <c r="X16" t="n">
-        <v>106.5621133970633</v>
+        <v>32.45932575975219</v>
       </c>
       <c r="Y16" t="n">
-        <v>106.5621133970633</v>
+        <v>32.45932575975219</v>
       </c>
     </row>
     <row r="17">
@@ -5491,22 +5491,22 @@
         </is>
       </c>
       <c r="B17" t="n">
-        <v>968.7637269953007</v>
+        <v>626.2214176739376</v>
       </c>
       <c r="C17" t="n">
-        <v>968.7637269953007</v>
+        <v>607.9036081666529</v>
       </c>
       <c r="D17" t="n">
-        <v>968.7637269953007</v>
+        <v>607.9036081666529</v>
       </c>
       <c r="E17" t="n">
-        <v>968.7637269953007</v>
+        <v>222.1153555684087</v>
       </c>
       <c r="F17" t="n">
-        <v>968.7637269953007</v>
+        <v>222.1153555684087</v>
       </c>
       <c r="G17" t="n">
-        <v>558.9237552812579</v>
+        <v>222.1153555684087</v>
       </c>
       <c r="H17" t="n">
         <v>222.1153555684087</v>
@@ -5548,19 +5548,19 @@
         <v>1622.966287987609</v>
       </c>
       <c r="U17" t="n">
-        <v>1622.966287987609</v>
+        <v>1369.129404919863</v>
       </c>
       <c r="V17" t="n">
-        <v>1622.966287987609</v>
+        <v>1369.129404919863</v>
       </c>
       <c r="W17" t="n">
-        <v>1270.197632717495</v>
+        <v>1016.360749649749</v>
       </c>
       <c r="X17" t="n">
-        <v>968.7637269953007</v>
+        <v>1016.360749649749</v>
       </c>
       <c r="Y17" t="n">
-        <v>968.7637269953007</v>
+        <v>626.2214176739376</v>
       </c>
     </row>
     <row r="18">
@@ -5570,19 +5570,19 @@
         </is>
       </c>
       <c r="B18" t="n">
-        <v>39.95955255904721</v>
+        <v>479.0435636672887</v>
       </c>
       <c r="C18" t="n">
-        <v>32.45932575975219</v>
+        <v>479.0435636672887</v>
       </c>
       <c r="D18" t="n">
-        <v>32.45932575975219</v>
+        <v>330.1091540060374</v>
       </c>
       <c r="E18" t="n">
-        <v>32.45932575975219</v>
+        <v>170.8716990005819</v>
       </c>
       <c r="F18" t="n">
-        <v>32.45932575975219</v>
+        <v>170.8716990005819</v>
       </c>
       <c r="G18" t="n">
         <v>32.45932575975219</v>
@@ -5594,22 +5594,22 @@
         <v>32.45932575975219</v>
       </c>
       <c r="J18" t="n">
-        <v>61.20822116384404</v>
+        <v>32.45932575975219</v>
       </c>
       <c r="K18" t="n">
-        <v>61.20822116384404</v>
+        <v>208.2166101768439</v>
       </c>
       <c r="L18" t="n">
-        <v>358.9399761455072</v>
+        <v>505.9483651585071</v>
       </c>
       <c r="M18" t="n">
-        <v>758.3581127497703</v>
+        <v>656.0248753321104</v>
       </c>
       <c r="N18" t="n">
-        <v>1160.042269026704</v>
+        <v>1057.709031609044</v>
       </c>
       <c r="O18" t="n">
-        <v>1483.055776201262</v>
+        <v>1380.722538783602</v>
       </c>
       <c r="P18" t="n">
         <v>1622.966287987609</v>
@@ -5621,25 +5621,25 @@
         <v>1541.568727888341</v>
       </c>
       <c r="S18" t="n">
-        <v>1374.066492846507</v>
+        <v>1541.568727888341</v>
       </c>
       <c r="T18" t="n">
-        <v>1173.163483952</v>
+        <v>1340.665718993834</v>
       </c>
       <c r="U18" t="n">
-        <v>944.9608164894784</v>
+        <v>1112.463051531313</v>
       </c>
       <c r="V18" t="n">
-        <v>709.8087082577356</v>
+        <v>877.31094329957</v>
       </c>
       <c r="W18" t="n">
-        <v>455.571351529534</v>
+        <v>623.0735865713684</v>
       </c>
       <c r="X18" t="n">
-        <v>247.7198513240011</v>
+        <v>623.0735865713684</v>
       </c>
       <c r="Y18" t="n">
-        <v>39.95955255904721</v>
+        <v>479.0435636672887</v>
       </c>
     </row>
     <row r="19">
@@ -5649,19 +5649,19 @@
         </is>
       </c>
       <c r="B19" t="n">
-        <v>72.05002336285366</v>
+        <v>179.5981367727104</v>
       </c>
       <c r="C19" t="n">
-        <v>72.05002336285366</v>
+        <v>179.5981367727104</v>
       </c>
       <c r="D19" t="n">
-        <v>72.05002336285366</v>
+        <v>179.5981367727104</v>
       </c>
       <c r="E19" t="n">
-        <v>72.05002336285366</v>
+        <v>179.5981367727104</v>
       </c>
       <c r="F19" t="n">
-        <v>72.05002336285366</v>
+        <v>179.5981367727104</v>
       </c>
       <c r="G19" t="n">
         <v>32.45932575975219</v>
@@ -5706,19 +5706,19 @@
         <v>361.2466016029501</v>
       </c>
       <c r="U19" t="n">
-        <v>72.05002336285366</v>
+        <v>361.2466016029501</v>
       </c>
       <c r="V19" t="n">
-        <v>72.05002336285366</v>
+        <v>361.2466016029501</v>
       </c>
       <c r="W19" t="n">
-        <v>72.05002336285366</v>
+        <v>361.2466016029501</v>
       </c>
       <c r="X19" t="n">
-        <v>72.05002336285366</v>
+        <v>361.2466016029501</v>
       </c>
       <c r="Y19" t="n">
-        <v>72.05002336285366</v>
+        <v>361.2466016029501</v>
       </c>
     </row>
     <row r="20">
@@ -5728,25 +5728,25 @@
         </is>
       </c>
       <c r="B20" t="n">
-        <v>1188.947668900687</v>
+        <v>1270.197632717495</v>
       </c>
       <c r="C20" t="n">
-        <v>1188.947668900687</v>
+        <v>1270.197632717495</v>
       </c>
       <c r="D20" t="n">
-        <v>1188.947668900687</v>
+        <v>911.931934110745</v>
       </c>
       <c r="E20" t="n">
-        <v>1188.947668900687</v>
+        <v>911.931934110745</v>
       </c>
       <c r="F20" t="n">
-        <v>779.1076971866441</v>
+        <v>911.931934110745</v>
       </c>
       <c r="G20" t="n">
-        <v>369.2677254726013</v>
+        <v>502.0919623967022</v>
       </c>
       <c r="H20" t="n">
-        <v>32.45932575975219</v>
+        <v>222.1153555684087</v>
       </c>
       <c r="I20" t="n">
         <v>32.45932575975219</v>
@@ -5761,7 +5761,7 @@
         <v>519.4894913528326</v>
       </c>
       <c r="M20" t="n">
-        <v>838.8947028941457</v>
+        <v>838.8947028941458</v>
       </c>
       <c r="N20" t="n">
         <v>1148.836227140252</v>
@@ -5773,31 +5773,31 @@
         <v>1569.862809315274</v>
       </c>
       <c r="Q20" t="n">
-        <v>1622.966287987609</v>
+        <v>1622.96628798761</v>
       </c>
       <c r="R20" t="n">
-        <v>1622.966287987609</v>
+        <v>1622.96628798761</v>
       </c>
       <c r="S20" t="n">
-        <v>1622.966287987609</v>
+        <v>1622.96628798761</v>
       </c>
       <c r="T20" t="n">
-        <v>1579.087000876499</v>
+        <v>1622.96628798761</v>
       </c>
       <c r="U20" t="n">
-        <v>1579.087000876499</v>
+        <v>1622.96628798761</v>
       </c>
       <c r="V20" t="n">
-        <v>1579.087000876499</v>
+        <v>1622.96628798761</v>
       </c>
       <c r="W20" t="n">
-        <v>1579.087000876499</v>
+        <v>1270.197632717495</v>
       </c>
       <c r="X20" t="n">
-        <v>1579.087000876499</v>
+        <v>1270.197632717495</v>
       </c>
       <c r="Y20" t="n">
-        <v>1188.947668900687</v>
+        <v>1270.197632717495</v>
       </c>
     </row>
     <row r="21">
@@ -5807,19 +5807,19 @@
         </is>
       </c>
       <c r="B21" t="n">
-        <v>345.324728281709</v>
+        <v>353.4469130139943</v>
       </c>
       <c r="C21" t="n">
-        <v>170.8716990005819</v>
+        <v>178.9938837328672</v>
       </c>
       <c r="D21" t="n">
-        <v>170.8716990005819</v>
+        <v>178.9938837328672</v>
       </c>
       <c r="E21" t="n">
-        <v>170.8716990005819</v>
+        <v>178.9938837328672</v>
       </c>
       <c r="F21" t="n">
-        <v>170.8716990005819</v>
+        <v>32.45932575975219</v>
       </c>
       <c r="G21" t="n">
         <v>32.45932575975219</v>
@@ -5831,52 +5831,52 @@
         <v>32.45932575975219</v>
       </c>
       <c r="J21" t="n">
-        <v>61.20822116384404</v>
+        <v>32.45932575975219</v>
       </c>
       <c r="K21" t="n">
-        <v>61.20822116384404</v>
+        <v>208.2166101768439</v>
       </c>
       <c r="L21" t="n">
-        <v>358.9399761455072</v>
+        <v>505.9483651585071</v>
       </c>
       <c r="M21" t="n">
-        <v>758.3581127497703</v>
+        <v>905.3665017627701</v>
       </c>
       <c r="N21" t="n">
-        <v>1160.042269026704</v>
+        <v>948.4732699082811</v>
       </c>
       <c r="O21" t="n">
-        <v>1483.055776201262</v>
+        <v>1271.486777082839</v>
       </c>
       <c r="P21" t="n">
-        <v>1622.966287987609</v>
+        <v>1513.730526286847</v>
       </c>
       <c r="Q21" t="n">
-        <v>1622.966287987609</v>
+        <v>1622.96628798761</v>
       </c>
       <c r="R21" t="n">
-        <v>1622.966287987609</v>
+        <v>1622.96628798761</v>
       </c>
       <c r="S21" t="n">
-        <v>1471.580168363635</v>
+        <v>1455.464052945775</v>
       </c>
       <c r="T21" t="n">
-        <v>1270.677159469129</v>
+        <v>1278.890545641993</v>
       </c>
       <c r="U21" t="n">
-        <v>1042.474492006607</v>
+        <v>1050.687878179471</v>
       </c>
       <c r="V21" t="n">
-        <v>807.3223837748644</v>
+        <v>815.5357699477288</v>
       </c>
       <c r="W21" t="n">
-        <v>553.0850270466628</v>
+        <v>561.2984132195271</v>
       </c>
       <c r="X21" t="n">
-        <v>553.0850270466628</v>
+        <v>353.4469130139943</v>
       </c>
       <c r="Y21" t="n">
-        <v>345.324728281709</v>
+        <v>353.4469130139943</v>
       </c>
     </row>
     <row r="22">
@@ -5886,13 +5886,13 @@
         </is>
       </c>
       <c r="B22" t="n">
-        <v>180.3724193421453</v>
+        <v>32.45932575975219</v>
       </c>
       <c r="C22" t="n">
-        <v>180.3724193421453</v>
+        <v>32.45932575975219</v>
       </c>
       <c r="D22" t="n">
-        <v>180.3724193421453</v>
+        <v>32.45932575975219</v>
       </c>
       <c r="E22" t="n">
         <v>32.45932575975219</v>
@@ -5940,22 +5940,22 @@
         <v>361.2466016029501</v>
       </c>
       <c r="T22" t="n">
-        <v>361.2466016029501</v>
+        <v>132.1392625228377</v>
       </c>
       <c r="U22" t="n">
-        <v>361.2466016029501</v>
+        <v>132.1392625228377</v>
       </c>
       <c r="V22" t="n">
-        <v>361.2466016029501</v>
+        <v>132.1392625228377</v>
       </c>
       <c r="W22" t="n">
-        <v>361.2466016029501</v>
+        <v>32.45932575975219</v>
       </c>
       <c r="X22" t="n">
-        <v>361.2466016029501</v>
+        <v>32.45932575975219</v>
       </c>
       <c r="Y22" t="n">
-        <v>361.2466016029501</v>
+        <v>32.45932575975219</v>
       </c>
     </row>
     <row r="23">
@@ -5965,19 +5965,19 @@
         </is>
       </c>
       <c r="B23" t="n">
-        <v>948.8168854676551</v>
+        <v>442.299297473795</v>
       </c>
       <c r="C23" t="n">
-        <v>852.139269187838</v>
+        <v>442.299297473795</v>
       </c>
       <c r="D23" t="n">
-        <v>852.139269187838</v>
+        <v>442.299297473795</v>
       </c>
       <c r="E23" t="n">
-        <v>852.139269187838</v>
+        <v>442.299297473795</v>
       </c>
       <c r="F23" t="n">
-        <v>442.299297473795</v>
+        <v>32.45932575975219</v>
       </c>
       <c r="G23" t="n">
         <v>32.45932575975219</v>
@@ -6004,37 +6004,37 @@
         <v>1148.836227140252</v>
       </c>
       <c r="O23" t="n">
-        <v>1396.317581748321</v>
+        <v>1396.31758174832</v>
       </c>
       <c r="P23" t="n">
         <v>1569.862809315274</v>
       </c>
       <c r="Q23" t="n">
-        <v>1622.96628798761</v>
+        <v>1622.966287987609</v>
       </c>
       <c r="R23" t="n">
-        <v>1622.96628798761</v>
+        <v>1622.966287987609</v>
       </c>
       <c r="S23" t="n">
-        <v>1425.397688154633</v>
+        <v>1622.966287987609</v>
       </c>
       <c r="T23" t="n">
-        <v>1202.653768535401</v>
+        <v>1622.966287987609</v>
       </c>
       <c r="U23" t="n">
-        <v>948.8168854676551</v>
+        <v>1622.966287987609</v>
       </c>
       <c r="V23" t="n">
-        <v>948.8168854676551</v>
+        <v>1622.966287987609</v>
       </c>
       <c r="W23" t="n">
-        <v>948.8168854676551</v>
+        <v>1270.197632717495</v>
       </c>
       <c r="X23" t="n">
-        <v>948.8168854676551</v>
+        <v>1219.038469513729</v>
       </c>
       <c r="Y23" t="n">
-        <v>948.8168854676551</v>
+        <v>828.8991375379168</v>
       </c>
     </row>
     <row r="24">
@@ -6044,76 +6044,76 @@
         </is>
       </c>
       <c r="B24" t="n">
-        <v>207.4617876008819</v>
+        <v>489.7623565946566</v>
       </c>
       <c r="C24" t="n">
-        <v>33.00875831975489</v>
+        <v>489.7623565946566</v>
       </c>
       <c r="D24" t="n">
-        <v>33.00875831975489</v>
+        <v>489.7623565946566</v>
       </c>
       <c r="E24" t="n">
-        <v>32.45932575975219</v>
+        <v>489.7623565946566</v>
       </c>
       <c r="F24" t="n">
-        <v>32.45932575975219</v>
+        <v>360.5006335659854</v>
       </c>
       <c r="G24" t="n">
-        <v>32.45932575975219</v>
+        <v>222.0882603251556</v>
       </c>
       <c r="H24" t="n">
-        <v>32.45932575975219</v>
+        <v>111.7947023326189</v>
       </c>
       <c r="I24" t="n">
         <v>32.45932575975219</v>
       </c>
       <c r="J24" t="n">
-        <v>32.45932575975219</v>
+        <v>61.20822116384404</v>
       </c>
       <c r="K24" t="n">
-        <v>32.45932575975219</v>
+        <v>61.20822116384404</v>
       </c>
       <c r="L24" t="n">
-        <v>330.1910807414154</v>
+        <v>256.6067387278471</v>
       </c>
       <c r="M24" t="n">
-        <v>656.0248753321105</v>
+        <v>656.0248753321101</v>
       </c>
       <c r="N24" t="n">
-        <v>1057.709031609044</v>
+        <v>1057.709031609043</v>
       </c>
       <c r="O24" t="n">
         <v>1380.722538783602</v>
       </c>
       <c r="P24" t="n">
-        <v>1622.96628798761</v>
+        <v>1622.966287987609</v>
       </c>
       <c r="Q24" t="n">
-        <v>1622.96628798761</v>
+        <v>1622.966287987609</v>
       </c>
       <c r="R24" t="n">
-        <v>1541.568727888341</v>
+        <v>1622.966287987609</v>
       </c>
       <c r="S24" t="n">
-        <v>1541.568727888341</v>
+        <v>1622.966287987609</v>
       </c>
       <c r="T24" t="n">
-        <v>1340.665718993835</v>
+        <v>1622.966287987609</v>
       </c>
       <c r="U24" t="n">
-        <v>1112.463051531313</v>
+        <v>1394.763620525088</v>
       </c>
       <c r="V24" t="n">
-        <v>877.3109432995702</v>
+        <v>1159.611512293345</v>
       </c>
       <c r="W24" t="n">
-        <v>623.0735865713687</v>
+        <v>905.3741555651434</v>
       </c>
       <c r="X24" t="n">
-        <v>415.2220863658358</v>
+        <v>697.5226553596106</v>
       </c>
       <c r="Y24" t="n">
-        <v>207.4617876008819</v>
+        <v>489.7623565946566</v>
       </c>
     </row>
     <row r="25">
@@ -6180,10 +6180,10 @@
         <v>361.2466016029501</v>
       </c>
       <c r="U25" t="n">
-        <v>321.8764957967128</v>
+        <v>287.1438139656391</v>
       </c>
       <c r="V25" t="n">
-        <v>321.8764957967128</v>
+        <v>32.45932575975219</v>
       </c>
       <c r="W25" t="n">
         <v>32.45932575975219</v>
@@ -6202,22 +6202,22 @@
         </is>
       </c>
       <c r="B26" t="n">
-        <v>883.5977926533733</v>
+        <v>418.2475783579964</v>
       </c>
       <c r="C26" t="n">
-        <v>883.5977926533733</v>
+        <v>418.2475783579964</v>
       </c>
       <c r="D26" t="n">
-        <v>525.3320940466228</v>
+        <v>418.2475783579964</v>
       </c>
       <c r="E26" t="n">
-        <v>525.3320940466228</v>
+        <v>32.45932575975218</v>
       </c>
       <c r="F26" t="n">
-        <v>115.4921223325801</v>
+        <v>32.45932575975218</v>
       </c>
       <c r="G26" t="n">
-        <v>115.4921223325801</v>
+        <v>32.45932575975218</v>
       </c>
       <c r="H26" t="n">
         <v>32.45932575975218</v>
@@ -6256,22 +6256,22 @@
         <v>1622.966287987609</v>
       </c>
       <c r="T26" t="n">
-        <v>1622.966287987609</v>
+        <v>1400.222368368377</v>
       </c>
       <c r="U26" t="n">
-        <v>1622.966287987609</v>
+        <v>1146.385485300631</v>
       </c>
       <c r="V26" t="n">
-        <v>1622.966287987609</v>
+        <v>1146.385485300631</v>
       </c>
       <c r="W26" t="n">
-        <v>1270.197632717495</v>
+        <v>1146.385485300631</v>
       </c>
       <c r="X26" t="n">
-        <v>1270.197632717495</v>
+        <v>772.9197270395512</v>
       </c>
       <c r="Y26" t="n">
-        <v>1270.197632717495</v>
+        <v>418.2475783579964</v>
       </c>
     </row>
     <row r="27">
@@ -6281,76 +6281,76 @@
         </is>
       </c>
       <c r="B27" t="n">
-        <v>676.7946829649775</v>
+        <v>207.4617876008815</v>
       </c>
       <c r="C27" t="n">
-        <v>676.7946829649775</v>
+        <v>33.00875831975443</v>
       </c>
       <c r="D27" t="n">
-        <v>527.8602733037262</v>
+        <v>33.00875831975443</v>
       </c>
       <c r="E27" t="n">
-        <v>368.6228182982707</v>
+        <v>33.00875831975443</v>
       </c>
       <c r="F27" t="n">
-        <v>222.0882603251556</v>
+        <v>33.00875831975443</v>
       </c>
       <c r="G27" t="n">
-        <v>222.0882603251556</v>
+        <v>33.00875831975443</v>
       </c>
       <c r="H27" t="n">
-        <v>111.7947023326189</v>
+        <v>32.45932575975218</v>
       </c>
       <c r="I27" t="n">
         <v>32.45932575975218</v>
       </c>
       <c r="J27" t="n">
-        <v>61.20822116384403</v>
+        <v>32.45932575975218</v>
       </c>
       <c r="K27" t="n">
-        <v>61.20822116384403</v>
+        <v>32.45932575975218</v>
       </c>
       <c r="L27" t="n">
-        <v>256.6067387278472</v>
+        <v>330.1910807414154</v>
       </c>
       <c r="M27" t="n">
-        <v>656.0248753321102</v>
+        <v>729.6092173456784</v>
       </c>
       <c r="N27" t="n">
-        <v>1057.709031609043</v>
+        <v>1131.293373622612</v>
       </c>
       <c r="O27" t="n">
-        <v>1380.722538783602</v>
+        <v>1454.30688079717</v>
       </c>
       <c r="P27" t="n">
-        <v>1622.966287987609</v>
+        <v>1513.730526286846</v>
       </c>
       <c r="Q27" t="n">
         <v>1622.966287987609</v>
       </c>
       <c r="R27" t="n">
-        <v>1622.966287987609</v>
+        <v>1541.568727888341</v>
       </c>
       <c r="S27" t="n">
-        <v>1622.966287987609</v>
+        <v>1541.568727888341</v>
       </c>
       <c r="T27" t="n">
-        <v>1562.602152407512</v>
+        <v>1340.665718993834</v>
       </c>
       <c r="U27" t="n">
-        <v>1334.39948494499</v>
+        <v>1112.463051531312</v>
       </c>
       <c r="V27" t="n">
-        <v>1099.247376713247</v>
+        <v>877.3109432995698</v>
       </c>
       <c r="W27" t="n">
-        <v>845.0100199850456</v>
+        <v>623.0735865713682</v>
       </c>
       <c r="X27" t="n">
-        <v>845.0100199850456</v>
+        <v>415.2220863658354</v>
       </c>
       <c r="Y27" t="n">
-        <v>845.0100199850456</v>
+        <v>207.4617876008815</v>
       </c>
     </row>
     <row r="28">
@@ -6360,16 +6360,16 @@
         </is>
       </c>
       <c r="B28" t="n">
-        <v>361.2466016029501</v>
+        <v>32.45932575975218</v>
       </c>
       <c r="C28" t="n">
-        <v>361.2466016029501</v>
+        <v>32.45932575975218</v>
       </c>
       <c r="D28" t="n">
-        <v>327.2623668400556</v>
+        <v>32.45932575975218</v>
       </c>
       <c r="E28" t="n">
-        <v>179.3492732576625</v>
+        <v>32.45932575975218</v>
       </c>
       <c r="F28" t="n">
         <v>32.45932575975218</v>
@@ -6417,19 +6417,19 @@
         <v>361.2466016029501</v>
       </c>
       <c r="U28" t="n">
-        <v>361.2466016029501</v>
+        <v>72.05002336285366</v>
       </c>
       <c r="V28" t="n">
-        <v>361.2466016029501</v>
+        <v>32.45932575975218</v>
       </c>
       <c r="W28" t="n">
-        <v>361.2466016029501</v>
+        <v>32.45932575975218</v>
       </c>
       <c r="X28" t="n">
-        <v>361.2466016029501</v>
+        <v>32.45932575975218</v>
       </c>
       <c r="Y28" t="n">
-        <v>361.2466016029501</v>
+        <v>32.45932575975218</v>
       </c>
     </row>
     <row r="29">
@@ -6439,16 +6439,16 @@
         </is>
       </c>
       <c r="B29" t="n">
-        <v>418.2475783579964</v>
+        <v>828.0875500720392</v>
       </c>
       <c r="C29" t="n">
-        <v>418.2475783579964</v>
+        <v>828.0875500720392</v>
       </c>
       <c r="D29" t="n">
-        <v>418.2475783579964</v>
+        <v>828.0875500720392</v>
       </c>
       <c r="E29" t="n">
-        <v>32.45932575975219</v>
+        <v>442.299297473795</v>
       </c>
       <c r="F29" t="n">
         <v>32.45932575975219</v>
@@ -6487,28 +6487,28 @@
         <v>1622.96628798761</v>
       </c>
       <c r="R29" t="n">
-        <v>1622.96628798761</v>
+        <v>1508.970645214178</v>
       </c>
       <c r="S29" t="n">
-        <v>1425.397688154633</v>
+        <v>1508.970645214178</v>
       </c>
       <c r="T29" t="n">
-        <v>1202.653768535401</v>
+        <v>1286.226725594945</v>
       </c>
       <c r="U29" t="n">
-        <v>1202.653768535401</v>
+        <v>1286.226725594945</v>
       </c>
       <c r="V29" t="n">
-        <v>1202.653768535401</v>
+        <v>1286.226725594945</v>
       </c>
       <c r="W29" t="n">
-        <v>1202.653768535401</v>
+        <v>1286.226725594945</v>
       </c>
       <c r="X29" t="n">
-        <v>1194.98675039793</v>
+        <v>1286.226725594945</v>
       </c>
       <c r="Y29" t="n">
-        <v>804.8474184221182</v>
+        <v>1214.687390136161</v>
       </c>
     </row>
     <row r="30">
@@ -6518,10 +6518,10 @@
         </is>
       </c>
       <c r="B30" t="n">
-        <v>191.6967807652077</v>
+        <v>340.6311904264589</v>
       </c>
       <c r="C30" t="n">
-        <v>191.6967807652077</v>
+        <v>340.6311904264589</v>
       </c>
       <c r="D30" t="n">
         <v>191.6967807652077</v>
@@ -6545,19 +6545,19 @@
         <v>32.45932575975219</v>
       </c>
       <c r="K30" t="n">
-        <v>208.2166101768439</v>
+        <v>32.45932575975219</v>
       </c>
       <c r="L30" t="n">
-        <v>505.9483651585071</v>
+        <v>330.1910807414154</v>
       </c>
       <c r="M30" t="n">
-        <v>905.3665017627701</v>
+        <v>729.6092173456784</v>
       </c>
       <c r="N30" t="n">
-        <v>1299.952780813052</v>
+        <v>1131.293373622612</v>
       </c>
       <c r="O30" t="n">
-        <v>1622.96628798761</v>
+        <v>1454.30688079717</v>
       </c>
       <c r="P30" t="n">
         <v>1622.96628798761</v>
@@ -6569,25 +6569,25 @@
         <v>1622.96628798761</v>
       </c>
       <c r="S30" t="n">
-        <v>1455.464052945775</v>
+        <v>1622.96628798761</v>
       </c>
       <c r="T30" t="n">
-        <v>1264.913381715707</v>
+        <v>1473.835121819412</v>
       </c>
       <c r="U30" t="n">
-        <v>1264.913381715707</v>
+        <v>1245.63245435689</v>
       </c>
       <c r="V30" t="n">
-        <v>1029.761273483964</v>
+        <v>1010.480346125147</v>
       </c>
       <c r="W30" t="n">
-        <v>775.5239167557625</v>
+        <v>756.2429893969456</v>
       </c>
       <c r="X30" t="n">
-        <v>567.6724165502296</v>
+        <v>548.3914891914128</v>
       </c>
       <c r="Y30" t="n">
-        <v>359.9121177852757</v>
+        <v>340.6311904264589</v>
       </c>
     </row>
     <row r="31">
@@ -6597,16 +6597,16 @@
         </is>
       </c>
       <c r="B31" t="n">
-        <v>361.2466016029501</v>
+        <v>32.45932575975219</v>
       </c>
       <c r="C31" t="n">
-        <v>361.2466016029501</v>
+        <v>32.45932575975219</v>
       </c>
       <c r="D31" t="n">
-        <v>211.1299621906144</v>
+        <v>32.45932575975219</v>
       </c>
       <c r="E31" t="n">
-        <v>63.21686860822129</v>
+        <v>32.45932575975219</v>
       </c>
       <c r="F31" t="n">
         <v>32.45932575975219</v>
@@ -6651,22 +6651,22 @@
         <v>361.2466016029501</v>
       </c>
       <c r="T31" t="n">
-        <v>361.2466016029501</v>
+        <v>132.1392625228377</v>
       </c>
       <c r="U31" t="n">
-        <v>361.2466016029501</v>
+        <v>32.45932575975219</v>
       </c>
       <c r="V31" t="n">
-        <v>361.2466016029501</v>
+        <v>32.45932575975219</v>
       </c>
       <c r="W31" t="n">
-        <v>361.2466016029501</v>
+        <v>32.45932575975219</v>
       </c>
       <c r="X31" t="n">
-        <v>361.2466016029501</v>
+        <v>32.45932575975219</v>
       </c>
       <c r="Y31" t="n">
-        <v>361.2466016029501</v>
+        <v>32.45932575975219</v>
       </c>
     </row>
     <row r="32">
@@ -6676,19 +6676,19 @@
         </is>
       </c>
       <c r="B32" t="n">
-        <v>401.4218427001639</v>
+        <v>1186.35324867879</v>
       </c>
       <c r="C32" t="n">
-        <v>32.45932575975219</v>
+        <v>1186.35324867879</v>
       </c>
       <c r="D32" t="n">
-        <v>32.45932575975219</v>
+        <v>828.0875500720392</v>
       </c>
       <c r="E32" t="n">
-        <v>32.45932575975219</v>
+        <v>442.299297473795</v>
       </c>
       <c r="F32" t="n">
-        <v>32.45932575975219</v>
+        <v>442.299297473795</v>
       </c>
       <c r="G32" t="n">
         <v>32.45932575975219</v>
@@ -6727,25 +6727,25 @@
         <v>1622.96628798761</v>
       </c>
       <c r="S32" t="n">
-        <v>1622.96628798761</v>
+        <v>1425.397688154633</v>
       </c>
       <c r="T32" t="n">
-        <v>1622.96628798761</v>
+        <v>1202.653768535401</v>
       </c>
       <c r="U32" t="n">
-        <v>1551.626773001177</v>
+        <v>1202.653768535401</v>
       </c>
       <c r="V32" t="n">
-        <v>1551.626773001177</v>
+        <v>1202.653768535401</v>
       </c>
       <c r="W32" t="n">
-        <v>1551.626773001177</v>
+        <v>1202.653768535401</v>
       </c>
       <c r="X32" t="n">
-        <v>1178.161014740097</v>
+        <v>1186.35324867879</v>
       </c>
       <c r="Y32" t="n">
-        <v>788.0216827642857</v>
+        <v>1186.35324867879</v>
       </c>
     </row>
     <row r="33">
@@ -6755,25 +6755,25 @@
         </is>
       </c>
       <c r="B33" t="n">
-        <v>730.4321178331462</v>
+        <v>487.165748399574</v>
       </c>
       <c r="C33" t="n">
-        <v>555.9790885520192</v>
+        <v>487.165748399574</v>
       </c>
       <c r="D33" t="n">
-        <v>555.9790885520192</v>
+        <v>338.2313387383227</v>
       </c>
       <c r="E33" t="n">
-        <v>396.7416335465637</v>
+        <v>178.9938837328672</v>
       </c>
       <c r="F33" t="n">
-        <v>250.2070755734487</v>
+        <v>32.45932575975219</v>
       </c>
       <c r="G33" t="n">
-        <v>111.7947023326189</v>
+        <v>32.45932575975219</v>
       </c>
       <c r="H33" t="n">
-        <v>111.7947023326189</v>
+        <v>32.45932575975219</v>
       </c>
       <c r="I33" t="n">
         <v>32.45932575975219</v>
@@ -6782,22 +6782,22 @@
         <v>32.45932575975219</v>
       </c>
       <c r="K33" t="n">
-        <v>208.2166101768439</v>
+        <v>32.45932575975219</v>
       </c>
       <c r="L33" t="n">
-        <v>505.9483651585071</v>
+        <v>330.1910807414154</v>
       </c>
       <c r="M33" t="n">
-        <v>546.7891136313476</v>
+        <v>729.6092173456784</v>
       </c>
       <c r="N33" t="n">
-        <v>948.4732699082811</v>
+        <v>1131.293373622612</v>
       </c>
       <c r="O33" t="n">
-        <v>1271.486777082839</v>
+        <v>1454.30688079717</v>
       </c>
       <c r="P33" t="n">
-        <v>1513.730526286847</v>
+        <v>1622.96628798761</v>
       </c>
       <c r="Q33" t="n">
         <v>1622.96628798761</v>
@@ -6809,22 +6809,22 @@
         <v>1455.464052945775</v>
       </c>
       <c r="T33" t="n">
-        <v>1427.673082998623</v>
+        <v>1372.973217842108</v>
       </c>
       <c r="U33" t="n">
-        <v>1427.673082998623</v>
+        <v>1144.770550379586</v>
       </c>
       <c r="V33" t="n">
-        <v>1192.520974766881</v>
+        <v>909.6184421478436</v>
       </c>
       <c r="W33" t="n">
-        <v>938.283618038679</v>
+        <v>655.381085419642</v>
       </c>
       <c r="X33" t="n">
-        <v>730.4321178331462</v>
+        <v>655.381085419642</v>
       </c>
       <c r="Y33" t="n">
-        <v>730.4321178331462</v>
+        <v>655.381085419642</v>
       </c>
     </row>
     <row r="34">
@@ -6834,16 +6834,16 @@
         </is>
       </c>
       <c r="B34" t="n">
-        <v>361.2466016029501</v>
+        <v>182.5759651720879</v>
       </c>
       <c r="C34" t="n">
-        <v>327.2623668400557</v>
+        <v>182.5759651720879</v>
       </c>
       <c r="D34" t="n">
-        <v>327.2623668400557</v>
+        <v>32.45932575975219</v>
       </c>
       <c r="E34" t="n">
-        <v>179.3492732576626</v>
+        <v>32.45932575975219</v>
       </c>
       <c r="F34" t="n">
         <v>32.45932575975219</v>
@@ -6913,16 +6913,16 @@
         </is>
       </c>
       <c r="B35" t="n">
-        <v>472.761357686596</v>
+        <v>648.6585161146995</v>
       </c>
       <c r="C35" t="n">
-        <v>472.761357686596</v>
+        <v>442.299297473795</v>
       </c>
       <c r="D35" t="n">
-        <v>472.761357686596</v>
+        <v>442.299297473795</v>
       </c>
       <c r="E35" t="n">
-        <v>86.97310508835176</v>
+        <v>442.299297473795</v>
       </c>
       <c r="F35" t="n">
         <v>32.45932575975219</v>
@@ -6943,16 +6943,16 @@
         <v>247.3580469011319</v>
       </c>
       <c r="L35" t="n">
-        <v>519.4894913528326</v>
+        <v>519.4894913528328</v>
       </c>
       <c r="M35" t="n">
-        <v>838.8947028941456</v>
+        <v>838.8947028941458</v>
       </c>
       <c r="N35" t="n">
         <v>1148.836227140252</v>
       </c>
       <c r="O35" t="n">
-        <v>1396.31758174832</v>
+        <v>1396.317581748321</v>
       </c>
       <c r="P35" t="n">
         <v>1569.862809315274</v>
@@ -6964,25 +6964,25 @@
         <v>1622.966287987609</v>
       </c>
       <c r="S35" t="n">
-        <v>1622.966287987609</v>
+        <v>1425.397688154633</v>
       </c>
       <c r="T35" t="n">
-        <v>1622.966287987609</v>
+        <v>1425.397688154633</v>
       </c>
       <c r="U35" t="n">
-        <v>1622.966287987609</v>
+        <v>1425.397688154633</v>
       </c>
       <c r="V35" t="n">
-        <v>1622.966287987609</v>
+        <v>1425.397688154633</v>
       </c>
       <c r="W35" t="n">
-        <v>1622.966287987609</v>
+        <v>1425.397688154633</v>
       </c>
       <c r="X35" t="n">
-        <v>1249.50052972653</v>
+        <v>1425.397688154633</v>
       </c>
       <c r="Y35" t="n">
-        <v>859.3611977507178</v>
+        <v>1035.258356178821</v>
       </c>
     </row>
     <row r="36">
@@ -6992,22 +6992,22 @@
         </is>
       </c>
       <c r="B36" t="n">
-        <v>181.3937354210034</v>
+        <v>389.1959433063024</v>
       </c>
       <c r="C36" t="n">
-        <v>181.3937354210034</v>
+        <v>389.1959433063024</v>
       </c>
       <c r="D36" t="n">
-        <v>32.45932575975219</v>
+        <v>389.1959433063024</v>
       </c>
       <c r="E36" t="n">
-        <v>32.45932575975219</v>
+        <v>389.1959433063024</v>
       </c>
       <c r="F36" t="n">
-        <v>32.45932575975219</v>
+        <v>242.6613853331873</v>
       </c>
       <c r="G36" t="n">
-        <v>32.45932575975219</v>
+        <v>104.2490120923576</v>
       </c>
       <c r="H36" t="n">
         <v>32.45932575975219</v>
@@ -7019,49 +7019,49 @@
         <v>32.45932575975219</v>
       </c>
       <c r="K36" t="n">
-        <v>32.45932575975219</v>
+        <v>91.88297124942892</v>
       </c>
       <c r="L36" t="n">
-        <v>256.6067387278474</v>
+        <v>389.6147262310921</v>
       </c>
       <c r="M36" t="n">
-        <v>656.0248753321104</v>
+        <v>789.0328628353551</v>
       </c>
       <c r="N36" t="n">
-        <v>1057.709031609044</v>
+        <v>1190.717019112288</v>
       </c>
       <c r="O36" t="n">
-        <v>1380.722538783602</v>
+        <v>1513.730526286846</v>
       </c>
       <c r="P36" t="n">
-        <v>1622.966287987609</v>
+        <v>1513.730526286846</v>
       </c>
       <c r="Q36" t="n">
         <v>1622.966287987609</v>
       </c>
       <c r="R36" t="n">
-        <v>1541.568727888341</v>
+        <v>1622.966287987609</v>
       </c>
       <c r="S36" t="n">
-        <v>1541.568727888341</v>
+        <v>1455.464052945775</v>
       </c>
       <c r="T36" t="n">
-        <v>1340.665718993834</v>
+        <v>1254.561044051268</v>
       </c>
       <c r="U36" t="n">
-        <v>1112.463051531313</v>
+        <v>1254.561044051268</v>
       </c>
       <c r="V36" t="n">
-        <v>877.31094329957</v>
+        <v>1019.408935819526</v>
       </c>
       <c r="W36" t="n">
-        <v>623.0735865713684</v>
+        <v>765.1715790913242</v>
       </c>
       <c r="X36" t="n">
-        <v>415.2220863658356</v>
+        <v>765.1715790913242</v>
       </c>
       <c r="Y36" t="n">
-        <v>207.4617876008817</v>
+        <v>557.4112803263704</v>
       </c>
     </row>
     <row r="37">
@@ -7071,19 +7071,19 @@
         </is>
       </c>
       <c r="B37" t="n">
-        <v>132.1392625228377</v>
+        <v>32.45932575975219</v>
       </c>
       <c r="C37" t="n">
-        <v>132.1392625228377</v>
+        <v>32.45932575975219</v>
       </c>
       <c r="D37" t="n">
-        <v>132.1392625228377</v>
+        <v>32.45932575975219</v>
       </c>
       <c r="E37" t="n">
-        <v>132.1392625228377</v>
+        <v>32.45932575975219</v>
       </c>
       <c r="F37" t="n">
-        <v>132.1392625228377</v>
+        <v>32.45932575975219</v>
       </c>
       <c r="G37" t="n">
         <v>32.45932575975219</v>
@@ -7125,22 +7125,22 @@
         <v>361.2466016029501</v>
       </c>
       <c r="T37" t="n">
-        <v>132.1392625228377</v>
+        <v>361.2466016029501</v>
       </c>
       <c r="U37" t="n">
-        <v>132.1392625228377</v>
+        <v>361.2466016029501</v>
       </c>
       <c r="V37" t="n">
-        <v>132.1392625228377</v>
+        <v>361.2466016029501</v>
       </c>
       <c r="W37" t="n">
-        <v>132.1392625228377</v>
+        <v>361.2466016029501</v>
       </c>
       <c r="X37" t="n">
-        <v>132.1392625228377</v>
+        <v>253.2519049032823</v>
       </c>
       <c r="Y37" t="n">
-        <v>132.1392625228377</v>
+        <v>32.45932575975219</v>
       </c>
     </row>
     <row r="38">
@@ -7150,19 +7150,19 @@
         </is>
       </c>
       <c r="B38" t="n">
-        <v>828.0875500720392</v>
+        <v>442.299297473795</v>
       </c>
       <c r="C38" t="n">
-        <v>828.0875500720392</v>
+        <v>442.299297473795</v>
       </c>
       <c r="D38" t="n">
-        <v>828.0875500720392</v>
+        <v>442.299297473795</v>
       </c>
       <c r="E38" t="n">
         <v>442.299297473795</v>
       </c>
       <c r="F38" t="n">
-        <v>442.299297473795</v>
+        <v>32.45932575975219</v>
       </c>
       <c r="G38" t="n">
         <v>32.45932575975219</v>
@@ -7198,28 +7198,28 @@
         <v>1622.96628798761</v>
       </c>
       <c r="R38" t="n">
-        <v>1622.96628798761</v>
+        <v>1508.970645214178</v>
       </c>
       <c r="S38" t="n">
-        <v>1425.397688154633</v>
+        <v>1311.402045381201</v>
       </c>
       <c r="T38" t="n">
-        <v>1202.653768535401</v>
+        <v>1311.402045381201</v>
       </c>
       <c r="U38" t="n">
-        <v>1202.653768535401</v>
+        <v>1311.402045381201</v>
       </c>
       <c r="V38" t="n">
-        <v>1202.653768535401</v>
+        <v>1168.533711004989</v>
       </c>
       <c r="W38" t="n">
-        <v>849.8851132652869</v>
+        <v>815.765055734875</v>
       </c>
       <c r="X38" t="n">
-        <v>828.0875500720392</v>
+        <v>442.299297473795</v>
       </c>
       <c r="Y38" t="n">
-        <v>828.0875500720392</v>
+        <v>442.299297473795</v>
       </c>
     </row>
     <row r="39">
@@ -7229,22 +7229,22 @@
         </is>
       </c>
       <c r="B39" t="n">
-        <v>247.7198513240014</v>
+        <v>181.3937354210034</v>
       </c>
       <c r="C39" t="n">
-        <v>247.7198513240014</v>
+        <v>181.3937354210034</v>
       </c>
       <c r="D39" t="n">
-        <v>247.7198513240014</v>
+        <v>32.45932575975219</v>
       </c>
       <c r="E39" t="n">
-        <v>247.7198513240014</v>
+        <v>32.45932575975219</v>
       </c>
       <c r="F39" t="n">
-        <v>247.7198513240014</v>
+        <v>32.45932575975219</v>
       </c>
       <c r="G39" t="n">
-        <v>109.3074780831716</v>
+        <v>32.45932575975219</v>
       </c>
       <c r="H39" t="n">
         <v>32.45932575975219</v>
@@ -7256,19 +7256,19 @@
         <v>61.20822116384404</v>
       </c>
       <c r="K39" t="n">
-        <v>61.20822116384404</v>
+        <v>236.9655055809358</v>
       </c>
       <c r="L39" t="n">
-        <v>358.9399761455072</v>
+        <v>534.697260562599</v>
       </c>
       <c r="M39" t="n">
-        <v>758.3581127497703</v>
+        <v>934.1153971668621</v>
       </c>
       <c r="N39" t="n">
-        <v>1160.042269026704</v>
+        <v>1335.799553443796</v>
       </c>
       <c r="O39" t="n">
-        <v>1483.055776201262</v>
+        <v>1380.722538783602</v>
       </c>
       <c r="P39" t="n">
         <v>1622.96628798761</v>
@@ -7283,22 +7283,22 @@
         <v>1374.066492846507</v>
       </c>
       <c r="T39" t="n">
-        <v>1173.163483952</v>
+        <v>1275.05270506907</v>
       </c>
       <c r="U39" t="n">
-        <v>944.9608164894786</v>
+        <v>1046.850037606549</v>
       </c>
       <c r="V39" t="n">
-        <v>709.8087082577358</v>
+        <v>811.6979293748059</v>
       </c>
       <c r="W39" t="n">
-        <v>455.5713515295342</v>
+        <v>557.4605726466043</v>
       </c>
       <c r="X39" t="n">
-        <v>247.7198513240014</v>
+        <v>349.6090724410715</v>
       </c>
       <c r="Y39" t="n">
-        <v>247.7198513240014</v>
+        <v>349.6090724410715</v>
       </c>
     </row>
     <row r="40">
@@ -7308,13 +7308,13 @@
         </is>
       </c>
       <c r="B40" t="n">
-        <v>32.45932575975219</v>
+        <v>132.1392625228377</v>
       </c>
       <c r="C40" t="n">
-        <v>32.45932575975219</v>
+        <v>132.1392625228377</v>
       </c>
       <c r="D40" t="n">
-        <v>32.45932575975219</v>
+        <v>132.1392625228377</v>
       </c>
       <c r="E40" t="n">
         <v>32.45932575975219</v>
@@ -7362,22 +7362,22 @@
         <v>361.2466016029501</v>
       </c>
       <c r="T40" t="n">
-        <v>361.2466016029501</v>
+        <v>132.1392625228377</v>
       </c>
       <c r="U40" t="n">
-        <v>361.2466016029501</v>
+        <v>132.1392625228377</v>
       </c>
       <c r="V40" t="n">
-        <v>361.2466016029501</v>
+        <v>132.1392625228377</v>
       </c>
       <c r="W40" t="n">
-        <v>71.82943156598952</v>
+        <v>132.1392625228377</v>
       </c>
       <c r="X40" t="n">
-        <v>71.82943156598952</v>
+        <v>132.1392625228377</v>
       </c>
       <c r="Y40" t="n">
-        <v>32.45932575975219</v>
+        <v>132.1392625228377</v>
       </c>
     </row>
     <row r="41">
@@ -7387,16 +7387,16 @@
         </is>
       </c>
       <c r="B41" t="n">
-        <v>701.3269551836291</v>
+        <v>1237.927521786082</v>
       </c>
       <c r="C41" t="n">
-        <v>701.3269551836291</v>
+        <v>1237.927521786082</v>
       </c>
       <c r="D41" t="n">
-        <v>442.299297473795</v>
+        <v>1237.927521786082</v>
       </c>
       <c r="E41" t="n">
-        <v>442.299297473795</v>
+        <v>852.1392691878377</v>
       </c>
       <c r="F41" t="n">
         <v>442.299297473795</v>
@@ -7414,10 +7414,10 @@
         <v>70.13987180521508</v>
       </c>
       <c r="K41" t="n">
-        <v>247.3580469011319</v>
+        <v>247.358046901132</v>
       </c>
       <c r="L41" t="n">
-        <v>519.4894913528326</v>
+        <v>519.4894913528327</v>
       </c>
       <c r="M41" t="n">
         <v>838.8947028941457</v>
@@ -7426,13 +7426,13 @@
         <v>1148.836227140252</v>
       </c>
       <c r="O41" t="n">
-        <v>1396.317581748321</v>
+        <v>1396.31758174832</v>
       </c>
       <c r="P41" t="n">
         <v>1569.862809315274</v>
       </c>
       <c r="Q41" t="n">
-        <v>1622.96628798761</v>
+        <v>1622.966287987609</v>
       </c>
       <c r="R41" t="n">
         <v>1508.970645214178</v>
@@ -7441,22 +7441,22 @@
         <v>1508.970645214178</v>
       </c>
       <c r="T41" t="n">
-        <v>1286.226725594946</v>
+        <v>1508.970645214178</v>
       </c>
       <c r="U41" t="n">
-        <v>1032.3898425272</v>
+        <v>1508.970645214178</v>
       </c>
       <c r="V41" t="n">
-        <v>701.3269551836291</v>
+        <v>1237.927521786082</v>
       </c>
       <c r="W41" t="n">
-        <v>701.3269551836291</v>
+        <v>1237.927521786082</v>
       </c>
       <c r="X41" t="n">
-        <v>701.3269551836291</v>
+        <v>1237.927521786082</v>
       </c>
       <c r="Y41" t="n">
-        <v>701.3269551836291</v>
+        <v>1237.927521786082</v>
       </c>
     </row>
     <row r="42">
@@ -7466,22 +7466,22 @@
         </is>
       </c>
       <c r="B42" t="n">
-        <v>353.4469130139943</v>
+        <v>622.9779260119865</v>
       </c>
       <c r="C42" t="n">
-        <v>178.9938837328672</v>
+        <v>448.5248967308594</v>
       </c>
       <c r="D42" t="n">
-        <v>178.9938837328672</v>
+        <v>448.5248967308594</v>
       </c>
       <c r="E42" t="n">
-        <v>178.9938837328672</v>
+        <v>289.2874417254039</v>
       </c>
       <c r="F42" t="n">
-        <v>32.45932575975219</v>
+        <v>142.7528837522889</v>
       </c>
       <c r="G42" t="n">
-        <v>32.45932575975219</v>
+        <v>142.7528837522889</v>
       </c>
       <c r="H42" t="n">
         <v>32.45932575975219</v>
@@ -7502,40 +7502,40 @@
         <v>758.3581127497703</v>
       </c>
       <c r="N42" t="n">
-        <v>1057.709031609044</v>
+        <v>1160.042269026704</v>
       </c>
       <c r="O42" t="n">
-        <v>1380.722538783602</v>
+        <v>1483.055776201262</v>
       </c>
       <c r="P42" t="n">
-        <v>1622.96628798761</v>
+        <v>1622.966287987609</v>
       </c>
       <c r="Q42" t="n">
-        <v>1622.96628798761</v>
+        <v>1622.966287987609</v>
       </c>
       <c r="R42" t="n">
-        <v>1541.568727888341</v>
+        <v>1622.966287987609</v>
       </c>
       <c r="S42" t="n">
-        <v>1374.066492846507</v>
+        <v>1455.464052945775</v>
       </c>
       <c r="T42" t="n">
-        <v>1173.163483952</v>
+        <v>1254.561044051268</v>
       </c>
       <c r="U42" t="n">
-        <v>1011.051714994006</v>
+        <v>1254.561044051268</v>
       </c>
       <c r="V42" t="n">
-        <v>775.8996067622638</v>
+        <v>1254.561044051268</v>
       </c>
       <c r="W42" t="n">
-        <v>521.6622500340623</v>
+        <v>1000.323687323067</v>
       </c>
       <c r="X42" t="n">
-        <v>521.6622500340623</v>
+        <v>830.7382247769403</v>
       </c>
       <c r="Y42" t="n">
-        <v>521.6622500340623</v>
+        <v>622.9779260119865</v>
       </c>
     </row>
     <row r="43">
@@ -7545,16 +7545,16 @@
         </is>
       </c>
       <c r="B43" t="n">
-        <v>179.3492732576626</v>
+        <v>32.45932575975219</v>
       </c>
       <c r="C43" t="n">
-        <v>179.3492732576626</v>
+        <v>32.45932575975219</v>
       </c>
       <c r="D43" t="n">
-        <v>179.3492732576626</v>
+        <v>32.45932575975219</v>
       </c>
       <c r="E43" t="n">
-        <v>179.3492732576626</v>
+        <v>32.45932575975219</v>
       </c>
       <c r="F43" t="n">
         <v>32.45932575975219</v>
@@ -7593,28 +7593,28 @@
         <v>361.2466016029501</v>
       </c>
       <c r="R43" t="n">
-        <v>361.2466016029501</v>
+        <v>194.1667418687506</v>
       </c>
       <c r="S43" t="n">
-        <v>361.2466016029501</v>
+        <v>194.1667418687506</v>
       </c>
       <c r="T43" t="n">
-        <v>361.2466016029501</v>
+        <v>194.1667418687506</v>
       </c>
       <c r="U43" t="n">
-        <v>179.3492732576626</v>
+        <v>194.1667418687506</v>
       </c>
       <c r="V43" t="n">
-        <v>179.3492732576626</v>
+        <v>194.1667418687506</v>
       </c>
       <c r="W43" t="n">
-        <v>179.3492732576626</v>
+        <v>32.45932575975219</v>
       </c>
       <c r="X43" t="n">
-        <v>179.3492732576626</v>
+        <v>32.45932575975219</v>
       </c>
       <c r="Y43" t="n">
-        <v>179.3492732576626</v>
+        <v>32.45932575975219</v>
       </c>
     </row>
     <row r="44">
@@ -7624,19 +7624,19 @@
         </is>
       </c>
       <c r="B44" t="n">
-        <v>325.0530355250776</v>
+        <v>670.9653222493337</v>
       </c>
       <c r="C44" t="n">
-        <v>325.0530355250776</v>
+        <v>442.299297473795</v>
       </c>
       <c r="D44" t="n">
-        <v>325.0530355250776</v>
+        <v>442.299297473795</v>
       </c>
       <c r="E44" t="n">
-        <v>325.0530355250776</v>
+        <v>442.299297473795</v>
       </c>
       <c r="F44" t="n">
-        <v>32.45932575975219</v>
+        <v>442.299297473795</v>
       </c>
       <c r="G44" t="n">
         <v>32.45932575975219</v>
@@ -7651,10 +7651,10 @@
         <v>70.13987180521508</v>
       </c>
       <c r="K44" t="n">
-        <v>247.358046901132</v>
+        <v>247.3580469011319</v>
       </c>
       <c r="L44" t="n">
-        <v>519.4894913528327</v>
+        <v>519.4894913528326</v>
       </c>
       <c r="M44" t="n">
         <v>838.8947028941457</v>
@@ -7663,10 +7663,10 @@
         <v>1148.836227140252</v>
       </c>
       <c r="O44" t="n">
-        <v>1396.31758174832</v>
+        <v>1396.317581748321</v>
       </c>
       <c r="P44" t="n">
-        <v>1569.862809315274</v>
+        <v>1569.862809315275</v>
       </c>
       <c r="Q44" t="n">
         <v>1622.966287987609</v>
@@ -7678,22 +7678,22 @@
         <v>1311.402045381201</v>
       </c>
       <c r="T44" t="n">
-        <v>1088.658125761969</v>
+        <v>1311.402045381201</v>
       </c>
       <c r="U44" t="n">
-        <v>1088.658125761969</v>
+        <v>1057.565162313455</v>
       </c>
       <c r="V44" t="n">
-        <v>1088.658125761969</v>
+        <v>1057.565162313455</v>
       </c>
       <c r="W44" t="n">
-        <v>1088.658125761969</v>
+        <v>1057.565162313455</v>
       </c>
       <c r="X44" t="n">
-        <v>715.1923675008893</v>
+        <v>1057.565162313455</v>
       </c>
       <c r="Y44" t="n">
-        <v>325.0530355250776</v>
+        <v>1057.565162313455</v>
       </c>
     </row>
     <row r="45">
@@ -7703,25 +7703,25 @@
         </is>
       </c>
       <c r="B45" t="n">
-        <v>568.9851807044563</v>
+        <v>515.0842197075859</v>
       </c>
       <c r="C45" t="n">
-        <v>568.9851807044563</v>
+        <v>340.6311904264589</v>
       </c>
       <c r="D45" t="n">
-        <v>420.050771043205</v>
+        <v>191.6967807652077</v>
       </c>
       <c r="E45" t="n">
-        <v>420.050771043205</v>
+        <v>32.45932575975219</v>
       </c>
       <c r="F45" t="n">
-        <v>360.5006335659854</v>
+        <v>32.45932575975219</v>
       </c>
       <c r="G45" t="n">
-        <v>222.0882603251556</v>
+        <v>32.45932575975219</v>
       </c>
       <c r="H45" t="n">
-        <v>111.7947023326189</v>
+        <v>32.45932575975219</v>
       </c>
       <c r="I45" t="n">
         <v>32.45932575975219</v>
@@ -7733,19 +7733,19 @@
         <v>61.20822116384404</v>
       </c>
       <c r="L45" t="n">
-        <v>358.9399761455072</v>
+        <v>147.3709770270843</v>
       </c>
       <c r="M45" t="n">
-        <v>758.3581127497703</v>
+        <v>546.7891136313473</v>
       </c>
       <c r="N45" t="n">
-        <v>1160.042269026704</v>
+        <v>948.4732699082806</v>
       </c>
       <c r="O45" t="n">
-        <v>1483.055776201262</v>
+        <v>1271.486777082839</v>
       </c>
       <c r="P45" t="n">
-        <v>1622.966287987609</v>
+        <v>1513.730526286846</v>
       </c>
       <c r="Q45" t="n">
         <v>1622.966287987609</v>
@@ -7757,22 +7757,22 @@
         <v>1374.066492846507</v>
       </c>
       <c r="T45" t="n">
-        <v>1173.163483952</v>
+        <v>1353.148712426342</v>
       </c>
       <c r="U45" t="n">
-        <v>944.9608164894784</v>
+        <v>1353.148712426342</v>
       </c>
       <c r="V45" t="n">
-        <v>944.9608164894784</v>
+        <v>1353.148712426342</v>
       </c>
       <c r="W45" t="n">
-        <v>944.9608164894784</v>
+        <v>1098.911355698141</v>
       </c>
       <c r="X45" t="n">
-        <v>944.9608164894784</v>
+        <v>891.0598554926078</v>
       </c>
       <c r="Y45" t="n">
-        <v>737.2005177245244</v>
+        <v>683.2995567276539</v>
       </c>
     </row>
     <row r="46">
@@ -7782,22 +7782,22 @@
         </is>
       </c>
       <c r="B46" t="n">
-        <v>201.3955086876591</v>
+        <v>361.2466016029501</v>
       </c>
       <c r="C46" t="n">
-        <v>32.45932575975219</v>
+        <v>192.3104186750432</v>
       </c>
       <c r="D46" t="n">
-        <v>32.45932575975219</v>
+        <v>192.3104186750432</v>
       </c>
       <c r="E46" t="n">
-        <v>32.45932575975219</v>
+        <v>192.3104186750432</v>
       </c>
       <c r="F46" t="n">
-        <v>32.45932575975219</v>
+        <v>192.3104186750432</v>
       </c>
       <c r="G46" t="n">
-        <v>32.45932575975219</v>
+        <v>192.3104186750432</v>
       </c>
       <c r="H46" t="n">
         <v>32.45932575975219</v>
@@ -7845,13 +7845,13 @@
         <v>361.2466016029501</v>
       </c>
       <c r="W46" t="n">
-        <v>201.3955086876591</v>
+        <v>361.2466016029501</v>
       </c>
       <c r="X46" t="n">
-        <v>201.3955086876591</v>
+        <v>361.2466016029501</v>
       </c>
       <c r="Y46" t="n">
-        <v>201.3955086876591</v>
+        <v>361.2466016029501</v>
       </c>
     </row>
   </sheetData>
@@ -8060,22 +8060,22 @@
         <v>126.0910353404088</v>
       </c>
       <c r="K3" t="n">
-        <v>264.4652370125786</v>
+        <v>137.841438974359</v>
       </c>
       <c r="L3" t="n">
-        <v>370.8403453034592</v>
+        <v>138.5543797798742</v>
       </c>
       <c r="M3" t="n">
-        <v>383.1483227996774</v>
+        <v>359.8407857361378</v>
       </c>
       <c r="N3" t="n">
         <v>372.3560009609923</v>
       </c>
       <c r="O3" t="n">
-        <v>142.5962444444444</v>
+        <v>383.6105333221035</v>
       </c>
       <c r="P3" t="n">
-        <v>177.2597568922521</v>
+        <v>318.4627686399372</v>
       </c>
       <c r="Q3" t="n">
         <v>210.0772877358491</v>
@@ -8300,13 +8300,13 @@
         <v>264.4652370125786</v>
       </c>
       <c r="L6" t="n">
-        <v>243.2069195535496</v>
+        <v>370.8403453034592</v>
       </c>
       <c r="M6" t="n">
         <v>383.1483227996774</v>
       </c>
       <c r="N6" t="n">
-        <v>372.3560009609923</v>
+        <v>244.7225752110828</v>
       </c>
       <c r="O6" t="n">
         <v>383.6105333221035</v>
@@ -8540,13 +8540,13 @@
         <v>370.8403453034592</v>
       </c>
       <c r="M9" t="n">
-        <v>142.1340339220183</v>
+        <v>383.1483227996774</v>
       </c>
       <c r="N9" t="n">
-        <v>301.248502863135</v>
+        <v>301.2485028631349</v>
       </c>
       <c r="O9" t="n">
-        <v>383.6105333221035</v>
+        <v>142.5962444444444</v>
       </c>
       <c r="P9" t="n">
         <v>318.4627686399372</v>
@@ -8768,19 +8768,19 @@
         <v>10.12574714858493</v>
       </c>
       <c r="J12" t="n">
-        <v>126.0910353404088</v>
+        <v>97.05174705344737</v>
       </c>
       <c r="K12" t="n">
-        <v>264.4652370125786</v>
+        <v>86.93262649026376</v>
       </c>
       <c r="L12" t="n">
         <v>370.8403453034592</v>
       </c>
       <c r="M12" t="n">
-        <v>74.46639351210649</v>
+        <v>465.7050637499999</v>
       </c>
       <c r="N12" t="n">
-        <v>455.0874215304797</v>
+        <v>270.4206501018625</v>
       </c>
       <c r="O12" t="n">
         <v>393.8623192767295</v>
@@ -9005,10 +9005,10 @@
         <v>10.12574714858493</v>
       </c>
       <c r="J15" t="n">
-        <v>97.05174705344737</v>
+        <v>126.0910353404088</v>
       </c>
       <c r="K15" t="n">
-        <v>86.93262649026374</v>
+        <v>86.93262649026376</v>
       </c>
       <c r="L15" t="n">
         <v>370.8403453034592</v>
@@ -9017,16 +9017,16 @@
         <v>465.7050637499999</v>
       </c>
       <c r="N15" t="n">
-        <v>380.7598033349562</v>
+        <v>455.0874215304798</v>
       </c>
       <c r="O15" t="n">
         <v>393.8623192767295</v>
       </c>
       <c r="P15" t="n">
-        <v>318.4627686399372</v>
+        <v>104.7567089243589</v>
       </c>
       <c r="Q15" t="n">
-        <v>99.73813450275541</v>
+        <v>210.0772877358491</v>
       </c>
       <c r="R15" t="n">
         <v>45.52166981132082</v>
@@ -9242,16 +9242,16 @@
         <v>10.12574714858493</v>
       </c>
       <c r="J18" t="n">
-        <v>126.0910353404088</v>
+        <v>97.05174705344737</v>
       </c>
       <c r="K18" t="n">
-        <v>86.93262649026374</v>
+        <v>264.4652370125786</v>
       </c>
       <c r="L18" t="n">
         <v>370.8403453034592</v>
       </c>
       <c r="M18" t="n">
-        <v>465.7050637499999</v>
+        <v>213.8448350321618</v>
       </c>
       <c r="N18" t="n">
         <v>455.0874215304797</v>
@@ -9260,7 +9260,7 @@
         <v>393.8623192767295</v>
       </c>
       <c r="P18" t="n">
-        <v>215.0958621574522</v>
+        <v>318.4627686399372</v>
       </c>
       <c r="Q18" t="n">
         <v>99.73813450275541</v>
@@ -9479,10 +9479,10 @@
         <v>10.12574714858493</v>
       </c>
       <c r="J21" t="n">
-        <v>126.0910353404088</v>
+        <v>97.05174705344737</v>
       </c>
       <c r="K21" t="n">
-        <v>86.93262649026374</v>
+        <v>264.4652370125786</v>
       </c>
       <c r="L21" t="n">
         <v>370.8403453034592</v>
@@ -9491,16 +9491,16 @@
         <v>465.7050637499999</v>
       </c>
       <c r="N21" t="n">
-        <v>455.0874215304797</v>
+        <v>92.88803957954804</v>
       </c>
       <c r="O21" t="n">
         <v>393.8623192767295</v>
       </c>
       <c r="P21" t="n">
-        <v>215.0958621574522</v>
+        <v>318.4627686399372</v>
       </c>
       <c r="Q21" t="n">
-        <v>99.73813450275541</v>
+        <v>210.0772877358491</v>
       </c>
       <c r="R21" t="n">
         <v>45.52166981132082</v>
@@ -9716,16 +9716,16 @@
         <v>10.12574714858493</v>
       </c>
       <c r="J24" t="n">
-        <v>97.05174705344737</v>
+        <v>126.0910353404088</v>
       </c>
       <c r="K24" t="n">
         <v>86.93262649026374</v>
       </c>
       <c r="L24" t="n">
-        <v>370.8403453034592</v>
+        <v>267.4734388209742</v>
       </c>
       <c r="M24" t="n">
-        <v>391.3774455544768</v>
+        <v>465.7050637499999</v>
       </c>
       <c r="N24" t="n">
         <v>455.0874215304797</v>
@@ -9953,28 +9953,28 @@
         <v>10.12574714858493</v>
       </c>
       <c r="J27" t="n">
-        <v>126.0910353404088</v>
+        <v>97.05174705344737</v>
       </c>
       <c r="K27" t="n">
         <v>86.93262649026374</v>
       </c>
       <c r="L27" t="n">
-        <v>267.4734388209743</v>
+        <v>370.8403453034592</v>
       </c>
       <c r="M27" t="n">
         <v>465.7050637499999</v>
       </c>
       <c r="N27" t="n">
-        <v>455.0874215304796</v>
+        <v>455.0874215304797</v>
       </c>
       <c r="O27" t="n">
         <v>393.8623192767295</v>
       </c>
       <c r="P27" t="n">
-        <v>318.4627686399372</v>
+        <v>133.7959972113199</v>
       </c>
       <c r="Q27" t="n">
-        <v>99.73813450275541</v>
+        <v>210.0772877358491</v>
       </c>
       <c r="R27" t="n">
         <v>45.52166981132082</v>
@@ -10193,7 +10193,7 @@
         <v>97.05174705344737</v>
       </c>
       <c r="K30" t="n">
-        <v>264.4652370125786</v>
+        <v>86.93262649026374</v>
       </c>
       <c r="L30" t="n">
         <v>370.8403453034592</v>
@@ -10202,13 +10202,13 @@
         <v>465.7050637499999</v>
       </c>
       <c r="N30" t="n">
-        <v>447.9178485742657</v>
+        <v>455.0874215304798</v>
       </c>
       <c r="O30" t="n">
         <v>393.8623192767295</v>
       </c>
       <c r="P30" t="n">
-        <v>73.77211287831322</v>
+        <v>244.1351504444139</v>
       </c>
       <c r="Q30" t="n">
         <v>99.73813450275541</v>
@@ -10430,25 +10430,25 @@
         <v>97.05174705344737</v>
       </c>
       <c r="K33" t="n">
-        <v>264.4652370125786</v>
+        <v>86.93262649026374</v>
       </c>
       <c r="L33" t="n">
         <v>370.8403453034592</v>
       </c>
       <c r="M33" t="n">
-        <v>103.5056817990681</v>
+        <v>465.7050637499999</v>
       </c>
       <c r="N33" t="n">
-        <v>455.0874215304797</v>
+        <v>455.0874215304798</v>
       </c>
       <c r="O33" t="n">
         <v>393.8623192767295</v>
       </c>
       <c r="P33" t="n">
-        <v>318.4627686399372</v>
+        <v>244.1351504444139</v>
       </c>
       <c r="Q33" t="n">
-        <v>210.0772877358491</v>
+        <v>99.73813450275541</v>
       </c>
       <c r="R33" t="n">
         <v>45.52166981132082</v>
@@ -10667,10 +10667,10 @@
         <v>97.05174705344737</v>
       </c>
       <c r="K36" t="n">
-        <v>86.93262649026374</v>
+        <v>146.9565108232705</v>
       </c>
       <c r="L36" t="n">
-        <v>296.5127271079359</v>
+        <v>370.8403453034592</v>
       </c>
       <c r="M36" t="n">
         <v>465.7050637499999</v>
@@ -10682,10 +10682,10 @@
         <v>393.8623192767295</v>
       </c>
       <c r="P36" t="n">
-        <v>318.4627686399372</v>
+        <v>73.77211287831322</v>
       </c>
       <c r="Q36" t="n">
-        <v>99.73813450275541</v>
+        <v>210.0772877358491</v>
       </c>
       <c r="R36" t="n">
         <v>45.52166981132082</v>
@@ -10904,7 +10904,7 @@
         <v>126.0910353404088</v>
       </c>
       <c r="K39" t="n">
-        <v>86.93262649026374</v>
+        <v>264.4652370125786</v>
       </c>
       <c r="L39" t="n">
         <v>370.8403453034592</v>
@@ -10916,10 +10916,10 @@
         <v>455.0874215304798</v>
       </c>
       <c r="O39" t="n">
-        <v>393.8623192767295</v>
+        <v>112.9628022719299</v>
       </c>
       <c r="P39" t="n">
-        <v>215.0958621574524</v>
+        <v>318.4627686399372</v>
       </c>
       <c r="Q39" t="n">
         <v>99.73813450275541</v>
@@ -11071,7 +11071,7 @@
         <v>449.5135334928325</v>
       </c>
       <c r="N41" t="n">
-        <v>437.3469244119843</v>
+        <v>437.3469244119842</v>
       </c>
       <c r="O41" t="n">
         <v>380.8001812627454</v>
@@ -11150,13 +11150,13 @@
         <v>465.7050637499999</v>
       </c>
       <c r="N42" t="n">
-        <v>351.7205150479951</v>
+        <v>455.0874215304797</v>
       </c>
       <c r="O42" t="n">
         <v>393.8623192767295</v>
       </c>
       <c r="P42" t="n">
-        <v>318.4627686399372</v>
+        <v>215.0958621574522</v>
       </c>
       <c r="Q42" t="n">
         <v>99.7381345027554</v>
@@ -11317,7 +11317,7 @@
         <v>321.7987081714826</v>
       </c>
       <c r="Q44" t="n">
-        <v>212.3149906599047</v>
+        <v>212.3149906599043</v>
       </c>
       <c r="R44" t="n">
         <v>65.71641987298243</v>
@@ -11381,7 +11381,7 @@
         <v>86.93262649026374</v>
       </c>
       <c r="L45" t="n">
-        <v>370.8403453034592</v>
+        <v>157.1342855878804</v>
       </c>
       <c r="M45" t="n">
         <v>465.7050637499999</v>
@@ -11393,10 +11393,10 @@
         <v>393.8623192767295</v>
       </c>
       <c r="P45" t="n">
-        <v>215.0958621574522</v>
+        <v>318.4627686399372</v>
       </c>
       <c r="Q45" t="n">
-        <v>99.7381345027554</v>
+        <v>210.0772877358491</v>
       </c>
       <c r="R45" t="n">
         <v>45.52166981132082</v>
@@ -23257,10 +23257,10 @@
         </is>
       </c>
       <c r="B11" t="n">
-        <v>0</v>
+        <v>382.7338416634806</v>
       </c>
       <c r="C11" t="n">
-        <v>365.2728917710076</v>
+        <v>0</v>
       </c>
       <c r="D11" t="n">
         <v>354.683041620683</v>
@@ -23305,28 +23305,28 @@
         <v>0</v>
       </c>
       <c r="R11" t="n">
-        <v>112.8556863456974</v>
+        <v>0</v>
       </c>
       <c r="S11" t="n">
         <v>0</v>
       </c>
       <c r="T11" t="n">
-        <v>0</v>
+        <v>220.5164804230398</v>
       </c>
       <c r="U11" t="n">
-        <v>243.7081662809722</v>
+        <v>0</v>
       </c>
       <c r="V11" t="n">
         <v>327.7522584701349</v>
       </c>
       <c r="W11" t="n">
-        <v>349.240968717413</v>
+        <v>81.58945237251663</v>
       </c>
       <c r="X11" t="n">
         <v>369.731100678469</v>
       </c>
       <c r="Y11" t="n">
-        <v>0</v>
+        <v>386.2379386560536</v>
       </c>
     </row>
     <row r="12">
@@ -23339,25 +23339,25 @@
         <v>166.5331836498673</v>
       </c>
       <c r="C12" t="n">
-        <v>0</v>
+        <v>83.4430706225732</v>
       </c>
       <c r="D12" t="n">
-        <v>147.4450655646388</v>
+        <v>0</v>
       </c>
       <c r="E12" t="n">
-        <v>157.6450804554009</v>
+        <v>0</v>
       </c>
       <c r="F12" t="n">
-        <v>145.0692123933839</v>
+        <v>0</v>
       </c>
       <c r="G12" t="n">
-        <v>137.0282495084215</v>
+        <v>0</v>
       </c>
       <c r="H12" t="n">
-        <v>109.1906224126114</v>
+        <v>0</v>
       </c>
       <c r="I12" t="n">
-        <v>78.54202280713804</v>
+        <v>0</v>
       </c>
       <c r="J12" t="n">
         <v>0</v>
@@ -23387,10 +23387,10 @@
         <v>80.58358449827551</v>
       </c>
       <c r="S12" t="n">
-        <v>84.69968995873768</v>
+        <v>165.8272126914158</v>
       </c>
       <c r="T12" t="n">
-        <v>0</v>
+        <v>198.8939788055617</v>
       </c>
       <c r="U12" t="n">
         <v>0</v>
@@ -23402,10 +23402,10 @@
         <v>0</v>
       </c>
       <c r="X12" t="n">
-        <v>0</v>
+        <v>205.7729852034775</v>
       </c>
       <c r="Y12" t="n">
-        <v>0</v>
+        <v>205.6826957773044</v>
       </c>
     </row>
     <row r="13">
@@ -23427,7 +23427,7 @@
         <v>146.4339626465692</v>
       </c>
       <c r="F13" t="n">
-        <v>145.4210480229312</v>
+        <v>106.4446432747563</v>
       </c>
       <c r="G13" t="n">
         <v>167.7266695472104</v>
@@ -23469,7 +23469,7 @@
         <v>219.4103988718534</v>
       </c>
       <c r="T13" t="n">
-        <v>187.8398609411363</v>
+        <v>226.8162656893113</v>
       </c>
       <c r="U13" t="n">
         <v>286.3046124576955</v>
@@ -23503,13 +23503,13 @@
         <v>354.683041620683</v>
       </c>
       <c r="E14" t="n">
-        <v>0</v>
+        <v>381.9303700722618</v>
       </c>
       <c r="F14" t="n">
-        <v>1.134473744809156</v>
+        <v>406.8760457417114</v>
       </c>
       <c r="G14" t="n">
-        <v>8.97193213363164</v>
+        <v>8.971932133631526</v>
       </c>
       <c r="H14" t="n">
         <v>333.4403157157206</v>
@@ -23542,22 +23542,22 @@
         <v>0</v>
       </c>
       <c r="R14" t="n">
-        <v>112.8556863456974</v>
+        <v>0</v>
       </c>
       <c r="S14" t="n">
-        <v>195.5929138346465</v>
+        <v>0</v>
       </c>
       <c r="T14" t="n">
         <v>220.5164804230398</v>
       </c>
       <c r="U14" t="n">
-        <v>251.2985142370684</v>
+        <v>67.88002099628429</v>
       </c>
       <c r="V14" t="n">
         <v>0</v>
       </c>
       <c r="W14" t="n">
-        <v>295.8048486480362</v>
+        <v>0</v>
       </c>
       <c r="X14" t="n">
         <v>369.731100678469</v>
@@ -23573,13 +23573,13 @@
         </is>
       </c>
       <c r="B15" t="n">
-        <v>0</v>
+        <v>166.5331836498673</v>
       </c>
       <c r="C15" t="n">
-        <v>172.7084989883157</v>
+        <v>0</v>
       </c>
       <c r="D15" t="n">
-        <v>0</v>
+        <v>147.4450655646388</v>
       </c>
       <c r="E15" t="n">
         <v>157.6450804554009</v>
@@ -23621,13 +23621,13 @@
         <v>0</v>
       </c>
       <c r="R15" t="n">
-        <v>80.58358449827551</v>
+        <v>0</v>
       </c>
       <c r="S15" t="n">
         <v>0</v>
       </c>
       <c r="T15" t="n">
-        <v>98.73847778858904</v>
+        <v>0</v>
       </c>
       <c r="U15" t="n">
         <v>0</v>
@@ -23636,10 +23636,10 @@
         <v>0</v>
       </c>
       <c r="W15" t="n">
-        <v>0</v>
+        <v>243.8252972641516</v>
       </c>
       <c r="X15" t="n">
-        <v>205.7729852034775</v>
+        <v>0</v>
       </c>
       <c r="Y15" t="n">
         <v>0</v>
@@ -23673,7 +23673,7 @@
         <v>159.8772180037952</v>
       </c>
       <c r="I16" t="n">
-        <v>74.14019829714279</v>
+        <v>147.5019580580808</v>
       </c>
       <c r="J16" t="n">
         <v>74.67247646141476</v>
@@ -23700,7 +23700,7 @@
         <v>64.0297007843443</v>
       </c>
       <c r="R16" t="n">
-        <v>165.4090611368575</v>
+        <v>92.04730137591964</v>
       </c>
       <c r="S16" t="n">
         <v>219.4103988718534</v>
@@ -23734,22 +23734,22 @@
         <v>382.7338416634806</v>
       </c>
       <c r="C17" t="n">
-        <v>365.2728917710076</v>
+        <v>347.1382603587957</v>
       </c>
       <c r="D17" t="n">
         <v>354.683041620683</v>
       </c>
       <c r="E17" t="n">
-        <v>381.9303700722618</v>
+        <v>0</v>
       </c>
       <c r="F17" t="n">
         <v>406.8760457417114</v>
       </c>
       <c r="G17" t="n">
-        <v>8.971932133631583</v>
+        <v>414.7135041305339</v>
       </c>
       <c r="H17" t="n">
-        <v>0</v>
+        <v>333.4403157157206</v>
       </c>
       <c r="I17" t="n">
         <v>0</v>
@@ -23788,7 +23788,7 @@
         <v>220.5164804230398</v>
       </c>
       <c r="U17" t="n">
-        <v>251.2985142370684</v>
+        <v>0</v>
       </c>
       <c r="V17" t="n">
         <v>327.7522584701349</v>
@@ -23797,10 +23797,10 @@
         <v>0</v>
       </c>
       <c r="X17" t="n">
-        <v>71.31153401349638</v>
+        <v>369.731100678469</v>
       </c>
       <c r="Y17" t="n">
-        <v>386.2379386560536</v>
+        <v>0</v>
       </c>
     </row>
     <row r="18">
@@ -23813,19 +23813,19 @@
         <v>166.5331836498673</v>
       </c>
       <c r="C18" t="n">
-        <v>165.2832744570137</v>
+        <v>172.7084989883157</v>
       </c>
       <c r="D18" t="n">
-        <v>147.4450655646388</v>
+        <v>0</v>
       </c>
       <c r="E18" t="n">
-        <v>157.6450804554009</v>
+        <v>0</v>
       </c>
       <c r="F18" t="n">
         <v>145.0692123933839</v>
       </c>
       <c r="G18" t="n">
-        <v>137.0282495084215</v>
+        <v>0</v>
       </c>
       <c r="H18" t="n">
         <v>109.1906224126114</v>
@@ -23861,7 +23861,7 @@
         <v>0</v>
       </c>
       <c r="S18" t="n">
-        <v>0</v>
+        <v>165.8272126914158</v>
       </c>
       <c r="T18" t="n">
         <v>0</v>
@@ -23876,10 +23876,10 @@
         <v>0</v>
       </c>
       <c r="X18" t="n">
-        <v>0</v>
+        <v>205.7729852034775</v>
       </c>
       <c r="Y18" t="n">
-        <v>0</v>
+        <v>63.09297310226546</v>
       </c>
     </row>
     <row r="19">
@@ -23889,7 +23889,7 @@
         </is>
       </c>
       <c r="B19" t="n">
-        <v>179.8319801819373</v>
+        <v>0</v>
       </c>
       <c r="C19" t="n">
         <v>167.2468210986278</v>
@@ -23904,7 +23904,7 @@
         <v>145.4210480229312</v>
       </c>
       <c r="G19" t="n">
-        <v>128.5318789201399</v>
+        <v>22.05924664438177</v>
       </c>
       <c r="H19" t="n">
         <v>159.8772180037952</v>
@@ -23946,7 +23946,7 @@
         <v>226.8162656893113</v>
       </c>
       <c r="U19" t="n">
-        <v>0</v>
+        <v>286.3046124576955</v>
       </c>
       <c r="V19" t="n">
         <v>252.137643323828</v>
@@ -23974,22 +23974,22 @@
         <v>365.2728917710076</v>
       </c>
       <c r="D20" t="n">
-        <v>354.683041620683</v>
+        <v>0</v>
       </c>
       <c r="E20" t="n">
         <v>381.9303700722618</v>
       </c>
       <c r="F20" t="n">
-        <v>1.1344737448091</v>
+        <v>406.8760457417114</v>
       </c>
       <c r="G20" t="n">
-        <v>8.971932133631583</v>
+        <v>8.971932133631526</v>
       </c>
       <c r="H20" t="n">
-        <v>0</v>
+        <v>56.26347495571008</v>
       </c>
       <c r="I20" t="n">
-        <v>187.7594695105699</v>
+        <v>0</v>
       </c>
       <c r="J20" t="n">
         <v>0</v>
@@ -24022,7 +24022,7 @@
         <v>195.5929138346465</v>
       </c>
       <c r="T20" t="n">
-        <v>177.0759861830402</v>
+        <v>220.5164804230398</v>
       </c>
       <c r="U20" t="n">
         <v>251.2985142370684</v>
@@ -24031,13 +24031,13 @@
         <v>327.7522584701349</v>
       </c>
       <c r="W20" t="n">
-        <v>349.240968717413</v>
+        <v>0</v>
       </c>
       <c r="X20" t="n">
         <v>369.731100678469</v>
       </c>
       <c r="Y20" t="n">
-        <v>0</v>
+        <v>386.2379386560536</v>
       </c>
     </row>
     <row r="21">
@@ -24059,10 +24059,10 @@
         <v>157.6450804554009</v>
       </c>
       <c r="F21" t="n">
-        <v>145.0692123933839</v>
+        <v>0</v>
       </c>
       <c r="G21" t="n">
-        <v>0</v>
+        <v>137.0282495084215</v>
       </c>
       <c r="H21" t="n">
         <v>109.1906224126114</v>
@@ -24098,10 +24098,10 @@
         <v>80.58358449827551</v>
       </c>
       <c r="S21" t="n">
-        <v>15.95495426368166</v>
+        <v>0</v>
       </c>
       <c r="T21" t="n">
-        <v>0</v>
+        <v>24.08620657481728</v>
       </c>
       <c r="U21" t="n">
         <v>0</v>
@@ -24113,10 +24113,10 @@
         <v>0</v>
       </c>
       <c r="X21" t="n">
-        <v>205.7729852034775</v>
+        <v>0</v>
       </c>
       <c r="Y21" t="n">
-        <v>0</v>
+        <v>205.6826957773044</v>
       </c>
     </row>
     <row r="22">
@@ -24126,7 +24126,7 @@
         </is>
       </c>
       <c r="B22" t="n">
-        <v>0.766539743740509</v>
+        <v>179.8319801819373</v>
       </c>
       <c r="C22" t="n">
         <v>167.2468210986278</v>
@@ -24135,7 +24135,7 @@
         <v>148.6154730182124</v>
       </c>
       <c r="E22" t="n">
-        <v>0</v>
+        <v>146.4339626465692</v>
       </c>
       <c r="F22" t="n">
         <v>145.4210480229312</v>
@@ -24180,7 +24180,7 @@
         <v>219.4103988718534</v>
       </c>
       <c r="T22" t="n">
-        <v>226.8162656893113</v>
+        <v>0</v>
       </c>
       <c r="U22" t="n">
         <v>286.3046124576955</v>
@@ -24189,7 +24189,7 @@
         <v>252.137643323828</v>
       </c>
       <c r="W22" t="n">
-        <v>286.522998336591</v>
+        <v>187.8398609411363</v>
       </c>
       <c r="X22" t="n">
         <v>225.7096553890372</v>
@@ -24205,10 +24205,10 @@
         </is>
       </c>
       <c r="B23" t="n">
-        <v>382.7338416634806</v>
+        <v>0</v>
       </c>
       <c r="C23" t="n">
-        <v>269.5620516539886</v>
+        <v>365.2728917710076</v>
       </c>
       <c r="D23" t="n">
         <v>354.683041620683</v>
@@ -24217,10 +24217,10 @@
         <v>381.9303700722618</v>
       </c>
       <c r="F23" t="n">
-        <v>1.134473744809043</v>
+        <v>1.1344737448091</v>
       </c>
       <c r="G23" t="n">
-        <v>8.971932133631526</v>
+        <v>414.7135041305339</v>
       </c>
       <c r="H23" t="n">
         <v>333.4403157157206</v>
@@ -24256,25 +24256,25 @@
         <v>112.8556863456974</v>
       </c>
       <c r="S23" t="n">
-        <v>0</v>
+        <v>195.5929138346465</v>
       </c>
       <c r="T23" t="n">
-        <v>0</v>
+        <v>220.5164804230398</v>
       </c>
       <c r="U23" t="n">
-        <v>0</v>
+        <v>251.2985142370684</v>
       </c>
       <c r="V23" t="n">
         <v>327.7522584701349</v>
       </c>
       <c r="W23" t="n">
-        <v>349.240968717413</v>
+        <v>0</v>
       </c>
       <c r="X23" t="n">
-        <v>369.731100678469</v>
+        <v>319.0835291067401</v>
       </c>
       <c r="Y23" t="n">
-        <v>386.2379386560536</v>
+        <v>0</v>
       </c>
     </row>
     <row r="24">
@@ -24287,25 +24287,25 @@
         <v>166.5331836498673</v>
       </c>
       <c r="C24" t="n">
-        <v>0</v>
+        <v>172.7084989883157</v>
       </c>
       <c r="D24" t="n">
         <v>147.4450655646388</v>
       </c>
       <c r="E24" t="n">
-        <v>157.1011422209983</v>
+        <v>157.6450804554009</v>
       </c>
       <c r="F24" t="n">
-        <v>145.0692123933839</v>
+        <v>17.10010659499933</v>
       </c>
       <c r="G24" t="n">
-        <v>137.0282495084215</v>
+        <v>0</v>
       </c>
       <c r="H24" t="n">
-        <v>109.1906224126114</v>
+        <v>0</v>
       </c>
       <c r="I24" t="n">
-        <v>78.54202280713804</v>
+        <v>0</v>
       </c>
       <c r="J24" t="n">
         <v>0</v>
@@ -24332,13 +24332,13 @@
         <v>0</v>
       </c>
       <c r="R24" t="n">
-        <v>0</v>
+        <v>80.58358449827551</v>
       </c>
       <c r="S24" t="n">
         <v>165.8272126914158</v>
       </c>
       <c r="T24" t="n">
-        <v>0</v>
+        <v>198.8939788055617</v>
       </c>
       <c r="U24" t="n">
         <v>0</v>
@@ -24420,13 +24420,13 @@
         <v>226.8162656893113</v>
       </c>
       <c r="U25" t="n">
-        <v>247.3282077095205</v>
+        <v>212.9428526967575</v>
       </c>
       <c r="V25" t="n">
-        <v>252.137643323828</v>
+        <v>0</v>
       </c>
       <c r="W25" t="n">
-        <v>0</v>
+        <v>286.522998336591</v>
       </c>
       <c r="X25" t="n">
         <v>225.7096553890372</v>
@@ -24442,25 +24442,25 @@
         </is>
       </c>
       <c r="B26" t="n">
-        <v>0</v>
+        <v>382.7338416634806</v>
       </c>
       <c r="C26" t="n">
         <v>365.2728917710076</v>
       </c>
       <c r="D26" t="n">
-        <v>0</v>
+        <v>354.683041620683</v>
       </c>
       <c r="E26" t="n">
-        <v>381.9303700722618</v>
+        <v>0</v>
       </c>
       <c r="F26" t="n">
-        <v>1.134473744809156</v>
+        <v>406.8760457417114</v>
       </c>
       <c r="G26" t="n">
         <v>414.7135041305339</v>
       </c>
       <c r="H26" t="n">
-        <v>251.237847108621</v>
+        <v>333.4403157157206</v>
       </c>
       <c r="I26" t="n">
         <v>187.7594695105699</v>
@@ -24496,22 +24496,22 @@
         <v>195.5929138346465</v>
       </c>
       <c r="T26" t="n">
-        <v>220.5164804230398</v>
+        <v>0</v>
       </c>
       <c r="U26" t="n">
-        <v>251.2985142370684</v>
+        <v>0</v>
       </c>
       <c r="V26" t="n">
         <v>327.7522584701349</v>
       </c>
       <c r="W26" t="n">
-        <v>0</v>
+        <v>349.240968717413</v>
       </c>
       <c r="X26" t="n">
-        <v>369.731100678469</v>
+        <v>0</v>
       </c>
       <c r="Y26" t="n">
-        <v>386.2379386560536</v>
+        <v>35.1125114613144</v>
       </c>
     </row>
     <row r="27">
@@ -24521,28 +24521,28 @@
         </is>
       </c>
       <c r="B27" t="n">
-        <v>0</v>
+        <v>166.5331836498673</v>
       </c>
       <c r="C27" t="n">
-        <v>172.7084989883157</v>
+        <v>0</v>
       </c>
       <c r="D27" t="n">
-        <v>0</v>
+        <v>147.4450655646388</v>
       </c>
       <c r="E27" t="n">
-        <v>0</v>
+        <v>157.6450804554009</v>
       </c>
       <c r="F27" t="n">
-        <v>0</v>
+        <v>145.0692123933839</v>
       </c>
       <c r="G27" t="n">
         <v>137.0282495084215</v>
       </c>
       <c r="H27" t="n">
-        <v>0</v>
+        <v>108.6466841782091</v>
       </c>
       <c r="I27" t="n">
-        <v>0</v>
+        <v>78.54202280713804</v>
       </c>
       <c r="J27" t="n">
         <v>0</v>
@@ -24569,13 +24569,13 @@
         <v>0</v>
       </c>
       <c r="R27" t="n">
-        <v>80.58358449827551</v>
+        <v>0</v>
       </c>
       <c r="S27" t="n">
         <v>165.8272126914158</v>
       </c>
       <c r="T27" t="n">
-        <v>139.1334845812651</v>
+        <v>0</v>
       </c>
       <c r="U27" t="n">
         <v>0</v>
@@ -24587,10 +24587,10 @@
         <v>0</v>
       </c>
       <c r="X27" t="n">
-        <v>205.7729852034775</v>
+        <v>0</v>
       </c>
       <c r="Y27" t="n">
-        <v>205.6826957773044</v>
+        <v>0</v>
       </c>
     </row>
     <row r="28">
@@ -24606,13 +24606,13 @@
         <v>167.2468210986278</v>
       </c>
       <c r="D28" t="n">
-        <v>114.9710806029468</v>
+        <v>148.6154730182124</v>
       </c>
       <c r="E28" t="n">
-        <v>0</v>
+        <v>146.4339626465692</v>
       </c>
       <c r="F28" t="n">
-        <v>0</v>
+        <v>145.4210480229312</v>
       </c>
       <c r="G28" t="n">
         <v>167.7266695472104</v>
@@ -24657,10 +24657,10 @@
         <v>226.8162656893113</v>
       </c>
       <c r="U28" t="n">
-        <v>286.3046124576955</v>
+        <v>0</v>
       </c>
       <c r="V28" t="n">
-        <v>252.137643323828</v>
+        <v>212.9428526967575</v>
       </c>
       <c r="W28" t="n">
         <v>286.522998336591</v>
@@ -24691,7 +24691,7 @@
         <v>0</v>
       </c>
       <c r="F29" t="n">
-        <v>406.8760457417114</v>
+        <v>1.134473744809043</v>
       </c>
       <c r="G29" t="n">
         <v>414.7135041305339</v>
@@ -24727,10 +24727,10 @@
         <v>0</v>
       </c>
       <c r="R29" t="n">
-        <v>112.8556863456974</v>
+        <v>0</v>
       </c>
       <c r="S29" t="n">
-        <v>0</v>
+        <v>195.5929138346465</v>
       </c>
       <c r="T29" t="n">
         <v>0</v>
@@ -24745,10 +24745,10 @@
         <v>349.240968717413</v>
       </c>
       <c r="X29" t="n">
-        <v>362.1407527223726</v>
+        <v>369.731100678469</v>
       </c>
       <c r="Y29" t="n">
-        <v>0</v>
+        <v>315.4139965518569</v>
       </c>
     </row>
     <row r="30">
@@ -24758,13 +24758,13 @@
         </is>
       </c>
       <c r="B30" t="n">
-        <v>0</v>
+        <v>166.5331836498673</v>
       </c>
       <c r="C30" t="n">
         <v>172.7084989883157</v>
       </c>
       <c r="D30" t="n">
-        <v>147.4450655646388</v>
+        <v>0</v>
       </c>
       <c r="E30" t="n">
         <v>0</v>
@@ -24809,13 +24809,13 @@
         <v>80.58358449827551</v>
       </c>
       <c r="S30" t="n">
-        <v>0</v>
+        <v>165.8272126914158</v>
       </c>
       <c r="T30" t="n">
-        <v>10.24881428779366</v>
+        <v>51.25412429904566</v>
       </c>
       <c r="U30" t="n">
-        <v>225.9206407878966</v>
+        <v>0</v>
       </c>
       <c r="V30" t="n">
         <v>0</v>
@@ -24843,13 +24843,13 @@
         <v>167.2468210986278</v>
       </c>
       <c r="D31" t="n">
-        <v>0</v>
+        <v>148.6154730182124</v>
       </c>
       <c r="E31" t="n">
-        <v>0</v>
+        <v>146.4339626465692</v>
       </c>
       <c r="F31" t="n">
-        <v>114.9710806029468</v>
+        <v>145.4210480229312</v>
       </c>
       <c r="G31" t="n">
         <v>167.7266695472104</v>
@@ -24891,10 +24891,10 @@
         <v>219.4103988718534</v>
       </c>
       <c r="T31" t="n">
-        <v>226.8162656893113</v>
+        <v>0</v>
       </c>
       <c r="U31" t="n">
-        <v>286.3046124576955</v>
+        <v>187.6214750622408</v>
       </c>
       <c r="V31" t="n">
         <v>252.137643323828</v>
@@ -24916,22 +24916,22 @@
         </is>
       </c>
       <c r="B32" t="n">
-        <v>0</v>
+        <v>382.7338416634806</v>
       </c>
       <c r="C32" t="n">
-        <v>0</v>
+        <v>365.2728917710076</v>
       </c>
       <c r="D32" t="n">
-        <v>354.683041620683</v>
+        <v>0</v>
       </c>
       <c r="E32" t="n">
-        <v>381.9303700722618</v>
+        <v>0</v>
       </c>
       <c r="F32" t="n">
         <v>406.8760457417114</v>
       </c>
       <c r="G32" t="n">
-        <v>414.7135041305339</v>
+        <v>8.971932133631526</v>
       </c>
       <c r="H32" t="n">
         <v>333.4403157157206</v>
@@ -24967,13 +24967,13 @@
         <v>112.8556863456974</v>
       </c>
       <c r="S32" t="n">
-        <v>195.5929138346465</v>
+        <v>0</v>
       </c>
       <c r="T32" t="n">
-        <v>220.5164804230398</v>
+        <v>0</v>
       </c>
       <c r="U32" t="n">
-        <v>180.6723944005004</v>
+        <v>251.2985142370684</v>
       </c>
       <c r="V32" t="n">
         <v>327.7522584701349</v>
@@ -24982,10 +24982,10 @@
         <v>349.240968717413</v>
       </c>
       <c r="X32" t="n">
-        <v>0</v>
+        <v>353.5935860204238</v>
       </c>
       <c r="Y32" t="n">
-        <v>0</v>
+        <v>386.2379386560536</v>
       </c>
     </row>
     <row r="33">
@@ -24995,13 +24995,13 @@
         </is>
       </c>
       <c r="B33" t="n">
-        <v>166.5331836498673</v>
+        <v>0</v>
       </c>
       <c r="C33" t="n">
-        <v>0</v>
+        <v>172.7084989883157</v>
       </c>
       <c r="D33" t="n">
-        <v>147.4450655646388</v>
+        <v>0</v>
       </c>
       <c r="E33" t="n">
         <v>0</v>
@@ -25010,13 +25010,13 @@
         <v>0</v>
       </c>
       <c r="G33" t="n">
-        <v>0</v>
+        <v>137.0282495084215</v>
       </c>
       <c r="H33" t="n">
         <v>109.1906224126114</v>
       </c>
       <c r="I33" t="n">
-        <v>0</v>
+        <v>78.54202280713804</v>
       </c>
       <c r="J33" t="n">
         <v>0</v>
@@ -25049,10 +25049,10 @@
         <v>0</v>
       </c>
       <c r="T33" t="n">
-        <v>171.3809185578812</v>
+        <v>117.2280520529309</v>
       </c>
       <c r="U33" t="n">
-        <v>225.9206407878966</v>
+        <v>0</v>
       </c>
       <c r="V33" t="n">
         <v>0</v>
@@ -25061,7 +25061,7 @@
         <v>0</v>
       </c>
       <c r="X33" t="n">
-        <v>0</v>
+        <v>205.7729852034775</v>
       </c>
       <c r="Y33" t="n">
         <v>205.6826957773044</v>
@@ -25074,19 +25074,19 @@
         </is>
       </c>
       <c r="B34" t="n">
-        <v>179.8319801819373</v>
+        <v>2.948050115383722</v>
       </c>
       <c r="C34" t="n">
-        <v>133.6024286833623</v>
+        <v>167.2468210986278</v>
       </c>
       <c r="D34" t="n">
-        <v>148.6154730182124</v>
+        <v>0</v>
       </c>
       <c r="E34" t="n">
-        <v>0</v>
+        <v>146.4339626465692</v>
       </c>
       <c r="F34" t="n">
-        <v>0</v>
+        <v>145.4210480229312</v>
       </c>
       <c r="G34" t="n">
         <v>167.7266695472104</v>
@@ -25156,16 +25156,16 @@
         <v>0</v>
       </c>
       <c r="C35" t="n">
-        <v>365.2728917710076</v>
+        <v>160.9772653165121</v>
       </c>
       <c r="D35" t="n">
         <v>354.683041620683</v>
       </c>
       <c r="E35" t="n">
-        <v>0</v>
+        <v>381.9303700722618</v>
       </c>
       <c r="F35" t="n">
-        <v>352.9074042063979</v>
+        <v>1.1344737448091</v>
       </c>
       <c r="G35" t="n">
         <v>414.7135041305339</v>
@@ -25204,7 +25204,7 @@
         <v>112.8556863456974</v>
       </c>
       <c r="S35" t="n">
-        <v>195.5929138346465</v>
+        <v>0</v>
       </c>
       <c r="T35" t="n">
         <v>220.5164804230398</v>
@@ -25219,7 +25219,7 @@
         <v>349.240968717413</v>
       </c>
       <c r="X35" t="n">
-        <v>0</v>
+        <v>369.731100678469</v>
       </c>
       <c r="Y35" t="n">
         <v>0</v>
@@ -25232,25 +25232,25 @@
         </is>
       </c>
       <c r="B36" t="n">
-        <v>140.7258119917879</v>
+        <v>0</v>
       </c>
       <c r="C36" t="n">
         <v>172.7084989883157</v>
       </c>
       <c r="D36" t="n">
-        <v>0</v>
+        <v>147.4450655646388</v>
       </c>
       <c r="E36" t="n">
         <v>157.6450804554009</v>
       </c>
       <c r="F36" t="n">
-        <v>145.0692123933839</v>
+        <v>0</v>
       </c>
       <c r="G36" t="n">
-        <v>137.0282495084215</v>
+        <v>0</v>
       </c>
       <c r="H36" t="n">
-        <v>109.1906224126114</v>
+        <v>38.11883294333205</v>
       </c>
       <c r="I36" t="n">
         <v>78.54202280713804</v>
@@ -25280,16 +25280,16 @@
         <v>0</v>
       </c>
       <c r="R36" t="n">
-        <v>0</v>
+        <v>80.58358449827551</v>
       </c>
       <c r="S36" t="n">
-        <v>165.8272126914158</v>
+        <v>0</v>
       </c>
       <c r="T36" t="n">
         <v>0</v>
       </c>
       <c r="U36" t="n">
-        <v>0</v>
+        <v>225.9206407878966</v>
       </c>
       <c r="V36" t="n">
         <v>0</v>
@@ -25298,7 +25298,7 @@
         <v>0</v>
       </c>
       <c r="X36" t="n">
-        <v>0</v>
+        <v>205.7729852034775</v>
       </c>
       <c r="Y36" t="n">
         <v>0</v>
@@ -25326,7 +25326,7 @@
         <v>145.4210480229312</v>
       </c>
       <c r="G37" t="n">
-        <v>69.04353215175573</v>
+        <v>167.7266695472104</v>
       </c>
       <c r="H37" t="n">
         <v>159.8772180037952</v>
@@ -25365,7 +25365,7 @@
         <v>219.4103988718534</v>
       </c>
       <c r="T37" t="n">
-        <v>0</v>
+        <v>226.8162656893113</v>
       </c>
       <c r="U37" t="n">
         <v>286.3046124576955</v>
@@ -25377,10 +25377,10 @@
         <v>286.522998336591</v>
       </c>
       <c r="X37" t="n">
-        <v>225.7096553890372</v>
+        <v>118.794905656366</v>
       </c>
       <c r="Y37" t="n">
-        <v>218.5846533520948</v>
+        <v>0</v>
       </c>
     </row>
     <row r="38">
@@ -25399,13 +25399,13 @@
         <v>354.683041620683</v>
       </c>
       <c r="E38" t="n">
-        <v>0</v>
+        <v>381.9303700722618</v>
       </c>
       <c r="F38" t="n">
-        <v>406.8760457417114</v>
+        <v>1.134473744809043</v>
       </c>
       <c r="G38" t="n">
-        <v>8.971932133631526</v>
+        <v>414.7135041305339</v>
       </c>
       <c r="H38" t="n">
         <v>333.4403157157206</v>
@@ -25438,25 +25438,25 @@
         <v>0</v>
       </c>
       <c r="R38" t="n">
-        <v>112.8556863456974</v>
+        <v>0</v>
       </c>
       <c r="S38" t="n">
         <v>0</v>
       </c>
       <c r="T38" t="n">
-        <v>0</v>
+        <v>220.5164804230398</v>
       </c>
       <c r="U38" t="n">
         <v>251.2985142370684</v>
       </c>
       <c r="V38" t="n">
-        <v>327.7522584701349</v>
+        <v>186.3126074376848</v>
       </c>
       <c r="W38" t="n">
         <v>0</v>
       </c>
       <c r="X38" t="n">
-        <v>348.1515131171538</v>
+        <v>0</v>
       </c>
       <c r="Y38" t="n">
         <v>386.2379386560536</v>
@@ -25469,13 +25469,13 @@
         </is>
       </c>
       <c r="B39" t="n">
-        <v>166.5331836498673</v>
+        <v>0</v>
       </c>
       <c r="C39" t="n">
         <v>172.7084989883157</v>
       </c>
       <c r="D39" t="n">
-        <v>147.4450655646388</v>
+        <v>0</v>
       </c>
       <c r="E39" t="n">
         <v>157.6450804554009</v>
@@ -25484,10 +25484,10 @@
         <v>145.0692123933839</v>
       </c>
       <c r="G39" t="n">
-        <v>0</v>
+        <v>137.0282495084215</v>
       </c>
       <c r="H39" t="n">
-        <v>33.11095161242616</v>
+        <v>109.1906224126114</v>
       </c>
       <c r="I39" t="n">
         <v>78.54202280713804</v>
@@ -25523,7 +25523,7 @@
         <v>0</v>
       </c>
       <c r="T39" t="n">
-        <v>0</v>
+        <v>100.8703289058992</v>
       </c>
       <c r="U39" t="n">
         <v>0</v>
@@ -25557,7 +25557,7 @@
         <v>148.6154730182124</v>
       </c>
       <c r="E40" t="n">
-        <v>146.4339626465692</v>
+        <v>47.75082525111449</v>
       </c>
       <c r="F40" t="n">
         <v>145.4210480229312</v>
@@ -25602,7 +25602,7 @@
         <v>219.4103988718534</v>
       </c>
       <c r="T40" t="n">
-        <v>226.8162656893113</v>
+        <v>0</v>
       </c>
       <c r="U40" t="n">
         <v>286.3046124576955</v>
@@ -25611,13 +25611,13 @@
         <v>252.137643323828</v>
       </c>
       <c r="W40" t="n">
-        <v>0</v>
+        <v>286.522998336591</v>
       </c>
       <c r="X40" t="n">
         <v>225.7096553890372</v>
       </c>
       <c r="Y40" t="n">
-        <v>179.6082486039198</v>
+        <v>218.5846533520948</v>
       </c>
     </row>
     <row r="41">
@@ -25633,16 +25633,16 @@
         <v>365.2728917710076</v>
       </c>
       <c r="D41" t="n">
-        <v>98.24566048794719</v>
+        <v>354.683041620683</v>
       </c>
       <c r="E41" t="n">
-        <v>381.9303700722618</v>
+        <v>0</v>
       </c>
       <c r="F41" t="n">
-        <v>406.8760457417114</v>
+        <v>1.1344737448091</v>
       </c>
       <c r="G41" t="n">
-        <v>8.971932133631526</v>
+        <v>8.971932133631583</v>
       </c>
       <c r="H41" t="n">
         <v>333.4403157157206</v>
@@ -25681,13 +25681,13 @@
         <v>195.5929138346465</v>
       </c>
       <c r="T41" t="n">
-        <v>0</v>
+        <v>220.5164804230398</v>
       </c>
       <c r="U41" t="n">
-        <v>0</v>
+        <v>251.2985142370684</v>
       </c>
       <c r="V41" t="n">
-        <v>0</v>
+        <v>59.41956627632021</v>
       </c>
       <c r="W41" t="n">
         <v>349.240968717413</v>
@@ -25706,7 +25706,7 @@
         </is>
       </c>
       <c r="B42" t="n">
-        <v>0</v>
+        <v>166.5331836498673</v>
       </c>
       <c r="C42" t="n">
         <v>0</v>
@@ -25715,7 +25715,7 @@
         <v>147.4450655646388</v>
       </c>
       <c r="E42" t="n">
-        <v>157.6450804554009</v>
+        <v>0</v>
       </c>
       <c r="F42" t="n">
         <v>0</v>
@@ -25724,7 +25724,7 @@
         <v>137.0282495084215</v>
       </c>
       <c r="H42" t="n">
-        <v>109.1906224126114</v>
+        <v>0</v>
       </c>
       <c r="I42" t="n">
         <v>78.54202280713804</v>
@@ -25754,7 +25754,7 @@
         <v>0</v>
       </c>
       <c r="R42" t="n">
-        <v>0</v>
+        <v>80.58358449827551</v>
       </c>
       <c r="S42" t="n">
         <v>0</v>
@@ -25763,19 +25763,19 @@
         <v>0</v>
       </c>
       <c r="U42" t="n">
-        <v>65.4299895194826</v>
+        <v>225.9206407878966</v>
       </c>
       <c r="V42" t="n">
-        <v>0</v>
+        <v>232.8005871494253</v>
       </c>
       <c r="W42" t="n">
         <v>0</v>
       </c>
       <c r="X42" t="n">
-        <v>205.7729852034775</v>
+        <v>37.88337728281218</v>
       </c>
       <c r="Y42" t="n">
-        <v>205.6826957773044</v>
+        <v>0</v>
       </c>
     </row>
     <row r="43">
@@ -25797,7 +25797,7 @@
         <v>146.4339626465692</v>
       </c>
       <c r="F43" t="n">
-        <v>0</v>
+        <v>145.4210480229312</v>
       </c>
       <c r="G43" t="n">
         <v>167.7266695472104</v>
@@ -25833,7 +25833,7 @@
         <v>64.02970078434429</v>
       </c>
       <c r="R43" t="n">
-        <v>165.4090611368575</v>
+        <v>0</v>
       </c>
       <c r="S43" t="n">
         <v>219.4103988718534</v>
@@ -25842,13 +25842,13 @@
         <v>226.8162656893113</v>
       </c>
       <c r="U43" t="n">
-        <v>106.2262573958608</v>
+        <v>286.3046124576955</v>
       </c>
       <c r="V43" t="n">
         <v>252.137643323828</v>
       </c>
       <c r="W43" t="n">
-        <v>286.522998336591</v>
+        <v>126.4326563886826</v>
       </c>
       <c r="X43" t="n">
         <v>225.7096553890372</v>
@@ -25864,10 +25864,10 @@
         </is>
       </c>
       <c r="B44" t="n">
-        <v>382.7338416634806</v>
+        <v>0</v>
       </c>
       <c r="C44" t="n">
-        <v>365.2728917710076</v>
+        <v>138.8935272432243</v>
       </c>
       <c r="D44" t="n">
         <v>354.683041620683</v>
@@ -25876,10 +25876,10 @@
         <v>381.9303700722618</v>
       </c>
       <c r="F44" t="n">
-        <v>117.2082730740393</v>
+        <v>406.8760457417114</v>
       </c>
       <c r="G44" t="n">
-        <v>414.7135041305339</v>
+        <v>8.971932133631583</v>
       </c>
       <c r="H44" t="n">
         <v>333.4403157157206</v>
@@ -25918,10 +25918,10 @@
         <v>0</v>
       </c>
       <c r="T44" t="n">
-        <v>0</v>
+        <v>220.5164804230398</v>
       </c>
       <c r="U44" t="n">
-        <v>251.2985142370684</v>
+        <v>0</v>
       </c>
       <c r="V44" t="n">
         <v>327.7522584701349</v>
@@ -25930,10 +25930,10 @@
         <v>349.240968717413</v>
       </c>
       <c r="X44" t="n">
-        <v>0</v>
+        <v>369.731100678469</v>
       </c>
       <c r="Y44" t="n">
-        <v>0</v>
+        <v>386.2379386560536</v>
       </c>
     </row>
     <row r="45">
@@ -25946,25 +25946,25 @@
         <v>0</v>
       </c>
       <c r="C45" t="n">
-        <v>172.7084989883157</v>
+        <v>0</v>
       </c>
       <c r="D45" t="n">
         <v>0</v>
       </c>
       <c r="E45" t="n">
-        <v>157.6450804554009</v>
+        <v>0</v>
       </c>
       <c r="F45" t="n">
-        <v>86.11457629093641</v>
+        <v>145.0692123933839</v>
       </c>
       <c r="G45" t="n">
-        <v>0</v>
+        <v>137.0282495084215</v>
       </c>
       <c r="H45" t="n">
-        <v>0</v>
+        <v>109.1906224126114</v>
       </c>
       <c r="I45" t="n">
-        <v>0</v>
+        <v>78.54202280713804</v>
       </c>
       <c r="J45" t="n">
         <v>0</v>
@@ -25997,19 +25997,19 @@
         <v>0</v>
       </c>
       <c r="T45" t="n">
-        <v>0</v>
+        <v>178.1853761895986</v>
       </c>
       <c r="U45" t="n">
-        <v>0</v>
+        <v>225.9206407878966</v>
       </c>
       <c r="V45" t="n">
         <v>232.8005871494253</v>
       </c>
       <c r="W45" t="n">
-        <v>251.6949831609196</v>
+        <v>0</v>
       </c>
       <c r="X45" t="n">
-        <v>205.7729852034775</v>
+        <v>0</v>
       </c>
       <c r="Y45" t="n">
         <v>0</v>
@@ -26040,7 +26040,7 @@
         <v>167.7266695472104</v>
       </c>
       <c r="H46" t="n">
-        <v>159.8772180037952</v>
+        <v>1.62463601765711</v>
       </c>
       <c r="I46" t="n">
         <v>147.5019580580808</v>
@@ -26085,7 +26085,7 @@
         <v>252.137643323828</v>
       </c>
       <c r="W46" t="n">
-        <v>128.2704163504529</v>
+        <v>286.522998336591</v>
       </c>
       <c r="X46" t="n">
         <v>225.7096553890372</v>
@@ -26157,7 +26157,7 @@
         <v>4</v>
       </c>
       <c r="B6" t="n">
-        <v>506297.2831878808</v>
+        <v>506297.2831878809</v>
       </c>
     </row>
     <row r="7">
@@ -26165,7 +26165,7 @@
         <v>5</v>
       </c>
       <c r="B7" t="n">
-        <v>506297.2831878809</v>
+        <v>506297.2831878813</v>
       </c>
     </row>
     <row r="8">
@@ -26173,7 +26173,7 @@
         <v>6</v>
       </c>
       <c r="B8" t="n">
-        <v>506297.2831878812</v>
+        <v>506297.2831878809</v>
       </c>
     </row>
     <row r="9">
@@ -26181,7 +26181,7 @@
         <v>7</v>
       </c>
       <c r="B9" t="n">
-        <v>506297.2831878808</v>
+        <v>506297.2831878809</v>
       </c>
     </row>
     <row r="10">
@@ -26189,7 +26189,7 @@
         <v>8</v>
       </c>
       <c r="B10" t="n">
-        <v>506297.2831878812</v>
+        <v>506297.2831878809</v>
       </c>
     </row>
     <row r="11">
@@ -26197,7 +26197,7 @@
         <v>9</v>
       </c>
       <c r="B11" t="n">
-        <v>506297.2831878812</v>
+        <v>506297.2831878809</v>
       </c>
     </row>
     <row r="12">
@@ -26213,7 +26213,7 @@
         <v>11</v>
       </c>
       <c r="B13" t="n">
-        <v>506297.2831878811</v>
+        <v>506297.2831878808</v>
       </c>
     </row>
     <row r="14">
@@ -26221,7 +26221,7 @@
         <v>12</v>
       </c>
       <c r="B14" t="n">
-        <v>506297.2831878808</v>
+        <v>506297.2831878811</v>
       </c>
     </row>
     <row r="15">
@@ -26237,7 +26237,7 @@
         <v>14</v>
       </c>
       <c r="B16" t="n">
-        <v>506297.2831878811</v>
+        <v>506297.2831878813</v>
       </c>
     </row>
   </sheetData>
@@ -26316,13 +26316,13 @@
         <v>513151.106165177</v>
       </c>
       <c r="C2" t="n">
+        <v>513151.1061651771</v>
+      </c>
+      <c r="D2" t="n">
         <v>513151.1061651768</v>
       </c>
-      <c r="D2" t="n">
-        <v>513151.1061651769</v>
-      </c>
       <c r="E2" t="n">
-        <v>267036.1213307581</v>
+        <v>267036.121330758</v>
       </c>
       <c r="F2" t="n">
         <v>267036.121330758</v>
@@ -26355,7 +26355,7 @@
         <v>267036.1213307581</v>
       </c>
       <c r="P2" t="n">
-        <v>267036.121330758</v>
+        <v>267036.1213307581</v>
       </c>
     </row>
     <row r="3">
@@ -26389,7 +26389,7 @@
         <v>0</v>
       </c>
       <c r="J3" t="n">
-        <v>63059.94259910619</v>
+        <v>63059.94259910621</v>
       </c>
       <c r="K3" t="n">
         <v>0</v>
@@ -26441,7 +26441,7 @@
         <v>25938.22349556464</v>
       </c>
       <c r="J4" t="n">
-        <v>25938.22349556464</v>
+        <v>25938.22349556463</v>
       </c>
       <c r="K4" t="n">
         <v>25938.22349556464</v>
@@ -26459,7 +26459,7 @@
         <v>25938.22349556464</v>
       </c>
       <c r="P4" t="n">
-        <v>25938.22349556464</v>
+        <v>25938.22349556463</v>
       </c>
     </row>
     <row r="5">
@@ -26478,10 +26478,10 @@
         <v>48281.26876376167</v>
       </c>
       <c r="E5" t="n">
+        <v>27864.35291375756</v>
+      </c>
+      <c r="F5" t="n">
         <v>27864.35291375757</v>
-      </c>
-      <c r="F5" t="n">
-        <v>27864.35291375756</v>
       </c>
       <c r="G5" t="n">
         <v>27864.35291375757</v>
@@ -26490,7 +26490,7 @@
         <v>27864.35291375757</v>
       </c>
       <c r="I5" t="n">
-        <v>27864.35291375758</v>
+        <v>27864.35291375757</v>
       </c>
       <c r="J5" t="n">
         <v>27864.35291375756</v>
@@ -26508,7 +26508,7 @@
         <v>27864.35291375757</v>
       </c>
       <c r="O5" t="n">
-        <v>27864.35291375758</v>
+        <v>27864.35291375757</v>
       </c>
       <c r="P5" t="n">
         <v>27864.35291375757</v>
@@ -26521,49 +26521,49 @@
         </is>
       </c>
       <c r="B6" t="n">
-        <v>79872.61002278887</v>
+        <v>79872.61002278893</v>
       </c>
       <c r="C6" t="n">
+        <v>160642.0415543367</v>
+      </c>
+      <c r="D6" t="n">
         <v>160642.0415543365</v>
       </c>
-      <c r="D6" t="n">
-        <v>160642.0415543366</v>
-      </c>
       <c r="E6" t="n">
-        <v>36448.77540281238</v>
+        <v>45308.91485685137</v>
       </c>
       <c r="F6" t="n">
-        <v>203388.945528059</v>
+        <v>212249.0849820981</v>
       </c>
       <c r="G6" t="n">
-        <v>203388.945528059</v>
+        <v>212249.0849820981</v>
       </c>
       <c r="H6" t="n">
-        <v>203388.945528059</v>
+        <v>212249.0849820981</v>
       </c>
       <c r="I6" t="n">
-        <v>203388.9455280591</v>
+        <v>212249.0849820982</v>
       </c>
       <c r="J6" t="n">
-        <v>140329.0029289529</v>
+        <v>149189.1423829919</v>
       </c>
       <c r="K6" t="n">
-        <v>203388.945528059</v>
+        <v>212249.0849820981</v>
       </c>
       <c r="L6" t="n">
-        <v>203388.945528059</v>
+        <v>212249.0849820981</v>
       </c>
       <c r="M6" t="n">
-        <v>162338.2476656112</v>
+        <v>171198.3871196502</v>
       </c>
       <c r="N6" t="n">
-        <v>203388.945528059</v>
+        <v>212249.0849820981</v>
       </c>
       <c r="O6" t="n">
-        <v>203388.9455280592</v>
+        <v>212249.0849820982</v>
       </c>
       <c r="P6" t="n">
-        <v>203388.9455280591</v>
+        <v>212249.0849820982</v>
       </c>
     </row>
   </sheetData>
@@ -26801,16 +26801,16 @@
         <v>405.7415719969023</v>
       </c>
       <c r="F4" t="n">
-        <v>405.7415719969023</v>
+        <v>405.7415719969024</v>
       </c>
       <c r="G4" t="n">
         <v>405.7415719969023</v>
       </c>
       <c r="H4" t="n">
+        <v>405.7415719969024</v>
+      </c>
+      <c r="I4" t="n">
         <v>405.7415719969023</v>
-      </c>
-      <c r="I4" t="n">
-        <v>405.7415719969024</v>
       </c>
       <c r="J4" t="n">
         <v>405.7415719969023</v>
@@ -26828,7 +26828,7 @@
         <v>405.7415719969024</v>
       </c>
       <c r="O4" t="n">
-        <v>405.7415719969024</v>
+        <v>405.7415719969023</v>
       </c>
       <c r="P4" t="n">
         <v>405.7415719969023</v>
@@ -27035,7 +27035,7 @@
         <v>0</v>
       </c>
       <c r="J4" t="n">
-        <v>241.0142888776589</v>
+        <v>241.014288877659</v>
       </c>
       <c r="K4" t="n">
         <v>0</v>
@@ -27378,7 +27378,7 @@
         </is>
       </c>
       <c r="B2" t="n">
-        <v>166.1103892252615</v>
+        <v>382.7338416634806</v>
       </c>
       <c r="C2" t="n">
         <v>365.2728917710076</v>
@@ -27390,7 +27390,7 @@
         <v>381.9303700722618</v>
       </c>
       <c r="F2" t="n">
-        <v>400</v>
+        <v>392.3966171480263</v>
       </c>
       <c r="G2" t="n">
         <v>400</v>
@@ -27429,7 +27429,7 @@
         <v>149.8691179411497</v>
       </c>
       <c r="S2" t="n">
-        <v>209.0200695862453</v>
+        <v>0</v>
       </c>
       <c r="T2" t="n">
         <v>0</v>
@@ -27460,7 +27460,7 @@
         <v>166.5331836498673</v>
       </c>
       <c r="C3" t="n">
-        <v>76.93040879544773</v>
+        <v>172.7084989883157</v>
       </c>
       <c r="D3" t="n">
         <v>147.4450655646388</v>
@@ -27475,10 +27475,10 @@
         <v>137.3435171632106</v>
       </c>
       <c r="H3" t="n">
-        <v>112.2354442364965</v>
+        <v>0</v>
       </c>
       <c r="I3" t="n">
-        <v>89.39663285141508</v>
+        <v>0</v>
       </c>
       <c r="J3" t="n">
         <v>0</v>
@@ -27505,7 +27505,7 @@
         <v>0</v>
       </c>
       <c r="R3" t="n">
-        <v>100.1578341526431</v>
+        <v>0</v>
       </c>
       <c r="S3" t="n">
         <v>0</v>
@@ -27514,19 +27514,19 @@
         <v>0</v>
       </c>
       <c r="U3" t="n">
-        <v>0</v>
+        <v>225.9413820809748</v>
       </c>
       <c r="V3" t="n">
         <v>232.8005871494253</v>
       </c>
       <c r="W3" t="n">
-        <v>10.68069428326055</v>
+        <v>251.6949831609196</v>
       </c>
       <c r="X3" t="n">
-        <v>205.7729852034775</v>
+        <v>150.5118310698346</v>
       </c>
       <c r="Y3" t="n">
-        <v>205.6826957773044</v>
+        <v>0</v>
       </c>
     </row>
     <row r="4">
@@ -27539,7 +27539,7 @@
         <v>179.8319801819373</v>
       </c>
       <c r="C4" t="n">
-        <v>167.2468210986278</v>
+        <v>59.05078607424915</v>
       </c>
       <c r="D4" t="n">
         <v>148.6154730182124</v>
@@ -27563,7 +27563,7 @@
         <v>93.35918011667277</v>
       </c>
       <c r="K4" t="n">
-        <v>22.26949182588285</v>
+        <v>0</v>
       </c>
       <c r="L4" t="n">
         <v>0</v>
@@ -27584,7 +27584,7 @@
         <v>86.16204325169439</v>
       </c>
       <c r="R4" t="n">
-        <v>46.82786452690794</v>
+        <v>177.2933913771695</v>
       </c>
       <c r="S4" t="n">
         <v>224.0165980369723</v>
@@ -27615,10 +27615,10 @@
         </is>
       </c>
       <c r="B5" t="n">
-        <v>141.7195527858215</v>
+        <v>382.7338416634806</v>
       </c>
       <c r="C5" t="n">
-        <v>124.2586028933485</v>
+        <v>365.2728917710076</v>
       </c>
       <c r="D5" t="n">
         <v>354.683041620683</v>
@@ -27627,13 +27627,13 @@
         <v>381.9303700722618</v>
       </c>
       <c r="F5" t="n">
-        <v>381.7025041237114</v>
+        <v>363.7840648101837</v>
       </c>
       <c r="G5" t="n">
         <v>400</v>
       </c>
       <c r="H5" t="n">
-        <v>98.46051323810809</v>
+        <v>339.4748021157671</v>
       </c>
       <c r="I5" t="n">
         <v>210.4758895704059</v>
@@ -27669,13 +27669,13 @@
         <v>209.0200695862453</v>
       </c>
       <c r="T5" t="n">
-        <v>223.0958495641314</v>
+        <v>0</v>
       </c>
       <c r="U5" t="n">
-        <v>251.3456529078365</v>
+        <v>10.33136403017744</v>
       </c>
       <c r="V5" t="n">
-        <v>327.7522584701349</v>
+        <v>86.73796959247585</v>
       </c>
       <c r="W5" t="n">
         <v>349.240968717413</v>
@@ -27709,10 +27709,10 @@
         <v>145.0692123933839</v>
       </c>
       <c r="G6" t="n">
-        <v>137.3435171632106</v>
+        <v>102.3410493332382</v>
       </c>
       <c r="H6" t="n">
-        <v>112.2354442364965</v>
+        <v>0</v>
       </c>
       <c r="I6" t="n">
         <v>0</v>
@@ -27745,25 +27745,25 @@
         <v>0</v>
       </c>
       <c r="S6" t="n">
-        <v>171.6831711038378</v>
+        <v>0</v>
       </c>
       <c r="T6" t="n">
-        <v>200.1647286948216</v>
+        <v>0</v>
       </c>
       <c r="U6" t="n">
         <v>0</v>
       </c>
       <c r="V6" t="n">
-        <v>0</v>
+        <v>232.8005871494253</v>
       </c>
       <c r="W6" t="n">
         <v>251.6949831609196</v>
       </c>
       <c r="X6" t="n">
-        <v>0</v>
+        <v>205.7729852034775</v>
       </c>
       <c r="Y6" t="n">
-        <v>125.1704562650789</v>
+        <v>205.6826957773044</v>
       </c>
     </row>
     <row r="7">
@@ -27788,7 +27788,7 @@
         <v>145.4210480229312</v>
       </c>
       <c r="G7" t="n">
-        <v>123.6874957598916</v>
+        <v>167.9909793584588</v>
       </c>
       <c r="H7" t="n">
         <v>162.2271725074396</v>
@@ -27800,7 +27800,7 @@
         <v>93.35918011667277</v>
       </c>
       <c r="K7" t="n">
-        <v>22.26949182588285</v>
+        <v>0</v>
       </c>
       <c r="L7" t="n">
         <v>0</v>
@@ -27818,7 +27818,7 @@
         <v>0</v>
       </c>
       <c r="Q7" t="n">
-        <v>0</v>
+        <v>86.16204325169439</v>
       </c>
       <c r="R7" t="n">
         <v>177.2933913771695</v>
@@ -27833,7 +27833,7 @@
         <v>286.3190293564909</v>
       </c>
       <c r="V7" t="n">
-        <v>252.137643323828</v>
+        <v>143.9416082994493</v>
       </c>
       <c r="W7" t="n">
         <v>286.522998336591</v>
@@ -27867,16 +27867,16 @@
         <v>165.8617568640524</v>
       </c>
       <c r="G8" t="n">
-        <v>174.288448637476</v>
+        <v>400</v>
       </c>
       <c r="H8" t="n">
-        <v>339.4748021157671</v>
+        <v>282.3070412063535</v>
       </c>
       <c r="I8" t="n">
         <v>210.4758895704059</v>
       </c>
       <c r="J8" t="n">
-        <v>11.94928935461252</v>
+        <v>0</v>
       </c>
       <c r="K8" t="n">
         <v>0</v>
@@ -27897,19 +27897,19 @@
         <v>0</v>
       </c>
       <c r="Q8" t="n">
-        <v>9.990699214544804</v>
+        <v>0</v>
       </c>
       <c r="R8" t="n">
-        <v>149.8691179411497</v>
+        <v>0</v>
       </c>
       <c r="S8" t="n">
-        <v>209.0200695862453</v>
+        <v>0</v>
       </c>
       <c r="T8" t="n">
         <v>223.0958495641314</v>
       </c>
       <c r="U8" t="n">
-        <v>251.3456529078365</v>
+        <v>10.33136403017744</v>
       </c>
       <c r="V8" t="n">
         <v>327.7522584701349</v>
@@ -27918,10 +27918,10 @@
         <v>349.240968717413</v>
       </c>
       <c r="X8" t="n">
-        <v>157.445715035027</v>
+        <v>369.731100678469</v>
       </c>
       <c r="Y8" t="n">
-        <v>145.2236497783945</v>
+        <v>386.2379386560536</v>
       </c>
     </row>
     <row r="9">
@@ -27931,7 +27931,7 @@
         </is>
       </c>
       <c r="B9" t="n">
-        <v>0</v>
+        <v>166.5331836498673</v>
       </c>
       <c r="C9" t="n">
         <v>0</v>
@@ -27940,16 +27940,16 @@
         <v>0</v>
       </c>
       <c r="E9" t="n">
-        <v>157.6450804554009</v>
+        <v>0</v>
       </c>
       <c r="F9" t="n">
         <v>145.0692123933839</v>
       </c>
       <c r="G9" t="n">
-        <v>137.3435171632106</v>
+        <v>0</v>
       </c>
       <c r="H9" t="n">
-        <v>0</v>
+        <v>82.35730700413788</v>
       </c>
       <c r="I9" t="n">
         <v>0</v>
@@ -27985,7 +27985,7 @@
         <v>171.6831711038378</v>
       </c>
       <c r="T9" t="n">
-        <v>200.1647286948216</v>
+        <v>0</v>
       </c>
       <c r="U9" t="n">
         <v>225.9413820809748</v>
@@ -27997,10 +27997,10 @@
         <v>251.6949831609196</v>
       </c>
       <c r="X9" t="n">
-        <v>165.1928453213537</v>
+        <v>205.7729852034775</v>
       </c>
       <c r="Y9" t="n">
-        <v>0</v>
+        <v>205.6826957773044</v>
       </c>
     </row>
     <row r="10">
@@ -28034,7 +28034,7 @@
         <v>155.4504749272583</v>
       </c>
       <c r="J10" t="n">
-        <v>93.35918011667277</v>
+        <v>0</v>
       </c>
       <c r="K10" t="n">
         <v>0</v>
@@ -28055,10 +28055,10 @@
         <v>0</v>
       </c>
       <c r="Q10" t="n">
-        <v>0</v>
+        <v>71.32518834398849</v>
       </c>
       <c r="R10" t="n">
-        <v>155.2593996044852</v>
+        <v>177.2933913771695</v>
       </c>
       <c r="S10" t="n">
         <v>224.0165980369723</v>
@@ -31752,49 +31752,49 @@
         <v>0</v>
       </c>
       <c r="G11" t="n">
-        <v>0.5892333846011535</v>
+        <v>0.5892333846011534</v>
       </c>
       <c r="H11" t="n">
-        <v>6.034486400046565</v>
+        <v>6.034486400046564</v>
       </c>
       <c r="I11" t="n">
         <v>22.71642005983599</v>
       </c>
       <c r="J11" t="n">
-        <v>50.0104469762922</v>
+        <v>50.01044697629219</v>
       </c>
       <c r="K11" t="n">
-        <v>74.95269614645905</v>
+        <v>74.95269614645902</v>
       </c>
       <c r="L11" t="n">
-        <v>92.98544734044661</v>
+        <v>92.9854473404466</v>
       </c>
       <c r="M11" t="n">
-        <v>103.4642265438474</v>
+        <v>103.4642265438473</v>
       </c>
       <c r="N11" t="n">
         <v>105.1383858978454</v>
       </c>
       <c r="O11" t="n">
-        <v>99.27919642971769</v>
+        <v>99.27919642971766</v>
       </c>
       <c r="P11" t="n">
-        <v>84.73249724737668</v>
+        <v>84.73249724737667</v>
       </c>
       <c r="Q11" t="n">
-        <v>63.63057666134786</v>
+        <v>63.63057666134785</v>
       </c>
       <c r="R11" t="n">
-        <v>37.01343159545224</v>
+        <v>37.01343159545223</v>
       </c>
       <c r="S11" t="n">
         <v>13.4271557515988</v>
       </c>
       <c r="T11" t="n">
-        <v>2.579369141091551</v>
+        <v>2.57936914109155</v>
       </c>
       <c r="U11" t="n">
-        <v>0.04713867076809227</v>
+        <v>0.04713867076809226</v>
       </c>
       <c r="V11" t="n">
         <v>0</v>
@@ -31831,43 +31831,43 @@
         <v>0</v>
       </c>
       <c r="G12" t="n">
-        <v>0.3152676547891929</v>
+        <v>0.3152676547891928</v>
       </c>
       <c r="H12" t="n">
         <v>3.0448218238851</v>
       </c>
       <c r="I12" t="n">
-        <v>10.85461004427704</v>
+        <v>10.85461004427703</v>
       </c>
       <c r="J12" t="n">
-        <v>29.78587961321932</v>
+        <v>29.78587961321931</v>
       </c>
       <c r="K12" t="n">
         <v>50.90881248409524</v>
       </c>
       <c r="L12" t="n">
-        <v>68.45318092253946</v>
+        <v>68.45318092253945</v>
       </c>
       <c r="M12" t="n">
-        <v>79.88163340864767</v>
+        <v>79.88163340864766</v>
       </c>
       <c r="N12" t="n">
-        <v>81.99586254975593</v>
+        <v>81.99586254975591</v>
       </c>
       <c r="O12" t="n">
-        <v>75.0101950410059</v>
+        <v>75.01019504100589</v>
       </c>
       <c r="P12" t="n">
-        <v>60.20229453601702</v>
+        <v>60.20229453601701</v>
       </c>
       <c r="Q12" t="n">
-        <v>40.2436395832661</v>
+        <v>40.24363958326609</v>
       </c>
       <c r="R12" t="n">
-        <v>19.57424965436762</v>
+        <v>19.57424965436761</v>
       </c>
       <c r="S12" t="n">
-        <v>5.855958412422066</v>
+        <v>5.855958412422065</v>
       </c>
       <c r="T12" t="n">
         <v>1.270749889259948</v>
@@ -31910,19 +31910,19 @@
         <v>0</v>
       </c>
       <c r="G13" t="n">
-        <v>0.2643098112483455</v>
+        <v>0.2643098112483454</v>
       </c>
       <c r="H13" t="n">
         <v>2.349954503644382</v>
       </c>
       <c r="I13" t="n">
-        <v>7.948516869177519</v>
+        <v>7.948516869177517</v>
       </c>
       <c r="J13" t="n">
         <v>18.68670365525802</v>
       </c>
       <c r="K13" t="n">
-        <v>30.70799443412595</v>
+        <v>30.70799443412594</v>
       </c>
       <c r="L13" t="n">
         <v>39.29566048323129</v>
@@ -31934,7 +31934,7 @@
         <v>40.44660957039456</v>
       </c>
       <c r="O13" t="n">
-        <v>37.3589904117207</v>
+        <v>37.35899041172069</v>
       </c>
       <c r="P13" t="n">
         <v>31.96707026225442</v>
@@ -31943,16 +31943,16 @@
         <v>22.13234246735009</v>
       </c>
       <c r="R13" t="n">
-        <v>11.88433024031197</v>
+        <v>11.88433024031196</v>
       </c>
       <c r="S13" t="n">
-        <v>4.606199165118891</v>
+        <v>4.60619916511889</v>
       </c>
       <c r="T13" t="n">
         <v>1.129323738970203</v>
       </c>
       <c r="U13" t="n">
-        <v>0.01441689879536432</v>
+        <v>0.01441689879536431</v>
       </c>
       <c r="V13" t="n">
         <v>0</v>
@@ -31989,49 +31989,49 @@
         <v>0</v>
       </c>
       <c r="G14" t="n">
-        <v>0.5892333846011535</v>
+        <v>0.5892333846011534</v>
       </c>
       <c r="H14" t="n">
-        <v>6.034486400046565</v>
+        <v>6.034486400046564</v>
       </c>
       <c r="I14" t="n">
         <v>22.71642005983599</v>
       </c>
       <c r="J14" t="n">
-        <v>50.0104469762922</v>
+        <v>50.01044697629219</v>
       </c>
       <c r="K14" t="n">
-        <v>74.95269614645905</v>
+        <v>74.95269614645902</v>
       </c>
       <c r="L14" t="n">
-        <v>92.98544734044661</v>
+        <v>92.9854473404466</v>
       </c>
       <c r="M14" t="n">
-        <v>103.4642265438474</v>
+        <v>103.4642265438473</v>
       </c>
       <c r="N14" t="n">
         <v>105.1383858978454</v>
       </c>
       <c r="O14" t="n">
-        <v>99.27919642971769</v>
+        <v>99.27919642971766</v>
       </c>
       <c r="P14" t="n">
-        <v>84.73249724737668</v>
+        <v>84.73249724737667</v>
       </c>
       <c r="Q14" t="n">
-        <v>63.63057666134786</v>
+        <v>63.63057666134785</v>
       </c>
       <c r="R14" t="n">
-        <v>37.01343159545224</v>
+        <v>37.01343159545223</v>
       </c>
       <c r="S14" t="n">
         <v>13.4271557515988</v>
       </c>
       <c r="T14" t="n">
-        <v>2.579369141091551</v>
+        <v>2.57936914109155</v>
       </c>
       <c r="U14" t="n">
-        <v>0.04713867076809227</v>
+        <v>0.04713867076809226</v>
       </c>
       <c r="V14" t="n">
         <v>0</v>
@@ -32068,43 +32068,43 @@
         <v>0</v>
       </c>
       <c r="G15" t="n">
-        <v>0.3152676547891929</v>
+        <v>0.3152676547891928</v>
       </c>
       <c r="H15" t="n">
         <v>3.0448218238851</v>
       </c>
       <c r="I15" t="n">
-        <v>10.85461004427704</v>
+        <v>10.85461004427703</v>
       </c>
       <c r="J15" t="n">
-        <v>29.78587961321932</v>
+        <v>29.78587961321931</v>
       </c>
       <c r="K15" t="n">
         <v>50.90881248409524</v>
       </c>
       <c r="L15" t="n">
-        <v>68.45318092253946</v>
+        <v>68.45318092253945</v>
       </c>
       <c r="M15" t="n">
-        <v>79.88163340864767</v>
+        <v>79.88163340864766</v>
       </c>
       <c r="N15" t="n">
-        <v>81.99586254975593</v>
+        <v>81.99586254975591</v>
       </c>
       <c r="O15" t="n">
-        <v>75.0101950410059</v>
+        <v>75.01019504100589</v>
       </c>
       <c r="P15" t="n">
-        <v>60.20229453601702</v>
+        <v>60.20229453601701</v>
       </c>
       <c r="Q15" t="n">
-        <v>40.2436395832661</v>
+        <v>40.24363958326609</v>
       </c>
       <c r="R15" t="n">
-        <v>19.57424965436762</v>
+        <v>19.57424965436761</v>
       </c>
       <c r="S15" t="n">
-        <v>5.855958412422066</v>
+        <v>5.855958412422065</v>
       </c>
       <c r="T15" t="n">
         <v>1.270749889259948</v>
@@ -32147,19 +32147,19 @@
         <v>0</v>
       </c>
       <c r="G16" t="n">
-        <v>0.2643098112483455</v>
+        <v>0.2643098112483454</v>
       </c>
       <c r="H16" t="n">
         <v>2.349954503644382</v>
       </c>
       <c r="I16" t="n">
-        <v>7.948516869177519</v>
+        <v>7.948516869177517</v>
       </c>
       <c r="J16" t="n">
         <v>18.68670365525802</v>
       </c>
       <c r="K16" t="n">
-        <v>30.70799443412595</v>
+        <v>30.70799443412594</v>
       </c>
       <c r="L16" t="n">
         <v>39.29566048323129</v>
@@ -32171,7 +32171,7 @@
         <v>40.44660957039456</v>
       </c>
       <c r="O16" t="n">
-        <v>37.3589904117207</v>
+        <v>37.35899041172069</v>
       </c>
       <c r="P16" t="n">
         <v>31.96707026225442</v>
@@ -32180,16 +32180,16 @@
         <v>22.13234246735009</v>
       </c>
       <c r="R16" t="n">
-        <v>11.88433024031197</v>
+        <v>11.88433024031196</v>
       </c>
       <c r="S16" t="n">
-        <v>4.606199165118891</v>
+        <v>4.60619916511889</v>
       </c>
       <c r="T16" t="n">
         <v>1.129323738970203</v>
       </c>
       <c r="U16" t="n">
-        <v>0.01441689879536432</v>
+        <v>0.01441689879536431</v>
       </c>
       <c r="V16" t="n">
         <v>0</v>
@@ -34780,22 +34780,22 @@
         <v>0</v>
       </c>
       <c r="K3" t="n">
-        <v>126.6237980382196</v>
+        <v>0</v>
       </c>
       <c r="L3" t="n">
-        <v>232.285965523585</v>
+        <v>0</v>
       </c>
       <c r="M3" t="n">
-        <v>241.0142888776591</v>
+        <v>217.7067518141195</v>
       </c>
       <c r="N3" t="n">
         <v>241.0142888776591</v>
       </c>
       <c r="O3" t="n">
-        <v>0</v>
+        <v>241.0142888776591</v>
       </c>
       <c r="P3" t="n">
-        <v>43.28534947792182</v>
+        <v>184.4883612256069</v>
       </c>
       <c r="Q3" t="n">
         <v>70.09551364982758</v>
@@ -35020,13 +35020,13 @@
         <v>126.6237980382196</v>
       </c>
       <c r="L6" t="n">
-        <v>104.6525397736754</v>
+        <v>232.285965523585</v>
       </c>
       <c r="M6" t="n">
         <v>241.0142888776591</v>
       </c>
       <c r="N6" t="n">
-        <v>241.0142888776591</v>
+        <v>113.3808631277494</v>
       </c>
       <c r="O6" t="n">
         <v>241.0142888776591</v>
@@ -35260,13 +35260,13 @@
         <v>232.285965523585</v>
       </c>
       <c r="M9" t="n">
-        <v>0</v>
+        <v>241.0142888776591</v>
       </c>
       <c r="N9" t="n">
-        <v>169.9067907798017</v>
+        <v>169.9067907798016</v>
       </c>
       <c r="O9" t="n">
-        <v>241.0142888776591</v>
+        <v>0</v>
       </c>
       <c r="P9" t="n">
         <v>184.4883612256069</v>
@@ -35409,10 +35409,10 @@
         <v>0</v>
       </c>
       <c r="J11" t="n">
-        <v>38.06115762167968</v>
+        <v>38.06115762167967</v>
       </c>
       <c r="K11" t="n">
-        <v>179.0082576726433</v>
+        <v>179.0082576726432</v>
       </c>
       <c r="L11" t="n">
         <v>274.8802469209098</v>
@@ -35430,7 +35430,7 @@
         <v>175.2982096635898</v>
       </c>
       <c r="Q11" t="n">
-        <v>53.63987744680306</v>
+        <v>53.63987744680304</v>
       </c>
       <c r="R11" t="n">
         <v>0</v>
@@ -35488,19 +35488,19 @@
         <v>0</v>
       </c>
       <c r="J12" t="n">
-        <v>29.03928828696147</v>
+        <v>0</v>
       </c>
       <c r="K12" t="n">
-        <v>177.5326105223149</v>
+        <v>0</v>
       </c>
       <c r="L12" t="n">
         <v>300.7391464461244</v>
       </c>
       <c r="M12" t="n">
-        <v>12.21399299873585</v>
+        <v>403.4526632366292</v>
       </c>
       <c r="N12" t="n">
-        <v>405.7415719969023</v>
+        <v>221.0748005682852</v>
       </c>
       <c r="O12" t="n">
         <v>326.276269873291</v>
@@ -35570,22 +35570,22 @@
         <v>0</v>
       </c>
       <c r="K13" t="n">
-        <v>8.438502608243095</v>
+        <v>8.438502608243091</v>
       </c>
       <c r="L13" t="n">
-        <v>66.88568574354744</v>
+        <v>66.88568574354743</v>
       </c>
       <c r="M13" t="n">
         <v>81.01564128325168</v>
       </c>
       <c r="N13" t="n">
-        <v>84.57878194962316</v>
+        <v>84.57878194962315</v>
       </c>
       <c r="O13" t="n">
-        <v>61.94411832576037</v>
+        <v>61.94411832576036</v>
       </c>
       <c r="P13" t="n">
-        <v>29.24562952714791</v>
+        <v>29.2456295271479</v>
       </c>
       <c r="Q13" t="n">
         <v>0</v>
@@ -35646,10 +35646,10 @@
         <v>0</v>
       </c>
       <c r="J14" t="n">
-        <v>38.06115762167968</v>
+        <v>38.06115762167967</v>
       </c>
       <c r="K14" t="n">
-        <v>179.0082576726433</v>
+        <v>179.0082576726432</v>
       </c>
       <c r="L14" t="n">
         <v>274.8802469209098</v>
@@ -35667,7 +35667,7 @@
         <v>175.2982096635898</v>
       </c>
       <c r="Q14" t="n">
-        <v>53.63987744680306</v>
+        <v>53.63987744680304</v>
       </c>
       <c r="R14" t="n">
         <v>0</v>
@@ -35725,7 +35725,7 @@
         <v>0</v>
       </c>
       <c r="J15" t="n">
-        <v>0</v>
+        <v>29.03928828696146</v>
       </c>
       <c r="K15" t="n">
         <v>0</v>
@@ -35734,19 +35734,19 @@
         <v>300.7391464461244</v>
       </c>
       <c r="M15" t="n">
-        <v>403.4526632366293</v>
+        <v>403.4526632366292</v>
       </c>
       <c r="N15" t="n">
-        <v>331.4139538013789</v>
+        <v>405.7415719969024</v>
       </c>
       <c r="O15" t="n">
         <v>326.276269873291</v>
       </c>
       <c r="P15" t="n">
-        <v>244.6906557616239</v>
+        <v>30.98459604604563</v>
       </c>
       <c r="Q15" t="n">
-        <v>0</v>
+        <v>110.3391532330937</v>
       </c>
       <c r="R15" t="n">
         <v>0</v>
@@ -35807,22 +35807,22 @@
         <v>0</v>
       </c>
       <c r="K16" t="n">
-        <v>8.438502608243095</v>
+        <v>8.438502608243091</v>
       </c>
       <c r="L16" t="n">
-        <v>66.88568574354744</v>
+        <v>66.88568574354743</v>
       </c>
       <c r="M16" t="n">
         <v>81.01564128325168</v>
       </c>
       <c r="N16" t="n">
-        <v>84.57878194962316</v>
+        <v>84.57878194962315</v>
       </c>
       <c r="O16" t="n">
-        <v>61.94411832576037</v>
+        <v>61.94411832576036</v>
       </c>
       <c r="P16" t="n">
-        <v>29.24562952714791</v>
+        <v>29.2456295271479</v>
       </c>
       <c r="Q16" t="n">
         <v>0</v>
@@ -35962,16 +35962,16 @@
         <v>0</v>
       </c>
       <c r="J18" t="n">
-        <v>29.03928828696147</v>
+        <v>0</v>
       </c>
       <c r="K18" t="n">
-        <v>0</v>
+        <v>177.5326105223149</v>
       </c>
       <c r="L18" t="n">
         <v>300.7391464461244</v>
       </c>
       <c r="M18" t="n">
-        <v>403.4526632366293</v>
+        <v>151.5924345187912</v>
       </c>
       <c r="N18" t="n">
         <v>405.7415719969023</v>
@@ -35980,7 +35980,7 @@
         <v>326.276269873291</v>
       </c>
       <c r="P18" t="n">
-        <v>141.323749279139</v>
+        <v>244.6906557616239</v>
       </c>
       <c r="Q18" t="n">
         <v>0</v>
@@ -36199,10 +36199,10 @@
         <v>0</v>
       </c>
       <c r="J21" t="n">
-        <v>29.03928828696147</v>
+        <v>0</v>
       </c>
       <c r="K21" t="n">
-        <v>0</v>
+        <v>177.5326105223149</v>
       </c>
       <c r="L21" t="n">
         <v>300.7391464461244</v>
@@ -36211,16 +36211,16 @@
         <v>403.4526632366293</v>
       </c>
       <c r="N21" t="n">
-        <v>405.7415719969023</v>
+        <v>43.54219004597066</v>
       </c>
       <c r="O21" t="n">
         <v>326.276269873291</v>
       </c>
       <c r="P21" t="n">
-        <v>141.323749279139</v>
+        <v>244.6906557616239</v>
       </c>
       <c r="Q21" t="n">
-        <v>0</v>
+        <v>110.3391532330937</v>
       </c>
       <c r="R21" t="n">
         <v>0</v>
@@ -36436,19 +36436,19 @@
         <v>0</v>
       </c>
       <c r="J24" t="n">
-        <v>0</v>
+        <v>29.03928828696147</v>
       </c>
       <c r="K24" t="n">
         <v>0</v>
       </c>
       <c r="L24" t="n">
-        <v>300.7391464461244</v>
+        <v>197.3722399636395</v>
       </c>
       <c r="M24" t="n">
-        <v>329.1250450411061</v>
+        <v>403.4526632366293</v>
       </c>
       <c r="N24" t="n">
-        <v>405.7415719969024</v>
+        <v>405.7415719969023</v>
       </c>
       <c r="O24" t="n">
         <v>326.276269873291</v>
@@ -36673,13 +36673,13 @@
         <v>0</v>
       </c>
       <c r="J27" t="n">
-        <v>29.03928828696147</v>
+        <v>0</v>
       </c>
       <c r="K27" t="n">
         <v>0</v>
       </c>
       <c r="L27" t="n">
-        <v>197.3722399636396</v>
+        <v>300.7391464461244</v>
       </c>
       <c r="M27" t="n">
         <v>403.4526632366293</v>
@@ -36691,10 +36691,10 @@
         <v>326.276269873291</v>
       </c>
       <c r="P27" t="n">
-        <v>244.6906557616239</v>
+        <v>60.02388433300664</v>
       </c>
       <c r="Q27" t="n">
-        <v>0</v>
+        <v>110.3391532330937</v>
       </c>
       <c r="R27" t="n">
         <v>0</v>
@@ -36913,7 +36913,7 @@
         <v>0</v>
       </c>
       <c r="K30" t="n">
-        <v>177.5326105223149</v>
+        <v>0</v>
       </c>
       <c r="L30" t="n">
         <v>300.7391464461244</v>
@@ -36922,13 +36922,13 @@
         <v>403.4526632366293</v>
       </c>
       <c r="N30" t="n">
-        <v>398.5719990406883</v>
+        <v>405.7415719969024</v>
       </c>
       <c r="O30" t="n">
         <v>326.276269873291</v>
       </c>
       <c r="P30" t="n">
-        <v>0</v>
+        <v>170.3630375661007</v>
       </c>
       <c r="Q30" t="n">
         <v>0</v>
@@ -37150,13 +37150,13 @@
         <v>0</v>
       </c>
       <c r="K33" t="n">
-        <v>177.5326105223149</v>
+        <v>0</v>
       </c>
       <c r="L33" t="n">
         <v>300.7391464461244</v>
       </c>
       <c r="M33" t="n">
-        <v>41.25328128569749</v>
+        <v>403.4526632366293</v>
       </c>
       <c r="N33" t="n">
         <v>405.7415719969024</v>
@@ -37165,10 +37165,10 @@
         <v>326.276269873291</v>
       </c>
       <c r="P33" t="n">
-        <v>244.6906557616239</v>
+        <v>170.3630375661007</v>
       </c>
       <c r="Q33" t="n">
-        <v>110.3391532330937</v>
+        <v>0</v>
       </c>
       <c r="R33" t="n">
         <v>0</v>
@@ -37387,10 +37387,10 @@
         <v>0</v>
       </c>
       <c r="K36" t="n">
-        <v>0</v>
+        <v>60.0238843330068</v>
       </c>
       <c r="L36" t="n">
-        <v>226.4115282506012</v>
+        <v>300.7391464461244</v>
       </c>
       <c r="M36" t="n">
         <v>403.4526632366293</v>
@@ -37402,10 +37402,10 @@
         <v>326.276269873291</v>
       </c>
       <c r="P36" t="n">
-        <v>244.6906557616239</v>
+        <v>0</v>
       </c>
       <c r="Q36" t="n">
-        <v>0</v>
+        <v>110.3391532330937</v>
       </c>
       <c r="R36" t="n">
         <v>0</v>
@@ -37624,7 +37624,7 @@
         <v>29.03928828696147</v>
       </c>
       <c r="K39" t="n">
-        <v>0</v>
+        <v>177.5326105223149</v>
       </c>
       <c r="L39" t="n">
         <v>300.7391464461244</v>
@@ -37636,10 +37636,10 @@
         <v>405.7415719969024</v>
       </c>
       <c r="O39" t="n">
-        <v>326.276269873291</v>
+        <v>45.37675286849139</v>
       </c>
       <c r="P39" t="n">
-        <v>141.3237492791392</v>
+        <v>244.6906557616239</v>
       </c>
       <c r="Q39" t="n">
         <v>0</v>
@@ -37791,7 +37791,7 @@
         <v>322.6315268094071</v>
       </c>
       <c r="N41" t="n">
-        <v>313.0722467132388</v>
+        <v>313.0722467132387</v>
       </c>
       <c r="O41" t="n">
         <v>249.9811662707763</v>
@@ -37870,13 +37870,13 @@
         <v>403.4526632366293</v>
       </c>
       <c r="N42" t="n">
-        <v>302.3746655144178</v>
+        <v>405.7415719969023</v>
       </c>
       <c r="O42" t="n">
         <v>326.276269873291</v>
       </c>
       <c r="P42" t="n">
-        <v>244.690655761624</v>
+        <v>141.323749279139</v>
       </c>
       <c r="Q42" t="n">
         <v>0</v>
@@ -38037,7 +38037,7 @@
         <v>175.2982096635898</v>
       </c>
       <c r="Q44" t="n">
-        <v>53.63987744680307</v>
+        <v>53.63987744680266</v>
       </c>
       <c r="R44" t="n">
         <v>0</v>
@@ -38101,7 +38101,7 @@
         <v>0</v>
       </c>
       <c r="L45" t="n">
-        <v>300.7391464461244</v>
+        <v>87.03308673054569</v>
       </c>
       <c r="M45" t="n">
         <v>403.4526632366293</v>
@@ -38113,10 +38113,10 @@
         <v>326.276269873291</v>
       </c>
       <c r="P45" t="n">
-        <v>141.323749279139</v>
+        <v>244.690655761624</v>
       </c>
       <c r="Q45" t="n">
-        <v>0</v>
+        <v>110.3391532330937</v>
       </c>
       <c r="R45" t="n">
         <v>0</v>
